--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Galenos Project/Github preparation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="8_{CDA3D274-DE34-4B6A-9AEF-88D861C7C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E107838B-1B0A-4448-A386-748C0FBC38B0}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{CDA3D274-DE34-4B6A-9AEF-88D861C7C9EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5628E1D1-AFCA-463A-A953-8CB50CFCF4FE}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>ID</t>
   </si>
@@ -334,6 +334,15 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+  </si>
+  <si>
+    <t>quantitative confidence value</t>
+  </si>
+  <si>
+    <t>OBCS:0000077</t>
   </si>
 </sst>
 </file>
@@ -494,7 +503,17 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -833,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1018,16 +1037,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11" t="s">
-        <v>32</v>
+    <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1040,34 +1061,24 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>93</v>
-      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="2"/>
       <c r="R4" s="6"/>
-      <c r="S4" s="1" t="s">
-        <v>98</v>
-      </c>
+      <c r="S4" s="1"/>
       <c r="T4" s="6"/>
-      <c r="U4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
+      <c r="U4" s="2"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A5" s="6"/>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -1092,21 +1103,19 @@
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>58</v>
-      </c>
+    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>37</v>
@@ -1134,7 +1143,7 @@
       </c>
       <c r="T6" s="6"/>
       <c r="U6" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>99</v>
@@ -1142,13 +1151,13 @@
     </row>
     <row r="7" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>37</v>
@@ -1183,12 +1192,14 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="B8" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>43</v>
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>37</v>
@@ -1222,16 +1233,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
+    <row r="9" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -1256,22 +1267,22 @@
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="2" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -1302,18 +1313,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>50</v>
+    <row r="11" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -1338,24 +1347,24 @@
       </c>
       <c r="T11" s="6"/>
       <c r="U11" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="V11" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
@@ -1379,20 +1388,22 @@
         <v>98</v>
       </c>
       <c r="T12" s="6"/>
-      <c r="U12" s="7"/>
+      <c r="U12" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="V12" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>49</v>
@@ -1424,16 +1435,18 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>57</v>
+    <row r="14" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -1457,23 +1470,21 @@
         <v>98</v>
       </c>
       <c r="T14" s="6"/>
-      <c r="U14" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="U14" s="7"/>
       <c r="V14" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
-        <v>64</v>
+    <row r="15" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
@@ -1498,47 +1509,45 @@
       </c>
       <c r="T15" s="6"/>
       <c r="U15" s="2" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="V15" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
+    <row r="16" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A16" s="6"/>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
       <c r="P16" s="8">
         <v>3</v>
       </c>
       <c r="Q16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R16" s="1"/>
+      <c r="R16" s="6"/>
       <c r="S16" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T16" s="1"/>
+      <c r="T16" s="6"/>
       <c r="U16" s="2" t="s">
         <v>23</v>
       </c>
@@ -1546,26 +1555,26 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="16" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>74</v>
-      </c>
+    <row r="17" spans="1:22" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="K17" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1588,28 +1597,26 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:22" s="16" customFormat="1" ht="86.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="B18" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="I18" s="2"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="18" t="s">
-        <v>73</v>
-      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1632,39 +1639,43 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" s="16" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
       <c r="P19" s="8">
         <v>3</v>
       </c>
       <c r="Q19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="R19" s="6"/>
+      <c r="R19" s="1"/>
       <c r="S19" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="T19" s="6"/>
+      <c r="T19" s="1"/>
       <c r="U19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1672,16 +1683,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -1705,21 +1716,23 @@
         <v>98</v>
       </c>
       <c r="T20" s="6"/>
-      <c r="U20" s="7"/>
+      <c r="U20" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="V20" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -1751,10 +1764,10 @@
     <row r="22" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>78</v>
@@ -1787,27 +1800,21 @@
       </c>
     </row>
     <row r="23" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="2" t="s">
-        <v>91</v>
-      </c>
+      <c r="I23" s="2"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -1825,29 +1832,33 @@
         <v>98</v>
       </c>
       <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
+      <c r="U23" s="7"/>
       <c r="V23" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
+      <c r="I24" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -1870,19 +1881,21 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="87" x14ac:dyDescent="0.35">
-      <c r="A25" s="6"/>
+    <row r="25" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="1"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="7"/>
@@ -1896,36 +1909,77 @@
         <v>3</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R25" s="6"/>
       <c r="S25" s="1" t="s">
         <v>98</v>
       </c>
       <c r="T25" s="6"/>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="6"/>
+      <c r="V25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="A26" s="6"/>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T26" s="6"/>
+      <c r="U26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V25" s="1" t="s">
+      <c r="V26" s="1" t="s">
         <v>99</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B7 B9:B10 B14">
+  <conditionalFormatting sqref="B6:B8 B10:B11 B15">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:B25">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B24">
+  <conditionalFormatting sqref="B26">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
+  <conditionalFormatting sqref="B4">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K16" r:id="rId1" xr:uid="{CCBDA591-ED42-46ED-B2A1-C170C3EAC25E}"/>
-    <hyperlink ref="K18" r:id="rId2" xr:uid="{5E4F50B1-38FD-4B06-A0FF-4D0260465E42}"/>
+    <hyperlink ref="K17" r:id="rId1" xr:uid="{CCBDA591-ED42-46ED-B2A1-C170C3EAC25E}"/>
+    <hyperlink ref="K19" r:id="rId2" xr:uid="{5E4F50B1-38FD-4B06-A0FF-4D0260465E42}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_063D07A9DDFA56A94324C0D2475ED87656CDE82C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08EEB3C9-76E9-46D7-B478-CDFC8EEE5496}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_063D07A9DDFA56A94324C0D2475ED87656CDE82C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5380990F-9AEE-4831-9BEC-76C5A36FE0A4}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="142">
   <si>
     <t>ID</t>
   </si>
@@ -378,6 +378,75 @@
   </si>
   <si>
     <t>LSR 3</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 3</t>
+  </si>
+  <si>
+    <t>major depressive disorder diagnosis</t>
+  </si>
+  <si>
+    <t>A depression diagnosis of major depressive disorder.</t>
+  </si>
+  <si>
+    <t>depression diagnosis</t>
+  </si>
+  <si>
+    <t>dysthymia diagnosis</t>
+  </si>
+  <si>
+    <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+  </si>
+  <si>
+    <t>LSR 1</t>
+  </si>
+  <si>
+    <t>prevalence of major depressive disorder diagnosis</t>
+  </si>
+  <si>
+    <t>Prevalence of diagnosis for major depressive disorder.</t>
+  </si>
+  <si>
+    <t>prevalence of diagnosis</t>
+  </si>
+  <si>
+    <t>Prevalence of people diagnosed with a specific disorder.</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>persistent depressive disorder diagnosis status</t>
+  </si>
+  <si>
+    <t>prevalence of unipolar depression disorder diagnosis</t>
+  </si>
+  <si>
+    <t>prevalence of bipolar disorder diagnosis</t>
+  </si>
+  <si>
+    <t>Prevalence of diagnosis for bipolar disorder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depression data item </t>
+  </si>
+  <si>
+    <t>A measurement data item that is the recording of depression symptom severity.</t>
+  </si>
+  <si>
+    <t>measurement data item</t>
+  </si>
+  <si>
+    <t>A data item that is a recording of the output of an assay.</t>
+  </si>
+  <si>
+    <t>IAO:0000109</t>
+  </si>
+  <si>
+    <t>health status</t>
+  </si>
+  <si>
+    <t>A health status that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
   </si>
 </sst>
 </file>
@@ -411,7 +480,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -419,19 +488,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -729,19 +906,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="22.7265625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -806,894 +990,1291 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="V3" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>26</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U4" t="s">
+      <c r="T4" s="4"/>
+      <c r="U4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="V5" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2" t="s">
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="V6" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="P7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>26</v>
-      </c>
-      <c r="S7" t="s">
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V7" t="s">
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>26</v>
-      </c>
-      <c r="S8" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U8" t="s">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2" t="s">
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="2" t="s">
+      <c r="V9" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V10" t="s">
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2" t="s">
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="V11" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2" t="s">
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2" t="s">
+      <c r="T13" s="6"/>
+      <c r="U13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="2" t="s">
+      <c r="V13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P14" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U14" t="s">
+      <c r="T14" s="4"/>
+      <c r="U14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V14" t="s">
+      <c r="V14" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="P15" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>26</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V15" t="s">
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="P16" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>26</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U16" t="s">
+      <c r="T16" s="4"/>
+      <c r="U16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V16" t="s">
+      <c r="V16" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P17" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="V17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2" t="s">
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2" t="s">
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2" t="s">
+      <c r="T19" s="6"/>
+      <c r="U19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="V19" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2" t="s">
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="6"/>
+      <c r="K20" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2" t="s">
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2" t="s">
+      <c r="T20" s="6"/>
+      <c r="U20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="V20" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2" t="s">
+      <c r="T21" s="6"/>
+      <c r="U21" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P22" t="s">
-        <v>118</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2" t="s">
+      <c r="T23" s="6"/>
+      <c r="U23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="2" t="s">
+      <c r="V23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="2" t="s">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q24" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2" t="s">
+      <c r="R24" s="6"/>
+      <c r="S24" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2" t="s">
+      <c r="T24" s="6"/>
+      <c r="U24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="V24" s="2" t="s">
+      <c r="V24" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="P25" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>26</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="U25" t="s">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="V25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2" t="s">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2" t="s">
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B28" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B32" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="11_063D07A9DDFA56A94324C0D2475ED87656CDE82C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5380990F-9AEE-4831-9BEC-76C5A36FE0A4}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="11_063D07A9DDFA56A94324C0D2475ED87656CDE82C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25AA28B4-CB92-4D07-BBB0-3058851F54E5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-10240" yWindow="1810" windowWidth="18030" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="204">
   <si>
     <t>ID</t>
   </si>
@@ -286,13 +286,7 @@
     <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
   </si>
   <si>
-    <t>GMHO:0000097</t>
-  </si>
-  <si>
     <t>psychosis experience</t>
-  </si>
-  <si>
-    <t>A symptom that involves a person experiencing delusions, hallucinations or disorganised speech or behaviour.</t>
   </si>
   <si>
     <t>symptom</t>
@@ -443,17 +437,229 @@
     <t>IAO:0000109</t>
   </si>
   <si>
-    <t>health status</t>
-  </si>
-  <si>
-    <t>A health status that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+    <t>number of participants in study arm</t>
+  </si>
+  <si>
+    <t>Number of intervention participants who are part of a study arm.</t>
+  </si>
+  <si>
+    <t>number of intervention participants</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2</t>
+  </si>
+  <si>
+    <t>number of randomised intervention participants</t>
+  </si>
+  <si>
+    <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+  </si>
+  <si>
+    <t>LSR 2</t>
+  </si>
+  <si>
+    <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+  </si>
+  <si>
+    <t>eligibility criterion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+  </si>
+  <si>
+    <t>inclusion criterion</t>
+  </si>
+  <si>
+    <t>OBI:0500027</t>
+  </si>
+  <si>
+    <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
+  </si>
+  <si>
+    <t>exclusion criterion</t>
+  </si>
+  <si>
+    <t>OBI:0500028</t>
+  </si>
+  <si>
+    <t>LSR 1; LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>pre-intervention personal attribute</t>
+  </si>
+  <si>
+    <t>‘personal attribute’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>Baseline clinical variable, baseline variable</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Based on </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://dictionary.apa.org/baseline-characteristic</t>
+    </r>
+  </si>
+  <si>
+    <t>LSR 2; LSR 3</t>
+  </si>
+  <si>
+    <t>post-traumatic stress disorder diagnosis</t>
+  </si>
+  <si>
+    <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+  </si>
+  <si>
+    <t>autism spectrum disorder diagnosis</t>
+  </si>
+  <si>
+    <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for autism spectrum disorder as a result of a diagnostic process.</t>
+  </si>
+  <si>
+    <t>PTSD diagnosis status</t>
+  </si>
+  <si>
+    <t>ASD diagnosis status</t>
+  </si>
+  <si>
+    <t>post-traumatic stress disorder severity measurement item</t>
+  </si>
+  <si>
+    <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+  </si>
+  <si>
+    <t>PTSD measurement item</t>
+  </si>
+  <si>
+    <t>diagnosis severity</t>
+  </si>
+  <si>
+    <t>A data item that is about the severity dimension associated with a diagnosis.</t>
+  </si>
+  <si>
+    <t>post-traumatic stress diagnosis severity</t>
+  </si>
+  <si>
+    <t>Diagnosis severity relating to a post-traumatic stress diagnosis.</t>
+  </si>
+  <si>
+    <t>anxiety diagnosis severity</t>
+  </si>
+  <si>
+    <t>pre-intervention post-traumatic stress diagnosis severity</t>
+  </si>
+  <si>
+    <t>‘post-traumatic stress diagnosis severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>autism spectrum disorder diagnosis severity</t>
+  </si>
+  <si>
+    <t>Diagnosis severity relating to an autism spectrum disorder diagnosis.</t>
+  </si>
+  <si>
+    <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+  </si>
+  <si>
+    <t>‘autism spectrum disorder diagnosis severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+  </si>
+  <si>
+    <t>Diagnosis severity relating to an anxiety diagnosis.</t>
+  </si>
+  <si>
+    <t>depression symptom severity</t>
+  </si>
+  <si>
+    <t>Symptom severity that is associated with a depression symtom.</t>
+  </si>
+  <si>
+    <t>pre-intervention depression symptom severity</t>
+  </si>
+  <si>
+    <t>‘depression symptom severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>anxiety symptom</t>
+  </si>
+  <si>
+    <t>A symptom that related to a anxiety diagnosis.</t>
+  </si>
+  <si>
+    <t>anxiety symptom severity</t>
+  </si>
+  <si>
+    <t>Symptom severity that is associated with a anxiety symtom.</t>
+  </si>
+  <si>
+    <t>‘anxiety symptom severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>insomnia symptom severity</t>
+  </si>
+  <si>
+    <t>Symptom severity that is associated with insomnia.</t>
+  </si>
+  <si>
+    <t>pre-intervention insomnia severity</t>
+  </si>
+  <si>
+    <t>‘insomnia symptom severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>insomnia severity</t>
+  </si>
+  <si>
+    <t>substance use severity</t>
+  </si>
+  <si>
+    <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+  </si>
+  <si>
+    <t>pre-intervention substance use severity</t>
+  </si>
+  <si>
+    <t>‘substance use severity’ precedes ‘intervention’</t>
+  </si>
+  <si>
+    <t>PTSD severity</t>
+  </si>
+  <si>
+    <t>baseline PTSD severity</t>
+  </si>
+  <si>
+    <t>ASD severity</t>
+  </si>
+  <si>
+    <t>baseline ASD severity</t>
+  </si>
+  <si>
+    <t>pre-intervention anxiety symptom severity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,6 +671,20 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -504,16 +724,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -521,23 +739,328 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -906,26 +1429,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="22.7265625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="22.7265625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -990,855 +1513,849 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="s">
+      <c r="T4" s="3"/>
+      <c r="U4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V5" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="V5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="V6" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4" t="s">
+      <c r="T8" s="3"/>
+      <c r="U8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="4" t="s">
+      <c r="V8" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V9" s="6" t="s">
+      <c r="V9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4" t="s">
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V11" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="V11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R12" s="6"/>
-      <c r="S12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="6" t="s">
+      <c r="V13" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4" t="s">
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V14" s="4" t="s">
+      <c r="V14" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4" t="s">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4" t="s">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V16" s="4" t="s">
+      <c r="V16" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6" t="s">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V19" s="6" t="s">
+      <c r="V19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="6" t="s">
+      <c r="V20" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="A21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q21" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1851,114 +2368,120 @@
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q22" s="4"/>
+      <c r="P22" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A24" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-    </row>
-    <row r="23" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6" t="s">
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="V23" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q24" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="6" t="s">
+      <c r="V24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="B25" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1971,314 +2494,884 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="4" t="s">
-        <v>118</v>
+      <c r="P25" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B27" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D28" s="3" t="s">
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="K38" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V38" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B30" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q31" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="B32" s="8" t="s">
+      <c r="G39" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q39" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V39" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B40" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q40" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B41" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q32" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q35" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6" t="s">
+      <c r="G41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V41" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B43" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V43" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B44" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q45" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B46" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B47" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V48" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B49" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q49" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V50" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B51" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V51" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V52" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V53" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B54" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V54" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B55" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B56" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q56" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="V56" s="4" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="9" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:B1048576 B1:B42">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G41:G42">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B47">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K38" r:id="rId1" display="https://dictionary.apa.org/baseline-characteristic" xr:uid="{C282EED3-84BD-43F5-B515-D5066A08E526}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1255,7 +1255,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000147</t>
+          <t>GMHO:0000062</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -3576,7 +3576,7 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000101</t>
+          <t>GMHO:0000087</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/zcjtpms_ucl_ac_uk/Documents/Documents/GitHub/mental-health-ontology/Intervention population/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4C55E6BBDD3AD5F73364C5D2475ED87656CC198C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79335C0E-2E93-49B6-9FC2-4C85ACD7D5B4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4C55E6BBDD3AD5F73364C5D2475ED87656CC198C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0F4E5CC-526C-486C-928B-28200151C4A0}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="105" windowWidth="19530" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29100" yWindow="105" windowWidth="19530" windowHeight="20760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="234">
   <si>
     <t>ID</t>
   </si>
@@ -717,6 +717,12 @@
   </si>
   <si>
     <t>number of participants in intervention arm</t>
+  </si>
+  <si>
+    <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
+  </si>
+  <si>
+    <t>OGMS:0000123</t>
   </si>
 </sst>
 </file>
@@ -751,7 +757,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -759,19 +765,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1069,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3218,7 +3253,36 @@
         <v>30</v>
       </c>
     </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P57" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="S57" t="s">
+        <v>28</v>
+      </c>
+      <c r="V57" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B57">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -565,17 +565,6 @@
           <t>person</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -586,13 +575,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -973,17 +960,6 @@
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -994,13 +970,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -1093,17 +1067,6 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1114,14 +1077,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1214,20 +1174,11 @@
           <t>OMIABIS:0001008</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>Relation between person and diagnosis needs to be specified</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1238,14 +1189,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1437,17 +1385,6 @@
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1458,13 +1395,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -1677,17 +1612,6 @@
           <t>eligibility criterion</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1698,14 +1622,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1733,17 +1654,6 @@
           <t>biological sex</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1754,14 +1664,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1965,17 +1872,6 @@
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1986,13 +1882,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -2025,17 +1919,6 @@
           <t>eligibility criterion</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -2046,14 +1929,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2194,17 +2074,6 @@
           <t>biological sex</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2215,14 +2084,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2250,17 +2116,6 @@
           <t>aggregate human age</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2271,13 +2126,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -2310,17 +2163,6 @@
           <t>data item</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -2331,14 +2173,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2366,17 +2205,6 @@
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
@@ -2387,14 +2215,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2939,7 +2764,7 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>insomnia severity</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -3535,17 +3360,6 @@
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3556,15 +3370,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -3763,17 +3573,6 @@
           <t>person</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -3784,13 +3583,11 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr"/>
       <c r="S57" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V58"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,6 +565,17 @@
           <t>person</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -575,11 +586,13 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -960,6 +973,17 @@
           <t>bodily quality</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -970,11 +994,13 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -1067,6 +1093,17 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1077,11 +1114,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1174,11 +1214,20 @@
           <t>OMIABIS:0001008</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>Relation between person and diagnosis needs to be specified</t>
         </is>
       </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1189,11 +1238,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1385,6 +1437,17 @@
           <t>clinical data item</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1395,11 +1458,13 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -1612,6 +1677,17 @@
           <t>eligibility criterion</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1622,11 +1698,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1654,6 +1733,17 @@
           <t>biological sex</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -1664,11 +1754,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1872,6 +1965,17 @@
           <t>personal attribute</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1882,11 +1986,13 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -1919,6 +2025,17 @@
           <t>eligibility criterion</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
@@ -1929,11 +2046,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2074,6 +2194,17 @@
           <t>biological sex</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2084,11 +2215,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2116,6 +2250,17 @@
           <t>aggregate human age</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
@@ -2126,11 +2271,13 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
@@ -2163,6 +2310,17 @@
           <t>data item</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
           <t>LSR 1</t>
@@ -2173,11 +2331,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2205,6 +2366,17 @@
           <t>health status attribute</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
@@ -2215,11 +2387,14 @@
           <t>Intervention population</t>
         </is>
       </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3213,40 +3388,31 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
@@ -3268,11 +3434,7 @@
         </is>
       </c>
       <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U51" s="2" t="inlineStr"/>
       <c r="V51" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3282,31 +3444,40 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="inlineStr"/>
       <c r="N52" s="2" t="inlineStr"/>
@@ -3340,121 +3511,136 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3470,7 +3656,7 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3485,7 +3671,11 @@
         </is>
       </c>
       <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V55" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3495,17 +3685,17 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the location on the dimension of a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
@@ -3526,12 +3716,12 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R56" s="2" t="inlineStr"/>
@@ -3541,115 +3731,184 @@
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr">
+      <c r="U56" s="2" t="inlineStr"/>
+      <c r="V56" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the location on the dimension of a symptom.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
+      <c r="F57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr"/>
+      <c r="I57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr"/>
+      <c r="L57" s="2" t="inlineStr"/>
+      <c r="M57" s="2" t="inlineStr"/>
+      <c r="N57" s="2" t="inlineStr"/>
+      <c r="O57" s="2" t="inlineStr"/>
+      <c r="P57" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R57" s="2" t="inlineStr"/>
+      <c r="S57" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T57" s="2" t="inlineStr"/>
+      <c r="U57" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V56" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B58" s="2" t="inlineStr">
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C58" s="2" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate rials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2572,29 +2572,29 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr"/>
@@ -2632,29 +2632,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>PTSD diagnosis status</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -3049,12 +3049,12 @@
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress diagnosis severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>‘post-traumatic stress diagnosis severity’ precedes ‘intervention’</t>
+          <t>Post-traumatic stress diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -3062,7 +3062,11 @@
           <t>post-traumatic stress diagnosis severity</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3059,7 +3059,7 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3054,7 +3054,7 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress diagnosis severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress diagnosis severity" precedes "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3062,11 +3062,7 @@
           <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
@@ -3091,7 +3087,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr"/>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2878,7 +2878,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>‘depression symptom severity’ precedes ‘intervention’</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2886,7 +2886,11 @@
           <t>depression symptom severity</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F42" s="2" t="inlineStr"/>
       <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2762,7 +2762,7 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>‘anxiety symptom severity’ precedes ‘intervention’</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2770,7 +2770,11 @@
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F40" s="2" t="inlineStr"/>
       <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
@@ -2818,7 +2822,7 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>‘autism spectrum disorder diagnosis severity’ precedes ‘intervention’</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2826,7 +2830,11 @@
           <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr">
         <is>
@@ -2938,7 +2946,7 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>‘insomnia symptom severity’ precedes ‘intervention’</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2946,7 +2954,11 @@
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F43" s="2" t="inlineStr"/>
       <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
@@ -2994,7 +3006,7 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>‘personal attribute’ precedes ‘intervention’</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -3002,7 +3014,11 @@
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
@@ -3066,7 +3082,11 @@
           <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
@@ -3123,7 +3143,7 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>‘substance use severity’ precedes ‘intervention’</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
@@ -3131,7 +3151,11 @@
           <t>substance use severity</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -789,7 +789,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a anxiety symtom.</t>
+          <t>Symptom severity that is associated with a anxiety symptom.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1363,22 +1363,22 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000198</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symtom.</t>
+          <t>A symptom that related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr"/>
@@ -1392,16 +1392,8 @@
       <c r="M16" s="2" t="inlineStr"/>
       <c r="N16" s="2" t="inlineStr"/>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="inlineStr"/>
+      <c r="Q16" s="2" t="inlineStr"/>
       <c r="R16" s="2" t="inlineStr"/>
       <c r="S16" s="2" t="inlineStr">
         <is>
@@ -1417,120 +1409,116 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000062</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a depression symptom.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr"/>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr">
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000148</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1539,33 +1527,33 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000148</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
@@ -1574,7 +1562,7 @@
       <c r="O19" s="2" t="inlineStr"/>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -1599,27 +1587,31 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
@@ -1630,7 +1622,7 @@
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1645,68 +1637,68 @@
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr">
+      <c r="U20" s="2" t="inlineStr"/>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000092</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V20" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr">
+      <c r="V21" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1715,22 +1707,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1746,7 +1738,7 @@
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -1769,60 +1761,56 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>BCIO:015106</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>female biological sex</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V23" s="2" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1831,22 +1819,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1877,7 +1865,11 @@
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1887,22 +1879,22 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
@@ -1918,7 +1910,7 @@
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -1933,72 +1925,68 @@
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
+      <c r="V26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2007,22 +1995,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2053,7 +2041,11 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2061,56 +2053,56 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2119,23 +2111,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2151,7 +2142,7 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2174,56 +2165,57 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2232,22 +2224,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015177</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mean human age</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2278,11 +2270,7 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2292,22 +2280,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015177</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>mean human age</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>aggregate human age</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2323,7 +2311,7 @@
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -2338,7 +2326,11 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2348,22 +2340,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>IAO:0000109</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>medication use status</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A data item that is a recording of the output of an assay.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2379,7 +2371,7 @@
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -2402,56 +2394,56 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>BCIO:015490</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>medication use status</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2460,22 +2452,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -2491,7 +2483,7 @@
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -2516,17 +2508,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -2572,31 +2564,27 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G37" s="2" t="inlineStr"/>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
@@ -2607,7 +2595,7 @@
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -2632,29 +2620,29 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
       <c r="F38" s="2" t="inlineStr"/>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr"/>
@@ -2692,29 +2680,29 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr"/>
@@ -2752,31 +2740,31 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
@@ -2812,35 +2800,31 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000158</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
+          <t>anxiety symptom severity</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
+      <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
       <c r="I41" s="2" t="inlineStr"/>
       <c r="J41" s="2" t="inlineStr"/>
@@ -2876,31 +2860,35 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
@@ -2911,7 +2899,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2936,27 +2924,27 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr"/>
@@ -2971,7 +2959,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2996,43 +2984,35 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
       <c r="M44" s="2" t="inlineStr"/>
       <c r="N44" s="2" t="inlineStr"/>
@@ -3064,39 +3044,43 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr"/>
       <c r="N45" s="2" t="inlineStr"/>
@@ -3111,12 +3095,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R45" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R45" s="2" t="inlineStr"/>
       <c r="S45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3133,31 +3112,35 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3176,7 +3159,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R46" s="2" t="inlineStr"/>
+      <c r="R46" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3193,25 +3181,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3224,7 +3216,7 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -3249,22 +3241,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3280,7 +3272,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3305,22 +3297,22 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
@@ -3361,31 +3353,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
@@ -3421,27 +3409,31 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
@@ -3452,7 +3444,7 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3477,40 +3469,31 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="inlineStr"/>
       <c r="N52" s="2" t="inlineStr"/>
@@ -3532,11 +3515,7 @@
         </is>
       </c>
       <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U52" s="2" t="inlineStr"/>
       <c r="V52" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3546,31 +3525,40 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
@@ -3604,136 +3592,136 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr">
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V55" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -3749,7 +3737,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3764,7 +3752,11 @@
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr"/>
+      <c r="U56" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V56" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3774,17 +3766,17 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the location on the dimension of a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
@@ -3805,12 +3797,12 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R57" s="2" t="inlineStr"/>
@@ -3820,128 +3812,184 @@
         </is>
       </c>
       <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr">
+      <c r="U57" s="2" t="inlineStr"/>
+      <c r="V57" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the location on the dimension of a symptom.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V57" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="V58" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr">
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate rials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="inlineStr"/>
-      <c r="N59" s="2" t="inlineStr"/>
-      <c r="O59" s="2" t="inlineStr"/>
-      <c r="P59" s="2" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q59" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R59" s="2" t="inlineStr"/>
-      <c r="S59" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr"/>
-      <c r="V59" s="2" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -733,7 +733,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A symptom that related to a anxiety diagnosis.</t>
+          <t>A symptom that related to an anxiety diagnosis.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a anxiety symptom.</t>
+          <t>Symptom severity that is associated with an anxiety symptom.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3952,7 +3952,7 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has an inadequate response to at least two adequate rials of antipsychotic drugs.</t>
+          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the location on the dimension of a symptom.</t>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1363,7 +1363,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000198</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1373,7 +1373,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>A symptom that related to a depression diagnosis.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V60"/>
+  <dimension ref="A1:V67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,22 +667,22 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000141</t>
+          <t>GMHO:0000201</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>anhedonia scale</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to an anxiety diagnosis.</t>
+          <t>A measurement scale that is used to measure anhedonia symptom severity.</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>diagnosis severity</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
@@ -698,7 +698,7 @@
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -723,22 +723,22 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000142</t>
+          <t>GMHO:0000131</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom</t>
+          <t>anhedonia symptom severity</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>A symptom that related to an anxiety diagnosis.</t>
+          <t>Symptom severity that is associated with anhedonia.</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr"/>
@@ -754,7 +754,7 @@
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -779,22 +779,22 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000143</t>
+          <t>GMHO:0000141</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with an anxiety symptom.</t>
+          <t>Diagnosis severity relating to an anxiety diagnosis.</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr"/>
@@ -835,31 +835,27 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000144</t>
+          <t>GMHO:0000202</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis</t>
+          <t>anxiety scale</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for autism spectrum disorder as a result of a diagnostic process.</t>
+          <t>A measurement scale that is used to measure anxiety symptom severity.</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr"/>
       <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>ASD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G7" s="2" t="inlineStr"/>
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr"/>
@@ -870,7 +866,7 @@
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -895,31 +891,27 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000145</t>
+          <t>GMHO:0000142</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
+          <t>anxiety symptom</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to an autism spectrum disorder diagnosis.</t>
+          <t>A symptom that related to an anxiety diagnosis.</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>diagnosis severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr"/>
       <c r="F8" s="2" t="inlineStr"/>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>ASD severity</t>
-        </is>
-      </c>
+      <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
       <c r="J8" s="2" t="inlineStr"/>
@@ -953,60 +945,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>BCIO:015105</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>A bodily quality based on reproductive function or organs.</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000143</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with an anxiety symptom.</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr"/>
+      <c r="G9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr"/>
+      <c r="I9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr"/>
+      <c r="K9" s="2" t="inlineStr"/>
+      <c r="L9" s="2" t="inlineStr"/>
+      <c r="M9" s="2" t="inlineStr"/>
+      <c r="N9" s="2" t="inlineStr"/>
+      <c r="O9" s="2" t="inlineStr"/>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr"/>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr"/>
+      <c r="U9" s="2" t="inlineStr"/>
+      <c r="V9" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1015,27 +1003,31 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000090</t>
+          <t>GMHO:0000144</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>autism spectrum disorder diagnosis</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A person who has not yet reached maturity. </t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for autism spectrum disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr"/>
       <c r="F10" s="2" t="inlineStr"/>
-      <c r="G10" s="2" t="inlineStr"/>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>ASD diagnosis status</t>
+        </is>
+      </c>
       <c r="H10" s="2" t="inlineStr"/>
       <c r="I10" s="2" t="inlineStr"/>
       <c r="J10" s="2" t="inlineStr"/>
@@ -1046,7 +1038,7 @@
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1061,248 +1053,244 @@
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr"/>
-      <c r="U10" s="2" t="inlineStr">
+      <c r="U10" s="2" t="inlineStr"/>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000145</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>autism spectrum disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>Diagnosis severity relating to an autism spectrum disorder diagnosis.</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr"/>
+      <c r="F11" s="2" t="inlineStr"/>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>ASD severity</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr"/>
+      <c r="I11" s="2" t="inlineStr"/>
+      <c r="J11" s="2" t="inlineStr"/>
+      <c r="K11" s="2" t="inlineStr"/>
+      <c r="L11" s="2" t="inlineStr"/>
+      <c r="M11" s="2" t="inlineStr"/>
+      <c r="N11" s="2" t="inlineStr"/>
+      <c r="O11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr"/>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr"/>
+      <c r="U11" s="2" t="inlineStr"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BCIO:015105</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A bodily quality based on reproductive function or organs.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000090</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>child</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A person who has not yet reached maturity. </t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr"/>
+      <c r="H13" s="2" t="inlineStr"/>
+      <c r="I13" s="2" t="inlineStr"/>
+      <c r="J13" s="2" t="inlineStr"/>
+      <c r="K13" s="2" t="inlineStr"/>
+      <c r="L13" s="2" t="inlineStr"/>
+      <c r="M13" s="2" t="inlineStr"/>
+      <c r="N13" s="2" t="inlineStr"/>
+      <c r="O13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr"/>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr"/>
+      <c r="U13" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V10" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>OGMS:0000123</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr">
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr">
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000091</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>clinical history of psychosis experience</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>A clinical history in which there is a history of psychosis experience.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr"/>
-      <c r="F12" s="2" t="inlineStr"/>
-      <c r="G12" s="2" t="inlineStr"/>
-      <c r="H12" s="2" t="inlineStr"/>
-      <c r="I12" s="2" t="inlineStr"/>
-      <c r="J12" s="2" t="inlineStr"/>
-      <c r="K12" s="2" t="inlineStr"/>
-      <c r="L12" s="2" t="inlineStr"/>
-      <c r="M12" s="2" t="inlineStr"/>
-      <c r="N12" s="2" t="inlineStr"/>
-      <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R12" s="2" t="inlineStr"/>
-      <c r="S12" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr"/>
-      <c r="U12" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V12" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>comorbidity</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Relation between person and diagnosis needs to be specified</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000146</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">depression data item </t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of depression symptom severity.</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr"/>
-      <c r="V14" s="2" t="inlineStr">
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1311,22 +1299,22 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000176</t>
+          <t>GMHO:0000091</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+          <t>A clinical history in which there is a history of psychosis experience.</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr"/>
@@ -1342,10 +1330,14 @@
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q15" s="2" t="inlineStr"/>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R15" s="2" t="inlineStr"/>
       <c r="S15" s="2" t="inlineStr">
         <is>
@@ -1353,7 +1345,11 @@
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1361,48 +1357,64 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000061</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>depression symptom</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>A symptom that is related to a depression diagnosis.</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
-      <c r="Q16" s="2" t="inlineStr"/>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr"/>
-      <c r="V16" s="2" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>OMIABIS:0001008</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>comorbidity</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>OMIABIS:0001008</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Relation between person and diagnosis needs to be specified</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1411,22 +1423,22 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000146</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t xml:space="preserve">depression data item </t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symptom.</t>
+          <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr"/>
@@ -1442,7 +1454,7 @@
       <c r="O17" s="2" t="inlineStr"/>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -1465,60 +1477,52 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OGMS:0000073</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000176</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>The representation of a conclusion of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>clinical data item</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr"/>
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1527,49 +1531,37 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000148</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>diagnosis severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr"/>
       <c r="G19" s="2" t="inlineStr"/>
       <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
@@ -1587,31 +1579,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000062</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>Symptom severity that is associated with a depression symptom.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
       <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr"/>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
@@ -1622,7 +1610,7 @@
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -1645,172 +1633,180 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000092</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>ethnic group membership</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>OGMS:0000073</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>The representation of a conclusion of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>clinical data item</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V21" s="2" t="inlineStr">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000148</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>BCIO:015106</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>female biological sex</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000149</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>dysthymia diagnosis</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1819,22 +1815,22 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000093</t>
+          <t>GMHO:0000092</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>female gender</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A gender identity as being female.</t>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
@@ -1877,232 +1873,228 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>OBI:0500028</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>exclusion criterion</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>BCIO:015106</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>female biological sex</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000093</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>female gender</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A gender identity as being female.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000094</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
+      <c r="B28" s="2" t="inlineStr">
         <is>
           <t>first psychosis experience history</t>
         </is>
       </c>
-      <c r="C25" s="2" t="inlineStr">
+      <c r="C28" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D28" s="2" t="inlineStr">
         <is>
           <t>clinical history of psychosis experience</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000095</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
-      <c r="J26" s="2" t="inlineStr"/>
-      <c r="K26" s="2" t="inlineStr"/>
-      <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="inlineStr"/>
-      <c r="N26" s="2" t="inlineStr"/>
-      <c r="O26" s="2" t="inlineStr"/>
-      <c r="P26" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R26" s="2" t="inlineStr"/>
-      <c r="S26" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OBI:0500027</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>inclusion criterion</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr"/>
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2111,22 +2103,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000150</t>
+          <t>GMHO:0000095</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with insomnia.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2142,7 +2134,7 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2157,7 +2149,11 @@
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2165,57 +2161,60 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000151</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>major depressive disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>depression diagnosis</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BCIO:015015</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>human age</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2224,22 +2223,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:015107</t>
+          <t>OBI:0500027</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>male biological sex</t>
+          <t>inclusion criterion</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2255,7 +2254,7 @@
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
@@ -2278,116 +2277,113 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BCIO:015177</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>mean human age</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The mean of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>aggregate human age</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000150</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>insomnia symptom severity</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with insomnia.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>IAO:0000109</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A data item that is a recording of the output of an assay.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr">
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2396,22 +2392,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>medication use status</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2427,7 +2423,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2450,112 +2446,116 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BCIO:015177</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mean human age</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>The mean of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>aggregate human age</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>A data item that is a recording of the output of an assay.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000153</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>number of participants in intervention arm</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2564,22 +2564,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t>GMHO:0000209</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>measurement datum at baseline</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -2595,7 +2595,7 @@
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -2618,60 +2618,56 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>BCIO:015490</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>medication use status</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2680,31 +2676,27 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
       <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>PTSD severity</t>
-        </is>
-      </c>
+      <c r="G39" s="2" t="inlineStr"/>
       <c r="H39" s="2" t="inlineStr"/>
       <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
@@ -2715,7 +2707,7 @@
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -2740,31 +2732,27 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
       <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr">
-        <is>
-          <t>PTSD measurement item</t>
-        </is>
-      </c>
+      <c r="G40" s="2" t="inlineStr"/>
       <c r="H40" s="2" t="inlineStr"/>
       <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
@@ -2775,7 +2763,7 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -2800,29 +2788,26 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t xml:space="preserve">GMHO:0000206
+</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>number of participants with measurement</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr"/>
       <c r="F41" s="2" t="inlineStr"/>
       <c r="G41" s="2" t="inlineStr"/>
       <c r="H41" s="2" t="inlineStr"/>
@@ -2835,7 +2820,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2860,35 +2845,27 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr"/>
       <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
+      <c r="G42" s="2" t="inlineStr"/>
       <c r="H42" s="2" t="inlineStr"/>
       <c r="I42" s="2" t="inlineStr"/>
       <c r="J42" s="2" t="inlineStr"/>
@@ -2899,7 +2876,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2924,31 +2901,31 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
-        </is>
-      </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>PTSD diagnosis status</t>
+        </is>
+      </c>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
@@ -2959,7 +2936,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2984,31 +2961,31 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>anxiety diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>PTSD severity</t>
+        </is>
+      </c>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
@@ -3044,43 +3021,35 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>Baseline clinical variable, baseline variable</t>
+          <t>PTSD measurement item</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
       <c r="M45" s="2" t="inlineStr"/>
       <c r="N45" s="2" t="inlineStr"/>
@@ -3112,35 +3081,31 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000158</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>anxiety symptom severity</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>baseline PTSD severity</t>
-        </is>
-      </c>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3159,12 +3124,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R46" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R46" s="2" t="inlineStr"/>
       <c r="S46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3181,31 +3141,35 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3241,25 +3205,29 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3272,7 +3240,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3297,25 +3265,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>insomnia symptom severity</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3328,7 +3300,7 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3353,38 +3325,50 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>Baseline clinical variable, baseline variable</t>
+        </is>
+      </c>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="inlineStr"/>
       <c r="N50" s="2" t="inlineStr"/>
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -3409,29 +3393,33 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
+          <t>baseline PTSD severity</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3444,7 +3432,7 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3452,7 +3440,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R51" s="2" t="inlineStr"/>
+      <c r="R51" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3469,25 +3462,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3500,7 +3497,7 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -3525,40 +3522,31 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
@@ -3580,11 +3568,7 @@
         </is>
       </c>
       <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U53" s="2" t="inlineStr"/>
       <c r="V53" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3594,22 +3578,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>prevalence of bipolar disorder diagnosis</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -3625,7 +3609,7 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3640,11 +3624,7 @@
         </is>
       </c>
       <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U54" s="2" t="inlineStr"/>
       <c r="V54" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3652,81 +3632,89 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>OBCS:0000077</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>quantitative confidence value</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000166</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000100</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>standard deviation human age</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Standard deviation of human age in a population.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
@@ -3737,7 +3725,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3752,11 +3740,7 @@
         </is>
       </c>
       <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U56" s="2" t="inlineStr"/>
       <c r="V56" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3766,22 +3750,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3797,7 +3781,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3822,31 +3806,40 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
       <c r="N58" s="2" t="inlineStr"/>
@@ -3858,7 +3851,7 @@
       </c>
       <c r="Q58" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R58" s="2" t="inlineStr"/>
@@ -3880,60 +3873,52 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001050</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>A person between 13 and 19 years of age.</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000207</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>reward sensitivity scale</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr"/>
+      <c r="H59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr"/>
+      <c r="J59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr"/>
+      <c r="L59" s="2" t="inlineStr"/>
+      <c r="M59" s="2" t="inlineStr"/>
+      <c r="N59" s="2" t="inlineStr"/>
+      <c r="O59" s="2" t="inlineStr"/>
+      <c r="P59" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q59" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R59" s="2" t="inlineStr"/>
+      <c r="S59" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr"/>
+      <c r="V59" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3942,22 +3927,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000102</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>treatment-resistant clinical history</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -3973,7 +3958,7 @@
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3990,6 +3975,410 @@
       <c r="T60" s="2" t="inlineStr"/>
       <c r="U60" s="2" t="inlineStr"/>
       <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>OBCS:0000077</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>quantitative confidence value</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000100</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>standard deviation human age</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Standard deviation of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000168</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A person between 13 and 19 years of age.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000102</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>treatment-resistant clinical history</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V67"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2618,112 +2618,112 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000212</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale at baseline</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>A measurement scale used to measure baseline data in a study.</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2732,22 +2732,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2763,7 +2763,7 @@
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -2788,18 +2788,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMHO:0000206
-</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>number of participants with measurement</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants for whom a measurement was made.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2820,7 +2819,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2845,17 +2844,18 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t xml:space="preserve">GMHO:0000206
+</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>number of participants with measurement</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2876,7 +2876,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2901,31 +2901,27 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
       <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G43" s="2" t="inlineStr"/>
       <c r="H43" s="2" t="inlineStr"/>
       <c r="I43" s="2" t="inlineStr"/>
       <c r="J43" s="2" t="inlineStr"/>
@@ -2936,7 +2932,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2961,29 +2957,29 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr"/>
@@ -3021,29 +3017,29 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -3081,31 +3077,31 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3141,35 +3137,31 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000158</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
+          <t>anxiety symptom severity</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
+      <c r="G47" s="2" t="inlineStr"/>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3205,31 +3197,35 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3240,7 +3236,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3265,27 +3261,27 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
@@ -3300,7 +3296,7 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3325,43 +3321,35 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
       <c r="M50" s="2" t="inlineStr"/>
       <c r="N50" s="2" t="inlineStr"/>
@@ -3393,39 +3381,43 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
@@ -3440,12 +3432,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R51" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R51" s="2" t="inlineStr"/>
       <c r="S51" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3462,31 +3449,35 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
@@ -3505,7 +3496,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr"/>
+      <c r="R52" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3522,25 +3518,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q53" s="2" t="inlineStr">
@@ -3578,22 +3578,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -3609,7 +3609,7 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3634,22 +3634,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3690,31 +3690,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
@@ -3750,27 +3746,31 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
@@ -3781,7 +3781,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3806,40 +3806,31 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
       <c r="N58" s="2" t="inlineStr"/>
@@ -3861,11 +3852,7 @@
         </is>
       </c>
       <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U58" s="2" t="inlineStr"/>
       <c r="V58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3875,34 +3862,47 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="inlineStr"/>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
       <c r="N59" s="2" t="inlineStr"/>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3917,7 +3917,11 @@
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr"/>
+      <c r="U59" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V59" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3927,24 +3931,20 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr"/>
@@ -3983,22 +3983,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -4014,7 +4014,7 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -4029,148 +4029,144 @@
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr"/>
-      <c r="U61" s="2" t="inlineStr">
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr"/>
+      <c r="F62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr"/>
+      <c r="H62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr"/>
+      <c r="J62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr"/>
+      <c r="L62" s="2" t="inlineStr"/>
+      <c r="M62" s="2" t="inlineStr"/>
+      <c r="N62" s="2" t="inlineStr"/>
+      <c r="O62" s="2" t="inlineStr"/>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="inlineStr"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V61" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr">
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T63" s="2" t="inlineStr"/>
-      <c r="U63" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V63" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -4186,7 +4182,7 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -4201,7 +4197,11 @@
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V64" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4211,17 +4211,17 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
@@ -4242,12 +4242,12 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R65" s="2" t="inlineStr"/>
@@ -4257,128 +4257,184 @@
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr">
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr">
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr"/>
-      <c r="V67" s="2" t="inlineStr">
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2732,22 +2732,22 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000152</t>
+          <t>GMHO:0000213</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>number of female biological sex</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+          <t>The number of female biological sex in a population.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr"/>
@@ -2761,16 +2761,8 @@
       <c r="M40" s="2" t="inlineStr"/>
       <c r="N40" s="2" t="inlineStr"/>
       <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P40" s="2" t="inlineStr"/>
+      <c r="Q40" s="2" t="inlineStr"/>
       <c r="R40" s="2" t="inlineStr"/>
       <c r="S40" s="2" t="inlineStr">
         <is>
@@ -2788,22 +2780,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2819,7 +2811,7 @@
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2844,18 +2836,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMHO:0000206
-</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>number of participants with measurement</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants for whom a measurement was made.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2876,7 +2867,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2901,17 +2892,18 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t xml:space="preserve">GMHO:0000206
+</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>number of participants with measurement</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2932,7 +2924,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2957,31 +2949,27 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr"/>
       <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G44" s="2" t="inlineStr"/>
       <c r="H44" s="2" t="inlineStr"/>
       <c r="I44" s="2" t="inlineStr"/>
       <c r="J44" s="2" t="inlineStr"/>
@@ -2992,7 +2980,7 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3017,29 +3005,29 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr"/>
@@ -3077,29 +3065,29 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3137,31 +3125,31 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H47" s="2" t="inlineStr"/>
       <c r="I47" s="2" t="inlineStr"/>
       <c r="J47" s="2" t="inlineStr"/>
@@ -3197,35 +3185,31 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000158</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
+          <t>anxiety symptom severity</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
+      <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3261,31 +3245,35 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
@@ -3296,7 +3284,7 @@
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q49" s="2" t="inlineStr">
@@ -3321,27 +3309,27 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
@@ -3356,7 +3344,7 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -3381,43 +3369,35 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr"/>
       <c r="N51" s="2" t="inlineStr"/>
@@ -3449,39 +3429,43 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="inlineStr"/>
       <c r="N52" s="2" t="inlineStr"/>
@@ -3496,12 +3480,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R52" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R52" s="2" t="inlineStr"/>
       <c r="S52" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3518,31 +3497,35 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
@@ -3561,7 +3544,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R53" s="2" t="inlineStr"/>
+      <c r="R53" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3578,25 +3566,29 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr"/>
@@ -3609,7 +3601,7 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3634,22 +3626,22 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr"/>
@@ -3665,7 +3657,7 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3690,22 +3682,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -3746,31 +3738,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
@@ -3806,27 +3794,31 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
@@ -3837,7 +3829,7 @@
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -3862,40 +3854,31 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
       <c r="N59" s="2" t="inlineStr"/>
@@ -3917,11 +3900,7 @@
         </is>
       </c>
       <c r="T59" s="2" t="inlineStr"/>
-      <c r="U59" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U59" s="2" t="inlineStr"/>
       <c r="V59" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3931,34 +3910,47 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr"/>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr"/>
       <c r="N60" s="2" t="inlineStr"/>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3973,7 +3965,11 @@
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V60" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3983,24 +3979,20 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr"/>
@@ -4039,22 +4031,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -4070,7 +4062,7 @@
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4085,148 +4077,144 @@
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr"/>
-      <c r="U62" s="2" t="inlineStr">
+      <c r="U62" s="2" t="inlineStr"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V62" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V64" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -4242,7 +4230,7 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -4257,7 +4245,11 @@
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4267,17 +4259,17 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
@@ -4298,12 +4290,12 @@
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R66" s="2" t="inlineStr"/>
@@ -4313,128 +4305,184 @@
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr">
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B68" s="2" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C68" s="2" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D68" s="2" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-      <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="inlineStr"/>
-      <c r="N68" s="2" t="inlineStr"/>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q68" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr"/>
-      <c r="V68" s="2" t="inlineStr">
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2448,12 +2448,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015177</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mean human age</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>aggregate human age</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,60 +1985,56 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B27" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
-      <c r="H27" s="2" t="inlineStr"/>
-      <c r="I27" s="2" t="inlineStr"/>
-      <c r="J27" s="2" t="inlineStr"/>
-      <c r="K27" s="2" t="inlineStr"/>
-      <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="inlineStr"/>
-      <c r="N27" s="2" t="inlineStr"/>
-      <c r="O27" s="2" t="inlineStr"/>
-      <c r="P27" s="2" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>BCIO:015327</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The aggregate of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R27" s="2" t="inlineStr"/>
-      <c r="S27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V27" s="2" t="inlineStr">
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2047,22 +2043,22 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr"/>
@@ -2093,7 +2089,11 @@
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2103,22 +2103,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2149,72 +2149,68 @@
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr">
+      <c r="U29" s="2" t="inlineStr"/>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr"/>
+      <c r="F30" s="2" t="inlineStr"/>
+      <c r="G30" s="2" t="inlineStr"/>
+      <c r="H30" s="2" t="inlineStr"/>
+      <c r="I30" s="2" t="inlineStr"/>
+      <c r="J30" s="2" t="inlineStr"/>
+      <c r="K30" s="2" t="inlineStr"/>
+      <c r="L30" s="2" t="inlineStr"/>
+      <c r="M30" s="2" t="inlineStr"/>
+      <c r="N30" s="2" t="inlineStr"/>
+      <c r="O30" s="2" t="inlineStr"/>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V29" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
+      <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2223,22 +2219,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2269,7 +2265,11 @@
         </is>
       </c>
       <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2277,56 +2277,56 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B32" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E32" s="2" t="inlineStr"/>
-      <c r="F32" s="2" t="inlineStr"/>
-      <c r="G32" s="2" t="inlineStr"/>
-      <c r="H32" s="2" t="inlineStr"/>
-      <c r="I32" s="2" t="inlineStr"/>
-      <c r="J32" s="2" t="inlineStr"/>
-      <c r="K32" s="2" t="inlineStr"/>
-      <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="inlineStr"/>
-      <c r="N32" s="2" t="inlineStr"/>
-      <c r="O32" s="2" t="inlineStr"/>
-      <c r="P32" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q32" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R32" s="2" t="inlineStr"/>
-      <c r="S32" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
-      <c r="V32" s="2" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2335,23 +2335,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2367,7 +2366,7 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -2390,56 +2389,57 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr"/>
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2448,22 +2448,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2494,11 +2494,7 @@
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2508,22 +2504,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2539,7 +2535,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2554,7 +2550,11 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2562,56 +2562,56 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000209</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>measurement datum at baseline</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Measurement datum that was recorded as baseline data in a study.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A data item that is a recording of the output of an assay.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr">
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2620,22 +2620,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000212</t>
+          <t>GMHO:0000209</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>measurement scale at baseline</t>
+          <t>measurement datum at baseline</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale used to measure baseline data in a study.</t>
+          <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -2674,104 +2674,112 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000212</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale at baseline</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>A measurement scale used to measure baseline data in a study.</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000213</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>number of female biological sex</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>The number of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr"/>
-      <c r="Q40" s="2" t="inlineStr"/>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2780,22 +2788,22 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000152</t>
+          <t>GMHO:0000213</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>number of female biological sex</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+          <t>The number of female biological sex in a population.</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr"/>
@@ -2809,16 +2817,8 @@
       <c r="M41" s="2" t="inlineStr"/>
       <c r="N41" s="2" t="inlineStr"/>
       <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P41" s="2" t="inlineStr"/>
+      <c r="Q41" s="2" t="inlineStr"/>
       <c r="R41" s="2" t="inlineStr"/>
       <c r="S41" s="2" t="inlineStr">
         <is>
@@ -2836,22 +2836,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -2867,7 +2867,7 @@
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2892,18 +2892,17 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMHO:0000206
-</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>number of participants with measurement</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants for whom a measurement was made.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
@@ -2924,7 +2923,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2949,17 +2948,18 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t xml:space="preserve">GMHO:0000206
+</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>number of participants with measurement</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2980,7 +2980,7 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3005,31 +3005,27 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
       <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
@@ -3040,7 +3036,7 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -3065,29 +3061,29 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
       <c r="G46" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H46" s="2" t="inlineStr"/>
@@ -3125,29 +3121,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3185,31 +3181,31 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
@@ -3245,35 +3241,31 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000158</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
+          <t>anxiety symptom severity</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
+      <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
@@ -3309,31 +3301,35 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
@@ -3344,7 +3340,7 @@
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q50" s="2" t="inlineStr">
@@ -3369,27 +3365,27 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
@@ -3404,7 +3400,7 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3429,43 +3425,35 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
       <c r="M52" s="2" t="inlineStr"/>
       <c r="N52" s="2" t="inlineStr"/>
@@ -3497,39 +3485,43 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
@@ -3544,12 +3536,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R53" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R53" s="2" t="inlineStr"/>
       <c r="S53" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3566,31 +3553,35 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
@@ -3609,7 +3600,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr"/>
+      <c r="R54" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3626,25 +3622,29 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F55" s="2" t="inlineStr"/>
       <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3657,7 +3657,7 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3682,22 +3682,22 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr"/>
@@ -3713,7 +3713,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3738,22 +3738,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3794,31 +3794,27 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
@@ -3854,27 +3850,31 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
@@ -3885,7 +3885,7 @@
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3910,40 +3910,31 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
       <c r="M60" s="2" t="inlineStr"/>
       <c r="N60" s="2" t="inlineStr"/>
@@ -3965,11 +3956,7 @@
         </is>
       </c>
       <c r="T60" s="2" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U60" s="2" t="inlineStr"/>
       <c r="V60" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3979,34 +3966,47 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr"/>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr"/>
       <c r="N61" s="2" t="inlineStr"/>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -4021,7 +4021,11 @@
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr"/>
-      <c r="U61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V61" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4031,24 +4035,20 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr"/>
@@ -4087,22 +4087,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -4118,7 +4118,7 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -4133,148 +4133,144 @@
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr"/>
-      <c r="U63" s="2" t="inlineStr">
+      <c r="U63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V63" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -4290,7 +4286,7 @@
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -4305,7 +4301,11 @@
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V66" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4315,17 +4315,17 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
@@ -4346,12 +4346,12 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R67" s="2" t="inlineStr"/>
@@ -4361,128 +4361,184 @@
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr">
+      <c r="U67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V67" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr">
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr"/>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="inlineStr"/>
-      <c r="U69" s="2" t="inlineStr"/>
-      <c r="V69" s="2" t="inlineStr">
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,56 +3908,44 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>BCIO:015329</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>proportion female sex population statistic</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>The proportion of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3966,40 +3954,31 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
       <c r="M61" s="2" t="inlineStr"/>
       <c r="N61" s="2" t="inlineStr"/>
@@ -4021,11 +4000,7 @@
         </is>
       </c>
       <c r="T61" s="2" t="inlineStr"/>
-      <c r="U61" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U61" s="2" t="inlineStr"/>
       <c r="V61" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4035,34 +4010,47 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr"/>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr"/>
       <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4077,7 +4065,11 @@
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr"/>
-      <c r="U62" s="2" t="inlineStr"/>
+      <c r="U62" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4087,24 +4079,20 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr"/>
@@ -4143,22 +4131,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -4174,7 +4162,7 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -4189,148 +4177,144 @@
         </is>
       </c>
       <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr">
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V64" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -4346,7 +4330,7 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
@@ -4361,7 +4345,11 @@
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V67" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4371,17 +4359,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -4402,12 +4390,12 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R68" s="2" t="inlineStr"/>
@@ -4417,128 +4405,184 @@
         </is>
       </c>
       <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr">
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V68" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="V69" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr">
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="inlineStr"/>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr">
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3923,20 +3923,36 @@
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr">
         <is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -40,6 +40,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -55,10 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -424,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,112 +677,112 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000201</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>anhedonia scale</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure anhedonia symptom severity.</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="3" t="inlineStr"/>
+      <c r="M4" s="3" t="inlineStr"/>
+      <c r="N4" s="3" t="inlineStr"/>
+      <c r="O4" s="3" t="inlineStr"/>
+      <c r="P4" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T4" s="2" t="inlineStr"/>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr">
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="inlineStr"/>
+      <c r="S4" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T4" s="3" t="inlineStr"/>
+      <c r="U4" s="3" t="inlineStr"/>
+      <c r="V4" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000131</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>anhedonia symptom severity</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with anhedonia.</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
-      <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
-      <c r="K5" s="2" t="inlineStr"/>
-      <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="inlineStr"/>
-      <c r="N5" s="2" t="inlineStr"/>
-      <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr"/>
+      <c r="F5" s="3" t="inlineStr"/>
+      <c r="G5" s="3" t="inlineStr"/>
+      <c r="H5" s="3" t="inlineStr"/>
+      <c r="I5" s="3" t="inlineStr"/>
+      <c r="J5" s="3" t="inlineStr"/>
+      <c r="K5" s="3" t="inlineStr"/>
+      <c r="L5" s="3" t="inlineStr"/>
+      <c r="M5" s="3" t="inlineStr"/>
+      <c r="N5" s="3" t="inlineStr"/>
+      <c r="O5" s="3" t="inlineStr"/>
+      <c r="P5" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T5" s="2" t="inlineStr"/>
-      <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr">
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr"/>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr"/>
+      <c r="U5" s="3" t="inlineStr"/>
+      <c r="V5" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -833,56 +845,56 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000202</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>anxiety scale</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure anxiety symptom severity.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr"/>
-      <c r="H7" s="2" t="inlineStr"/>
-      <c r="I7" s="2" t="inlineStr"/>
-      <c r="J7" s="2" t="inlineStr"/>
-      <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="inlineStr"/>
-      <c r="N7" s="2" t="inlineStr"/>
-      <c r="O7" s="2" t="inlineStr"/>
-      <c r="P7" s="2" t="inlineStr">
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr"/>
+      <c r="H7" s="3" t="inlineStr"/>
+      <c r="I7" s="3" t="inlineStr"/>
+      <c r="J7" s="3" t="inlineStr"/>
+      <c r="K7" s="3" t="inlineStr"/>
+      <c r="L7" s="3" t="inlineStr"/>
+      <c r="M7" s="3" t="inlineStr"/>
+      <c r="N7" s="3" t="inlineStr"/>
+      <c r="O7" s="3" t="inlineStr"/>
+      <c r="P7" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q7" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr"/>
-      <c r="U7" s="2" t="inlineStr"/>
-      <c r="V7" s="2" t="inlineStr">
+      <c r="Q7" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R7" s="3" t="inlineStr"/>
+      <c r="S7" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T7" s="3" t="inlineStr"/>
+      <c r="U7" s="3" t="inlineStr"/>
+      <c r="V7" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -945,56 +957,56 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000143</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with an anxiety symptom.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
-      <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
-      <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
-      <c r="K9" s="2" t="inlineStr"/>
-      <c r="L9" s="2" t="inlineStr"/>
-      <c r="M9" s="2" t="inlineStr"/>
-      <c r="N9" s="2" t="inlineStr"/>
-      <c r="O9" s="2" t="inlineStr"/>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q9" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R9" s="2" t="inlineStr"/>
-      <c r="S9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr"/>
-      <c r="U9" s="2" t="inlineStr"/>
-      <c r="V9" s="2" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr"/>
+      <c r="F9" s="3" t="inlineStr"/>
+      <c r="G9" s="3" t="inlineStr"/>
+      <c r="H9" s="3" t="inlineStr"/>
+      <c r="I9" s="3" t="inlineStr"/>
+      <c r="J9" s="3" t="inlineStr"/>
+      <c r="K9" s="3" t="inlineStr"/>
+      <c r="L9" s="3" t="inlineStr"/>
+      <c r="M9" s="3" t="inlineStr"/>
+      <c r="N9" s="3" t="inlineStr"/>
+      <c r="O9" s="3" t="inlineStr"/>
+      <c r="P9" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q9" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R9" s="3" t="inlineStr"/>
+      <c r="S9" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T9" s="3" t="inlineStr"/>
+      <c r="U9" s="3" t="inlineStr"/>
+      <c r="V9" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1123,24 +1135,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>OBI:0000679</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>average value</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>A bodily quality based on reproductive function or organs.</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
+          <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1154,7 +1162,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1169,308 +1177,308 @@
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr">
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BCIO:015105</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>A bodily quality based on reproductive function or organs.</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000090</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A person who has not yet reached maturity. </t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="D14" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr"/>
-      <c r="H13" s="2" t="inlineStr"/>
-      <c r="I13" s="2" t="inlineStr"/>
-      <c r="J13" s="2" t="inlineStr"/>
-      <c r="K13" s="2" t="inlineStr"/>
-      <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="inlineStr"/>
-      <c r="N13" s="2" t="inlineStr"/>
-      <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr"/>
+      <c r="H14" s="2" t="inlineStr"/>
+      <c r="I14" s="2" t="inlineStr"/>
+      <c r="J14" s="2" t="inlineStr"/>
+      <c r="K14" s="2" t="inlineStr"/>
+      <c r="L14" s="2" t="inlineStr"/>
+      <c r="M14" s="2" t="inlineStr"/>
+      <c r="N14" s="2" t="inlineStr"/>
+      <c r="O14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q13" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R13" s="2" t="inlineStr"/>
-      <c r="S13" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T13" s="2" t="inlineStr"/>
-      <c r="U13" s="2" t="inlineStr">
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr"/>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr"/>
+      <c r="U14" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V13" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>OGMS:0000123</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr">
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr">
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000091</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>clinical history of psychosis experience</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which there is a history of psychosis experience.</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>OMIABIS:0001008</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>comorbidity</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>OMIABIS:0001008</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Relation between person and diagnosis needs to be specified</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000146</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">depression data item </t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of depression symptom severity.</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr"/>
-      <c r="V17" s="2" t="inlineStr">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1479,22 +1487,22 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000176</t>
+          <t>GMHO:0000146</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t xml:space="preserve">depression data item </t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+          <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr"/>
@@ -1513,7 +1521,11 @@
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr"/>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R18" s="2" t="inlineStr"/>
       <c r="S18" s="2" t="inlineStr">
         <is>
@@ -1531,22 +1543,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000061</t>
+          <t>GMHO:0000176</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>depression symptom</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A symptom that is related to a depression diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1560,7 +1572,11 @@
       <c r="M19" s="2" t="inlineStr"/>
       <c r="N19" s="2" t="inlineStr"/>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr"/>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
       <c r="Q19" s="2" t="inlineStr"/>
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
@@ -1579,22 +1595,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symptom.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1608,16 +1624,8 @@
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr"/>
       <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
@@ -1633,120 +1641,116 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000062</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a depression symptom.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
+      <c r="I21" s="2" t="inlineStr"/>
+      <c r="J21" s="2" t="inlineStr"/>
+      <c r="K21" s="2" t="inlineStr"/>
+      <c r="L21" s="2" t="inlineStr"/>
+      <c r="M21" s="2" t="inlineStr"/>
+      <c r="N21" s="2" t="inlineStr"/>
+      <c r="O21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr"/>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr"/>
+      <c r="U21" s="2" t="inlineStr"/>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr">
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr">
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr">
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000148</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr"/>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr"/>
-      <c r="K22" s="2" t="inlineStr"/>
-      <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="inlineStr"/>
-      <c r="N22" s="2" t="inlineStr"/>
-      <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr"/>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr"/>
-      <c r="U22" s="2" t="inlineStr"/>
-      <c r="V22" s="2" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1755,33 +1759,33 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000148</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
       <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
@@ -1790,7 +1794,7 @@
       <c r="O23" s="2" t="inlineStr"/>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -1815,27 +1819,31 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
@@ -1846,7 +1854,7 @@
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -1861,68 +1869,68 @@
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr">
+      <c r="U24" s="2" t="inlineStr"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000092</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr"/>
+      <c r="F25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr"/>
+      <c r="H25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr"/>
+      <c r="J25" s="2" t="inlineStr"/>
+      <c r="K25" s="2" t="inlineStr"/>
+      <c r="L25" s="2" t="inlineStr"/>
+      <c r="M25" s="2" t="inlineStr"/>
+      <c r="N25" s="2" t="inlineStr"/>
+      <c r="O25" s="2" t="inlineStr"/>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr"/>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr"/>
+      <c r="U25" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V24" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr">
+      <c r="V25" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1931,22 +1939,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1962,7 +1970,7 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -1987,22 +1995,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015106</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>female biological sex</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>The aggregate of female biological sex in a population.</t>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2041,60 +2049,56 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr"/>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
-      <c r="J28" s="2" t="inlineStr"/>
-      <c r="K28" s="2" t="inlineStr"/>
-      <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="inlineStr"/>
-      <c r="N28" s="2" t="inlineStr"/>
-      <c r="O28" s="2" t="inlineStr"/>
-      <c r="P28" s="2" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BCIO:015327</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>The aggregate of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr"/>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2103,22 +2107,22 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr"/>
@@ -2149,7 +2153,11 @@
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2159,22 +2167,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2190,7 +2198,7 @@
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -2205,72 +2213,68 @@
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr">
+      <c r="U30" s="2" t="inlineStr"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr"/>
+      <c r="F31" s="2" t="inlineStr"/>
+      <c r="G31" s="2" t="inlineStr"/>
+      <c r="H31" s="2" t="inlineStr"/>
+      <c r="I31" s="2" t="inlineStr"/>
+      <c r="J31" s="2" t="inlineStr"/>
+      <c r="K31" s="2" t="inlineStr"/>
+      <c r="L31" s="2" t="inlineStr"/>
+      <c r="M31" s="2" t="inlineStr"/>
+      <c r="N31" s="2" t="inlineStr"/>
+      <c r="O31" s="2" t="inlineStr"/>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V30" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
+      <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2279,22 +2283,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2325,7 +2329,11 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2333,56 +2341,56 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr"/>
-      <c r="H33" s="2" t="inlineStr"/>
-      <c r="I33" s="2" t="inlineStr"/>
-      <c r="J33" s="2" t="inlineStr"/>
-      <c r="K33" s="2" t="inlineStr"/>
-      <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="inlineStr"/>
-      <c r="N33" s="2" t="inlineStr"/>
-      <c r="O33" s="2" t="inlineStr"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="inlineStr"/>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr"/>
-      <c r="V33" s="2" t="inlineStr">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2391,23 +2399,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr"/>
@@ -2423,7 +2430,7 @@
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -2446,56 +2453,57 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr"/>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
+      <c r="H35" s="2" t="inlineStr"/>
+      <c r="I35" s="2" t="inlineStr"/>
+      <c r="J35" s="2" t="inlineStr"/>
+      <c r="K35" s="2" t="inlineStr"/>
+      <c r="L35" s="2" t="inlineStr"/>
+      <c r="M35" s="2" t="inlineStr"/>
+      <c r="N35" s="2" t="inlineStr"/>
+      <c r="O35" s="2" t="inlineStr"/>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr"/>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr"/>
+      <c r="U35" s="2" t="inlineStr"/>
+      <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2504,22 +2512,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2550,11 +2558,7 @@
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2564,22 +2568,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2595,7 +2599,7 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -2610,7 +2614,11 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2618,56 +2626,56 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000209</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>measurement datum at baseline</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Measurement datum that was recorded as baseline data in a study.</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>A data item that is a recording of the output of an assay.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2676,22 +2684,22 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000212</t>
+          <t>GMHO:0000209</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>measurement scale at baseline</t>
+          <t>measurement datum at baseline</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale used to measure baseline data in a study.</t>
+          <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr"/>
@@ -2730,104 +2738,112 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000212</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale at baseline</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>A measurement scale used to measure baseline data in a study.</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B41" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000213</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>number of female biological sex</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>The number of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr"/>
-      <c r="Q41" s="2" t="inlineStr"/>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2836,22 +2852,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000152</t>
+          <t>GMHO:0000213</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>number of female biological sex</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+          <t>The number of female biological sex in a population.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -2865,16 +2881,8 @@
       <c r="M42" s="2" t="inlineStr"/>
       <c r="N42" s="2" t="inlineStr"/>
       <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P42" s="2" t="inlineStr"/>
+      <c r="Q42" s="2" t="inlineStr"/>
       <c r="R42" s="2" t="inlineStr"/>
       <c r="S42" s="2" t="inlineStr">
         <is>
@@ -2892,22 +2900,22 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr"/>
@@ -2923,7 +2931,7 @@
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
@@ -2948,18 +2956,17 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMHO:0000206
-</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>number of participants with measurement</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants for whom a measurement was made.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
@@ -2980,7 +2987,7 @@
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
@@ -3005,17 +3012,18 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000154</t>
+          <t xml:space="preserve">GMHO:0000206
+</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>number of randomised intervention participants</t>
+          <t>number of participants with measurement</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+          <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
@@ -3036,7 +3044,7 @@
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -3061,31 +3069,27 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
       <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G46" s="2" t="inlineStr"/>
       <c r="H46" s="2" t="inlineStr"/>
       <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
@@ -3096,7 +3100,7 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -3121,29 +3125,29 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
       <c r="F47" s="2" t="inlineStr"/>
       <c r="G47" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H47" s="2" t="inlineStr"/>
@@ -3181,29 +3185,29 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H48" s="2" t="inlineStr"/>
@@ -3241,31 +3245,31 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
@@ -3299,64 +3303,60 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B50" s="4" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C50" s="4" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D50" s="4" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E50" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr"/>
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3365,31 +3365,35 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
@@ -3400,7 +3404,7 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3425,27 +3429,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3460,7 +3464,7 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -3485,43 +3489,35 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G53" s="2" t="inlineStr"/>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
       <c r="M53" s="2" t="inlineStr"/>
       <c r="N53" s="2" t="inlineStr"/>
@@ -3553,39 +3549,43 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
       <c r="G54" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr"/>
       <c r="N54" s="2" t="inlineStr"/>
@@ -3600,12 +3600,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R54" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R54" s="2" t="inlineStr"/>
       <c r="S54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3622,31 +3617,35 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
@@ -3665,7 +3664,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R55" s="2" t="inlineStr"/>
+      <c r="R55" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3682,25 +3686,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3713,7 +3721,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3738,22 +3746,22 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
@@ -3769,7 +3777,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3794,22 +3802,22 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
@@ -3850,31 +3858,27 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
@@ -3908,116 +3912,120 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr">
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="inlineStr"/>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr">
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4026,40 +4034,31 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
       <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr"/>
       <c r="N62" s="2" t="inlineStr"/>
@@ -4081,11 +4080,7 @@
         </is>
       </c>
       <c r="T62" s="2" t="inlineStr"/>
-      <c r="U62" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U62" s="2" t="inlineStr"/>
       <c r="V62" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4095,34 +4090,47 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000098</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>psychosis experience</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr"/>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
       <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
       <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
       <c r="L63" s="2" t="inlineStr"/>
       <c r="M63" s="2" t="inlineStr"/>
       <c r="N63" s="2" t="inlineStr"/>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -4137,7 +4145,11 @@
         </is>
       </c>
       <c r="T63" s="2" t="inlineStr"/>
-      <c r="U63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V63" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4147,24 +4159,20 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr"/>
@@ -4203,22 +4211,22 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -4234,7 +4242,7 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -4249,148 +4257,144 @@
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr">
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V67" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -4406,7 +4410,7 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
@@ -4421,7 +4425,11 @@
         </is>
       </c>
       <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V68" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4431,17 +4439,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -4462,12 +4470,12 @@
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R69" s="2" t="inlineStr"/>
@@ -4477,128 +4485,184 @@
         </is>
       </c>
       <c r="T69" s="2" t="inlineStr"/>
-      <c r="U69" s="2" t="inlineStr">
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V69" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr">
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="inlineStr"/>
-      <c r="U71" s="2" t="inlineStr"/>
-      <c r="V71" s="2" t="inlineStr">
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -44,7 +44,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
+        <fgColor rgb="007fffd4"/>
       </patternFill>
     </fill>
     <fill>
@@ -721,7 +721,7 @@
       <c r="R4" s="3" t="inlineStr"/>
       <c r="S4" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T4" s="3" t="inlineStr"/>
@@ -777,7 +777,7 @@
       <c r="R5" s="3" t="inlineStr"/>
       <c r="S5" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T5" s="3" t="inlineStr"/>
@@ -889,7 +889,7 @@
       <c r="R7" s="3" t="inlineStr"/>
       <c r="S7" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T7" s="3" t="inlineStr"/>
@@ -1001,7 +1001,7 @@
       <c r="R9" s="3" t="inlineStr"/>
       <c r="S9" s="3" t="inlineStr">
         <is>
-          <t>Discussed</t>
+          <t>Published</t>
         </is>
       </c>
       <c r="T9" s="3" t="inlineStr"/>
@@ -1148,7 +1148,11 @@
           <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2686,112 +2692,112 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="E39" s="4" t="inlineStr"/>
+      <c r="F39" s="4" t="inlineStr"/>
+      <c r="G39" s="4" t="inlineStr"/>
+      <c r="H39" s="4" t="inlineStr"/>
+      <c r="I39" s="4" t="inlineStr"/>
+      <c r="J39" s="4" t="inlineStr"/>
+      <c r="K39" s="4" t="inlineStr"/>
+      <c r="L39" s="4" t="inlineStr"/>
+      <c r="M39" s="4" t="inlineStr"/>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="inlineStr"/>
+      <c r="S39" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T39" s="4" t="inlineStr"/>
+      <c r="U39" s="4" t="inlineStr"/>
+      <c r="V39" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C40" s="4" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
+      <c r="E40" s="4" t="inlineStr"/>
+      <c r="F40" s="4" t="inlineStr"/>
+      <c r="G40" s="4" t="inlineStr"/>
+      <c r="H40" s="4" t="inlineStr"/>
+      <c r="I40" s="4" t="inlineStr"/>
+      <c r="J40" s="4" t="inlineStr"/>
+      <c r="K40" s="4" t="inlineStr"/>
+      <c r="L40" s="4" t="inlineStr"/>
+      <c r="M40" s="4" t="inlineStr"/>
+      <c r="N40" s="4" t="inlineStr"/>
+      <c r="O40" s="4" t="inlineStr"/>
+      <c r="P40" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
+      <c r="Q40" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" s="4" t="inlineStr"/>
+      <c r="S40" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T40" s="4" t="inlineStr"/>
+      <c r="U40" s="4" t="inlineStr"/>
+      <c r="V40" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2854,48 +2860,48 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="4" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr"/>
-      <c r="Q42" s="2" t="inlineStr"/>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr">
+      <c r="E42" s="4" t="inlineStr"/>
+      <c r="F42" s="4" t="inlineStr"/>
+      <c r="G42" s="4" t="inlineStr"/>
+      <c r="H42" s="4" t="inlineStr"/>
+      <c r="I42" s="4" t="inlineStr"/>
+      <c r="J42" s="4" t="inlineStr"/>
+      <c r="K42" s="4" t="inlineStr"/>
+      <c r="L42" s="4" t="inlineStr"/>
+      <c r="M42" s="4" t="inlineStr"/>
+      <c r="N42" s="4" t="inlineStr"/>
+      <c r="O42" s="4" t="inlineStr"/>
+      <c r="P42" s="4" t="inlineStr"/>
+      <c r="Q42" s="4" t="inlineStr"/>
+      <c r="R42" s="4" t="inlineStr"/>
+      <c r="S42" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T42" s="4" t="inlineStr"/>
+      <c r="U42" s="4" t="inlineStr"/>
+      <c r="V42" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3014,113 +3020,113 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="inlineStr">
+      <c r="A45" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D45" s="2" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr">
+      <c r="E45" s="4" t="inlineStr"/>
+      <c r="F45" s="4" t="inlineStr"/>
+      <c r="G45" s="4" t="inlineStr"/>
+      <c r="H45" s="4" t="inlineStr"/>
+      <c r="I45" s="4" t="inlineStr"/>
+      <c r="J45" s="4" t="inlineStr"/>
+      <c r="K45" s="4" t="inlineStr"/>
+      <c r="L45" s="4" t="inlineStr"/>
+      <c r="M45" s="4" t="inlineStr"/>
+      <c r="N45" s="4" t="inlineStr"/>
+      <c r="O45" s="4" t="inlineStr"/>
+      <c r="P45" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="Q45" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" s="4" t="inlineStr"/>
+      <c r="S45" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T45" s="4" t="inlineStr"/>
+      <c r="U45" s="4" t="inlineStr"/>
+      <c r="V45" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
+      <c r="A46" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D46" s="2" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
+      <c r="E46" s="4" t="inlineStr"/>
+      <c r="F46" s="4" t="inlineStr"/>
+      <c r="G46" s="4" t="inlineStr"/>
+      <c r="H46" s="4" t="inlineStr"/>
+      <c r="I46" s="4" t="inlineStr"/>
+      <c r="J46" s="4" t="inlineStr"/>
+      <c r="K46" s="4" t="inlineStr"/>
+      <c r="L46" s="4" t="inlineStr"/>
+      <c r="M46" s="4" t="inlineStr"/>
+      <c r="N46" s="4" t="inlineStr"/>
+      <c r="O46" s="4" t="inlineStr"/>
+      <c r="P46" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
+      <c r="Q46" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" s="4" t="inlineStr"/>
+      <c r="S46" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T46" s="4" t="inlineStr"/>
+      <c r="U46" s="4" t="inlineStr"/>
+      <c r="V46" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3307,60 +3313,60 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C50" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D50" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr">
+      <c r="E50" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="F50" s="5" t="inlineStr"/>
+      <c r="G50" s="5" t="inlineStr"/>
+      <c r="H50" s="5" t="inlineStr"/>
+      <c r="I50" s="5" t="inlineStr"/>
+      <c r="J50" s="5" t="inlineStr"/>
+      <c r="K50" s="5" t="inlineStr"/>
+      <c r="L50" s="5" t="inlineStr"/>
+      <c r="M50" s="5" t="inlineStr"/>
+      <c r="N50" s="5" t="inlineStr"/>
+      <c r="O50" s="5" t="inlineStr"/>
+      <c r="P50" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="Q50" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="5" t="inlineStr"/>
+      <c r="S50" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
+      <c r="T50" s="5" t="inlineStr"/>
+      <c r="U50" s="5" t="inlineStr"/>
+      <c r="V50" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4161,52 +4167,56 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000207</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>reward sensitivity scale</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr"/>
+      <c r="H64" s="4" t="inlineStr"/>
+      <c r="I64" s="4" t="inlineStr"/>
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T64" s="4" t="inlineStr"/>
+      <c r="U64" s="4" t="inlineStr"/>
+      <c r="V64" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4167,112 +4167,108 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000135</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>reward sensitivity</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000207</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>reward sensitivity scale</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C65" s="4" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr"/>
-      <c r="F64" s="4" t="inlineStr"/>
-      <c r="G64" s="4" t="inlineStr"/>
-      <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="4" t="inlineStr"/>
-      <c r="J64" s="4" t="inlineStr"/>
-      <c r="K64" s="4" t="inlineStr"/>
-      <c r="L64" s="4" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr"/>
-      <c r="O64" s="4" t="inlineStr"/>
-      <c r="P64" s="4" t="inlineStr">
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr"/>
+      <c r="G65" s="4" t="inlineStr"/>
+      <c r="H65" s="4" t="inlineStr"/>
+      <c r="I65" s="4" t="inlineStr"/>
+      <c r="J65" s="4" t="inlineStr"/>
+      <c r="K65" s="4" t="inlineStr"/>
+      <c r="L65" s="4" t="inlineStr"/>
+      <c r="M65" s="4" t="inlineStr"/>
+      <c r="N65" s="4" t="inlineStr"/>
+      <c r="O65" s="4" t="inlineStr"/>
+      <c r="P65" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q64" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="4" t="inlineStr"/>
-      <c r="S64" s="4" t="inlineStr">
+      <c r="Q65" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="4" t="inlineStr"/>
+      <c r="S65" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T64" s="4" t="inlineStr"/>
-      <c r="U64" s="4" t="inlineStr"/>
-      <c r="V64" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000208</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>scale directionality</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr">
+      <c r="T65" s="4" t="inlineStr"/>
+      <c r="U65" s="4" t="inlineStr"/>
+      <c r="V65" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4281,22 +4277,22 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000099</t>
+          <t>GMHO:0000208</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>schizophrenia diagnosis</t>
+          <t>scale directionality</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
@@ -4312,7 +4308,7 @@
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -4327,148 +4323,144 @@
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr">
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000099</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>schizophrenia diagnosis</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr"/>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr"/>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B68" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr">
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
-      <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
-      <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr"/>
-      <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr"/>
-      <c r="L68" s="2" t="inlineStr"/>
-      <c r="M68" s="2" t="inlineStr"/>
-      <c r="N68" s="2" t="inlineStr"/>
-      <c r="O68" s="2" t="inlineStr"/>
-      <c r="P68" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q68" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" s="2" t="inlineStr"/>
-      <c r="S68" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V68" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4484,7 +4476,7 @@
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
@@ -4499,7 +4491,11 @@
         </is>
       </c>
       <c r="T69" s="2" t="inlineStr"/>
-      <c r="U69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V69" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4509,17 +4505,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -4540,12 +4536,12 @@
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R70" s="2" t="inlineStr"/>
@@ -4555,128 +4551,184 @@
         </is>
       </c>
       <c r="T70" s="2" t="inlineStr"/>
-      <c r="U70" s="2" t="inlineStr">
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V70" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr">
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D72" s="2" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr"/>
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr"/>
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr">
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="inlineStr"/>
+      <c r="S73" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr">
+      <c r="T73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -4167,52 +4167,56 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000135</t>
         </is>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>reward sensitivity</t>
         </is>
       </c>
-      <c r="C64" s="2" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr"/>
+      <c r="F64" s="4" t="inlineStr"/>
+      <c r="G64" s="4" t="inlineStr"/>
+      <c r="H64" s="4" t="inlineStr"/>
+      <c r="I64" s="4" t="inlineStr"/>
+      <c r="J64" s="4" t="inlineStr"/>
+      <c r="K64" s="4" t="inlineStr"/>
+      <c r="L64" s="4" t="inlineStr"/>
+      <c r="M64" s="4" t="inlineStr"/>
+      <c r="N64" s="4" t="inlineStr"/>
+      <c r="O64" s="4" t="inlineStr"/>
+      <c r="P64" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="Q64" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="4" t="inlineStr"/>
+      <c r="S64" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T64" s="4" t="inlineStr"/>
+      <c r="U64" s="4" t="inlineStr"/>
+      <c r="V64" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -4279,56 +4279,56 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="inlineStr">
+      <c r="A66" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000208</t>
         </is>
       </c>
-      <c r="B66" s="2" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>scale directionality</t>
         </is>
       </c>
-      <c r="C66" s="2" t="inlineStr">
+      <c r="C66" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
-      <c r="D66" s="2" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr">
+      <c r="E66" s="4" t="inlineStr"/>
+      <c r="F66" s="4" t="inlineStr"/>
+      <c r="G66" s="4" t="inlineStr"/>
+      <c r="H66" s="4" t="inlineStr"/>
+      <c r="I66" s="4" t="inlineStr"/>
+      <c r="J66" s="4" t="inlineStr"/>
+      <c r="K66" s="4" t="inlineStr"/>
+      <c r="L66" s="4" t="inlineStr"/>
+      <c r="M66" s="4" t="inlineStr"/>
+      <c r="N66" s="4" t="inlineStr"/>
+      <c r="O66" s="4" t="inlineStr"/>
+      <c r="P66" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr">
+      <c r="Q66" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="4" t="inlineStr"/>
+      <c r="S66" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T66" s="4" t="inlineStr"/>
+      <c r="U66" s="4" t="inlineStr"/>
+      <c r="V66" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2692,112 +2692,112 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D39" s="4" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E39" s="4" t="inlineStr"/>
-      <c r="F39" s="4" t="inlineStr"/>
-      <c r="G39" s="4" t="inlineStr"/>
-      <c r="H39" s="4" t="inlineStr"/>
-      <c r="I39" s="4" t="inlineStr"/>
-      <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
-      <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="4" t="inlineStr"/>
-      <c r="O39" s="4" t="inlineStr"/>
-      <c r="P39" s="4" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr"/>
+      <c r="F39" s="3" t="inlineStr"/>
+      <c r="G39" s="3" t="inlineStr"/>
+      <c r="H39" s="3" t="inlineStr"/>
+      <c r="I39" s="3" t="inlineStr"/>
+      <c r="J39" s="3" t="inlineStr"/>
+      <c r="K39" s="3" t="inlineStr"/>
+      <c r="L39" s="3" t="inlineStr"/>
+      <c r="M39" s="3" t="inlineStr"/>
+      <c r="N39" s="3" t="inlineStr"/>
+      <c r="O39" s="3" t="inlineStr"/>
+      <c r="P39" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" s="4" t="inlineStr"/>
-      <c r="S39" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T39" s="4" t="inlineStr"/>
-      <c r="U39" s="4" t="inlineStr"/>
-      <c r="V39" s="4" t="inlineStr">
+      <c r="Q39" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" s="3" t="inlineStr"/>
+      <c r="S39" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T39" s="3" t="inlineStr"/>
+      <c r="U39" s="3" t="inlineStr"/>
+      <c r="V39" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D40" s="4" t="inlineStr">
+      <c r="D40" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E40" s="4" t="inlineStr"/>
-      <c r="F40" s="4" t="inlineStr"/>
-      <c r="G40" s="4" t="inlineStr"/>
-      <c r="H40" s="4" t="inlineStr"/>
-      <c r="I40" s="4" t="inlineStr"/>
-      <c r="J40" s="4" t="inlineStr"/>
-      <c r="K40" s="4" t="inlineStr"/>
-      <c r="L40" s="4" t="inlineStr"/>
-      <c r="M40" s="4" t="inlineStr"/>
-      <c r="N40" s="4" t="inlineStr"/>
-      <c r="O40" s="4" t="inlineStr"/>
-      <c r="P40" s="4" t="inlineStr">
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr"/>
+      <c r="G40" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="inlineStr"/>
+      <c r="I40" s="3" t="inlineStr"/>
+      <c r="J40" s="3" t="inlineStr"/>
+      <c r="K40" s="3" t="inlineStr"/>
+      <c r="L40" s="3" t="inlineStr"/>
+      <c r="M40" s="3" t="inlineStr"/>
+      <c r="N40" s="3" t="inlineStr"/>
+      <c r="O40" s="3" t="inlineStr"/>
+      <c r="P40" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" s="4" t="inlineStr"/>
-      <c r="S40" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T40" s="4" t="inlineStr"/>
-      <c r="U40" s="4" t="inlineStr"/>
-      <c r="V40" s="4" t="inlineStr">
+      <c r="Q40" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" s="3" t="inlineStr"/>
+      <c r="S40" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T40" s="3" t="inlineStr"/>
+      <c r="U40" s="3" t="inlineStr"/>
+      <c r="V40" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2860,48 +2860,48 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D42" s="4" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E42" s="4" t="inlineStr"/>
-      <c r="F42" s="4" t="inlineStr"/>
-      <c r="G42" s="4" t="inlineStr"/>
-      <c r="H42" s="4" t="inlineStr"/>
-      <c r="I42" s="4" t="inlineStr"/>
-      <c r="J42" s="4" t="inlineStr"/>
-      <c r="K42" s="4" t="inlineStr"/>
-      <c r="L42" s="4" t="inlineStr"/>
-      <c r="M42" s="4" t="inlineStr"/>
-      <c r="N42" s="4" t="inlineStr"/>
-      <c r="O42" s="4" t="inlineStr"/>
-      <c r="P42" s="4" t="inlineStr"/>
-      <c r="Q42" s="4" t="inlineStr"/>
-      <c r="R42" s="4" t="inlineStr"/>
-      <c r="S42" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T42" s="4" t="inlineStr"/>
-      <c r="U42" s="4" t="inlineStr"/>
-      <c r="V42" s="4" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr"/>
+      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3020,57 +3020,57 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D45" s="4" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E45" s="4" t="inlineStr"/>
-      <c r="F45" s="4" t="inlineStr"/>
-      <c r="G45" s="4" t="inlineStr"/>
-      <c r="H45" s="4" t="inlineStr"/>
-      <c r="I45" s="4" t="inlineStr"/>
-      <c r="J45" s="4" t="inlineStr"/>
-      <c r="K45" s="4" t="inlineStr"/>
-      <c r="L45" s="4" t="inlineStr"/>
-      <c r="M45" s="4" t="inlineStr"/>
-      <c r="N45" s="4" t="inlineStr"/>
-      <c r="O45" s="4" t="inlineStr"/>
-      <c r="P45" s="4" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" s="4" t="inlineStr"/>
-      <c r="S45" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T45" s="4" t="inlineStr"/>
-      <c r="U45" s="4" t="inlineStr"/>
-      <c r="V45" s="4" t="inlineStr">
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4167,168 +4167,168 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
+      <c r="A64" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000135</t>
         </is>
       </c>
-      <c r="B64" s="4" t="inlineStr">
+      <c r="B64" s="3" t="inlineStr">
         <is>
           <t>reward sensitivity</t>
         </is>
       </c>
-      <c r="C64" s="4" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
-      <c r="D64" s="4" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="E64" s="4" t="inlineStr"/>
-      <c r="F64" s="4" t="inlineStr"/>
-      <c r="G64" s="4" t="inlineStr"/>
-      <c r="H64" s="4" t="inlineStr"/>
-      <c r="I64" s="4" t="inlineStr"/>
-      <c r="J64" s="4" t="inlineStr"/>
-      <c r="K64" s="4" t="inlineStr"/>
-      <c r="L64" s="4" t="inlineStr"/>
-      <c r="M64" s="4" t="inlineStr"/>
-      <c r="N64" s="4" t="inlineStr"/>
-      <c r="O64" s="4" t="inlineStr"/>
-      <c r="P64" s="4" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr"/>
+      <c r="F64" s="3" t="inlineStr"/>
+      <c r="G64" s="3" t="inlineStr"/>
+      <c r="H64" s="3" t="inlineStr"/>
+      <c r="I64" s="3" t="inlineStr"/>
+      <c r="J64" s="3" t="inlineStr"/>
+      <c r="K64" s="3" t="inlineStr"/>
+      <c r="L64" s="3" t="inlineStr"/>
+      <c r="M64" s="3" t="inlineStr"/>
+      <c r="N64" s="3" t="inlineStr"/>
+      <c r="O64" s="3" t="inlineStr"/>
+      <c r="P64" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q64" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="4" t="inlineStr"/>
-      <c r="S64" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T64" s="4" t="inlineStr"/>
-      <c r="U64" s="4" t="inlineStr"/>
-      <c r="V64" s="4" t="inlineStr">
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="inlineStr"/>
+      <c r="S64" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T64" s="3" t="inlineStr"/>
+      <c r="U64" s="3" t="inlineStr"/>
+      <c r="V64" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
+      <c r="A65" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000207</t>
         </is>
       </c>
-      <c r="B65" s="4" t="inlineStr">
+      <c r="B65" s="3" t="inlineStr">
         <is>
           <t>reward sensitivity scale</t>
         </is>
       </c>
-      <c r="C65" s="4" t="inlineStr">
+      <c r="C65" s="3" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
-      <c r="D65" s="4" t="inlineStr">
+      <c r="D65" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E65" s="4" t="inlineStr"/>
-      <c r="F65" s="4" t="inlineStr"/>
-      <c r="G65" s="4" t="inlineStr"/>
-      <c r="H65" s="4" t="inlineStr"/>
-      <c r="I65" s="4" t="inlineStr"/>
-      <c r="J65" s="4" t="inlineStr"/>
-      <c r="K65" s="4" t="inlineStr"/>
-      <c r="L65" s="4" t="inlineStr"/>
-      <c r="M65" s="4" t="inlineStr"/>
-      <c r="N65" s="4" t="inlineStr"/>
-      <c r="O65" s="4" t="inlineStr"/>
-      <c r="P65" s="4" t="inlineStr">
+      <c r="E65" s="3" t="inlineStr"/>
+      <c r="F65" s="3" t="inlineStr"/>
+      <c r="G65" s="3" t="inlineStr"/>
+      <c r="H65" s="3" t="inlineStr"/>
+      <c r="I65" s="3" t="inlineStr"/>
+      <c r="J65" s="3" t="inlineStr"/>
+      <c r="K65" s="3" t="inlineStr"/>
+      <c r="L65" s="3" t="inlineStr"/>
+      <c r="M65" s="3" t="inlineStr"/>
+      <c r="N65" s="3" t="inlineStr"/>
+      <c r="O65" s="3" t="inlineStr"/>
+      <c r="P65" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q65" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="4" t="inlineStr"/>
-      <c r="S65" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T65" s="4" t="inlineStr"/>
-      <c r="U65" s="4" t="inlineStr"/>
-      <c r="V65" s="4" t="inlineStr">
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="3" t="inlineStr"/>
+      <c r="S65" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T65" s="3" t="inlineStr"/>
+      <c r="U65" s="3" t="inlineStr"/>
+      <c r="V65" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
+      <c r="A66" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000208</t>
         </is>
       </c>
-      <c r="B66" s="4" t="inlineStr">
+      <c r="B66" s="3" t="inlineStr">
         <is>
           <t>scale directionality</t>
         </is>
       </c>
-      <c r="C66" s="4" t="inlineStr">
+      <c r="C66" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
-      <c r="D66" s="4" t="inlineStr">
+      <c r="D66" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E66" s="4" t="inlineStr"/>
-      <c r="F66" s="4" t="inlineStr"/>
-      <c r="G66" s="4" t="inlineStr"/>
-      <c r="H66" s="4" t="inlineStr"/>
-      <c r="I66" s="4" t="inlineStr"/>
-      <c r="J66" s="4" t="inlineStr"/>
-      <c r="K66" s="4" t="inlineStr"/>
-      <c r="L66" s="4" t="inlineStr"/>
-      <c r="M66" s="4" t="inlineStr"/>
-      <c r="N66" s="4" t="inlineStr"/>
-      <c r="O66" s="4" t="inlineStr"/>
-      <c r="P66" s="4" t="inlineStr">
+      <c r="E66" s="3" t="inlineStr"/>
+      <c r="F66" s="3" t="inlineStr"/>
+      <c r="G66" s="3" t="inlineStr"/>
+      <c r="H66" s="3" t="inlineStr"/>
+      <c r="I66" s="3" t="inlineStr"/>
+      <c r="J66" s="3" t="inlineStr"/>
+      <c r="K66" s="3" t="inlineStr"/>
+      <c r="L66" s="3" t="inlineStr"/>
+      <c r="M66" s="3" t="inlineStr"/>
+      <c r="N66" s="3" t="inlineStr"/>
+      <c r="O66" s="3" t="inlineStr"/>
+      <c r="P66" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q66" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="4" t="inlineStr"/>
-      <c r="S66" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T66" s="4" t="inlineStr"/>
-      <c r="U66" s="4" t="inlineStr"/>
-      <c r="V66" s="4" t="inlineStr">
+      <c r="Q66" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="3" t="inlineStr"/>
+      <c r="S66" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T66" s="3" t="inlineStr"/>
+      <c r="U66" s="3" t="inlineStr"/>
+      <c r="V66" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1495,56 +1495,56 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000146</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">depression data item </t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of depression symptom severity.</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr"/>
-      <c r="F18" s="2" t="inlineStr"/>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
-      <c r="I18" s="2" t="inlineStr"/>
-      <c r="J18" s="2" t="inlineStr"/>
-      <c r="K18" s="2" t="inlineStr"/>
-      <c r="L18" s="2" t="inlineStr"/>
-      <c r="M18" s="2" t="inlineStr"/>
-      <c r="N18" s="2" t="inlineStr"/>
-      <c r="O18" s="2" t="inlineStr"/>
-      <c r="P18" s="2" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R18" s="2" t="inlineStr"/>
-      <c r="S18" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T18" s="2" t="inlineStr"/>
-      <c r="U18" s="2" t="inlineStr"/>
-      <c r="V18" s="2" t="inlineStr">
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1553,22 +1553,22 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000176</t>
+          <t>GMHO:0000146</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t xml:space="preserve">depression data item </t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+          <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr"/>
@@ -1587,7 +1587,11 @@
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr"/>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R19" s="2" t="inlineStr"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
@@ -1605,22 +1609,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000061</t>
+          <t>GMHO:0000176</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>depression symptom</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A symptom that is related to a depression diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1634,7 +1638,11 @@
       <c r="M20" s="2" t="inlineStr"/>
       <c r="N20" s="2" t="inlineStr"/>
       <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr"/>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
       <c r="Q20" s="2" t="inlineStr"/>
       <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
@@ -1653,22 +1661,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symptom.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1682,16 +1690,8 @@
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
@@ -1707,120 +1707,116 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000062</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a depression symptom.</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr"/>
+      <c r="F22" s="2" t="inlineStr"/>
+      <c r="G22" s="2" t="inlineStr"/>
+      <c r="H22" s="2" t="inlineStr"/>
+      <c r="I22" s="2" t="inlineStr"/>
+      <c r="J22" s="2" t="inlineStr"/>
+      <c r="K22" s="2" t="inlineStr"/>
+      <c r="L22" s="2" t="inlineStr"/>
+      <c r="M22" s="2" t="inlineStr"/>
+      <c r="N22" s="2" t="inlineStr"/>
+      <c r="O22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr"/>
+      <c r="U22" s="2" t="inlineStr"/>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr">
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr">
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr">
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000148</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr"/>
-      <c r="K23" s="2" t="inlineStr"/>
-      <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="inlineStr"/>
-      <c r="N23" s="2" t="inlineStr"/>
-      <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R23" s="2" t="inlineStr"/>
-      <c r="S23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr"/>
-      <c r="U23" s="2" t="inlineStr"/>
-      <c r="V23" s="2" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1829,33 +1825,33 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000148</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>
       <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr"/>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
@@ -1864,7 +1860,7 @@
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -1889,27 +1885,31 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
@@ -1920,7 +1920,7 @@
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -1935,68 +1935,68 @@
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr">
+      <c r="U25" s="2" t="inlineStr"/>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000092</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr"/>
+      <c r="H26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr"/>
+      <c r="J26" s="2" t="inlineStr"/>
+      <c r="K26" s="2" t="inlineStr"/>
+      <c r="L26" s="2" t="inlineStr"/>
+      <c r="M26" s="2" t="inlineStr"/>
+      <c r="N26" s="2" t="inlineStr"/>
+      <c r="O26" s="2" t="inlineStr"/>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr"/>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr">
+      <c r="V26" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2005,22 +2005,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2061,22 +2061,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015106</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>female biological sex</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The aggregate of female biological sex in a population.</t>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2115,60 +2115,56 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr"/>
-      <c r="F29" s="2" t="inlineStr"/>
-      <c r="G29" s="2" t="inlineStr"/>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
-      <c r="J29" s="2" t="inlineStr"/>
-      <c r="K29" s="2" t="inlineStr"/>
-      <c r="L29" s="2" t="inlineStr"/>
-      <c r="M29" s="2" t="inlineStr"/>
-      <c r="N29" s="2" t="inlineStr"/>
-      <c r="O29" s="2" t="inlineStr"/>
-      <c r="P29" s="2" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>BCIO:015327</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>The aggregate of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q29" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R29" s="2" t="inlineStr"/>
-      <c r="S29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr"/>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V29" s="2" t="inlineStr">
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2177,22 +2173,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr"/>
@@ -2223,7 +2219,11 @@
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr"/>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2233,22 +2233,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -2264,7 +2264,7 @@
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -2279,72 +2279,68 @@
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr">
+      <c r="U31" s="2" t="inlineStr"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr"/>
+      <c r="F32" s="2" t="inlineStr"/>
+      <c r="G32" s="2" t="inlineStr"/>
+      <c r="H32" s="2" t="inlineStr"/>
+      <c r="I32" s="2" t="inlineStr"/>
+      <c r="J32" s="2" t="inlineStr"/>
+      <c r="K32" s="2" t="inlineStr"/>
+      <c r="L32" s="2" t="inlineStr"/>
+      <c r="M32" s="2" t="inlineStr"/>
+      <c r="N32" s="2" t="inlineStr"/>
+      <c r="O32" s="2" t="inlineStr"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V31" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
+      <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2353,22 +2349,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2399,7 +2395,11 @@
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2407,56 +2407,56 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B34" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E34" s="2" t="inlineStr"/>
-      <c r="F34" s="2" t="inlineStr"/>
-      <c r="G34" s="2" t="inlineStr"/>
-      <c r="H34" s="2" t="inlineStr"/>
-      <c r="I34" s="2" t="inlineStr"/>
-      <c r="J34" s="2" t="inlineStr"/>
-      <c r="K34" s="2" t="inlineStr"/>
-      <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="inlineStr"/>
-      <c r="N34" s="2" t="inlineStr"/>
-      <c r="O34" s="2" t="inlineStr"/>
-      <c r="P34" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R34" s="2" t="inlineStr"/>
-      <c r="S34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr"/>
-      <c r="U34" s="2" t="inlineStr"/>
-      <c r="V34" s="2" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2465,23 +2465,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr"/>
@@ -2497,7 +2496,7 @@
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -2520,56 +2519,57 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr"/>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
+      <c r="H36" s="2" t="inlineStr"/>
+      <c r="I36" s="2" t="inlineStr"/>
+      <c r="J36" s="2" t="inlineStr"/>
+      <c r="K36" s="2" t="inlineStr"/>
+      <c r="L36" s="2" t="inlineStr"/>
+      <c r="M36" s="2" t="inlineStr"/>
+      <c r="N36" s="2" t="inlineStr"/>
+      <c r="O36" s="2" t="inlineStr"/>
+      <c r="P36" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr"/>
+      <c r="U36" s="2" t="inlineStr"/>
+      <c r="V36" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2578,22 +2578,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2624,11 +2624,7 @@
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2638,22 +2634,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2669,7 +2665,7 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -2684,7 +2680,11 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2692,56 +2692,56 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000209</t>
-        </is>
-      </c>
-      <c r="B39" s="3" t="inlineStr">
-        <is>
-          <t>measurement datum at baseline</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>Measurement datum that was recorded as baseline data in a study.</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr"/>
-      <c r="F39" s="3" t="inlineStr"/>
-      <c r="G39" s="3" t="inlineStr"/>
-      <c r="H39" s="3" t="inlineStr"/>
-      <c r="I39" s="3" t="inlineStr"/>
-      <c r="J39" s="3" t="inlineStr"/>
-      <c r="K39" s="3" t="inlineStr"/>
-      <c r="L39" s="3" t="inlineStr"/>
-      <c r="M39" s="3" t="inlineStr"/>
-      <c r="N39" s="3" t="inlineStr"/>
-      <c r="O39" s="3" t="inlineStr"/>
-      <c r="P39" s="3" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>A data item that is a recording of the output of an assay.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" s="3" t="inlineStr"/>
-      <c r="S39" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T39" s="3" t="inlineStr"/>
-      <c r="U39" s="3" t="inlineStr"/>
-      <c r="V39" s="3" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2750,22 +2750,22 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000212</t>
+          <t>GMHO:0000209</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>measurement scale at baseline</t>
+          <t>measurement datum at baseline</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale used to measure baseline data in a study.</t>
+          <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr"/>
@@ -2806,22 +2806,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>OBCS:0000011</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>medication use status</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2835,16 +2835,8 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
@@ -2862,22 +2854,22 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000213</t>
+          <t>GMHO:0000212</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>number of female biological sex</t>
+          <t>measurement scale at baseline</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>The number of female biological sex in a population.</t>
+          <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr"/>
@@ -2891,8 +2883,16 @@
       <c r="M42" s="3" t="inlineStr"/>
       <c r="N42" s="3" t="inlineStr"/>
       <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr"/>
-      <c r="Q42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R42" s="3" t="inlineStr"/>
       <c r="S42" s="3" t="inlineStr">
         <is>
@@ -2908,345 +2908,329 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:015490</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>medication use status</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000213</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>number of female biological sex</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>The number of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr"/>
+      <c r="Q44" s="3" t="inlineStr"/>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000152</t>
         </is>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
-      <c r="D43" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E43" s="2" t="inlineStr"/>
-      <c r="F43" s="2" t="inlineStr"/>
-      <c r="G43" s="2" t="inlineStr"/>
-      <c r="H43" s="2" t="inlineStr"/>
-      <c r="I43" s="2" t="inlineStr"/>
-      <c r="J43" s="2" t="inlineStr"/>
-      <c r="K43" s="2" t="inlineStr"/>
-      <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="inlineStr"/>
-      <c r="N43" s="2" t="inlineStr"/>
-      <c r="O43" s="2" t="inlineStr"/>
-      <c r="P43" s="2" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
+      <c r="J45" s="2" t="inlineStr"/>
+      <c r="K45" s="2" t="inlineStr"/>
+      <c r="L45" s="2" t="inlineStr"/>
+      <c r="M45" s="2" t="inlineStr"/>
+      <c r="N45" s="2" t="inlineStr"/>
+      <c r="O45" s="2" t="inlineStr"/>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R43" s="2" t="inlineStr"/>
-      <c r="S43" s="2" t="inlineStr">
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr"/>
+      <c r="S45" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T43" s="2" t="inlineStr"/>
-      <c r="U43" s="2" t="inlineStr"/>
-      <c r="V43" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="T45" s="2" t="inlineStr"/>
+      <c r="U45" s="2" t="inlineStr"/>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000153</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>number of participants in intervention arm</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D46" s="2" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr"/>
-      <c r="H44" s="2" t="inlineStr"/>
-      <c r="I44" s="2" t="inlineStr"/>
-      <c r="J44" s="2" t="inlineStr"/>
-      <c r="K44" s="2" t="inlineStr"/>
-      <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="inlineStr"/>
-      <c r="N44" s="2" t="inlineStr"/>
-      <c r="O44" s="2" t="inlineStr"/>
-      <c r="P44" s="2" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr"/>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+      <c r="M46" s="2" t="inlineStr"/>
+      <c r="N46" s="2" t="inlineStr"/>
+      <c r="O46" s="2" t="inlineStr"/>
+      <c r="P46" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
-      <c r="S44" s="2" t="inlineStr">
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="inlineStr"/>
+      <c r="S46" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T44" s="2" t="inlineStr"/>
-      <c r="U44" s="2" t="inlineStr"/>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="T46" s="2" t="inlineStr"/>
+      <c r="U46" s="2" t="inlineStr"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D46" s="4" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E46" s="4" t="inlineStr"/>
-      <c r="F46" s="4" t="inlineStr"/>
-      <c r="G46" s="4" t="inlineStr"/>
-      <c r="H46" s="4" t="inlineStr"/>
-      <c r="I46" s="4" t="inlineStr"/>
-      <c r="J46" s="4" t="inlineStr"/>
-      <c r="K46" s="4" t="inlineStr"/>
-      <c r="L46" s="4" t="inlineStr"/>
-      <c r="M46" s="4" t="inlineStr"/>
-      <c r="N46" s="4" t="inlineStr"/>
-      <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr">
+      <c r="E48" s="4" t="inlineStr"/>
+      <c r="F48" s="4" t="inlineStr"/>
+      <c r="G48" s="4" t="inlineStr"/>
+      <c r="H48" s="4" t="inlineStr"/>
+      <c r="I48" s="4" t="inlineStr"/>
+      <c r="J48" s="4" t="inlineStr"/>
+      <c r="K48" s="4" t="inlineStr"/>
+      <c r="L48" s="4" t="inlineStr"/>
+      <c r="M48" s="4" t="inlineStr"/>
+      <c r="N48" s="4" t="inlineStr"/>
+      <c r="O48" s="4" t="inlineStr"/>
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q46" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R46" s="4" t="inlineStr"/>
-      <c r="S46" s="4" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="inlineStr"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T46" s="4" t="inlineStr"/>
-      <c r="U46" s="4" t="inlineStr"/>
-      <c r="V46" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr"/>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000155</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>anxiety diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr">
-        <is>
-          <t>PTSD severity</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="T48" s="4" t="inlineStr"/>
+      <c r="U48" s="4" t="inlineStr"/>
+      <c r="V48" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3255,29 +3239,29 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H49" s="2" t="inlineStr"/>
@@ -3313,60 +3297,60 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="inlineStr">
-        <is>
-          <t>GMHO:0000158</t>
-        </is>
-      </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>pre-intervention anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="C50" s="5" t="inlineStr">
-        <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E50" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F50" s="5" t="inlineStr"/>
-      <c r="G50" s="5" t="inlineStr"/>
-      <c r="H50" s="5" t="inlineStr"/>
-      <c r="I50" s="5" t="inlineStr"/>
-      <c r="J50" s="5" t="inlineStr"/>
-      <c r="K50" s="5" t="inlineStr"/>
-      <c r="L50" s="5" t="inlineStr"/>
-      <c r="M50" s="5" t="inlineStr"/>
-      <c r="N50" s="5" t="inlineStr"/>
-      <c r="O50" s="5" t="inlineStr"/>
-      <c r="P50" s="5" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000155</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>anxiety diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>PTSD severity</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr"/>
+      <c r="I50" s="2" t="inlineStr"/>
+      <c r="J50" s="2" t="inlineStr"/>
+      <c r="K50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
+      <c r="O50" s="2" t="inlineStr"/>
+      <c r="P50" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="5" t="inlineStr"/>
-      <c r="S50" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T50" s="5" t="inlineStr"/>
-      <c r="U50" s="5" t="inlineStr"/>
-      <c r="V50" s="5" t="inlineStr">
+      <c r="Q50" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="2" t="inlineStr"/>
+      <c r="S50" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T50" s="2" t="inlineStr"/>
+      <c r="U50" s="2" t="inlineStr"/>
+      <c r="V50" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3375,33 +3359,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>baseline ASD severity</t>
+          <t>PTSD measurement item</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3437,60 +3417,60 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000160</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention depression symptom severity</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>Depression symptom severity before an intervention starts.</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr">
-        <is>
-          <t>depression symptom severity</t>
-        </is>
-      </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr">
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E52" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr"/>
+      <c r="G52" s="5" t="inlineStr"/>
+      <c r="H52" s="5" t="inlineStr"/>
+      <c r="I52" s="5" t="inlineStr"/>
+      <c r="J52" s="5" t="inlineStr"/>
+      <c r="K52" s="5" t="inlineStr"/>
+      <c r="L52" s="5" t="inlineStr"/>
+      <c r="M52" s="5" t="inlineStr"/>
+      <c r="N52" s="5" t="inlineStr"/>
+      <c r="O52" s="5" t="inlineStr"/>
+      <c r="P52" s="5" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q52" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R52" s="5" t="inlineStr"/>
+      <c r="S52" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="5" t="inlineStr"/>
+      <c r="U52" s="5" t="inlineStr"/>
+      <c r="V52" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3499,31 +3479,35 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H53" s="2" t="inlineStr"/>
       <c r="I53" s="2" t="inlineStr"/>
       <c r="J53" s="2" t="inlineStr"/>
@@ -3559,50 +3543,42 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G54" s="2" t="inlineStr"/>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
       <c r="M54" s="2" t="inlineStr"/>
       <c r="N54" s="2" t="inlineStr"/>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3627,35 +3603,31 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>baseline PTSD severity</t>
-        </is>
-      </c>
+      <c r="G55" s="2" t="inlineStr"/>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
@@ -3674,12 +3646,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R55" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R55" s="2" t="inlineStr"/>
       <c r="S55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3696,35 +3663,43 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>Baseline clinical variable, baseline variable</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr"/>
       <c r="N56" s="2" t="inlineStr"/>
@@ -3756,27 +3731,35 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr"/>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
@@ -3787,7 +3770,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3795,7 +3778,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R57" s="2" t="inlineStr"/>
+      <c r="R57" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3812,25 +3800,29 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3843,7 +3835,7 @@
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q58" s="2" t="inlineStr">
@@ -3868,22 +3860,22 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -3899,7 +3891,7 @@
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3924,17 +3916,17 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of bipolar disorder diagnosis</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
@@ -3944,11 +3936,7 @@
       </c>
       <c r="E60" s="2" t="inlineStr"/>
       <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
@@ -3982,60 +3970,56 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>BCIO:015329</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>proportion female sex population statistic</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>The proportion of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000166</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr"/>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
+      <c r="H61" s="2" t="inlineStr"/>
+      <c r="I61" s="2" t="inlineStr"/>
+      <c r="J61" s="2" t="inlineStr"/>
+      <c r="K61" s="2" t="inlineStr"/>
+      <c r="L61" s="2" t="inlineStr"/>
+      <c r="M61" s="2" t="inlineStr"/>
+      <c r="N61" s="2" t="inlineStr"/>
+      <c r="O61" s="2" t="inlineStr"/>
+      <c r="P61" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr">
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="inlineStr"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="inlineStr"/>
+      <c r="U61" s="2" t="inlineStr"/>
+      <c r="V61" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4044,27 +4028,31 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4075,7 +4063,7 @@
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4098,181 +4086,185 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>BCIO:015329</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>proportion female sex population statistic</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>The proportion of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000187</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000098</t>
         </is>
       </c>
-      <c r="B63" s="2" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>psychosis experience</t>
         </is>
       </c>
-      <c r="C63" s="2" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
-      <c r="D63" s="2" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>symptom</t>
         </is>
       </c>
-      <c r="E63" s="2" t="inlineStr"/>
-      <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
-      <c r="H63" s="2" t="inlineStr"/>
-      <c r="I63" s="2" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr"/>
-      <c r="K63" s="2" t="inlineStr">
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr">
         <is>
           <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
 DSM V</t>
         </is>
       </c>
-      <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="inlineStr"/>
-      <c r="N63" s="2" t="inlineStr"/>
-      <c r="O63" s="2" t="inlineStr"/>
-      <c r="P63" s="2" t="inlineStr">
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q63" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R63" s="2" t="inlineStr"/>
-      <c r="S63" s="2" t="inlineStr">
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T63" s="2" t="inlineStr"/>
-      <c r="U63" s="2" t="inlineStr">
+      <c r="T65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V63" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B64" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E64" s="3" t="inlineStr"/>
-      <c r="F64" s="3" t="inlineStr"/>
-      <c r="G64" s="3" t="inlineStr"/>
-      <c r="H64" s="3" t="inlineStr"/>
-      <c r="I64" s="3" t="inlineStr"/>
-      <c r="J64" s="3" t="inlineStr"/>
-      <c r="K64" s="3" t="inlineStr"/>
-      <c r="L64" s="3" t="inlineStr"/>
-      <c r="M64" s="3" t="inlineStr"/>
-      <c r="N64" s="3" t="inlineStr"/>
-      <c r="O64" s="3" t="inlineStr"/>
-      <c r="P64" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q64" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="3" t="inlineStr"/>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T64" s="3" t="inlineStr"/>
-      <c r="U64" s="3" t="inlineStr"/>
-      <c r="V64" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000207</t>
-        </is>
-      </c>
-      <c r="B65" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity scale</t>
-        </is>
-      </c>
-      <c r="C65" s="3" t="inlineStr">
-        <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D65" s="3" t="inlineStr">
-        <is>
-          <t>measurement scale</t>
-        </is>
-      </c>
-      <c r="E65" s="3" t="inlineStr"/>
-      <c r="F65" s="3" t="inlineStr"/>
-      <c r="G65" s="3" t="inlineStr"/>
-      <c r="H65" s="3" t="inlineStr"/>
-      <c r="I65" s="3" t="inlineStr"/>
-      <c r="J65" s="3" t="inlineStr"/>
-      <c r="K65" s="3" t="inlineStr"/>
-      <c r="L65" s="3" t="inlineStr"/>
-      <c r="M65" s="3" t="inlineStr"/>
-      <c r="N65" s="3" t="inlineStr"/>
-      <c r="O65" s="3" t="inlineStr"/>
-      <c r="P65" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q65" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="3" t="inlineStr"/>
-      <c r="S65" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T65" s="3" t="inlineStr"/>
-      <c r="U65" s="3" t="inlineStr"/>
-      <c r="V65" s="3" t="inlineStr">
+      <c r="V65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4281,22 +4273,22 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr"/>
@@ -4335,136 +4327,136 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000099</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>schizophrenia diagnosis</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="inlineStr"/>
-      <c r="N67" s="2" t="inlineStr"/>
-      <c r="O67" s="2" t="inlineStr"/>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="2" t="inlineStr"/>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V67" s="2" t="inlineStr">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000207</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>reward sensitivity scale</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr"/>
+      <c r="G67" s="3" t="inlineStr"/>
+      <c r="H67" s="3" t="inlineStr"/>
+      <c r="I67" s="3" t="inlineStr"/>
+      <c r="J67" s="3" t="inlineStr"/>
+      <c r="K67" s="3" t="inlineStr"/>
+      <c r="L67" s="3" t="inlineStr"/>
+      <c r="M67" s="3" t="inlineStr"/>
+      <c r="N67" s="3" t="inlineStr"/>
+      <c r="O67" s="3" t="inlineStr"/>
+      <c r="P67" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q67" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="3" t="inlineStr"/>
+      <c r="S67" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T67" s="3" t="inlineStr"/>
+      <c r="U67" s="3" t="inlineStr"/>
+      <c r="V67" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>OBCS:0000077</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>quantitative confidence value</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr"/>
+      <c r="F68" s="3" t="inlineStr"/>
+      <c r="G68" s="3" t="inlineStr"/>
+      <c r="H68" s="3" t="inlineStr"/>
+      <c r="I68" s="3" t="inlineStr"/>
+      <c r="J68" s="3" t="inlineStr"/>
+      <c r="K68" s="3" t="inlineStr"/>
+      <c r="L68" s="3" t="inlineStr"/>
+      <c r="M68" s="3" t="inlineStr"/>
+      <c r="N68" s="3" t="inlineStr"/>
+      <c r="O68" s="3" t="inlineStr"/>
+      <c r="P68" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q68" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" s="3" t="inlineStr"/>
+      <c r="S68" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T68" s="3" t="inlineStr"/>
+      <c r="U68" s="3" t="inlineStr"/>
+      <c r="V68" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000100</t>
+          <t>GMHO:0000099</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>standard deviation human age</t>
+          <t>schizophrenia diagnosis</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Standard deviation of human age in a population.</t>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4507,80 +4499,76 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000168</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>substance use severity</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="inlineStr"/>
-      <c r="U70" s="2" t="inlineStr"/>
-      <c r="V70" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>OBCS:0000077</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>quantitative confidence value</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
@@ -4601,7 +4589,7 @@
       </c>
       <c r="Q71" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R71" s="2" t="inlineStr"/>
@@ -4623,60 +4611,56 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001050</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>A person between 13 and 19 years of age.</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000168</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4685,22 +4669,22 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000102</t>
+          <t>GMHO:0000087</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>treatment-resistant clinical history</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
@@ -4721,7 +4705,7 @@
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>Intervention population</t>
+          <t>Intervention population; Intervnetion outcome</t>
         </is>
       </c>
       <c r="R73" s="2" t="inlineStr"/>
@@ -4731,8 +4715,128 @@
         </is>
       </c>
       <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>A person between 13 and 19 years of age.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000102</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>treatment-resistant clinical history</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr"/>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V75"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2409,22 +2409,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>The aggregate of human age in a population.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2463,56 +2463,56 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E35" s="2" t="inlineStr"/>
-      <c r="F35" s="2" t="inlineStr"/>
-      <c r="G35" s="2" t="inlineStr"/>
-      <c r="H35" s="2" t="inlineStr"/>
-      <c r="I35" s="2" t="inlineStr"/>
-      <c r="J35" s="2" t="inlineStr"/>
-      <c r="K35" s="2" t="inlineStr"/>
-      <c r="L35" s="2" t="inlineStr"/>
-      <c r="M35" s="2" t="inlineStr"/>
-      <c r="N35" s="2" t="inlineStr"/>
-      <c r="O35" s="2" t="inlineStr"/>
-      <c r="P35" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q35" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R35" s="2" t="inlineStr"/>
-      <c r="S35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="inlineStr"/>
-      <c r="U35" s="2" t="inlineStr"/>
-      <c r="V35" s="2" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2521,23 +2521,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>
@@ -2553,7 +2552,7 @@
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -2576,56 +2575,57 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2634,22 +2634,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2680,11 +2680,7 @@
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2694,22 +2690,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2725,7 +2721,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2740,7 +2736,11 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2748,320 +2748,320 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A data item that is a recording of the output of an assay.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B40" s="3" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C41" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr"/>
-      <c r="F40" s="3" t="inlineStr"/>
-      <c r="G40" s="3" t="inlineStr"/>
-      <c r="H40" s="3" t="inlineStr"/>
-      <c r="I40" s="3" t="inlineStr"/>
-      <c r="J40" s="3" t="inlineStr"/>
-      <c r="K40" s="3" t="inlineStr"/>
-      <c r="L40" s="3" t="inlineStr"/>
-      <c r="M40" s="3" t="inlineStr"/>
-      <c r="N40" s="3" t="inlineStr"/>
-      <c r="O40" s="3" t="inlineStr"/>
-      <c r="P40" s="3" t="inlineStr">
+      <c r="E41" s="3" t="inlineStr"/>
+      <c r="F41" s="3" t="inlineStr"/>
+      <c r="G41" s="3" t="inlineStr"/>
+      <c r="H41" s="3" t="inlineStr"/>
+      <c r="I41" s="3" t="inlineStr"/>
+      <c r="J41" s="3" t="inlineStr"/>
+      <c r="K41" s="3" t="inlineStr"/>
+      <c r="L41" s="3" t="inlineStr"/>
+      <c r="M41" s="3" t="inlineStr"/>
+      <c r="N41" s="3" t="inlineStr"/>
+      <c r="O41" s="3" t="inlineStr"/>
+      <c r="P41" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q40" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" s="3" t="inlineStr"/>
-      <c r="S40" s="3" t="inlineStr">
+      <c r="Q41" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" s="3" t="inlineStr"/>
+      <c r="S41" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T40" s="3" t="inlineStr"/>
-      <c r="U40" s="3" t="inlineStr"/>
-      <c r="V40" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="T41" s="3" t="inlineStr"/>
+      <c r="U41" s="3" t="inlineStr"/>
+      <c r="V41" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr"/>
-      <c r="Q44" s="3" t="inlineStr"/>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr"/>
+      <c r="Q45" s="3" t="inlineStr"/>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
-      <c r="G45" s="2" t="inlineStr"/>
-      <c r="H45" s="2" t="inlineStr"/>
-      <c r="I45" s="2" t="inlineStr"/>
-      <c r="J45" s="2" t="inlineStr"/>
-      <c r="K45" s="2" t="inlineStr"/>
-      <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="inlineStr"/>
-      <c r="N45" s="2" t="inlineStr"/>
-      <c r="O45" s="2" t="inlineStr"/>
-      <c r="P45" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q45" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" s="2" t="inlineStr"/>
-      <c r="S45" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T45" s="2" t="inlineStr"/>
-      <c r="U45" s="2" t="inlineStr"/>
-      <c r="V45" s="2" t="inlineStr">
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3070,22 +3070,22 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr"/>
@@ -3101,7 +3101,7 @@
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q46" s="2" t="inlineStr">
@@ -3124,173 +3124,169 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000153</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>number of participants in intervention arm</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr"/>
+      <c r="F47" s="2" t="inlineStr"/>
+      <c r="G47" s="2" t="inlineStr"/>
+      <c r="H47" s="2" t="inlineStr"/>
+      <c r="I47" s="2" t="inlineStr"/>
+      <c r="J47" s="2" t="inlineStr"/>
+      <c r="K47" s="2" t="inlineStr"/>
+      <c r="L47" s="2" t="inlineStr"/>
+      <c r="M47" s="2" t="inlineStr"/>
+      <c r="N47" s="2" t="inlineStr"/>
+      <c r="O47" s="2" t="inlineStr"/>
+      <c r="P47" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q47" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R47" s="2" t="inlineStr"/>
+      <c r="S47" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T47" s="2" t="inlineStr"/>
+      <c r="U47" s="2" t="inlineStr"/>
+      <c r="V47" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E48" s="4" t="inlineStr"/>
-      <c r="F48" s="4" t="inlineStr"/>
-      <c r="G48" s="4" t="inlineStr"/>
-      <c r="H48" s="4" t="inlineStr"/>
-      <c r="I48" s="4" t="inlineStr"/>
-      <c r="J48" s="4" t="inlineStr"/>
-      <c r="K48" s="4" t="inlineStr"/>
-      <c r="L48" s="4" t="inlineStr"/>
-      <c r="M48" s="4" t="inlineStr"/>
-      <c r="N48" s="4" t="inlineStr"/>
-      <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="inlineStr"/>
+      <c r="F49" s="4" t="inlineStr"/>
+      <c r="G49" s="4" t="inlineStr"/>
+      <c r="H49" s="4" t="inlineStr"/>
+      <c r="I49" s="4" t="inlineStr"/>
+      <c r="J49" s="4" t="inlineStr"/>
+      <c r="K49" s="4" t="inlineStr"/>
+      <c r="L49" s="4" t="inlineStr"/>
+      <c r="M49" s="4" t="inlineStr"/>
+      <c r="N49" s="4" t="inlineStr"/>
+      <c r="O49" s="4" t="inlineStr"/>
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="inlineStr"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="inlineStr"/>
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T48" s="4" t="inlineStr"/>
-      <c r="U48" s="4" t="inlineStr"/>
-      <c r="V48" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="T49" s="4" t="inlineStr"/>
+      <c r="U49" s="4" t="inlineStr"/>
+      <c r="V49" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3299,29 +3295,29 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H50" s="2" t="inlineStr"/>
@@ -3359,29 +3355,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3417,124 +3413,120 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000157</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder severity measurement item</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr"/>
+      <c r="I52" s="2" t="inlineStr"/>
+      <c r="J52" s="2" t="inlineStr"/>
+      <c r="K52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr"/>
+      <c r="M52" s="2" t="inlineStr"/>
+      <c r="N52" s="2" t="inlineStr"/>
+      <c r="O52" s="2" t="inlineStr"/>
+      <c r="P52" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="inlineStr"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="inlineStr"/>
+      <c r="U52" s="2" t="inlineStr"/>
+      <c r="V52" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
+      <c r="B53" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C52" s="5" t="inlineStr">
+      <c r="C53" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D52" s="5" t="inlineStr">
+      <c r="D53" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E52" s="5" t="inlineStr">
+      <c r="E53" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F52" s="5" t="inlineStr"/>
-      <c r="G52" s="5" t="inlineStr"/>
-      <c r="H52" s="5" t="inlineStr"/>
-      <c r="I52" s="5" t="inlineStr"/>
-      <c r="J52" s="5" t="inlineStr"/>
-      <c r="K52" s="5" t="inlineStr"/>
-      <c r="L52" s="5" t="inlineStr"/>
-      <c r="M52" s="5" t="inlineStr"/>
-      <c r="N52" s="5" t="inlineStr"/>
-      <c r="O52" s="5" t="inlineStr"/>
-      <c r="P52" s="5" t="inlineStr">
+      <c r="F53" s="5" t="inlineStr"/>
+      <c r="G53" s="5" t="inlineStr"/>
+      <c r="H53" s="5" t="inlineStr"/>
+      <c r="I53" s="5" t="inlineStr"/>
+      <c r="J53" s="5" t="inlineStr"/>
+      <c r="K53" s="5" t="inlineStr"/>
+      <c r="L53" s="5" t="inlineStr"/>
+      <c r="M53" s="5" t="inlineStr"/>
+      <c r="N53" s="5" t="inlineStr"/>
+      <c r="O53" s="5" t="inlineStr"/>
+      <c r="P53" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q52" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R52" s="5" t="inlineStr"/>
-      <c r="S52" s="5" t="inlineStr">
+      <c r="Q53" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="5" t="inlineStr"/>
+      <c r="S53" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T52" s="5" t="inlineStr"/>
-      <c r="U52" s="5" t="inlineStr"/>
-      <c r="V52" s="5" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr">
+      <c r="T53" s="5" t="inlineStr"/>
+      <c r="U53" s="5" t="inlineStr"/>
+      <c r="V53" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3543,31 +3535,35 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
@@ -3578,7 +3574,7 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3603,27 +3599,27 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
@@ -3638,7 +3634,7 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3663,43 +3659,35 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G56" s="2" t="inlineStr"/>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
       <c r="M56" s="2" t="inlineStr"/>
       <c r="N56" s="2" t="inlineStr"/>
@@ -3731,39 +3719,43 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr"/>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
       <c r="N57" s="2" t="inlineStr"/>
@@ -3778,12 +3770,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R57" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R57" s="2" t="inlineStr"/>
       <c r="S57" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3800,31 +3787,35 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
@@ -3843,7 +3834,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R58" s="2" t="inlineStr"/>
+      <c r="R58" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3860,25 +3856,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr"/>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3891,7 +3891,7 @@
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q59" s="2" t="inlineStr">
@@ -3916,22 +3916,22 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr"/>
@@ -3947,7 +3947,7 @@
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3972,22 +3972,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -4028,31 +4028,27 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4086,116 +4082,120 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr"/>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H63" s="2" t="inlineStr"/>
+      <c r="I63" s="2" t="inlineStr"/>
+      <c r="J63" s="2" t="inlineStr"/>
+      <c r="K63" s="2" t="inlineStr"/>
+      <c r="L63" s="2" t="inlineStr"/>
+      <c r="M63" s="2" t="inlineStr"/>
+      <c r="N63" s="2" t="inlineStr"/>
+      <c r="O63" s="2" t="inlineStr"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="inlineStr"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="inlineStr"/>
+      <c r="U63" s="2" t="inlineStr"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B64" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr">
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
-      <c r="H64" s="2" t="inlineStr"/>
-      <c r="I64" s="2" t="inlineStr"/>
-      <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
-      <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="inlineStr"/>
-      <c r="N64" s="2" t="inlineStr"/>
-      <c r="O64" s="2" t="inlineStr"/>
-      <c r="P64" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="inlineStr"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr"/>
-      <c r="U64" s="2" t="inlineStr"/>
-      <c r="V64" s="2" t="inlineStr">
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4204,40 +4204,31 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
       <c r="M65" s="2" t="inlineStr"/>
       <c r="N65" s="2" t="inlineStr"/>
@@ -4259,68 +4250,77 @@
         </is>
       </c>
       <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr">
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B66" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C66" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D66" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="3" t="inlineStr"/>
-      <c r="G66" s="3" t="inlineStr"/>
-      <c r="H66" s="3" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr"/>
-      <c r="J66" s="3" t="inlineStr"/>
-      <c r="K66" s="3" t="inlineStr"/>
-      <c r="L66" s="3" t="inlineStr"/>
-      <c r="M66" s="3" t="inlineStr"/>
-      <c r="N66" s="3" t="inlineStr"/>
-      <c r="O66" s="3" t="inlineStr"/>
-      <c r="P66" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q66" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="3" t="inlineStr"/>
-      <c r="S66" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T66" s="3" t="inlineStr"/>
-      <c r="U66" s="3" t="inlineStr"/>
-      <c r="V66" s="3" t="inlineStr">
+      <c r="V66" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4329,22 +4329,22 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E67" s="3" t="inlineStr"/>
@@ -4385,22 +4385,22 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr"/>
@@ -4439,196 +4439,192 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr"/>
+      <c r="F69" s="3" t="inlineStr"/>
+      <c r="G69" s="3" t="inlineStr"/>
+      <c r="H69" s="3" t="inlineStr"/>
+      <c r="I69" s="3" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr"/>
+      <c r="K69" s="3" t="inlineStr"/>
+      <c r="L69" s="3" t="inlineStr"/>
+      <c r="M69" s="3" t="inlineStr"/>
+      <c r="N69" s="3" t="inlineStr"/>
+      <c r="O69" s="3" t="inlineStr"/>
+      <c r="P69" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q69" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" s="3" t="inlineStr"/>
+      <c r="S69" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T69" s="3" t="inlineStr"/>
+      <c r="U69" s="3" t="inlineStr"/>
+      <c r="V69" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B69" s="2" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D69" s="2" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr"/>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
-      <c r="M69" s="2" t="inlineStr"/>
-      <c r="N69" s="2" t="inlineStr"/>
-      <c r="O69" s="2" t="inlineStr"/>
-      <c r="P69" s="2" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" s="2" t="inlineStr"/>
-      <c r="S69" s="2" t="inlineStr">
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T69" s="2" t="inlineStr"/>
-      <c r="U69" s="2" t="inlineStr">
+      <c r="T70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V69" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr">
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q71" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="inlineStr"/>
-      <c r="U71" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V71" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr"/>
@@ -4644,7 +4640,7 @@
       <c r="O72" s="2" t="inlineStr"/>
       <c r="P72" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q72" s="2" t="inlineStr">
@@ -4659,7 +4655,11 @@
         </is>
       </c>
       <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V72" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4669,17 +4669,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -4700,12 +4700,12 @@
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q73" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R73" s="2" t="inlineStr"/>
@@ -4715,128 +4715,184 @@
         </is>
       </c>
       <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr">
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr"/>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr"/>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R74" s="2" t="inlineStr"/>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr">
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr">
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr"/>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr"/>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="inlineStr">
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr"/>
+      <c r="S76" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T75" s="2" t="inlineStr"/>
-      <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr">
+      <c r="T76" s="2" t="inlineStr"/>
+      <c r="U76" s="2" t="inlineStr"/>
+      <c r="V76" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2755,12 +2755,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A data item that is a recording of the output of an assay.</t>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,240 +1255,236 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>A bodily disposition is a disposition that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000090</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A person who has not yet reached maturity. </t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr"/>
-      <c r="H14" s="2" t="inlineStr"/>
-      <c r="I14" s="2" t="inlineStr"/>
-      <c r="J14" s="2" t="inlineStr"/>
-      <c r="K14" s="2" t="inlineStr"/>
-      <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="inlineStr"/>
-      <c r="N14" s="2" t="inlineStr"/>
-      <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr"/>
+      <c r="F15" s="2" t="inlineStr"/>
+      <c r="G15" s="2" t="inlineStr"/>
+      <c r="H15" s="2" t="inlineStr"/>
+      <c r="I15" s="2" t="inlineStr"/>
+      <c r="J15" s="2" t="inlineStr"/>
+      <c r="K15" s="2" t="inlineStr"/>
+      <c r="L15" s="2" t="inlineStr"/>
+      <c r="M15" s="2" t="inlineStr"/>
+      <c r="N15" s="2" t="inlineStr"/>
+      <c r="O15" s="2" t="inlineStr"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q14" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R14" s="2" t="inlineStr"/>
-      <c r="S14" s="2" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr"/>
+      <c r="S15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T14" s="2" t="inlineStr"/>
-      <c r="U14" s="2" t="inlineStr">
+      <c r="T15" s="2" t="inlineStr"/>
+      <c r="U15" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V14" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>OGMS:0000123</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr">
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr">
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000091</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>clinical history of psychosis experience</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which there is a history of psychosis experience.</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="D17" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr"/>
-      <c r="F16" s="2" t="inlineStr"/>
-      <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
-      <c r="I16" s="2" t="inlineStr"/>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
-      <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="inlineStr"/>
-      <c r="N16" s="2" t="inlineStr"/>
-      <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr"/>
+      <c r="F17" s="2" t="inlineStr"/>
+      <c r="G17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr"/>
+      <c r="I17" s="2" t="inlineStr"/>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
+      <c r="L17" s="2" t="inlineStr"/>
+      <c r="M17" s="2" t="inlineStr"/>
+      <c r="N17" s="2" t="inlineStr"/>
+      <c r="O17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr"/>
-      <c r="S16" s="2" t="inlineStr">
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr"/>
+      <c r="S17" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T16" s="2" t="inlineStr"/>
-      <c r="U16" s="2" t="inlineStr">
+      <c r="T17" s="2" t="inlineStr"/>
+      <c r="U17" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V16" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>comorbidity</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Relation between person and diagnosis needs to be specified</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V17" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1497,29 +1493,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>OMIABIS:0001008</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>comorbidity</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>OMIABIS:0001008</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Relation between person and diagnosis needs to be specified</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -1528,7 +1532,7 @@
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
@@ -1551,56 +1555,56 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000146</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">depression data item </t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of depression symptom severity.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
-      <c r="J19" s="2" t="inlineStr"/>
-      <c r="K19" s="2" t="inlineStr"/>
-      <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="inlineStr"/>
-      <c r="N19" s="2" t="inlineStr"/>
-      <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R19" s="2" t="inlineStr"/>
-      <c r="S19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr"/>
-      <c r="U19" s="2" t="inlineStr"/>
-      <c r="V19" s="2" t="inlineStr">
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1609,22 +1613,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000176</t>
+          <t>GMHO:0000146</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t xml:space="preserve">depression data item </t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+          <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr"/>
@@ -1643,7 +1647,11 @@
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr"/>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R20" s="2" t="inlineStr"/>
       <c r="S20" s="2" t="inlineStr">
         <is>
@@ -1661,22 +1669,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000061</t>
+          <t>GMHO:0000176</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>depression symptom</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A symptom that is related to a depression diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1690,7 +1698,11 @@
       <c r="M21" s="2" t="inlineStr"/>
       <c r="N21" s="2" t="inlineStr"/>
       <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
       <c r="Q21" s="2" t="inlineStr"/>
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
@@ -1709,22 +1721,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symptom.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1738,16 +1750,8 @@
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P22" s="2" t="inlineStr"/>
+      <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
         <is>
@@ -1763,120 +1767,116 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000062</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a depression symptom.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr"/>
+      <c r="I23" s="2" t="inlineStr"/>
+      <c r="J23" s="2" t="inlineStr"/>
+      <c r="K23" s="2" t="inlineStr"/>
+      <c r="L23" s="2" t="inlineStr"/>
+      <c r="M23" s="2" t="inlineStr"/>
+      <c r="N23" s="2" t="inlineStr"/>
+      <c r="O23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr"/>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr"/>
+      <c r="U23" s="2" t="inlineStr"/>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr">
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr">
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000148</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr"/>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
-      <c r="H24" s="2" t="inlineStr"/>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr"/>
-      <c r="K24" s="2" t="inlineStr"/>
-      <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="inlineStr"/>
-      <c r="N24" s="2" t="inlineStr"/>
-      <c r="O24" s="2" t="inlineStr"/>
-      <c r="P24" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R24" s="2" t="inlineStr"/>
-      <c r="S24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr"/>
-      <c r="U24" s="2" t="inlineStr"/>
-      <c r="V24" s="2" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1885,33 +1885,33 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000148</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr"/>
       <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G25" s="2" t="inlineStr"/>
       <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr"/>
@@ -1920,7 +1920,7 @@
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -1945,27 +1945,31 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H26" s="2" t="inlineStr"/>
       <c r="I26" s="2" t="inlineStr"/>
       <c r="J26" s="2" t="inlineStr"/>
@@ -1976,7 +1980,7 @@
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -1991,68 +1995,68 @@
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr"/>
-      <c r="U26" s="2" t="inlineStr">
+      <c r="U26" s="2" t="inlineStr"/>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000092</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr"/>
+      <c r="F27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr"/>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
+      <c r="J27" s="2" t="inlineStr"/>
+      <c r="K27" s="2" t="inlineStr"/>
+      <c r="L27" s="2" t="inlineStr"/>
+      <c r="M27" s="2" t="inlineStr"/>
+      <c r="N27" s="2" t="inlineStr"/>
+      <c r="O27" s="2" t="inlineStr"/>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr"/>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr"/>
+      <c r="U27" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V26" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr">
+      <c r="V27" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2061,22 +2065,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -2092,7 +2096,7 @@
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2117,22 +2121,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015106</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>female biological sex</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The aggregate of female biological sex in a population.</t>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2171,60 +2175,56 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B30" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr"/>
-      <c r="F30" s="2" t="inlineStr"/>
-      <c r="G30" s="2" t="inlineStr"/>
-      <c r="H30" s="2" t="inlineStr"/>
-      <c r="I30" s="2" t="inlineStr"/>
-      <c r="J30" s="2" t="inlineStr"/>
-      <c r="K30" s="2" t="inlineStr"/>
-      <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="inlineStr"/>
-      <c r="N30" s="2" t="inlineStr"/>
-      <c r="O30" s="2" t="inlineStr"/>
-      <c r="P30" s="2" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>BCIO:015327</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>The aggregate of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr"/>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr"/>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V30" s="2" t="inlineStr">
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2233,22 +2233,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr"/>
@@ -2279,7 +2279,11 @@
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr"/>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2289,22 +2293,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -2320,7 +2324,7 @@
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -2335,72 +2339,68 @@
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr">
+      <c r="U32" s="2" t="inlineStr"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr"/>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
+      <c r="J33" s="2" t="inlineStr"/>
+      <c r="K33" s="2" t="inlineStr"/>
+      <c r="L33" s="2" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr"/>
+      <c r="N33" s="2" t="inlineStr"/>
+      <c r="O33" s="2" t="inlineStr"/>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr"/>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr"/>
+      <c r="U33" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V32" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
+      <c r="V33" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2409,22 +2409,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The aggregate of human age in a population.</t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -2455,7 +2455,11 @@
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2465,22 +2469,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>The aggregate of human age in a population.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2496,7 +2500,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -2519,56 +2523,56 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E36" s="2" t="inlineStr"/>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
-      <c r="H36" s="2" t="inlineStr"/>
-      <c r="I36" s="2" t="inlineStr"/>
-      <c r="J36" s="2" t="inlineStr"/>
-      <c r="K36" s="2" t="inlineStr"/>
-      <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="inlineStr"/>
-      <c r="N36" s="2" t="inlineStr"/>
-      <c r="O36" s="2" t="inlineStr"/>
-      <c r="P36" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R36" s="2" t="inlineStr"/>
-      <c r="S36" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T36" s="2" t="inlineStr"/>
-      <c r="U36" s="2" t="inlineStr"/>
-      <c r="V36" s="2" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2577,23 +2581,22 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr"/>
@@ -2609,7 +2612,7 @@
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -2632,56 +2635,57 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr"/>
+      <c r="F38" s="2" t="inlineStr"/>
+      <c r="G38" s="2" t="inlineStr"/>
+      <c r="H38" s="2" t="inlineStr"/>
+      <c r="I38" s="2" t="inlineStr"/>
+      <c r="J38" s="2" t="inlineStr"/>
+      <c r="K38" s="2" t="inlineStr"/>
+      <c r="L38" s="2" t="inlineStr"/>
+      <c r="M38" s="2" t="inlineStr"/>
+      <c r="N38" s="2" t="inlineStr"/>
+      <c r="O38" s="2" t="inlineStr"/>
+      <c r="P38" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q38" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr"/>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr"/>
+      <c r="U38" s="2" t="inlineStr"/>
+      <c r="V38" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2690,22 +2694,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2736,11 +2740,7 @@
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2750,22 +2750,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2781,7 +2781,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -2796,7 +2796,11 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2804,320 +2808,320 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B41" s="3" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C41" s="3" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D41" s="3" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr"/>
-      <c r="F41" s="3" t="inlineStr"/>
-      <c r="G41" s="3" t="inlineStr"/>
-      <c r="H41" s="3" t="inlineStr"/>
-      <c r="I41" s="3" t="inlineStr"/>
-      <c r="J41" s="3" t="inlineStr"/>
-      <c r="K41" s="3" t="inlineStr"/>
-      <c r="L41" s="3" t="inlineStr"/>
-      <c r="M41" s="3" t="inlineStr"/>
-      <c r="N41" s="3" t="inlineStr"/>
-      <c r="O41" s="3" t="inlineStr"/>
-      <c r="P41" s="3" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr"/>
+      <c r="F42" s="3" t="inlineStr"/>
+      <c r="G42" s="3" t="inlineStr"/>
+      <c r="H42" s="3" t="inlineStr"/>
+      <c r="I42" s="3" t="inlineStr"/>
+      <c r="J42" s="3" t="inlineStr"/>
+      <c r="K42" s="3" t="inlineStr"/>
+      <c r="L42" s="3" t="inlineStr"/>
+      <c r="M42" s="3" t="inlineStr"/>
+      <c r="N42" s="3" t="inlineStr"/>
+      <c r="O42" s="3" t="inlineStr"/>
+      <c r="P42" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q41" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R41" s="3" t="inlineStr"/>
-      <c r="S41" s="3" t="inlineStr">
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="inlineStr"/>
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T41" s="3" t="inlineStr"/>
-      <c r="U41" s="3" t="inlineStr"/>
-      <c r="V41" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="T42" s="3" t="inlineStr"/>
+      <c r="U42" s="3" t="inlineStr"/>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="inlineStr">
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B43" s="3" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C43" s="3" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D43" s="3" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
+      <c r="E44" s="3" t="inlineStr"/>
+      <c r="F44" s="3" t="inlineStr"/>
+      <c r="G44" s="3" t="inlineStr"/>
+      <c r="H44" s="3" t="inlineStr"/>
+      <c r="I44" s="3" t="inlineStr"/>
+      <c r="J44" s="3" t="inlineStr"/>
+      <c r="K44" s="3" t="inlineStr"/>
+      <c r="L44" s="3" t="inlineStr"/>
+      <c r="M44" s="3" t="inlineStr"/>
+      <c r="N44" s="3" t="inlineStr"/>
+      <c r="O44" s="3" t="inlineStr"/>
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="inlineStr"/>
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="T44" s="3" t="inlineStr"/>
+      <c r="U44" s="3" t="inlineStr"/>
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr"/>
-      <c r="Q45" s="3" t="inlineStr"/>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr"/>
+      <c r="I46" s="3" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr"/>
+      <c r="Q46" s="3" t="inlineStr"/>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E46" s="2" t="inlineStr"/>
-      <c r="F46" s="2" t="inlineStr"/>
-      <c r="G46" s="2" t="inlineStr"/>
-      <c r="H46" s="2" t="inlineStr"/>
-      <c r="I46" s="2" t="inlineStr"/>
-      <c r="J46" s="2" t="inlineStr"/>
-      <c r="K46" s="2" t="inlineStr"/>
-      <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="inlineStr"/>
-      <c r="N46" s="2" t="inlineStr"/>
-      <c r="O46" s="2" t="inlineStr"/>
-      <c r="P46" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q46" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R46" s="2" t="inlineStr"/>
-      <c r="S46" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T46" s="2" t="inlineStr"/>
-      <c r="U46" s="2" t="inlineStr"/>
-      <c r="V46" s="2" t="inlineStr">
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3126,22 +3130,22 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C47" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr"/>
@@ -3157,7 +3161,7 @@
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q47" s="2" t="inlineStr">
@@ -3180,173 +3184,169 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000153</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>number of participants in intervention arm</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr"/>
+      <c r="G48" s="2" t="inlineStr"/>
+      <c r="H48" s="2" t="inlineStr"/>
+      <c r="I48" s="2" t="inlineStr"/>
+      <c r="J48" s="2" t="inlineStr"/>
+      <c r="K48" s="2" t="inlineStr"/>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
+      <c r="O48" s="2" t="inlineStr"/>
+      <c r="P48" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q48" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" s="2" t="inlineStr"/>
+      <c r="S48" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T48" s="2" t="inlineStr"/>
+      <c r="U48" s="2" t="inlineStr"/>
+      <c r="V48" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="inlineStr"/>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr">
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D49" s="4" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E49" s="4" t="inlineStr"/>
-      <c r="F49" s="4" t="inlineStr"/>
-      <c r="G49" s="4" t="inlineStr"/>
-      <c r="H49" s="4" t="inlineStr"/>
-      <c r="I49" s="4" t="inlineStr"/>
-      <c r="J49" s="4" t="inlineStr"/>
-      <c r="K49" s="4" t="inlineStr"/>
-      <c r="L49" s="4" t="inlineStr"/>
-      <c r="M49" s="4" t="inlineStr"/>
-      <c r="N49" s="4" t="inlineStr"/>
-      <c r="O49" s="4" t="inlineStr"/>
-      <c r="P49" s="4" t="inlineStr">
+      <c r="E50" s="4" t="inlineStr"/>
+      <c r="F50" s="4" t="inlineStr"/>
+      <c r="G50" s="4" t="inlineStr"/>
+      <c r="H50" s="4" t="inlineStr"/>
+      <c r="I50" s="4" t="inlineStr"/>
+      <c r="J50" s="4" t="inlineStr"/>
+      <c r="K50" s="4" t="inlineStr"/>
+      <c r="L50" s="4" t="inlineStr"/>
+      <c r="M50" s="4" t="inlineStr"/>
+      <c r="N50" s="4" t="inlineStr"/>
+      <c r="O50" s="4" t="inlineStr"/>
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q49" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R49" s="4" t="inlineStr"/>
-      <c r="S49" s="4" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="inlineStr"/>
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T49" s="4" t="inlineStr"/>
-      <c r="U49" s="4" t="inlineStr"/>
-      <c r="V49" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr"/>
-      <c r="I50" s="2" t="inlineStr"/>
-      <c r="J50" s="2" t="inlineStr"/>
-      <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
-      <c r="O50" s="2" t="inlineStr"/>
-      <c r="P50" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q50" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="2" t="inlineStr"/>
-      <c r="S50" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T50" s="2" t="inlineStr"/>
-      <c r="U50" s="2" t="inlineStr"/>
-      <c r="V50" s="2" t="inlineStr">
+      <c r="T50" s="4" t="inlineStr"/>
+      <c r="U50" s="4" t="inlineStr"/>
+      <c r="V50" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3355,29 +3355,29 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H51" s="2" t="inlineStr"/>
@@ -3415,29 +3415,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3473,124 +3473,120 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000157</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder severity measurement item</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
+      <c r="B54" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="C54" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D53" s="5" t="inlineStr">
+      <c r="D54" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E53" s="5" t="inlineStr">
+      <c r="E54" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F53" s="5" t="inlineStr"/>
-      <c r="G53" s="5" t="inlineStr"/>
-      <c r="H53" s="5" t="inlineStr"/>
-      <c r="I53" s="5" t="inlineStr"/>
-      <c r="J53" s="5" t="inlineStr"/>
-      <c r="K53" s="5" t="inlineStr"/>
-      <c r="L53" s="5" t="inlineStr"/>
-      <c r="M53" s="5" t="inlineStr"/>
-      <c r="N53" s="5" t="inlineStr"/>
-      <c r="O53" s="5" t="inlineStr"/>
-      <c r="P53" s="5" t="inlineStr">
+      <c r="F54" s="5" t="inlineStr"/>
+      <c r="G54" s="5" t="inlineStr"/>
+      <c r="H54" s="5" t="inlineStr"/>
+      <c r="I54" s="5" t="inlineStr"/>
+      <c r="J54" s="5" t="inlineStr"/>
+      <c r="K54" s="5" t="inlineStr"/>
+      <c r="L54" s="5" t="inlineStr"/>
+      <c r="M54" s="5" t="inlineStr"/>
+      <c r="N54" s="5" t="inlineStr"/>
+      <c r="O54" s="5" t="inlineStr"/>
+      <c r="P54" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q53" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="5" t="inlineStr"/>
-      <c r="S53" s="5" t="inlineStr">
+      <c r="Q54" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="5" t="inlineStr"/>
+      <c r="S54" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T53" s="5" t="inlineStr"/>
-      <c r="U53" s="5" t="inlineStr"/>
-      <c r="V53" s="5" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr">
+      <c r="T54" s="5" t="inlineStr"/>
+      <c r="U54" s="5" t="inlineStr"/>
+      <c r="V54" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3599,31 +3595,35 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
@@ -3634,7 +3634,7 @@
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q55" s="2" t="inlineStr">
@@ -3659,27 +3659,27 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
@@ -3694,7 +3694,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3719,43 +3719,35 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
       <c r="N57" s="2" t="inlineStr"/>
@@ -3787,39 +3779,43 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
       <c r="N58" s="2" t="inlineStr"/>
@@ -3834,12 +3830,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R58" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R58" s="2" t="inlineStr"/>
       <c r="S58" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3856,31 +3847,35 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
@@ -3899,7 +3894,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R59" s="2" t="inlineStr"/>
+      <c r="R59" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3916,25 +3916,29 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F60" s="2" t="inlineStr"/>
       <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3947,7 +3951,7 @@
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3972,22 +3976,22 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr"/>
@@ -4003,7 +4007,7 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -4028,22 +4032,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -4084,31 +4088,27 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4142,116 +4142,120 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr"/>
+      <c r="I64" s="2" t="inlineStr"/>
+      <c r="J64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr"/>
+      <c r="L64" s="2" t="inlineStr"/>
+      <c r="M64" s="2" t="inlineStr"/>
+      <c r="N64" s="2" t="inlineStr"/>
+      <c r="O64" s="2" t="inlineStr"/>
+      <c r="P64" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="inlineStr"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="inlineStr"/>
+      <c r="U64" s="2" t="inlineStr"/>
+      <c r="V64" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B65" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr">
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
-      <c r="H65" s="2" t="inlineStr"/>
-      <c r="I65" s="2" t="inlineStr"/>
-      <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
-      <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="inlineStr"/>
-      <c r="N65" s="2" t="inlineStr"/>
-      <c r="O65" s="2" t="inlineStr"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="inlineStr"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr"/>
-      <c r="U65" s="2" t="inlineStr"/>
-      <c r="V65" s="2" t="inlineStr">
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4260,40 +4264,31 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr"/>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr"/>
       <c r="N66" s="2" t="inlineStr"/>
@@ -4315,68 +4310,77 @@
         </is>
       </c>
       <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr">
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr"/>
+      <c r="F67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr"/>
+      <c r="H67" s="2" t="inlineStr"/>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr"/>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr"/>
+      <c r="M67" s="2" t="inlineStr"/>
+      <c r="N67" s="2" t="inlineStr"/>
+      <c r="O67" s="2" t="inlineStr"/>
+      <c r="P67" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="inlineStr"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="inlineStr"/>
+      <c r="U67" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B67" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C67" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D67" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E67" s="3" t="inlineStr"/>
-      <c r="F67" s="3" t="inlineStr"/>
-      <c r="G67" s="3" t="inlineStr"/>
-      <c r="H67" s="3" t="inlineStr"/>
-      <c r="I67" s="3" t="inlineStr"/>
-      <c r="J67" s="3" t="inlineStr"/>
-      <c r="K67" s="3" t="inlineStr"/>
-      <c r="L67" s="3" t="inlineStr"/>
-      <c r="M67" s="3" t="inlineStr"/>
-      <c r="N67" s="3" t="inlineStr"/>
-      <c r="O67" s="3" t="inlineStr"/>
-      <c r="P67" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q67" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="3" t="inlineStr"/>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="inlineStr"/>
-      <c r="U67" s="3" t="inlineStr"/>
-      <c r="V67" s="3" t="inlineStr">
+      <c r="V67" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4385,22 +4389,22 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr"/>
@@ -4441,22 +4445,22 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
@@ -4495,196 +4499,192 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr"/>
+      <c r="F70" s="3" t="inlineStr"/>
+      <c r="G70" s="3" t="inlineStr"/>
+      <c r="H70" s="3" t="inlineStr"/>
+      <c r="I70" s="3" t="inlineStr"/>
+      <c r="J70" s="3" t="inlineStr"/>
+      <c r="K70" s="3" t="inlineStr"/>
+      <c r="L70" s="3" t="inlineStr"/>
+      <c r="M70" s="3" t="inlineStr"/>
+      <c r="N70" s="3" t="inlineStr"/>
+      <c r="O70" s="3" t="inlineStr"/>
+      <c r="P70" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q70" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="3" t="inlineStr"/>
+      <c r="S70" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T70" s="3" t="inlineStr"/>
+      <c r="U70" s="3" t="inlineStr"/>
+      <c r="V70" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D70" s="2" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr"/>
-      <c r="I70" s="2" t="inlineStr"/>
-      <c r="J70" s="2" t="inlineStr"/>
-      <c r="K70" s="2" t="inlineStr"/>
-      <c r="L70" s="2" t="inlineStr"/>
-      <c r="M70" s="2" t="inlineStr"/>
-      <c r="N70" s="2" t="inlineStr"/>
-      <c r="O70" s="2" t="inlineStr"/>
-      <c r="P70" s="2" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="inlineStr"/>
-      <c r="S70" s="2" t="inlineStr">
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T70" s="2" t="inlineStr"/>
-      <c r="U70" s="2" t="inlineStr">
+      <c r="T71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V70" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V72" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
@@ -4700,7 +4700,7 @@
       <c r="O73" s="2" t="inlineStr"/>
       <c r="P73" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q73" s="2" t="inlineStr">
@@ -4715,7 +4715,11 @@
         </is>
       </c>
       <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V73" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4725,17 +4729,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -4756,12 +4760,12 @@
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R74" s="2" t="inlineStr"/>
@@ -4771,128 +4775,184 @@
         </is>
       </c>
       <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr">
+      <c r="U74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr"/>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V74" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr">
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr">
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D77" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="inlineStr"/>
-      <c r="N76" s="2" t="inlineStr"/>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="inlineStr"/>
+      <c r="N77" s="2" t="inlineStr"/>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q76" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="inlineStr">
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr"/>
+      <c r="S77" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T76" s="2" t="inlineStr"/>
-      <c r="U76" s="2" t="inlineStr"/>
-      <c r="V76" s="2" t="inlineStr">
+      <c r="T77" s="2" t="inlineStr"/>
+      <c r="U77" s="2" t="inlineStr"/>
+      <c r="V77" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V77"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2579,56 +2579,60 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000150</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with insomnia.</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>A generically dependent continuant that is about some thing.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2637,23 +2641,22 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000151</t>
+          <t>GMHO:0000150</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>major depressive disorder diagnosis</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
-</t>
+          <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr"/>
@@ -2669,7 +2672,7 @@
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
@@ -2692,56 +2695,57 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000151</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
+</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr"/>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
+      <c r="J39" s="2" t="inlineStr"/>
+      <c r="K39" s="2" t="inlineStr"/>
+      <c r="L39" s="2" t="inlineStr"/>
+      <c r="M39" s="2" t="inlineStr"/>
+      <c r="N39" s="2" t="inlineStr"/>
+      <c r="O39" s="2" t="inlineStr"/>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr"/>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr"/>
+      <c r="U39" s="2" t="inlineStr"/>
+      <c r="V39" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2750,22 +2754,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2796,11 +2800,7 @@
         </is>
       </c>
       <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2810,22 +2810,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2841,7 +2841,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -2856,7 +2856,11 @@
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2864,320 +2868,320 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr"/>
-      <c r="F42" s="3" t="inlineStr"/>
-      <c r="G42" s="3" t="inlineStr"/>
-      <c r="H42" s="3" t="inlineStr"/>
-      <c r="I42" s="3" t="inlineStr"/>
-      <c r="J42" s="3" t="inlineStr"/>
-      <c r="K42" s="3" t="inlineStr"/>
-      <c r="L42" s="3" t="inlineStr"/>
-      <c r="M42" s="3" t="inlineStr"/>
-      <c r="N42" s="3" t="inlineStr"/>
-      <c r="O42" s="3" t="inlineStr"/>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr"/>
+      <c r="F43" s="3" t="inlineStr"/>
+      <c r="G43" s="3" t="inlineStr"/>
+      <c r="H43" s="3" t="inlineStr"/>
+      <c r="I43" s="3" t="inlineStr"/>
+      <c r="J43" s="3" t="inlineStr"/>
+      <c r="K43" s="3" t="inlineStr"/>
+      <c r="L43" s="3" t="inlineStr"/>
+      <c r="M43" s="3" t="inlineStr"/>
+      <c r="N43" s="3" t="inlineStr"/>
+      <c r="O43" s="3" t="inlineStr"/>
+      <c r="P43" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="inlineStr"/>
-      <c r="S42" s="3" t="inlineStr">
+      <c r="Q43" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" s="3" t="inlineStr"/>
+      <c r="S43" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T42" s="3" t="inlineStr"/>
-      <c r="U42" s="3" t="inlineStr"/>
-      <c r="V42" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="T43" s="3" t="inlineStr"/>
+      <c r="U43" s="3" t="inlineStr"/>
+      <c r="V43" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C45" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D45" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr"/>
-      <c r="F44" s="3" t="inlineStr"/>
-      <c r="G44" s="3" t="inlineStr"/>
-      <c r="H44" s="3" t="inlineStr"/>
-      <c r="I44" s="3" t="inlineStr"/>
-      <c r="J44" s="3" t="inlineStr"/>
-      <c r="K44" s="3" t="inlineStr"/>
-      <c r="L44" s="3" t="inlineStr"/>
-      <c r="M44" s="3" t="inlineStr"/>
-      <c r="N44" s="3" t="inlineStr"/>
-      <c r="O44" s="3" t="inlineStr"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="E45" s="3" t="inlineStr"/>
+      <c r="F45" s="3" t="inlineStr"/>
+      <c r="G45" s="3" t="inlineStr"/>
+      <c r="H45" s="3" t="inlineStr"/>
+      <c r="I45" s="3" t="inlineStr"/>
+      <c r="J45" s="3" t="inlineStr"/>
+      <c r="K45" s="3" t="inlineStr"/>
+      <c r="L45" s="3" t="inlineStr"/>
+      <c r="M45" s="3" t="inlineStr"/>
+      <c r="N45" s="3" t="inlineStr"/>
+      <c r="O45" s="3" t="inlineStr"/>
+      <c r="P45" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="inlineStr"/>
-      <c r="S44" s="3" t="inlineStr">
+      <c r="Q45" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" s="3" t="inlineStr"/>
+      <c r="S45" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T44" s="3" t="inlineStr"/>
-      <c r="U44" s="3" t="inlineStr"/>
-      <c r="V44" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="T45" s="3" t="inlineStr"/>
+      <c r="U45" s="3" t="inlineStr"/>
+      <c r="V45" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr"/>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr"/>
-      <c r="Q46" s="3" t="inlineStr"/>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr"/>
+      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr"/>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr"/>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr"/>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr"/>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
-      <c r="M47" s="2" t="inlineStr"/>
-      <c r="N47" s="2" t="inlineStr"/>
-      <c r="O47" s="2" t="inlineStr"/>
-      <c r="P47" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q47" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R47" s="2" t="inlineStr"/>
-      <c r="S47" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T47" s="2" t="inlineStr"/>
-      <c r="U47" s="2" t="inlineStr"/>
-      <c r="V47" s="2" t="inlineStr">
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3186,22 +3190,22 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
@@ -3217,7 +3221,7 @@
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q48" s="2" t="inlineStr">
@@ -3240,173 +3244,169 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="inlineStr">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000153</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>number of participants in intervention arm</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr"/>
+      <c r="F49" s="2" t="inlineStr"/>
+      <c r="G49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr"/>
+      <c r="I49" s="2" t="inlineStr"/>
+      <c r="J49" s="2" t="inlineStr"/>
+      <c r="K49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
+      <c r="O49" s="2" t="inlineStr"/>
+      <c r="P49" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q49" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" s="2" t="inlineStr"/>
+      <c r="S49" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T49" s="2" t="inlineStr"/>
+      <c r="U49" s="2" t="inlineStr"/>
+      <c r="V49" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B49" s="3" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C49" s="3" t="inlineStr">
+      <c r="C50" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D49" s="3" t="inlineStr">
+      <c r="D50" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr"/>
-      <c r="F49" s="3" t="inlineStr"/>
-      <c r="G49" s="3" t="inlineStr"/>
-      <c r="H49" s="3" t="inlineStr"/>
-      <c r="I49" s="3" t="inlineStr"/>
-      <c r="J49" s="3" t="inlineStr"/>
-      <c r="K49" s="3" t="inlineStr"/>
-      <c r="L49" s="3" t="inlineStr"/>
-      <c r="M49" s="3" t="inlineStr"/>
-      <c r="N49" s="3" t="inlineStr"/>
-      <c r="O49" s="3" t="inlineStr"/>
-      <c r="P49" s="3" t="inlineStr">
+      <c r="E50" s="3" t="inlineStr"/>
+      <c r="F50" s="3" t="inlineStr"/>
+      <c r="G50" s="3" t="inlineStr"/>
+      <c r="H50" s="3" t="inlineStr"/>
+      <c r="I50" s="3" t="inlineStr"/>
+      <c r="J50" s="3" t="inlineStr"/>
+      <c r="K50" s="3" t="inlineStr"/>
+      <c r="L50" s="3" t="inlineStr"/>
+      <c r="M50" s="3" t="inlineStr"/>
+      <c r="N50" s="3" t="inlineStr"/>
+      <c r="O50" s="3" t="inlineStr"/>
+      <c r="P50" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q49" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R49" s="3" t="inlineStr"/>
-      <c r="S49" s="3" t="inlineStr">
+      <c r="Q50" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="3" t="inlineStr"/>
+      <c r="S50" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T49" s="3" t="inlineStr"/>
-      <c r="U49" s="3" t="inlineStr"/>
-      <c r="V49" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="T50" s="3" t="inlineStr"/>
+      <c r="U50" s="3" t="inlineStr"/>
+      <c r="V50" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E50" s="4" t="inlineStr"/>
-      <c r="F50" s="4" t="inlineStr"/>
-      <c r="G50" s="4" t="inlineStr"/>
-      <c r="H50" s="4" t="inlineStr"/>
-      <c r="I50" s="4" t="inlineStr"/>
-      <c r="J50" s="4" t="inlineStr"/>
-      <c r="K50" s="4" t="inlineStr"/>
-      <c r="L50" s="4" t="inlineStr"/>
-      <c r="M50" s="4" t="inlineStr"/>
-      <c r="N50" s="4" t="inlineStr"/>
-      <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr"/>
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q50" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="4" t="inlineStr"/>
-      <c r="S50" s="4" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="T50" s="4" t="inlineStr"/>
-      <c r="U50" s="4" t="inlineStr"/>
-      <c r="V50" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr">
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3415,29 +3415,29 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H52" s="2" t="inlineStr"/>
@@ -3475,29 +3475,29 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr"/>
       <c r="F53" s="2" t="inlineStr"/>
       <c r="G53" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H53" s="2" t="inlineStr"/>
@@ -3533,124 +3533,120 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000157</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder severity measurement item</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
+      <c r="B55" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C54" s="5" t="inlineStr">
+      <c r="C55" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D54" s="5" t="inlineStr">
+      <c r="D55" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E54" s="5" t="inlineStr">
+      <c r="E55" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F54" s="5" t="inlineStr"/>
-      <c r="G54" s="5" t="inlineStr"/>
-      <c r="H54" s="5" t="inlineStr"/>
-      <c r="I54" s="5" t="inlineStr"/>
-      <c r="J54" s="5" t="inlineStr"/>
-      <c r="K54" s="5" t="inlineStr"/>
-      <c r="L54" s="5" t="inlineStr"/>
-      <c r="M54" s="5" t="inlineStr"/>
-      <c r="N54" s="5" t="inlineStr"/>
-      <c r="O54" s="5" t="inlineStr"/>
-      <c r="P54" s="5" t="inlineStr">
+      <c r="F55" s="5" t="inlineStr"/>
+      <c r="G55" s="5" t="inlineStr"/>
+      <c r="H55" s="5" t="inlineStr"/>
+      <c r="I55" s="5" t="inlineStr"/>
+      <c r="J55" s="5" t="inlineStr"/>
+      <c r="K55" s="5" t="inlineStr"/>
+      <c r="L55" s="5" t="inlineStr"/>
+      <c r="M55" s="5" t="inlineStr"/>
+      <c r="N55" s="5" t="inlineStr"/>
+      <c r="O55" s="5" t="inlineStr"/>
+      <c r="P55" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q54" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="5" t="inlineStr"/>
-      <c r="S54" s="5" t="inlineStr">
+      <c r="Q55" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="5" t="inlineStr"/>
+      <c r="S55" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T54" s="5" t="inlineStr"/>
-      <c r="U54" s="5" t="inlineStr"/>
-      <c r="V54" s="5" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr">
+      <c r="T55" s="5" t="inlineStr"/>
+      <c r="U55" s="5" t="inlineStr"/>
+      <c r="V55" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3659,31 +3655,35 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H56" s="2" t="inlineStr"/>
       <c r="I56" s="2" t="inlineStr"/>
       <c r="J56" s="2" t="inlineStr"/>
@@ -3694,7 +3694,7 @@
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q56" s="2" t="inlineStr">
@@ -3719,27 +3719,27 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr"/>
@@ -3754,7 +3754,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3779,43 +3779,35 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G58" s="2" t="inlineStr"/>
       <c r="H58" s="2" t="inlineStr"/>
       <c r="I58" s="2" t="inlineStr"/>
       <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
       <c r="M58" s="2" t="inlineStr"/>
       <c r="N58" s="2" t="inlineStr"/>
@@ -3847,39 +3839,43 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr"/>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
       <c r="N59" s="2" t="inlineStr"/>
@@ -3894,12 +3890,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R59" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R59" s="2" t="inlineStr"/>
       <c r="S59" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3916,31 +3907,35 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
@@ -3959,7 +3954,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R60" s="2" t="inlineStr"/>
+      <c r="R60" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3976,25 +3976,29 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F61" s="2" t="inlineStr"/>
       <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
@@ -4007,7 +4011,7 @@
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q61" s="2" t="inlineStr">
@@ -4032,22 +4036,22 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -4063,7 +4067,7 @@
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4088,22 +4092,22 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C63" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D63" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -4144,31 +4148,27 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
       <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
@@ -4202,116 +4202,120 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr"/>
+      <c r="I65" s="2" t="inlineStr"/>
+      <c r="J65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr"/>
+      <c r="L65" s="2" t="inlineStr"/>
+      <c r="M65" s="2" t="inlineStr"/>
+      <c r="N65" s="2" t="inlineStr"/>
+      <c r="O65" s="2" t="inlineStr"/>
+      <c r="P65" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="inlineStr"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="inlineStr"/>
+      <c r="U65" s="2" t="inlineStr"/>
+      <c r="V65" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr">
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
-      <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
-      <c r="H66" s="2" t="inlineStr"/>
-      <c r="I66" s="2" t="inlineStr"/>
-      <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
-      <c r="L66" s="2" t="inlineStr"/>
-      <c r="M66" s="2" t="inlineStr"/>
-      <c r="N66" s="2" t="inlineStr"/>
-      <c r="O66" s="2" t="inlineStr"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="inlineStr"/>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr"/>
-      <c r="U66" s="2" t="inlineStr"/>
-      <c r="V66" s="2" t="inlineStr">
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4320,40 +4324,31 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
-      <c r="K67" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
       <c r="M67" s="2" t="inlineStr"/>
       <c r="N67" s="2" t="inlineStr"/>
@@ -4375,68 +4370,77 @@
         </is>
       </c>
       <c r="T67" s="2" t="inlineStr"/>
-      <c r="U67" s="2" t="inlineStr">
+      <c r="U67" s="2" t="inlineStr"/>
+      <c r="V67" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr"/>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr"/>
+      <c r="M68" s="2" t="inlineStr"/>
+      <c r="N68" s="2" t="inlineStr"/>
+      <c r="O68" s="2" t="inlineStr"/>
+      <c r="P68" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr"/>
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="inlineStr"/>
+      <c r="U68" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V67" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B68" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C68" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D68" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr"/>
-      <c r="G68" s="3" t="inlineStr"/>
-      <c r="H68" s="3" t="inlineStr"/>
-      <c r="I68" s="3" t="inlineStr"/>
-      <c r="J68" s="3" t="inlineStr"/>
-      <c r="K68" s="3" t="inlineStr"/>
-      <c r="L68" s="3" t="inlineStr"/>
-      <c r="M68" s="3" t="inlineStr"/>
-      <c r="N68" s="3" t="inlineStr"/>
-      <c r="O68" s="3" t="inlineStr"/>
-      <c r="P68" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q68" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" s="3" t="inlineStr"/>
-      <c r="S68" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T68" s="3" t="inlineStr"/>
-      <c r="U68" s="3" t="inlineStr"/>
-      <c r="V68" s="3" t="inlineStr">
+      <c r="V68" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4445,22 +4449,22 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E69" s="3" t="inlineStr"/>
@@ -4501,22 +4505,22 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
       <c r="D70" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E70" s="3" t="inlineStr"/>
@@ -4555,196 +4559,192 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="inlineStr"/>
+      <c r="F71" s="3" t="inlineStr"/>
+      <c r="G71" s="3" t="inlineStr"/>
+      <c r="H71" s="3" t="inlineStr"/>
+      <c r="I71" s="3" t="inlineStr"/>
+      <c r="J71" s="3" t="inlineStr"/>
+      <c r="K71" s="3" t="inlineStr"/>
+      <c r="L71" s="3" t="inlineStr"/>
+      <c r="M71" s="3" t="inlineStr"/>
+      <c r="N71" s="3" t="inlineStr"/>
+      <c r="O71" s="3" t="inlineStr"/>
+      <c r="P71" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q71" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="3" t="inlineStr"/>
+      <c r="S71" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T71" s="3" t="inlineStr"/>
+      <c r="U71" s="3" t="inlineStr"/>
+      <c r="V71" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr"/>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr"/>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T71" s="2" t="inlineStr"/>
-      <c r="U71" s="2" t="inlineStr">
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V71" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
-      <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
-      <c r="O73" s="2" t="inlineStr"/>
-      <c r="P73" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q73" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" s="2" t="inlineStr"/>
-      <c r="S73" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -4760,7 +4760,7 @@
       <c r="O74" s="2" t="inlineStr"/>
       <c r="P74" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q74" s="2" t="inlineStr">
@@ -4775,7 +4775,11 @@
         </is>
       </c>
       <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V74" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4785,17 +4789,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -4816,12 +4820,12 @@
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q75" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervnetion outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R75" s="2" t="inlineStr"/>
@@ -4831,128 +4835,184 @@
         </is>
       </c>
       <c r="T75" s="2" t="inlineStr"/>
-      <c r="U75" s="2" t="inlineStr">
+      <c r="U75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr"/>
+      <c r="F76" s="2" t="inlineStr"/>
+      <c r="G76" s="2" t="inlineStr"/>
+      <c r="H76" s="2" t="inlineStr"/>
+      <c r="I76" s="2" t="inlineStr"/>
+      <c r="J76" s="2" t="inlineStr"/>
+      <c r="K76" s="2" t="inlineStr"/>
+      <c r="L76" s="2" t="inlineStr"/>
+      <c r="M76" s="2" t="inlineStr"/>
+      <c r="N76" s="2" t="inlineStr"/>
+      <c r="O76" s="2" t="inlineStr"/>
+      <c r="P76" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervnetion outcome</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="inlineStr"/>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T76" s="2" t="inlineStr"/>
+      <c r="U76" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V75" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="V76" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr">
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="inlineStr">
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B77" s="2" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D77" s="2" t="inlineStr">
+      <c r="D78" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
-      <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="inlineStr"/>
-      <c r="N77" s="2" t="inlineStr"/>
-      <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr"/>
+      <c r="F78" s="2" t="inlineStr"/>
+      <c r="G78" s="2" t="inlineStr"/>
+      <c r="H78" s="2" t="inlineStr"/>
+      <c r="I78" s="2" t="inlineStr"/>
+      <c r="J78" s="2" t="inlineStr"/>
+      <c r="K78" s="2" t="inlineStr"/>
+      <c r="L78" s="2" t="inlineStr"/>
+      <c r="M78" s="2" t="inlineStr"/>
+      <c r="N78" s="2" t="inlineStr"/>
+      <c r="O78" s="2" t="inlineStr"/>
+      <c r="P78" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q77" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="inlineStr">
+      <c r="Q78" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R78" s="2" t="inlineStr"/>
+      <c r="S78" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T77" s="2" t="inlineStr"/>
-      <c r="U77" s="2" t="inlineStr"/>
-      <c r="V77" s="2" t="inlineStr">
+      <c r="T78" s="2" t="inlineStr"/>
+      <c r="U78" s="2" t="inlineStr"/>
+      <c r="V78" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1164,7 +1164,11 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1172,7 +1176,7 @@
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1197,22 +1201,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:015105</t>
+          <t>MF:0000041</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>A bodily quality based on reproductive function or organs.</t>
+          <t>A mental disposition to represent a proposition to be true.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>bodily quality</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
@@ -1243,11 +1247,7 @@
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1257,22 +1257,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MF:0000032</t>
+          <t>BCIO:015105</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>A bodily disposition is a disposition that inheres in some extended organism.</t>
+          <t>A bodily quality based on reproductive function or organs.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
@@ -1280,11 +1280,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1292,7 +1288,7 @@
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -1307,7 +1303,11 @@
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>PS</t>
@@ -1315,240 +1315,236 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MF:0000032</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A bodily disposition is a disposition that inheres in some extended organism.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000090</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A person who has not yet reached maturity. </t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
+      <c r="D16" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr"/>
-      <c r="F15" s="2" t="inlineStr"/>
-      <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr"/>
-      <c r="I15" s="2" t="inlineStr"/>
-      <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr"/>
-      <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="inlineStr"/>
-      <c r="N15" s="2" t="inlineStr"/>
-      <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr"/>
+      <c r="F16" s="2" t="inlineStr"/>
+      <c r="G16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr"/>
+      <c r="I16" s="2" t="inlineStr"/>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
+      <c r="L16" s="2" t="inlineStr"/>
+      <c r="M16" s="2" t="inlineStr"/>
+      <c r="N16" s="2" t="inlineStr"/>
+      <c r="O16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q15" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R15" s="2" t="inlineStr"/>
-      <c r="S15" s="2" t="inlineStr">
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr"/>
+      <c r="S16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T15" s="2" t="inlineStr"/>
-      <c r="U15" s="2" t="inlineStr">
+      <c r="T16" s="2" t="inlineStr"/>
+      <c r="U16" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V15" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>OGMS:0000123</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr">
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr">
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000091</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>clinical history of psychosis experience</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which there is a history of psychosis experience.</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr"/>
-      <c r="F17" s="2" t="inlineStr"/>
-      <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
-      <c r="I17" s="2" t="inlineStr"/>
-      <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
-      <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="inlineStr"/>
-      <c r="N17" s="2" t="inlineStr"/>
-      <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr"/>
+      <c r="F18" s="2" t="inlineStr"/>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+      <c r="I18" s="2" t="inlineStr"/>
+      <c r="J18" s="2" t="inlineStr"/>
+      <c r="K18" s="2" t="inlineStr"/>
+      <c r="L18" s="2" t="inlineStr"/>
+      <c r="M18" s="2" t="inlineStr"/>
+      <c r="N18" s="2" t="inlineStr"/>
+      <c r="O18" s="2" t="inlineStr"/>
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr"/>
-      <c r="S17" s="2" t="inlineStr">
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr"/>
+      <c r="S18" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T17" s="2" t="inlineStr"/>
-      <c r="U17" s="2" t="inlineStr">
+      <c r="T18" s="2" t="inlineStr"/>
+      <c r="U18" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>comorbidity</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>OMIABIS:0001008</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Relation between person and diagnosis needs to be specified</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr">
+      <c r="V18" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1557,29 +1553,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>OMIABIS:0001008</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>comorbidity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+          <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>information content entity</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>OMIABIS:0001008</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Relation between person and diagnosis needs to be specified</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
@@ -1588,7 +1592,7 @@
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
@@ -1611,56 +1615,56 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000146</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">depression data item </t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of depression symptom severity.</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr"/>
-      <c r="F20" s="2" t="inlineStr"/>
-      <c r="G20" s="2" t="inlineStr"/>
-      <c r="H20" s="2" t="inlineStr"/>
-      <c r="I20" s="2" t="inlineStr"/>
-      <c r="J20" s="2" t="inlineStr"/>
-      <c r="K20" s="2" t="inlineStr"/>
-      <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="inlineStr"/>
-      <c r="N20" s="2" t="inlineStr"/>
-      <c r="O20" s="2" t="inlineStr"/>
-      <c r="P20" s="2" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q20" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R20" s="2" t="inlineStr"/>
-      <c r="S20" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T20" s="2" t="inlineStr"/>
-      <c r="U20" s="2" t="inlineStr"/>
-      <c r="V20" s="2" t="inlineStr">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1669,22 +1673,22 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000176</t>
+          <t>GMHO:0000146</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t xml:space="preserve">depression data item </t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
+          <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>measurement data item</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr"/>
@@ -1703,7 +1707,11 @@
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr"/>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R21" s="2" t="inlineStr"/>
       <c r="S21" s="2" t="inlineStr">
         <is>
@@ -1721,22 +1729,22 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000061</t>
+          <t>GMHO:0000176</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>depression symptom</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>A symptom that is related to a depression diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr"/>
@@ -1750,7 +1758,11 @@
       <c r="M22" s="2" t="inlineStr"/>
       <c r="N22" s="2" t="inlineStr"/>
       <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr"/>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
       <c r="Q22" s="2" t="inlineStr"/>
       <c r="R22" s="2" t="inlineStr"/>
       <c r="S22" s="2" t="inlineStr">
@@ -1769,22 +1781,22 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000062</t>
+          <t>GMHO:0000061</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>depression symptom</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with a depression symptom.</t>
+          <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>symptom</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr"/>
@@ -1798,16 +1810,8 @@
       <c r="M23" s="2" t="inlineStr"/>
       <c r="N23" s="2" t="inlineStr"/>
       <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q23" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P23" s="2" t="inlineStr"/>
+      <c r="Q23" s="2" t="inlineStr"/>
       <c r="R23" s="2" t="inlineStr"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
@@ -1823,120 +1827,116 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000062</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a depression symptom.</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="4" t="inlineStr"/>
+      <c r="H24" s="4" t="inlineStr"/>
+      <c r="I24" s="4" t="inlineStr"/>
+      <c r="J24" s="4" t="inlineStr"/>
+      <c r="K24" s="4" t="inlineStr"/>
+      <c r="L24" s="4" t="inlineStr"/>
+      <c r="M24" s="4" t="inlineStr"/>
+      <c r="N24" s="4" t="inlineStr"/>
+      <c r="O24" s="4" t="inlineStr"/>
+      <c r="P24" s="4" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q24" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R24" s="4" t="inlineStr"/>
+      <c r="S24" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T24" s="4" t="inlineStr"/>
+      <c r="U24" s="4" t="inlineStr"/>
+      <c r="V24" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr">
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000148</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr"/>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr"/>
-      <c r="K25" s="2" t="inlineStr"/>
-      <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="inlineStr"/>
-      <c r="N25" s="2" t="inlineStr"/>
-      <c r="O25" s="2" t="inlineStr"/>
-      <c r="P25" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr"/>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr"/>
-      <c r="U25" s="2" t="inlineStr"/>
-      <c r="V25" s="2" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -1945,33 +1945,33 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000149</t>
+          <t>GMHO:0000148</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>dysthymia diagnosis</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
+          <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr"/>
       <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="G26" s="2" t="inlineStr"/>
       <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr"/>
@@ -1980,7 +1980,7 @@
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -2005,27 +2005,31 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr"/>
       <c r="F27" s="2" t="inlineStr"/>
-      <c r="G27" s="2" t="inlineStr"/>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H27" s="2" t="inlineStr"/>
       <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
@@ -2036,7 +2040,7 @@
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -2051,68 +2055,68 @@
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr"/>
-      <c r="U27" s="2" t="inlineStr">
+      <c r="U27" s="2" t="inlineStr"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000092</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>ethnic group membership</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr"/>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
+      <c r="J28" s="2" t="inlineStr"/>
+      <c r="K28" s="2" t="inlineStr"/>
+      <c r="L28" s="2" t="inlineStr"/>
+      <c r="M28" s="2" t="inlineStr"/>
+      <c r="N28" s="2" t="inlineStr"/>
+      <c r="O28" s="2" t="inlineStr"/>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr"/>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr"/>
+      <c r="U28" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V27" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>OBI:0500028</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>exclusion criterion</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr">
+      <c r="V28" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2121,22 +2125,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2152,7 +2156,7 @@
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -2177,22 +2181,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:015327</t>
+          <t>BCIO:015106</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>female biological sex</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The aggregate of female biological sex in a population.</t>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2231,60 +2235,56 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr"/>
-      <c r="F31" s="2" t="inlineStr"/>
-      <c r="G31" s="2" t="inlineStr"/>
-      <c r="H31" s="2" t="inlineStr"/>
-      <c r="I31" s="2" t="inlineStr"/>
-      <c r="J31" s="2" t="inlineStr"/>
-      <c r="K31" s="2" t="inlineStr"/>
-      <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="inlineStr"/>
-      <c r="N31" s="2" t="inlineStr"/>
-      <c r="O31" s="2" t="inlineStr"/>
-      <c r="P31" s="2" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>BCIO:015327</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>The aggregate of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R31" s="2" t="inlineStr"/>
-      <c r="S31" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T31" s="2" t="inlineStr"/>
-      <c r="U31" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V31" s="2" t="inlineStr">
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2293,22 +2293,22 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr"/>
@@ -2339,7 +2339,11 @@
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr"/>
-      <c r="U32" s="2" t="inlineStr"/>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2349,22 +2353,22 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr"/>
@@ -2380,7 +2384,7 @@
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -2395,72 +2399,68 @@
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr"/>
-      <c r="U33" s="2" t="inlineStr">
+      <c r="U33" s="2" t="inlineStr"/>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000095</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr"/>
+      <c r="F34" s="2" t="inlineStr"/>
+      <c r="G34" s="2" t="inlineStr"/>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
+      <c r="J34" s="2" t="inlineStr"/>
+      <c r="K34" s="2" t="inlineStr"/>
+      <c r="L34" s="2" t="inlineStr"/>
+      <c r="M34" s="2" t="inlineStr"/>
+      <c r="N34" s="2" t="inlineStr"/>
+      <c r="O34" s="2" t="inlineStr"/>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr"/>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr"/>
+      <c r="U34" s="2" t="inlineStr">
         <is>
           <t>Reused - but no ID yet</t>
         </is>
       </c>
-      <c r="V33" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>BCIO:015015</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>human age</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
+      <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2469,22 +2469,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:015415</t>
+          <t>BCIO:015015</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>human age</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The aggregate of human age in a population.</t>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2500,7 +2500,7 @@
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -2515,7 +2515,11 @@
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2525,22 +2529,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:015415</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>The aggregate of human age in a population.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2556,7 +2560,7 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -2579,289 +2583,285 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000067</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>human functioning</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A bodily disposition to realise processes that influence a person's life quality.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr"/>
+      <c r="F37" s="2" t="inlineStr"/>
+      <c r="G37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr"/>
+      <c r="I37" s="2" t="inlineStr"/>
+      <c r="J37" s="2" t="inlineStr"/>
+      <c r="K37" s="2" t="inlineStr"/>
+      <c r="L37" s="2" t="inlineStr"/>
+      <c r="M37" s="2" t="inlineStr"/>
+      <c r="N37" s="2" t="inlineStr"/>
+      <c r="O37" s="2" t="inlineStr"/>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr"/>
+      <c r="U37" s="2" t="inlineStr"/>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>OBI:0500027</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>inclusion criterion</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>eligibility criterion</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>IAO:0000030</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B39" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>A generically dependent continuant that is about some thing.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr">
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000150</t>
         </is>
       </c>
-      <c r="B38" s="2" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="C38" s="2" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
-      <c r="D38" s="2" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E38" s="2" t="inlineStr"/>
-      <c r="F38" s="2" t="inlineStr"/>
-      <c r="G38" s="2" t="inlineStr"/>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
-      <c r="J38" s="2" t="inlineStr"/>
-      <c r="K38" s="2" t="inlineStr"/>
-      <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="inlineStr"/>
-      <c r="N38" s="2" t="inlineStr"/>
-      <c r="O38" s="2" t="inlineStr"/>
-      <c r="P38" s="2" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr"/>
+      <c r="F40" s="2" t="inlineStr"/>
+      <c r="G40" s="2" t="inlineStr"/>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
+      <c r="J40" s="2" t="inlineStr"/>
+      <c r="K40" s="2" t="inlineStr"/>
+      <c r="L40" s="2" t="inlineStr"/>
+      <c r="M40" s="2" t="inlineStr"/>
+      <c r="N40" s="2" t="inlineStr"/>
+      <c r="O40" s="2" t="inlineStr"/>
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q38" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" s="2" t="inlineStr"/>
-      <c r="S38" s="2" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr"/>
+      <c r="S40" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T38" s="2" t="inlineStr"/>
-      <c r="U38" s="2" t="inlineStr"/>
-      <c r="V38" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
+      <c r="T40" s="2" t="inlineStr"/>
+      <c r="U40" s="2" t="inlineStr"/>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C39" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D39" s="2" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
         </is>
       </c>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr"/>
-      <c r="H39" s="2" t="inlineStr"/>
-      <c r="I39" s="2" t="inlineStr"/>
-      <c r="J39" s="2" t="inlineStr"/>
-      <c r="K39" s="2" t="inlineStr"/>
-      <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="inlineStr"/>
-      <c r="N39" s="2" t="inlineStr"/>
-      <c r="O39" s="2" t="inlineStr"/>
-      <c r="P39" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q39" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R39" s="2" t="inlineStr"/>
-      <c r="S39" s="2" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T39" s="2" t="inlineStr"/>
-      <c r="U39" s="2" t="inlineStr"/>
-      <c r="V39" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>BCIO:015416</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>mean human age population statistic</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>The mean of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>human age population statistic</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2870,22 +2870,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -2924,56 +2924,60 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000209</t>
-        </is>
-      </c>
-      <c r="B43" s="3" t="inlineStr">
-        <is>
-          <t>measurement datum at baseline</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>Measurement datum that was recorded as baseline data in a study.</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>measurement datum</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="inlineStr"/>
-      <c r="F43" s="3" t="inlineStr"/>
-      <c r="G43" s="3" t="inlineStr"/>
-      <c r="H43" s="3" t="inlineStr"/>
-      <c r="I43" s="3" t="inlineStr"/>
-      <c r="J43" s="3" t="inlineStr"/>
-      <c r="K43" s="3" t="inlineStr"/>
-      <c r="L43" s="3" t="inlineStr"/>
-      <c r="M43" s="3" t="inlineStr"/>
-      <c r="N43" s="3" t="inlineStr"/>
-      <c r="O43" s="3" t="inlineStr"/>
-      <c r="P43" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q43" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R43" s="3" t="inlineStr"/>
-      <c r="S43" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T43" s="3" t="inlineStr"/>
-      <c r="U43" s="3" t="inlineStr"/>
-      <c r="V43" s="3" t="inlineStr">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BCIO:015416</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mean human age population statistic</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>The mean of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>human age population statistic</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2982,22 +2986,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>OBCS:0000011</t>
+          <t>IAO:0000109</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3011,8 +3015,16 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr">
         <is>
@@ -3030,22 +3042,22 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000212</t>
+          <t>GMHO:0000209</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>measurement scale at baseline</t>
+          <t>measurement datum at baseline</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale used to measure baseline data in a study.</t>
+          <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>measurement datum</t>
         </is>
       </c>
       <c r="E45" s="3" t="inlineStr"/>
@@ -3086,22 +3098,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:015490</t>
+          <t>OBCS:0000011</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>medication use status</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+          <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>health status attribute</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3115,16 +3127,8 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr">
         <is>
@@ -3142,22 +3146,22 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000213</t>
+          <t>GMHO:0000212</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>number of female biological sex</t>
+          <t>measurement scale at baseline</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>The number of female biological sex in a population.</t>
+          <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E47" s="3" t="inlineStr"/>
@@ -3171,8 +3175,16 @@
       <c r="M47" s="3" t="inlineStr"/>
       <c r="N47" s="3" t="inlineStr"/>
       <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr"/>
-      <c r="Q47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="R47" s="3" t="inlineStr"/>
       <c r="S47" s="3" t="inlineStr">
         <is>
@@ -3188,112 +3200,112 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
-      <c r="G48" s="2" t="inlineStr"/>
-      <c r="H48" s="2" t="inlineStr"/>
-      <c r="I48" s="2" t="inlineStr"/>
-      <c r="J48" s="2" t="inlineStr"/>
-      <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="inlineStr"/>
-      <c r="N48" s="2" t="inlineStr"/>
-      <c r="O48" s="2" t="inlineStr"/>
-      <c r="P48" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q48" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="2" t="inlineStr"/>
-      <c r="S48" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T48" s="2" t="inlineStr"/>
-      <c r="U48" s="2" t="inlineStr"/>
-      <c r="V48" s="2" t="inlineStr">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BCIO:015490</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>medication use status</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>health status attribute</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000153</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>number of participants in intervention arm</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr"/>
-      <c r="F49" s="2" t="inlineStr"/>
-      <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
-      <c r="I49" s="2" t="inlineStr"/>
-      <c r="J49" s="2" t="inlineStr"/>
-      <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
-      <c r="O49" s="2" t="inlineStr"/>
-      <c r="P49" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q49" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R49" s="2" t="inlineStr"/>
-      <c r="S49" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T49" s="2" t="inlineStr"/>
-      <c r="U49" s="2" t="inlineStr"/>
-      <c r="V49" s="2" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3302,23 +3314,22 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">GMHO:0000206
-</t>
+          <t>GMHO:0000213</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>number of participants with measurement</t>
+          <t>number of female biological sex</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Number of intervention participants for whom a measurement was made.</t>
+          <t>The number of female biological sex in a population.</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>female biological sex population statistic</t>
         </is>
       </c>
       <c r="E50" s="3" t="inlineStr"/>
@@ -3332,16 +3343,8 @@
       <c r="M50" s="3" t="inlineStr"/>
       <c r="N50" s="3" t="inlineStr"/>
       <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P50" s="3" t="inlineStr"/>
+      <c r="Q50" s="3" t="inlineStr"/>
       <c r="R50" s="3" t="inlineStr"/>
       <c r="S50" s="3" t="inlineStr">
         <is>
@@ -3357,56 +3360,56 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000154</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="inlineStr">
-        <is>
-          <t>number of randomised intervention participants</t>
-        </is>
-      </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000152</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr"/>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q51" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr"/>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
+      <c r="O51" s="2" t="inlineStr"/>
+      <c r="P51" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="inlineStr"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="inlineStr"/>
+      <c r="U51" s="2" t="inlineStr"/>
+      <c r="V51" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3415,31 +3418,27 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000153</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>number of participants in intervention arm</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr"/>
       <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
@@ -3450,7 +3449,7 @@
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q52" s="2" t="inlineStr">
@@ -3473,180 +3472,173 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000155</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>anxiety diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr">
-        <is>
-          <t>PTSD severity</t>
-        </is>
-      </c>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GMHO:0000206
+</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>number of participants with measurement</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Number of intervention participants for whom a measurement was made.</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr"/>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000154</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>number of randomised intervention participants</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr"/>
+      <c r="F54" s="4" t="inlineStr"/>
+      <c r="G54" s="4" t="inlineStr"/>
+      <c r="H54" s="4" t="inlineStr"/>
+      <c r="I54" s="4" t="inlineStr"/>
+      <c r="J54" s="4" t="inlineStr"/>
+      <c r="K54" s="4" t="inlineStr"/>
+      <c r="L54" s="4" t="inlineStr"/>
+      <c r="M54" s="4" t="inlineStr"/>
+      <c r="N54" s="4" t="inlineStr"/>
+      <c r="O54" s="4" t="inlineStr"/>
+      <c r="P54" s="4" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="inlineStr"/>
+      <c r="S54" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T54" s="4" t="inlineStr"/>
+      <c r="U54" s="4" t="inlineStr"/>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000156</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>PTSD diagnosis status</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000157</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E54" s="2" t="inlineStr"/>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr">
-        <is>
-          <t>PTSD measurement item</t>
-        </is>
-      </c>
-      <c r="H54" s="2" t="inlineStr"/>
-      <c r="I54" s="2" t="inlineStr"/>
-      <c r="J54" s="2" t="inlineStr"/>
-      <c r="K54" s="2" t="inlineStr"/>
-      <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="inlineStr"/>
-      <c r="N54" s="2" t="inlineStr"/>
-      <c r="O54" s="2" t="inlineStr"/>
-      <c r="P54" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q54" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="2" t="inlineStr"/>
-      <c r="S54" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T54" s="2" t="inlineStr"/>
-      <c r="U54" s="2" t="inlineStr"/>
-      <c r="V54" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="inlineStr">
-        <is>
-          <t>GMHO:0000158</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>pre-intervention anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="C55" s="5" t="inlineStr">
-        <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D55" s="5" t="inlineStr">
-        <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E55" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F55" s="5" t="inlineStr"/>
-      <c r="G55" s="5" t="inlineStr"/>
-      <c r="H55" s="5" t="inlineStr"/>
-      <c r="I55" s="5" t="inlineStr"/>
-      <c r="J55" s="5" t="inlineStr"/>
-      <c r="K55" s="5" t="inlineStr"/>
-      <c r="L55" s="5" t="inlineStr"/>
-      <c r="M55" s="5" t="inlineStr"/>
-      <c r="N55" s="5" t="inlineStr"/>
-      <c r="O55" s="5" t="inlineStr"/>
-      <c r="P55" s="5" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q55" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="5" t="inlineStr"/>
-      <c r="S55" s="5" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T55" s="5" t="inlineStr"/>
-      <c r="U55" s="5" t="inlineStr"/>
-      <c r="V55" s="5" t="inlineStr">
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3655,33 +3647,29 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D56" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>anxiety diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr"/>
       <c r="F56" s="2" t="inlineStr"/>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>baseline ASD severity</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3719,31 +3707,31 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
-        </is>
-      </c>
-      <c r="E57" s="2" t="inlineStr">
-        <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr"/>
@@ -3754,7 +3742,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3777,60 +3765,60 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000161</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention insomnia severity</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr"/>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D58" s="5" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E58" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F58" s="5" t="inlineStr"/>
+      <c r="G58" s="5" t="inlineStr"/>
+      <c r="H58" s="5" t="inlineStr"/>
+      <c r="I58" s="5" t="inlineStr"/>
+      <c r="J58" s="5" t="inlineStr"/>
+      <c r="K58" s="5" t="inlineStr"/>
+      <c r="L58" s="5" t="inlineStr"/>
+      <c r="M58" s="5" t="inlineStr"/>
+      <c r="N58" s="5" t="inlineStr"/>
+      <c r="O58" s="5" t="inlineStr"/>
+      <c r="P58" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="Q58" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" s="5" t="inlineStr"/>
+      <c r="S58" s="5" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T58" s="5" t="inlineStr"/>
+      <c r="U58" s="5" t="inlineStr"/>
+      <c r="V58" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3839,43 +3827,39 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Baseline clinical variable, baseline variable</t>
+          <t>baseline ASD severity</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
       <c r="I59" s="2" t="inlineStr"/>
       <c r="J59" s="2" t="inlineStr"/>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
       <c r="M59" s="2" t="inlineStr"/>
       <c r="N59" s="2" t="inlineStr"/>
@@ -3907,35 +3891,31 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>baseline PTSD severity</t>
-        </is>
-      </c>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
@@ -3946,7 +3926,7 @@
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q60" s="2" t="inlineStr">
@@ -3954,12 +3934,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R60" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R60" s="2" t="inlineStr"/>
       <c r="S60" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -3976,27 +3951,27 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
@@ -4036,38 +4011,50 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr"/>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Baseline clinical variable, baseline variable</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr"/>
       <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4092,27 +4079,35 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="E63" s="2" t="inlineStr"/>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4123,7 +4118,7 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -4131,7 +4126,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr"/>
+      <c r="R63" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4148,25 +4148,29 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
-        </is>
-      </c>
-      <c r="E64" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F64" s="2" t="inlineStr"/>
       <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
@@ -4179,7 +4183,7 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -4204,31 +4208,27 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
       <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
@@ -4239,7 +4239,7 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -4262,60 +4262,56 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>BCIO:015329</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>proportion female sex population statistic</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>The proportion of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000165</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+      <c r="M66" s="2" t="inlineStr"/>
+      <c r="N66" s="2" t="inlineStr"/>
+      <c r="O66" s="2" t="inlineStr"/>
+      <c r="P66" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="inlineStr"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="inlineStr"/>
+      <c r="U66" s="2" t="inlineStr"/>
+      <c r="V66" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4324,22 +4320,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -4355,7 +4351,7 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
@@ -4380,47 +4376,42 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H68" s="2" t="inlineStr"/>
-      <c r="I68" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
-      <c r="K68" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr"/>
       <c r="M68" s="2" t="inlineStr"/>
       <c r="N68" s="2" t="inlineStr"/>
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
@@ -4435,352 +4426,361 @@
         </is>
       </c>
       <c r="T68" s="2" t="inlineStr"/>
-      <c r="U68" s="2" t="inlineStr">
+      <c r="U68" s="2" t="inlineStr"/>
+      <c r="V68" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>BCIO:015329</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>proportion female sex population statistic</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The proportion of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000187</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr"/>
+      <c r="F70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr"/>
+      <c r="H70" s="2" t="inlineStr"/>
+      <c r="I70" s="2" t="inlineStr"/>
+      <c r="J70" s="2" t="inlineStr"/>
+      <c r="K70" s="2" t="inlineStr"/>
+      <c r="L70" s="2" t="inlineStr"/>
+      <c r="M70" s="2" t="inlineStr"/>
+      <c r="N70" s="2" t="inlineStr"/>
+      <c r="O70" s="2" t="inlineStr"/>
+      <c r="P70" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="inlineStr"/>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="inlineStr"/>
+      <c r="U70" s="2" t="inlineStr"/>
+      <c r="V70" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V68" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000135</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>reward sensitivity</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr"/>
-      <c r="F69" s="3" t="inlineStr"/>
-      <c r="G69" s="3" t="inlineStr"/>
-      <c r="H69" s="3" t="inlineStr"/>
-      <c r="I69" s="3" t="inlineStr"/>
-      <c r="J69" s="3" t="inlineStr"/>
-      <c r="K69" s="3" t="inlineStr"/>
-      <c r="L69" s="3" t="inlineStr"/>
-      <c r="M69" s="3" t="inlineStr"/>
-      <c r="N69" s="3" t="inlineStr"/>
-      <c r="O69" s="3" t="inlineStr"/>
-      <c r="P69" s="3" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr"/>
+      <c r="F72" s="3" t="inlineStr"/>
+      <c r="G72" s="3" t="inlineStr"/>
+      <c r="H72" s="3" t="inlineStr"/>
+      <c r="I72" s="3" t="inlineStr"/>
+      <c r="J72" s="3" t="inlineStr"/>
+      <c r="K72" s="3" t="inlineStr"/>
+      <c r="L72" s="3" t="inlineStr"/>
+      <c r="M72" s="3" t="inlineStr"/>
+      <c r="N72" s="3" t="inlineStr"/>
+      <c r="O72" s="3" t="inlineStr"/>
+      <c r="P72" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q69" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" s="3" t="inlineStr"/>
-      <c r="S69" s="3" t="inlineStr">
+      <c r="Q72" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="3" t="inlineStr"/>
+      <c r="S72" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T69" s="3" t="inlineStr"/>
-      <c r="U69" s="3" t="inlineStr"/>
-      <c r="V69" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="T72" s="3" t="inlineStr"/>
+      <c r="U72" s="3" t="inlineStr"/>
+      <c r="V72" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000207</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B73" s="3" t="inlineStr">
         <is>
           <t>reward sensitivity scale</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C73" s="3" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr"/>
-      <c r="F70" s="3" t="inlineStr"/>
-      <c r="G70" s="3" t="inlineStr"/>
-      <c r="H70" s="3" t="inlineStr"/>
-      <c r="I70" s="3" t="inlineStr"/>
-      <c r="J70" s="3" t="inlineStr"/>
-      <c r="K70" s="3" t="inlineStr"/>
-      <c r="L70" s="3" t="inlineStr"/>
-      <c r="M70" s="3" t="inlineStr"/>
-      <c r="N70" s="3" t="inlineStr"/>
-      <c r="O70" s="3" t="inlineStr"/>
-      <c r="P70" s="3" t="inlineStr">
+      <c r="E73" s="3" t="inlineStr"/>
+      <c r="F73" s="3" t="inlineStr"/>
+      <c r="G73" s="3" t="inlineStr"/>
+      <c r="H73" s="3" t="inlineStr"/>
+      <c r="I73" s="3" t="inlineStr"/>
+      <c r="J73" s="3" t="inlineStr"/>
+      <c r="K73" s="3" t="inlineStr"/>
+      <c r="L73" s="3" t="inlineStr"/>
+      <c r="M73" s="3" t="inlineStr"/>
+      <c r="N73" s="3" t="inlineStr"/>
+      <c r="O73" s="3" t="inlineStr"/>
+      <c r="P73" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q70" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="3" t="inlineStr"/>
-      <c r="S70" s="3" t="inlineStr">
+      <c r="Q73" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" s="3" t="inlineStr"/>
+      <c r="S73" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T70" s="3" t="inlineStr"/>
-      <c r="U70" s="3" t="inlineStr"/>
-      <c r="V70" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="T73" s="3" t="inlineStr"/>
+      <c r="U73" s="3" t="inlineStr"/>
+      <c r="V73" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000208</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B74" s="3" t="inlineStr">
         <is>
           <t>scale directionality</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C74" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D74" s="3" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr"/>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr"/>
-      <c r="K71" s="3" t="inlineStr"/>
-      <c r="L71" s="3" t="inlineStr"/>
-      <c r="M71" s="3" t="inlineStr"/>
-      <c r="N71" s="3" t="inlineStr"/>
-      <c r="O71" s="3" t="inlineStr"/>
-      <c r="P71" s="3" t="inlineStr">
+      <c r="E74" s="3" t="inlineStr"/>
+      <c r="F74" s="3" t="inlineStr"/>
+      <c r="G74" s="3" t="inlineStr"/>
+      <c r="H74" s="3" t="inlineStr"/>
+      <c r="I74" s="3" t="inlineStr"/>
+      <c r="J74" s="3" t="inlineStr"/>
+      <c r="K74" s="3" t="inlineStr"/>
+      <c r="L74" s="3" t="inlineStr"/>
+      <c r="M74" s="3" t="inlineStr"/>
+      <c r="N74" s="3" t="inlineStr"/>
+      <c r="O74" s="3" t="inlineStr"/>
+      <c r="P74" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q71" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="3" t="inlineStr"/>
-      <c r="S71" s="3" t="inlineStr">
+      <c r="Q74" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R74" s="3" t="inlineStr"/>
+      <c r="S74" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T71" s="3" t="inlineStr"/>
-      <c r="U71" s="3" t="inlineStr"/>
-      <c r="V71" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000099</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>schizophrenia diagnosis</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V72" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>OBCS:0000077</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>quantitative confidence value</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B74" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C74" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr"/>
-      <c r="F74" s="2" t="inlineStr"/>
-      <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr"/>
-      <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr"/>
-      <c r="L74" s="2" t="inlineStr"/>
-      <c r="M74" s="2" t="inlineStr"/>
-      <c r="N74" s="2" t="inlineStr"/>
-      <c r="O74" s="2" t="inlineStr"/>
-      <c r="P74" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q74" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R74" s="2" t="inlineStr"/>
-      <c r="S74" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V74" s="2" t="inlineStr">
+      <c r="T74" s="3" t="inlineStr"/>
+      <c r="U74" s="3" t="inlineStr"/>
+      <c r="V74" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4789,22 +4789,22 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000099</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>schizophrenia diagnosis</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr"/>
@@ -4820,7 +4820,7 @@
       <c r="O75" s="2" t="inlineStr"/>
       <c r="P75" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q75" s="2" t="inlineStr">
@@ -4835,7 +4835,11 @@
         </is>
       </c>
       <c r="T75" s="2" t="inlineStr"/>
-      <c r="U75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V75" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -4843,120 +4847,112 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000087</t>
-        </is>
-      </c>
-      <c r="B76" s="2" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
-        </is>
-      </c>
-      <c r="D76" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr"/>
-      <c r="F76" s="2" t="inlineStr"/>
-      <c r="G76" s="2" t="inlineStr"/>
-      <c r="H76" s="2" t="inlineStr"/>
-      <c r="I76" s="2" t="inlineStr"/>
-      <c r="J76" s="2" t="inlineStr"/>
-      <c r="K76" s="2" t="inlineStr"/>
-      <c r="L76" s="2" t="inlineStr"/>
-      <c r="M76" s="2" t="inlineStr"/>
-      <c r="N76" s="2" t="inlineStr"/>
-      <c r="O76" s="2" t="inlineStr"/>
-      <c r="P76" s="2" t="inlineStr">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>OBCS:0000077</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>quantitative confidence value</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q76" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population; Intervnetion outcome</t>
-        </is>
-      </c>
-      <c r="R76" s="2" t="inlineStr"/>
-      <c r="S76" s="2" t="inlineStr">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000100</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>standard deviation human age</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr">
+        <is>
+          <t>Standard deviation of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="inlineStr"/>
+      <c r="F77" s="2" t="inlineStr"/>
+      <c r="G77" s="2" t="inlineStr"/>
+      <c r="H77" s="2" t="inlineStr"/>
+      <c r="I77" s="2" t="inlineStr"/>
+      <c r="J77" s="2" t="inlineStr"/>
+      <c r="K77" s="2" t="inlineStr"/>
+      <c r="L77" s="2" t="inlineStr"/>
+      <c r="M77" s="2" t="inlineStr"/>
+      <c r="N77" s="2" t="inlineStr"/>
+      <c r="O77" s="2" t="inlineStr"/>
+      <c r="P77" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q77" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R77" s="2" t="inlineStr"/>
+      <c r="S77" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T76" s="2" t="inlineStr"/>
-      <c r="U76" s="2" t="inlineStr">
+      <c r="T77" s="2" t="inlineStr"/>
+      <c r="U77" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V76" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001050</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>A person between 13 and 19 years of age.</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
+      <c r="V77" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4965,22 +4961,22 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000102</t>
+          <t>GMHO:0000168</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>treatment-resistant clinical history</t>
+          <t>substance use severity</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -4996,7 +4992,7 @@
       <c r="O78" s="2" t="inlineStr"/>
       <c r="P78" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q78" s="2" t="inlineStr">
@@ -5013,6 +5009,182 @@
       <c r="T78" s="2" t="inlineStr"/>
       <c r="U78" s="2" t="inlineStr"/>
       <c r="V78" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C79" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr"/>
+      <c r="F79" s="2" t="inlineStr"/>
+      <c r="G79" s="2" t="inlineStr"/>
+      <c r="H79" s="2" t="inlineStr"/>
+      <c r="I79" s="2" t="inlineStr"/>
+      <c r="J79" s="2" t="inlineStr"/>
+      <c r="K79" s="2" t="inlineStr"/>
+      <c r="L79" s="2" t="inlineStr"/>
+      <c r="M79" s="2" t="inlineStr"/>
+      <c r="N79" s="2" t="inlineStr"/>
+      <c r="O79" s="2" t="inlineStr"/>
+      <c r="P79" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q79" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervention outcome</t>
+        </is>
+      </c>
+      <c r="R79" s="2" t="inlineStr"/>
+      <c r="S79" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T79" s="2" t="inlineStr"/>
+      <c r="U79" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V79" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A person between 13 and 19 years of age.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000102</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>treatment-resistant clinical history</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr"/>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr"/>
+      <c r="O81" s="2" t="inlineStr"/>
+      <c r="P81" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R81" s="2" t="inlineStr"/>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T81" s="2" t="inlineStr"/>
+      <c r="U81" s="2" t="inlineStr"/>
+      <c r="V81" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1827,56 +1827,60 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000062</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>depression symptom severity</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with a depression symptom.</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D24" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E24" s="4" t="inlineStr"/>
-      <c r="F24" s="4" t="inlineStr"/>
-      <c r="G24" s="4" t="inlineStr"/>
-      <c r="H24" s="4" t="inlineStr"/>
-      <c r="I24" s="4" t="inlineStr"/>
-      <c r="J24" s="4" t="inlineStr"/>
-      <c r="K24" s="4" t="inlineStr"/>
-      <c r="L24" s="4" t="inlineStr"/>
-      <c r="M24" s="4" t="inlineStr"/>
-      <c r="N24" s="4" t="inlineStr"/>
-      <c r="O24" s="4" t="inlineStr"/>
-      <c r="P24" s="4" t="inlineStr">
+      <c r="E24" s="3" t="inlineStr"/>
+      <c r="F24" s="3" t="inlineStr"/>
+      <c r="G24" s="3" t="inlineStr"/>
+      <c r="H24" s="3" t="inlineStr"/>
+      <c r="I24" s="3" t="inlineStr"/>
+      <c r="J24" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K24" s="3" t="inlineStr"/>
+      <c r="L24" s="3" t="inlineStr"/>
+      <c r="M24" s="3" t="inlineStr"/>
+      <c r="N24" s="3" t="inlineStr"/>
+      <c r="O24" s="3" t="inlineStr"/>
+      <c r="P24" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q24" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R24" s="4" t="inlineStr"/>
-      <c r="S24" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T24" s="4" t="inlineStr"/>
-      <c r="U24" s="4" t="inlineStr"/>
-      <c r="V24" s="4" t="inlineStr">
+      <c r="Q24" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R24" s="3" t="inlineStr"/>
+      <c r="S24" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T24" s="3" t="inlineStr"/>
+      <c r="U24" s="3" t="inlineStr"/>
+      <c r="V24" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2583,56 +2587,60 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
+      <c r="A37" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000067</t>
         </is>
       </c>
-      <c r="B37" s="2" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>human functioning</t>
         </is>
       </c>
-      <c r="C37" s="2" t="inlineStr">
+      <c r="C37" s="4" t="inlineStr">
         <is>
           <t>A bodily disposition to realise processes that influence a person's life quality.</t>
         </is>
       </c>
-      <c r="D37" s="2" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="E37" s="2" t="inlineStr"/>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
-      <c r="J37" s="2" t="inlineStr"/>
-      <c r="K37" s="2" t="inlineStr"/>
-      <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="inlineStr"/>
-      <c r="N37" s="2" t="inlineStr"/>
-      <c r="O37" s="2" t="inlineStr"/>
-      <c r="P37" s="2" t="inlineStr">
+      <c r="E37" s="4" t="inlineStr"/>
+      <c r="F37" s="4" t="inlineStr"/>
+      <c r="G37" s="4" t="inlineStr"/>
+      <c r="H37" s="4" t="inlineStr"/>
+      <c r="I37" s="4" t="inlineStr"/>
+      <c r="J37" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
+      <c r="M37" s="4" t="inlineStr"/>
+      <c r="N37" s="4" t="inlineStr"/>
+      <c r="O37" s="4" t="inlineStr"/>
+      <c r="P37" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" s="2" t="inlineStr"/>
-      <c r="S37" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T37" s="2" t="inlineStr"/>
-      <c r="U37" s="2" t="inlineStr"/>
-      <c r="V37" s="2" t="inlineStr">
+      <c r="Q37" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" s="4" t="inlineStr"/>
+      <c r="S37" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T37" s="4" t="inlineStr"/>
+      <c r="U37" s="4" t="inlineStr"/>
+      <c r="V37" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,11 +45,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2587,60 +2581,60 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000067</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>human functioning</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr">
         <is>
           <t>A bodily disposition to realise processes that influence a person's life quality.</t>
         </is>
       </c>
-      <c r="D37" s="4" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="E37" s="4" t="inlineStr"/>
-      <c r="F37" s="4" t="inlineStr"/>
-      <c r="G37" s="4" t="inlineStr"/>
-      <c r="H37" s="4" t="inlineStr"/>
-      <c r="I37" s="4" t="inlineStr"/>
-      <c r="J37" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K37" s="4" t="inlineStr"/>
-      <c r="L37" s="4" t="inlineStr"/>
-      <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr">
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr"/>
+      <c r="G37" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="inlineStr"/>
+      <c r="I37" s="3" t="inlineStr"/>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
+      <c r="L37" s="3" t="inlineStr"/>
+      <c r="M37" s="3" t="inlineStr"/>
+      <c r="N37" s="3" t="inlineStr"/>
+      <c r="O37" s="3" t="inlineStr"/>
+      <c r="P37" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q37" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R37" s="4" t="inlineStr"/>
-      <c r="S37" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T37" s="4" t="inlineStr"/>
-      <c r="U37" s="4" t="inlineStr"/>
-      <c r="V37" s="4" t="inlineStr">
+      <c r="Q37" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" s="3" t="inlineStr"/>
+      <c r="S37" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T37" s="3" t="inlineStr"/>
+      <c r="U37" s="3" t="inlineStr"/>
+      <c r="V37" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3537,56 +3531,56 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D54" s="4" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E54" s="4" t="inlineStr"/>
-      <c r="F54" s="4" t="inlineStr"/>
-      <c r="G54" s="4" t="inlineStr"/>
-      <c r="H54" s="4" t="inlineStr"/>
-      <c r="I54" s="4" t="inlineStr"/>
-      <c r="J54" s="4" t="inlineStr"/>
-      <c r="K54" s="4" t="inlineStr"/>
-      <c r="L54" s="4" t="inlineStr"/>
-      <c r="M54" s="4" t="inlineStr"/>
-      <c r="N54" s="4" t="inlineStr"/>
-      <c r="O54" s="4" t="inlineStr"/>
-      <c r="P54" s="4" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr"/>
+      <c r="F54" s="3" t="inlineStr"/>
+      <c r="G54" s="3" t="inlineStr"/>
+      <c r="H54" s="3" t="inlineStr"/>
+      <c r="I54" s="3" t="inlineStr"/>
+      <c r="J54" s="3" t="inlineStr"/>
+      <c r="K54" s="3" t="inlineStr"/>
+      <c r="L54" s="3" t="inlineStr"/>
+      <c r="M54" s="3" t="inlineStr"/>
+      <c r="N54" s="3" t="inlineStr"/>
+      <c r="O54" s="3" t="inlineStr"/>
+      <c r="P54" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q54" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="4" t="inlineStr"/>
-      <c r="S54" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T54" s="4" t="inlineStr"/>
-      <c r="U54" s="4" t="inlineStr"/>
-      <c r="V54" s="4" t="inlineStr">
+      <c r="Q54" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="3" t="inlineStr"/>
+      <c r="S54" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T54" s="3" t="inlineStr"/>
+      <c r="U54" s="3" t="inlineStr"/>
+      <c r="V54" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3773,60 +3767,60 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C58" s="5" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D58" s="5" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E58" s="5" t="inlineStr">
+      <c r="E58" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F58" s="5" t="inlineStr"/>
-      <c r="G58" s="5" t="inlineStr"/>
-      <c r="H58" s="5" t="inlineStr"/>
-      <c r="I58" s="5" t="inlineStr"/>
-      <c r="J58" s="5" t="inlineStr"/>
-      <c r="K58" s="5" t="inlineStr"/>
-      <c r="L58" s="5" t="inlineStr"/>
-      <c r="M58" s="5" t="inlineStr"/>
-      <c r="N58" s="5" t="inlineStr"/>
-      <c r="O58" s="5" t="inlineStr"/>
-      <c r="P58" s="5" t="inlineStr">
+      <c r="F58" s="4" t="inlineStr"/>
+      <c r="G58" s="4" t="inlineStr"/>
+      <c r="H58" s="4" t="inlineStr"/>
+      <c r="I58" s="4" t="inlineStr"/>
+      <c r="J58" s="4" t="inlineStr"/>
+      <c r="K58" s="4" t="inlineStr"/>
+      <c r="L58" s="4" t="inlineStr"/>
+      <c r="M58" s="4" t="inlineStr"/>
+      <c r="N58" s="4" t="inlineStr"/>
+      <c r="O58" s="4" t="inlineStr"/>
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="5" t="inlineStr"/>
-      <c r="S58" s="5" t="inlineStr">
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" s="4" t="inlineStr"/>
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T58" s="5" t="inlineStr"/>
-      <c r="U58" s="5" t="inlineStr"/>
-      <c r="V58" s="5" t="inlineStr">
+      <c r="T58" s="4" t="inlineStr"/>
+      <c r="U58" s="4" t="inlineStr"/>
+      <c r="V58" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2813,113 +2813,117 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BCIO:015095</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>intervention population</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>A human population who are exposed to an intervention.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>human population</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B41" s="2" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C41" s="2" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D41" s="2" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
         </is>
       </c>
-      <c r="E41" s="2" t="inlineStr"/>
-      <c r="F41" s="2" t="inlineStr"/>
-      <c r="G41" s="2" t="inlineStr"/>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
-      <c r="J41" s="2" t="inlineStr"/>
-      <c r="K41" s="2" t="inlineStr"/>
-      <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="inlineStr"/>
-      <c r="N41" s="2" t="inlineStr"/>
-      <c r="O41" s="2" t="inlineStr"/>
-      <c r="P41" s="2" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr"/>
+      <c r="F42" s="2" t="inlineStr"/>
+      <c r="G42" s="2" t="inlineStr"/>
+      <c r="H42" s="2" t="inlineStr"/>
+      <c r="I42" s="2" t="inlineStr"/>
+      <c r="J42" s="2" t="inlineStr"/>
+      <c r="K42" s="2" t="inlineStr"/>
+      <c r="L42" s="2" t="inlineStr"/>
+      <c r="M42" s="2" t="inlineStr"/>
+      <c r="N42" s="2" t="inlineStr"/>
+      <c r="O42" s="2" t="inlineStr"/>
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R41" s="2" t="inlineStr"/>
-      <c r="S41" s="2" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr"/>
+      <c r="S42" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T41" s="2" t="inlineStr"/>
-      <c r="U41" s="2" t="inlineStr"/>
-      <c r="V41" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr">
+      <c r="T42" s="2" t="inlineStr"/>
+      <c r="U42" s="2" t="inlineStr"/>
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2928,22 +2932,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2974,11 +2978,7 @@
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2988,22 +2988,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3011,7 +3011,11 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3019,7 +3023,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3034,7 +3038,11 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
           <t>PS</t>
@@ -3042,216 +3050,216 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="inlineStr">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B45" s="3" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C46" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D46" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr"/>
-      <c r="F45" s="3" t="inlineStr"/>
-      <c r="G45" s="3" t="inlineStr"/>
-      <c r="H45" s="3" t="inlineStr"/>
-      <c r="I45" s="3" t="inlineStr"/>
-      <c r="J45" s="3" t="inlineStr"/>
-      <c r="K45" s="3" t="inlineStr"/>
-      <c r="L45" s="3" t="inlineStr"/>
-      <c r="M45" s="3" t="inlineStr"/>
-      <c r="N45" s="3" t="inlineStr"/>
-      <c r="O45" s="3" t="inlineStr"/>
-      <c r="P45" s="3" t="inlineStr">
+      <c r="E46" s="3" t="inlineStr"/>
+      <c r="F46" s="3" t="inlineStr"/>
+      <c r="G46" s="3" t="inlineStr"/>
+      <c r="H46" s="3" t="inlineStr"/>
+      <c r="I46" s="3" t="inlineStr"/>
+      <c r="J46" s="3" t="inlineStr"/>
+      <c r="K46" s="3" t="inlineStr"/>
+      <c r="L46" s="3" t="inlineStr"/>
+      <c r="M46" s="3" t="inlineStr"/>
+      <c r="N46" s="3" t="inlineStr"/>
+      <c r="O46" s="3" t="inlineStr"/>
+      <c r="P46" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q45" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R45" s="3" t="inlineStr"/>
-      <c r="S45" s="3" t="inlineStr">
+      <c r="Q46" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" s="3" t="inlineStr"/>
+      <c r="S46" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T45" s="3" t="inlineStr"/>
-      <c r="U45" s="3" t="inlineStr"/>
-      <c r="V45" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="T46" s="3" t="inlineStr"/>
+      <c r="U46" s="3" t="inlineStr"/>
+      <c r="V46" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B47" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr">
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="inlineStr">
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B47" s="3" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C47" s="3" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D47" s="3" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr"/>
-      <c r="F47" s="3" t="inlineStr"/>
-      <c r="G47" s="3" t="inlineStr"/>
-      <c r="H47" s="3" t="inlineStr"/>
-      <c r="I47" s="3" t="inlineStr"/>
-      <c r="J47" s="3" t="inlineStr"/>
-      <c r="K47" s="3" t="inlineStr"/>
-      <c r="L47" s="3" t="inlineStr"/>
-      <c r="M47" s="3" t="inlineStr"/>
-      <c r="N47" s="3" t="inlineStr"/>
-      <c r="O47" s="3" t="inlineStr"/>
-      <c r="P47" s="3" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr"/>
+      <c r="F48" s="3" t="inlineStr"/>
+      <c r="G48" s="3" t="inlineStr"/>
+      <c r="H48" s="3" t="inlineStr"/>
+      <c r="I48" s="3" t="inlineStr"/>
+      <c r="J48" s="3" t="inlineStr"/>
+      <c r="K48" s="3" t="inlineStr"/>
+      <c r="L48" s="3" t="inlineStr"/>
+      <c r="M48" s="3" t="inlineStr"/>
+      <c r="N48" s="3" t="inlineStr"/>
+      <c r="O48" s="3" t="inlineStr"/>
+      <c r="P48" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R47" s="3" t="inlineStr"/>
-      <c r="S47" s="3" t="inlineStr">
+      <c r="Q48" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" s="3" t="inlineStr"/>
+      <c r="S48" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T47" s="3" t="inlineStr"/>
-      <c r="U47" s="3" t="inlineStr"/>
-      <c r="V47" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BCIO:015490</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>medication use status</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>health status attribute</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr">
+      <c r="T48" s="3" t="inlineStr"/>
+      <c r="U48" s="3" t="inlineStr"/>
+      <c r="V48" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3260,22 +3268,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>medication use status</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3291,7 +3299,7 @@
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -3314,48 +3322,56 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000213</t>
-        </is>
-      </c>
-      <c r="B50" s="3" t="inlineStr">
-        <is>
-          <t>number of female biological sex</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>The number of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E50" s="3" t="inlineStr"/>
-      <c r="F50" s="3" t="inlineStr"/>
-      <c r="G50" s="3" t="inlineStr"/>
-      <c r="H50" s="3" t="inlineStr"/>
-      <c r="I50" s="3" t="inlineStr"/>
-      <c r="J50" s="3" t="inlineStr"/>
-      <c r="K50" s="3" t="inlineStr"/>
-      <c r="L50" s="3" t="inlineStr"/>
-      <c r="M50" s="3" t="inlineStr"/>
-      <c r="N50" s="3" t="inlineStr"/>
-      <c r="O50" s="3" t="inlineStr"/>
-      <c r="P50" s="3" t="inlineStr"/>
-      <c r="Q50" s="3" t="inlineStr"/>
-      <c r="R50" s="3" t="inlineStr"/>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="inlineStr"/>
-      <c r="U50" s="3" t="inlineStr"/>
-      <c r="V50" s="3" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3364,22 +3380,22 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000152</t>
+          <t>GMHO:0000070</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>negative psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+          <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D51" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr"/>
@@ -3387,7 +3403,11 @@
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
       <c r="M51" s="2" t="inlineStr"/>
@@ -3395,7 +3415,7 @@
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q51" s="2" t="inlineStr">
@@ -3418,289 +3438,285 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000213</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>number of female biological sex</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>The number of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr"/>
+      <c r="F52" s="3" t="inlineStr"/>
+      <c r="G52" s="3" t="inlineStr"/>
+      <c r="H52" s="3" t="inlineStr"/>
+      <c r="I52" s="3" t="inlineStr"/>
+      <c r="J52" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K52" s="3" t="inlineStr"/>
+      <c r="L52" s="3" t="inlineStr"/>
+      <c r="M52" s="3" t="inlineStr"/>
+      <c r="N52" s="3" t="inlineStr"/>
+      <c r="O52" s="3" t="inlineStr"/>
+      <c r="P52" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q52" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R52" s="3" t="inlineStr"/>
+      <c r="S52" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T52" s="3" t="inlineStr"/>
+      <c r="U52" s="3" t="inlineStr"/>
+      <c r="V52" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000152</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr"/>
+      <c r="F53" s="2" t="inlineStr"/>
+      <c r="G53" s="2" t="inlineStr"/>
+      <c r="H53" s="2" t="inlineStr"/>
+      <c r="I53" s="2" t="inlineStr"/>
+      <c r="J53" s="2" t="inlineStr"/>
+      <c r="K53" s="2" t="inlineStr"/>
+      <c r="L53" s="2" t="inlineStr"/>
+      <c r="M53" s="2" t="inlineStr"/>
+      <c r="N53" s="2" t="inlineStr"/>
+      <c r="O53" s="2" t="inlineStr"/>
+      <c r="P53" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q53" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="2" t="inlineStr"/>
+      <c r="S53" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T53" s="2" t="inlineStr"/>
+      <c r="U53" s="2" t="inlineStr"/>
+      <c r="V53" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000153</t>
         </is>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>number of participants in intervention arm</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
-      <c r="D52" s="2" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr"/>
-      <c r="H52" s="2" t="inlineStr"/>
-      <c r="I52" s="2" t="inlineStr"/>
-      <c r="J52" s="2" t="inlineStr"/>
-      <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
-      <c r="O52" s="2" t="inlineStr"/>
-      <c r="P52" s="2" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr"/>
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr"/>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
+      <c r="M54" s="2" t="inlineStr"/>
+      <c r="N54" s="2" t="inlineStr"/>
+      <c r="O54" s="2" t="inlineStr"/>
+      <c r="P54" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q52" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R52" s="2" t="inlineStr"/>
-      <c r="S52" s="2" t="inlineStr">
+      <c r="Q54" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="2" t="inlineStr"/>
+      <c r="S54" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T52" s="2" t="inlineStr"/>
-      <c r="U52" s="2" t="inlineStr"/>
-      <c r="V52" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="T54" s="2" t="inlineStr"/>
+      <c r="U54" s="2" t="inlineStr"/>
+      <c r="V54" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr"/>
-      <c r="F53" s="3" t="inlineStr"/>
-      <c r="G53" s="3" t="inlineStr"/>
-      <c r="H53" s="3" t="inlineStr"/>
-      <c r="I53" s="3" t="inlineStr"/>
-      <c r="J53" s="3" t="inlineStr"/>
-      <c r="K53" s="3" t="inlineStr"/>
-      <c r="L53" s="3" t="inlineStr"/>
-      <c r="M53" s="3" t="inlineStr"/>
-      <c r="N53" s="3" t="inlineStr"/>
-      <c r="O53" s="3" t="inlineStr"/>
-      <c r="P53" s="3" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr"/>
+      <c r="F55" s="3" t="inlineStr"/>
+      <c r="G55" s="3" t="inlineStr"/>
+      <c r="H55" s="3" t="inlineStr"/>
+      <c r="I55" s="3" t="inlineStr"/>
+      <c r="J55" s="3" t="inlineStr"/>
+      <c r="K55" s="3" t="inlineStr"/>
+      <c r="L55" s="3" t="inlineStr"/>
+      <c r="M55" s="3" t="inlineStr"/>
+      <c r="N55" s="3" t="inlineStr"/>
+      <c r="O55" s="3" t="inlineStr"/>
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q53" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="3" t="inlineStr"/>
-      <c r="S53" s="3" t="inlineStr">
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="inlineStr"/>
+      <c r="S55" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T53" s="3" t="inlineStr"/>
-      <c r="U53" s="3" t="inlineStr"/>
-      <c r="V53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="T55" s="3" t="inlineStr"/>
+      <c r="U55" s="3" t="inlineStr"/>
+      <c r="V55" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr"/>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
-      <c r="M54" s="3" t="inlineStr"/>
-      <c r="N54" s="3" t="inlineStr"/>
-      <c r="O54" s="3" t="inlineStr"/>
-      <c r="P54" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="3" t="inlineStr"/>
-      <c r="S54" s="3" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="inlineStr"/>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
+      <c r="M56" s="3" t="inlineStr"/>
+      <c r="N56" s="3" t="inlineStr"/>
+      <c r="O56" s="3" t="inlineStr"/>
+      <c r="P56" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R56" s="3" t="inlineStr"/>
+      <c r="S56" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T54" s="3" t="inlineStr"/>
-      <c r="U54" s="3" t="inlineStr"/>
-      <c r="V54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E55" s="2" t="inlineStr"/>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H55" s="2" t="inlineStr"/>
-      <c r="I55" s="2" t="inlineStr"/>
-      <c r="J55" s="2" t="inlineStr"/>
-      <c r="K55" s="2" t="inlineStr"/>
-      <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="inlineStr"/>
-      <c r="N55" s="2" t="inlineStr"/>
-      <c r="O55" s="2" t="inlineStr"/>
-      <c r="P55" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="inlineStr"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr"/>
-      <c r="U55" s="2" t="inlineStr"/>
-      <c r="V55" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000155</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>anxiety diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>PTSD severity</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr"/>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="inlineStr"/>
-      <c r="N56" s="2" t="inlineStr"/>
-      <c r="O56" s="2" t="inlineStr"/>
-      <c r="P56" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="inlineStr"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr"/>
-      <c r="U56" s="2" t="inlineStr"/>
-      <c r="V56" s="2" t="inlineStr">
+      <c r="T56" s="3" t="inlineStr"/>
+      <c r="U56" s="3" t="inlineStr"/>
+      <c r="V56" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3709,29 +3725,29 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3767,60 +3783,60 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000158</t>
-        </is>
-      </c>
-      <c r="B58" s="4" t="inlineStr">
-        <is>
-          <t>pre-intervention anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D58" s="4" t="inlineStr">
-        <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E58" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr"/>
-      <c r="G58" s="4" t="inlineStr"/>
-      <c r="H58" s="4" t="inlineStr"/>
-      <c r="I58" s="4" t="inlineStr"/>
-      <c r="J58" s="4" t="inlineStr"/>
-      <c r="K58" s="4" t="inlineStr"/>
-      <c r="L58" s="4" t="inlineStr"/>
-      <c r="M58" s="4" t="inlineStr"/>
-      <c r="N58" s="4" t="inlineStr"/>
-      <c r="O58" s="4" t="inlineStr"/>
-      <c r="P58" s="4" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000155</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>anxiety diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>PTSD severity</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr"/>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+      <c r="M58" s="2" t="inlineStr"/>
+      <c r="N58" s="2" t="inlineStr"/>
+      <c r="O58" s="2" t="inlineStr"/>
+      <c r="P58" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q58" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="4" t="inlineStr"/>
-      <c r="S58" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T58" s="4" t="inlineStr"/>
-      <c r="U58" s="4" t="inlineStr"/>
-      <c r="V58" s="4" t="inlineStr">
+      <c r="Q58" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" s="2" t="inlineStr"/>
+      <c r="S58" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T58" s="2" t="inlineStr"/>
+      <c r="U58" s="2" t="inlineStr"/>
+      <c r="V58" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3829,33 +3845,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000159</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>baseline ASD severity</t>
+          <t>PTSD measurement item</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3891,60 +3903,60 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000160</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention depression symptom severity</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Depression symptom severity before an intervention starts.</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>depression symptom severity</t>
-        </is>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D60" s="4" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E60" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr"/>
+      <c r="H60" s="4" t="inlineStr"/>
+      <c r="I60" s="4" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr"/>
+      <c r="K60" s="4" t="inlineStr"/>
+      <c r="L60" s="4" t="inlineStr"/>
+      <c r="M60" s="4" t="inlineStr"/>
+      <c r="N60" s="4" t="inlineStr"/>
+      <c r="O60" s="4" t="inlineStr"/>
+      <c r="P60" s="4" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q60" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="4" t="inlineStr"/>
+      <c r="S60" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="4" t="inlineStr"/>
+      <c r="U60" s="4" t="inlineStr"/>
+      <c r="V60" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3953,31 +3965,35 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
@@ -4013,50 +4029,42 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G62" s="2" t="inlineStr"/>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
       <c r="M62" s="2" t="inlineStr"/>
       <c r="N62" s="2" t="inlineStr"/>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4081,35 +4089,31 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>baseline PTSD severity</t>
-        </is>
-      </c>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4128,12 +4132,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R63" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R63" s="2" t="inlineStr"/>
       <c r="S63" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4150,35 +4149,43 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>Baseline clinical variable, baseline variable</t>
+        </is>
+      </c>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr"/>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L64" s="2" t="inlineStr"/>
       <c r="M64" s="2" t="inlineStr"/>
       <c r="N64" s="2" t="inlineStr"/>
@@ -4210,27 +4217,35 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E65" s="2" t="inlineStr"/>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
@@ -4241,7 +4256,7 @@
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q65" s="2" t="inlineStr">
@@ -4249,7 +4264,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R65" s="2" t="inlineStr"/>
+      <c r="R65" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4266,25 +4286,29 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="E66" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr"/>
       <c r="H66" s="2" t="inlineStr"/>
@@ -4297,7 +4321,7 @@
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q66" s="2" t="inlineStr">
@@ -4322,22 +4346,22 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>prevalence</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr"/>
@@ -4353,7 +4377,7 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
@@ -4378,17 +4402,17 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of bipolar disorder diagnosis</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
@@ -4398,11 +4422,7 @@
       </c>
       <c r="E68" s="2" t="inlineStr"/>
       <c r="F68" s="2" t="inlineStr"/>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
       <c r="I68" s="2" t="inlineStr"/>
       <c r="J68" s="2" t="inlineStr"/>
@@ -4436,60 +4456,56 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>BCIO:015329</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>proportion female sex population statistic</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>The proportion of female biological sex in a population.</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>female biological sex population statistic</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000166</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr"/>
+      <c r="F69" s="2" t="inlineStr"/>
+      <c r="G69" s="2" t="inlineStr"/>
+      <c r="H69" s="2" t="inlineStr"/>
+      <c r="I69" s="2" t="inlineStr"/>
+      <c r="J69" s="2" t="inlineStr"/>
+      <c r="K69" s="2" t="inlineStr"/>
+      <c r="L69" s="2" t="inlineStr"/>
+      <c r="M69" s="2" t="inlineStr"/>
+      <c r="N69" s="2" t="inlineStr"/>
+      <c r="O69" s="2" t="inlineStr"/>
+      <c r="P69" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr">
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="inlineStr"/>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="inlineStr"/>
+      <c r="U69" s="2" t="inlineStr"/>
+      <c r="V69" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4498,27 +4514,31 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000187</t>
+          <t>GMHO:0000167</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>psychosis diagnosis</t>
+          <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr"/>
+      <c r="G70" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
@@ -4529,7 +4549,7 @@
       <c r="O70" s="2" t="inlineStr"/>
       <c r="P70" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q70" s="2" t="inlineStr">
@@ -4552,181 +4572,185 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>BCIO:015329</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>proportion female sex population statistic</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>The proportion of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000187</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>psychosis diagnosis</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr"/>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000098</t>
         </is>
       </c>
-      <c r="B71" s="2" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>psychosis experience</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
-      <c r="D71" s="2" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>symptom</t>
         </is>
       </c>
-      <c r="E71" s="2" t="inlineStr"/>
-      <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr"/>
-      <c r="H71" s="2" t="inlineStr"/>
-      <c r="I71" s="2" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr"/>
+      <c r="G73" s="2" t="inlineStr"/>
+      <c r="H73" s="2" t="inlineStr"/>
+      <c r="I73" s="2" t="inlineStr">
         <is>
           <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr"/>
-      <c r="K71" s="2" t="inlineStr">
+      <c r="J73" s="2" t="inlineStr"/>
+      <c r="K73" s="2" t="inlineStr">
         <is>
           <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
 DSM V</t>
         </is>
       </c>
-      <c r="L71" s="2" t="inlineStr"/>
-      <c r="M71" s="2" t="inlineStr"/>
-      <c r="N71" s="2" t="inlineStr"/>
-      <c r="O71" s="2" t="inlineStr"/>
-      <c r="P71" s="2" t="inlineStr">
+      <c r="L73" s="2" t="inlineStr"/>
+      <c r="M73" s="2" t="inlineStr"/>
+      <c r="N73" s="2" t="inlineStr"/>
+      <c r="O73" s="2" t="inlineStr"/>
+      <c r="P73" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="2" t="inlineStr"/>
-      <c r="S71" s="2" t="inlineStr">
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="inlineStr"/>
+      <c r="S73" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T71" s="2" t="inlineStr"/>
-      <c r="U71" s="2" t="inlineStr">
+      <c r="T73" s="2" t="inlineStr"/>
+      <c r="U73" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V71" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E72" s="3" t="inlineStr"/>
-      <c r="F72" s="3" t="inlineStr"/>
-      <c r="G72" s="3" t="inlineStr"/>
-      <c r="H72" s="3" t="inlineStr"/>
-      <c r="I72" s="3" t="inlineStr"/>
-      <c r="J72" s="3" t="inlineStr"/>
-      <c r="K72" s="3" t="inlineStr"/>
-      <c r="L72" s="3" t="inlineStr"/>
-      <c r="M72" s="3" t="inlineStr"/>
-      <c r="N72" s="3" t="inlineStr"/>
-      <c r="O72" s="3" t="inlineStr"/>
-      <c r="P72" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q72" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="3" t="inlineStr"/>
-      <c r="S72" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T72" s="3" t="inlineStr"/>
-      <c r="U72" s="3" t="inlineStr"/>
-      <c r="V72" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000207</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity scale</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>measurement scale</t>
-        </is>
-      </c>
-      <c r="E73" s="3" t="inlineStr"/>
-      <c r="F73" s="3" t="inlineStr"/>
-      <c r="G73" s="3" t="inlineStr"/>
-      <c r="H73" s="3" t="inlineStr"/>
-      <c r="I73" s="3" t="inlineStr"/>
-      <c r="J73" s="3" t="inlineStr"/>
-      <c r="K73" s="3" t="inlineStr"/>
-      <c r="L73" s="3" t="inlineStr"/>
-      <c r="M73" s="3" t="inlineStr"/>
-      <c r="N73" s="3" t="inlineStr"/>
-      <c r="O73" s="3" t="inlineStr"/>
-      <c r="P73" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q73" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" s="3" t="inlineStr"/>
-      <c r="S73" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T73" s="3" t="inlineStr"/>
-      <c r="U73" s="3" t="inlineStr"/>
-      <c r="V73" s="3" t="inlineStr">
+      <c r="V73" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4735,22 +4759,22 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D74" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E74" s="3" t="inlineStr"/>
@@ -4789,136 +4813,136 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000099</t>
-        </is>
-      </c>
-      <c r="B75" s="2" t="inlineStr">
-        <is>
-          <t>schizophrenia diagnosis</t>
-        </is>
-      </c>
-      <c r="C75" s="2" t="inlineStr">
-        <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr"/>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr"/>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q75" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="inlineStr"/>
-      <c r="U75" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V75" s="2" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000207</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>reward sensitivity scale</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E75" s="3" t="inlineStr"/>
+      <c r="F75" s="3" t="inlineStr"/>
+      <c r="G75" s="3" t="inlineStr"/>
+      <c r="H75" s="3" t="inlineStr"/>
+      <c r="I75" s="3" t="inlineStr"/>
+      <c r="J75" s="3" t="inlineStr"/>
+      <c r="K75" s="3" t="inlineStr"/>
+      <c r="L75" s="3" t="inlineStr"/>
+      <c r="M75" s="3" t="inlineStr"/>
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr"/>
+      <c r="P75" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q75" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="3" t="inlineStr"/>
+      <c r="S75" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T75" s="3" t="inlineStr"/>
+      <c r="U75" s="3" t="inlineStr"/>
+      <c r="V75" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>OBCS:0000077</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>quantitative confidence value</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="A76" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B76" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C76" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr"/>
+      <c r="F76" s="3" t="inlineStr"/>
+      <c r="G76" s="3" t="inlineStr"/>
+      <c r="H76" s="3" t="inlineStr"/>
+      <c r="I76" s="3" t="inlineStr"/>
+      <c r="J76" s="3" t="inlineStr"/>
+      <c r="K76" s="3" t="inlineStr"/>
+      <c r="L76" s="3" t="inlineStr"/>
+      <c r="M76" s="3" t="inlineStr"/>
+      <c r="N76" s="3" t="inlineStr"/>
+      <c r="O76" s="3" t="inlineStr"/>
+      <c r="P76" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q76" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" s="3" t="inlineStr"/>
+      <c r="S76" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T76" s="3" t="inlineStr"/>
+      <c r="U76" s="3" t="inlineStr"/>
+      <c r="V76" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000100</t>
+          <t>GMHO:0000099</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>standard deviation human age</t>
+          <t>schizophrenia diagnosis</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Standard deviation of human age in a population.</t>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr"/>
@@ -4961,80 +4985,76 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000168</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>substance use severity</t>
-        </is>
-      </c>
-      <c r="C78" s="2" t="inlineStr">
-        <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr"/>
-      <c r="F78" s="2" t="inlineStr"/>
-      <c r="G78" s="2" t="inlineStr"/>
-      <c r="H78" s="2" t="inlineStr"/>
-      <c r="I78" s="2" t="inlineStr"/>
-      <c r="J78" s="2" t="inlineStr"/>
-      <c r="K78" s="2" t="inlineStr"/>
-      <c r="L78" s="2" t="inlineStr"/>
-      <c r="M78" s="2" t="inlineStr"/>
-      <c r="N78" s="2" t="inlineStr"/>
-      <c r="O78" s="2" t="inlineStr"/>
-      <c r="P78" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q78" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R78" s="2" t="inlineStr"/>
-      <c r="S78" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T78" s="2" t="inlineStr"/>
-      <c r="U78" s="2" t="inlineStr"/>
-      <c r="V78" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>OBCS:0000077</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>quantitative confidence value</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -5055,7 +5075,7 @@
       </c>
       <c r="Q79" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervention outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R79" s="2" t="inlineStr"/>
@@ -5077,60 +5097,56 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001050</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>teenager</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>A person between 13 and 19 years of age.</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000168</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="inlineStr"/>
+      <c r="V80" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -5139,22 +5155,22 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000102</t>
+          <t>GMHO:0000087</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>treatment-resistant clinical history</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -5175,7 +5191,7 @@
       </c>
       <c r="Q81" s="2" t="inlineStr">
         <is>
-          <t>Intervention population</t>
+          <t>Intervention population; Intervention outcome</t>
         </is>
       </c>
       <c r="R81" s="2" t="inlineStr"/>
@@ -5185,8 +5201,128 @@
         </is>
       </c>
       <c r="T81" s="2" t="inlineStr"/>
-      <c r="U81" s="2" t="inlineStr"/>
+      <c r="U81" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V81" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001050</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>teenager</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>A person between 13 and 19 years of age.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000102</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>treatment-resistant clinical history</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="inlineStr"/>
+      <c r="U83" s="2" t="inlineStr"/>
+      <c r="V83" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -45,6 +45,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -65,12 +70,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3378,60 +3384,60 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="inlineStr">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000070</t>
         </is>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>negative psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D51" s="2" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="E51" s="2" t="inlineStr"/>
-      <c r="F51" s="2" t="inlineStr"/>
-      <c r="G51" s="2" t="inlineStr"/>
-      <c r="H51" s="2" t="inlineStr"/>
-      <c r="I51" s="2" t="inlineStr"/>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
-      <c r="O51" s="2" t="inlineStr"/>
-      <c r="P51" s="2" t="inlineStr">
+      <c r="E51" s="4" t="inlineStr"/>
+      <c r="F51" s="4" t="inlineStr"/>
+      <c r="G51" s="4" t="inlineStr"/>
+      <c r="H51" s="4" t="inlineStr"/>
+      <c r="I51" s="4" t="inlineStr"/>
+      <c r="J51" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K51" s="4" t="inlineStr"/>
+      <c r="L51" s="4" t="inlineStr"/>
+      <c r="M51" s="4" t="inlineStr"/>
+      <c r="N51" s="4" t="inlineStr"/>
+      <c r="O51" s="4" t="inlineStr"/>
+      <c r="P51" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R51" s="2" t="inlineStr"/>
-      <c r="S51" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T51" s="2" t="inlineStr"/>
-      <c r="U51" s="2" t="inlineStr"/>
-      <c r="V51" s="2" t="inlineStr">
+      <c r="Q51" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" s="4" t="inlineStr"/>
+      <c r="S51" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T51" s="4" t="inlineStr"/>
+      <c r="U51" s="4" t="inlineStr"/>
+      <c r="V51" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3903,60 +3909,60 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
+      <c r="A60" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B60" s="4" t="inlineStr">
+      <c r="B60" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C60" s="4" t="inlineStr">
+      <c r="C60" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D60" s="4" t="inlineStr">
+      <c r="D60" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E60" s="4" t="inlineStr">
+      <c r="E60" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F60" s="4" t="inlineStr"/>
-      <c r="G60" s="4" t="inlineStr"/>
-      <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
-      <c r="K60" s="4" t="inlineStr"/>
-      <c r="L60" s="4" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr"/>
-      <c r="O60" s="4" t="inlineStr"/>
-      <c r="P60" s="4" t="inlineStr">
+      <c r="F60" s="5" t="inlineStr"/>
+      <c r="G60" s="5" t="inlineStr"/>
+      <c r="H60" s="5" t="inlineStr"/>
+      <c r="I60" s="5" t="inlineStr"/>
+      <c r="J60" s="5" t="inlineStr"/>
+      <c r="K60" s="5" t="inlineStr"/>
+      <c r="L60" s="5" t="inlineStr"/>
+      <c r="M60" s="5" t="inlineStr"/>
+      <c r="N60" s="5" t="inlineStr"/>
+      <c r="O60" s="5" t="inlineStr"/>
+      <c r="P60" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="4" t="inlineStr"/>
-      <c r="S60" s="4" t="inlineStr">
+      <c r="Q60" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="5" t="inlineStr"/>
+      <c r="S60" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T60" s="4" t="inlineStr"/>
-      <c r="U60" s="4" t="inlineStr"/>
-      <c r="V60" s="4" t="inlineStr">
+      <c r="T60" s="5" t="inlineStr"/>
+      <c r="U60" s="5" t="inlineStr"/>
+      <c r="V60" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -442,7 +442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3731,34 +3731,34 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000156</t>
+          <t>GMHO:0000078</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis</t>
+          <t>positive psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
+          <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
+      <c r="G57" s="2" t="inlineStr"/>
       <c r="H57" s="2" t="inlineStr"/>
       <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr"/>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
       <c r="M57" s="2" t="inlineStr"/>
@@ -3766,7 +3766,7 @@
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q57" s="2" t="inlineStr">
@@ -3791,29 +3791,29 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr"/>
       <c r="F58" s="2" t="inlineStr"/>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3851,29 +3851,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000157</t>
+          <t>GMHO:0000155</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>measurement data item</t>
+          <t>anxiety diagnosis severity</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>PTSD measurement item</t>
+          <t>PTSD severity</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3909,124 +3909,120 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000157</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder severity measurement item</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
+      <c r="B61" s="5" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C60" s="5" t="inlineStr">
+      <c r="C61" s="5" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D60" s="5" t="inlineStr">
+      <c r="D61" s="5" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E60" s="5" t="inlineStr">
+      <c r="E61" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F60" s="5" t="inlineStr"/>
-      <c r="G60" s="5" t="inlineStr"/>
-      <c r="H60" s="5" t="inlineStr"/>
-      <c r="I60" s="5" t="inlineStr"/>
-      <c r="J60" s="5" t="inlineStr"/>
-      <c r="K60" s="5" t="inlineStr"/>
-      <c r="L60" s="5" t="inlineStr"/>
-      <c r="M60" s="5" t="inlineStr"/>
-      <c r="N60" s="5" t="inlineStr"/>
-      <c r="O60" s="5" t="inlineStr"/>
-      <c r="P60" s="5" t="inlineStr">
+      <c r="F61" s="5" t="inlineStr"/>
+      <c r="G61" s="5" t="inlineStr"/>
+      <c r="H61" s="5" t="inlineStr"/>
+      <c r="I61" s="5" t="inlineStr"/>
+      <c r="J61" s="5" t="inlineStr"/>
+      <c r="K61" s="5" t="inlineStr"/>
+      <c r="L61" s="5" t="inlineStr"/>
+      <c r="M61" s="5" t="inlineStr"/>
+      <c r="N61" s="5" t="inlineStr"/>
+      <c r="O61" s="5" t="inlineStr"/>
+      <c r="P61" s="5" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="5" t="inlineStr"/>
-      <c r="S60" s="5" t="inlineStr">
+      <c r="Q61" s="5" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="5" t="inlineStr"/>
+      <c r="S61" s="5" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T60" s="5" t="inlineStr"/>
-      <c r="U60" s="5" t="inlineStr"/>
-      <c r="V60" s="5" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr"/>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="inlineStr"/>
-      <c r="N61" s="2" t="inlineStr"/>
-      <c r="O61" s="2" t="inlineStr"/>
-      <c r="P61" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="inlineStr"/>
-      <c r="S61" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T61" s="2" t="inlineStr"/>
-      <c r="U61" s="2" t="inlineStr"/>
-      <c r="V61" s="2" t="inlineStr">
+      <c r="T61" s="5" t="inlineStr"/>
+      <c r="U61" s="5" t="inlineStr"/>
+      <c r="V61" s="5" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4035,31 +4031,35 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
@@ -4070,7 +4070,7 @@
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q62" s="2" t="inlineStr">
@@ -4095,27 +4095,27 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
@@ -4130,7 +4130,7 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -4155,43 +4155,35 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
-      <c r="K64" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
       <c r="M64" s="2" t="inlineStr"/>
       <c r="N64" s="2" t="inlineStr"/>
@@ -4223,39 +4215,43 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
       <c r="G65" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr"/>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L65" s="2" t="inlineStr"/>
       <c r="M65" s="2" t="inlineStr"/>
       <c r="N65" s="2" t="inlineStr"/>
@@ -4270,12 +4266,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R65" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R65" s="2" t="inlineStr"/>
       <c r="S65" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4292,31 +4283,35 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
-      <c r="G66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
@@ -4335,7 +4330,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R66" s="2" t="inlineStr"/>
+      <c r="R66" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S66" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4352,25 +4352,29 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F67" s="2" t="inlineStr"/>
       <c r="G67" s="2" t="inlineStr"/>
       <c r="H67" s="2" t="inlineStr"/>
@@ -4383,7 +4387,7 @@
       <c r="O67" s="2" t="inlineStr"/>
       <c r="P67" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q67" s="2" t="inlineStr">
@@ -4408,22 +4412,22 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr"/>
@@ -4439,7 +4443,7 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
@@ -4464,22 +4468,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4520,31 +4524,27 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
       <c r="F70" s="2" t="inlineStr"/>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G70" s="2" t="inlineStr"/>
       <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr"/>
@@ -4578,116 +4578,120 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr"/>
+      <c r="G71" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H71" s="2" t="inlineStr"/>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr"/>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+      <c r="M71" s="2" t="inlineStr"/>
+      <c r="N71" s="2" t="inlineStr"/>
+      <c r="O71" s="2" t="inlineStr"/>
+      <c r="P71" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="inlineStr"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="inlineStr"/>
+      <c r="U71" s="2" t="inlineStr"/>
+      <c r="V71" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr">
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr"/>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr"/>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
-      <c r="M72" s="2" t="inlineStr"/>
-      <c r="N72" s="2" t="inlineStr"/>
-      <c r="O72" s="2" t="inlineStr"/>
-      <c r="P72" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="2" t="inlineStr"/>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="inlineStr"/>
-      <c r="U72" s="2" t="inlineStr"/>
-      <c r="V72" s="2" t="inlineStr">
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4696,40 +4700,31 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
       <c r="F73" s="2" t="inlineStr"/>
       <c r="G73" s="2" t="inlineStr"/>
       <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr"/>
       <c r="M73" s="2" t="inlineStr"/>
       <c r="N73" s="2" t="inlineStr"/>
@@ -4751,124 +4746,137 @@
         </is>
       </c>
       <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr">
+      <c r="U73" s="2" t="inlineStr"/>
+      <c r="V73" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr"/>
+      <c r="F74" s="2" t="inlineStr"/>
+      <c r="G74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr"/>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr"/>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr"/>
+      <c r="M74" s="2" t="inlineStr"/>
+      <c r="N74" s="2" t="inlineStr"/>
+      <c r="O74" s="2" t="inlineStr"/>
+      <c r="P74" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q74" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R74" s="2" t="inlineStr"/>
+      <c r="S74" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T74" s="2" t="inlineStr"/>
+      <c r="U74" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V73" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000135</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="E74" s="3" t="inlineStr"/>
-      <c r="F74" s="3" t="inlineStr"/>
-      <c r="G74" s="3" t="inlineStr"/>
-      <c r="H74" s="3" t="inlineStr"/>
-      <c r="I74" s="3" t="inlineStr"/>
-      <c r="J74" s="3" t="inlineStr"/>
-      <c r="K74" s="3" t="inlineStr"/>
-      <c r="L74" s="3" t="inlineStr"/>
-      <c r="M74" s="3" t="inlineStr"/>
-      <c r="N74" s="3" t="inlineStr"/>
-      <c r="O74" s="3" t="inlineStr"/>
-      <c r="P74" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q74" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R74" s="3" t="inlineStr"/>
-      <c r="S74" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T74" s="3" t="inlineStr"/>
-      <c r="U74" s="3" t="inlineStr"/>
-      <c r="V74" s="3" t="inlineStr">
+      <c r="V74" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000207</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>reward sensitivity scale</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>measurement scale</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="3" t="inlineStr"/>
-      <c r="G75" s="3" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
-      <c r="I75" s="3" t="inlineStr"/>
-      <c r="J75" s="3" t="inlineStr"/>
-      <c r="K75" s="3" t="inlineStr"/>
-      <c r="L75" s="3" t="inlineStr"/>
-      <c r="M75" s="3" t="inlineStr"/>
-      <c r="N75" s="3" t="inlineStr"/>
-      <c r="O75" s="3" t="inlineStr"/>
-      <c r="P75" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q75" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="3" t="inlineStr"/>
-      <c r="S75" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T75" s="3" t="inlineStr"/>
-      <c r="U75" s="3" t="inlineStr"/>
-      <c r="V75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000079</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>psychotic disorder symptom severity</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr"/>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="inlineStr"/>
+      <c r="V75" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4877,22 +4885,22 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
@@ -4931,136 +4939,136 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000099</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>schizophrenia diagnosis</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr"/>
-      <c r="K77" s="2" t="inlineStr"/>
-      <c r="L77" s="2" t="inlineStr"/>
-      <c r="M77" s="2" t="inlineStr"/>
-      <c r="N77" s="2" t="inlineStr"/>
-      <c r="O77" s="2" t="inlineStr"/>
-      <c r="P77" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q77" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R77" s="2" t="inlineStr"/>
-      <c r="S77" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T77" s="2" t="inlineStr"/>
-      <c r="U77" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V77" s="2" t="inlineStr">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000207</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>reward sensitivity scale</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>measurement scale</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr"/>
+      <c r="F77" s="3" t="inlineStr"/>
+      <c r="G77" s="3" t="inlineStr"/>
+      <c r="H77" s="3" t="inlineStr"/>
+      <c r="I77" s="3" t="inlineStr"/>
+      <c r="J77" s="3" t="inlineStr"/>
+      <c r="K77" s="3" t="inlineStr"/>
+      <c r="L77" s="3" t="inlineStr"/>
+      <c r="M77" s="3" t="inlineStr"/>
+      <c r="N77" s="3" t="inlineStr"/>
+      <c r="O77" s="3" t="inlineStr"/>
+      <c r="P77" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q77" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R77" s="3" t="inlineStr"/>
+      <c r="S77" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T77" s="3" t="inlineStr"/>
+      <c r="U77" s="3" t="inlineStr"/>
+      <c r="V77" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>OBCS:0000077</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>quantitative confidence value</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
+      <c r="A78" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B78" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr"/>
+      <c r="F78" s="3" t="inlineStr"/>
+      <c r="G78" s="3" t="inlineStr"/>
+      <c r="H78" s="3" t="inlineStr"/>
+      <c r="I78" s="3" t="inlineStr"/>
+      <c r="J78" s="3" t="inlineStr"/>
+      <c r="K78" s="3" t="inlineStr"/>
+      <c r="L78" s="3" t="inlineStr"/>
+      <c r="M78" s="3" t="inlineStr"/>
+      <c r="N78" s="3" t="inlineStr"/>
+      <c r="O78" s="3" t="inlineStr"/>
+      <c r="P78" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q78" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R78" s="3" t="inlineStr"/>
+      <c r="S78" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T78" s="3" t="inlineStr"/>
+      <c r="U78" s="3" t="inlineStr"/>
+      <c r="V78" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000100</t>
+          <t>GMHO:0000099</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>standard deviation human age</t>
+          <t>schizophrenia diagnosis</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Standard deviation of human age in a population.</t>
+          <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>standard deviation</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -5103,80 +5111,76 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000168</t>
-        </is>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>substance use severity</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr"/>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
-      <c r="I80" s="2" t="inlineStr"/>
-      <c r="J80" s="2" t="inlineStr"/>
-      <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr"/>
-      <c r="M80" s="2" t="inlineStr"/>
-      <c r="N80" s="2" t="inlineStr"/>
-      <c r="O80" s="2" t="inlineStr"/>
-      <c r="P80" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q80" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R80" s="2" t="inlineStr"/>
-      <c r="S80" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T80" s="2" t="inlineStr"/>
-      <c r="U80" s="2" t="inlineStr"/>
-      <c r="V80" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>OBCS:0000077</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>standard deviation</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>A quantitative confidence value that measures the variability of data around the mean.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>quantitative confidence value</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000087</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>A data item that is about the severity dimension associated with a symptom.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr"/>
@@ -5197,7 +5201,7 @@
       </c>
       <c r="Q81" s="2" t="inlineStr">
         <is>
-          <t>Intervention population; Intervention outcome</t>
+          <t>Intervention population</t>
         </is>
       </c>
       <c r="R81" s="2" t="inlineStr"/>
@@ -5219,116 +5223,296 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000168</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
+      <c r="H82" s="2" t="inlineStr"/>
+      <c r="I82" s="2" t="inlineStr"/>
+      <c r="J82" s="2" t="inlineStr"/>
+      <c r="K82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr"/>
+      <c r="O82" s="2" t="inlineStr"/>
+      <c r="P82" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q82" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R82" s="2" t="inlineStr"/>
+      <c r="S82" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T82" s="2" t="inlineStr"/>
+      <c r="U82" s="2" t="inlineStr"/>
+      <c r="V82" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000087</t>
+        </is>
+      </c>
+      <c r="B83" s="4" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="C83" s="4" t="inlineStr">
+        <is>
+          <t>A data item that is about the severity dimension associated with a symptom.</t>
+        </is>
+      </c>
+      <c r="D83" s="4" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E83" s="4" t="inlineStr"/>
+      <c r="F83" s="4" t="inlineStr"/>
+      <c r="G83" s="4" t="inlineStr"/>
+      <c r="H83" s="4" t="inlineStr"/>
+      <c r="I83" s="4" t="inlineStr"/>
+      <c r="J83" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K83" s="4" t="inlineStr"/>
+      <c r="L83" s="4" t="inlineStr"/>
+      <c r="M83" s="4" t="inlineStr"/>
+      <c r="N83" s="4" t="inlineStr"/>
+      <c r="O83" s="4" t="inlineStr"/>
+      <c r="P83" s="4" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q83" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population; Intervention outcome</t>
+        </is>
+      </c>
+      <c r="R83" s="4" t="inlineStr"/>
+      <c r="S83" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T83" s="4" t="inlineStr"/>
+      <c r="U83" s="4" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V83" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr">
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr">
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B85" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D83" s="2" t="inlineStr">
+      <c r="D85" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E83" s="2" t="inlineStr"/>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
-      <c r="H83" s="2" t="inlineStr"/>
-      <c r="I83" s="2" t="inlineStr"/>
-      <c r="J83" s="2" t="inlineStr"/>
-      <c r="K83" s="2" t="inlineStr"/>
-      <c r="L83" s="2" t="inlineStr"/>
-      <c r="M83" s="2" t="inlineStr"/>
-      <c r="N83" s="2" t="inlineStr"/>
-      <c r="O83" s="2" t="inlineStr"/>
-      <c r="P83" s="2" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr"/>
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr"/>
+      <c r="H85" s="2" t="inlineStr"/>
+      <c r="I85" s="2" t="inlineStr"/>
+      <c r="J85" s="2" t="inlineStr"/>
+      <c r="K85" s="2" t="inlineStr"/>
+      <c r="L85" s="2" t="inlineStr"/>
+      <c r="M85" s="2" t="inlineStr"/>
+      <c r="N85" s="2" t="inlineStr"/>
+      <c r="O85" s="2" t="inlineStr"/>
+      <c r="P85" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q83" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R83" s="2" t="inlineStr"/>
-      <c r="S83" s="2" t="inlineStr">
+      <c r="Q85" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R85" s="2" t="inlineStr"/>
+      <c r="S85" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T83" s="2" t="inlineStr"/>
-      <c r="U83" s="2" t="inlineStr"/>
-      <c r="V83" s="2" t="inlineStr">
+      <c r="T85" s="2" t="inlineStr"/>
+      <c r="U85" s="2" t="inlineStr"/>
+      <c r="V85" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>PATO:0000128</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>weight</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>A physical quality inhering in a bearer that has mass near a gravitational body.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3384,60 +3384,60 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000070</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>negative psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-      <c r="M51" s="4" t="inlineStr"/>
-      <c r="N51" s="4" t="inlineStr"/>
-      <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr"/>
+      <c r="F51" s="3" t="inlineStr"/>
+      <c r="G51" s="3" t="inlineStr"/>
+      <c r="H51" s="3" t="inlineStr"/>
+      <c r="I51" s="3" t="inlineStr"/>
+      <c r="J51" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K51" s="3" t="inlineStr"/>
+      <c r="L51" s="3" t="inlineStr"/>
+      <c r="M51" s="3" t="inlineStr"/>
+      <c r="N51" s="3" t="inlineStr"/>
+      <c r="O51" s="3" t="inlineStr"/>
+      <c r="P51" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R51" s="4" t="inlineStr"/>
-      <c r="S51" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T51" s="4" t="inlineStr"/>
-      <c r="U51" s="4" t="inlineStr"/>
-      <c r="V51" s="4" t="inlineStr">
+      <c r="Q51" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" s="3" t="inlineStr"/>
+      <c r="S51" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T51" s="3" t="inlineStr"/>
+      <c r="U51" s="3" t="inlineStr"/>
+      <c r="V51" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3729,60 +3729,60 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000078</t>
         </is>
       </c>
-      <c r="B57" s="2" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>positive psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C57" s="2" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D57" s="2" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="E57" s="2" t="inlineStr"/>
-      <c r="F57" s="2" t="inlineStr"/>
-      <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
-      <c r="I57" s="2" t="inlineStr"/>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr"/>
-      <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="inlineStr"/>
-      <c r="N57" s="2" t="inlineStr"/>
-      <c r="O57" s="2" t="inlineStr"/>
-      <c r="P57" s="2" t="inlineStr">
+      <c r="E57" s="4" t="inlineStr"/>
+      <c r="F57" s="4" t="inlineStr"/>
+      <c r="G57" s="4" t="inlineStr"/>
+      <c r="H57" s="4" t="inlineStr"/>
+      <c r="I57" s="4" t="inlineStr"/>
+      <c r="J57" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K57" s="4" t="inlineStr"/>
+      <c r="L57" s="4" t="inlineStr"/>
+      <c r="M57" s="4" t="inlineStr"/>
+      <c r="N57" s="4" t="inlineStr"/>
+      <c r="O57" s="4" t="inlineStr"/>
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q57" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R57" s="2" t="inlineStr"/>
-      <c r="S57" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T57" s="2" t="inlineStr"/>
-      <c r="U57" s="2" t="inlineStr"/>
-      <c r="V57" s="2" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="inlineStr"/>
+      <c r="S57" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T57" s="4" t="inlineStr"/>
+      <c r="U57" s="4" t="inlineStr"/>
+      <c r="V57" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4823,60 +4823,60 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000079</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" s="4" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
         </is>
       </c>
-      <c r="D75" s="2" t="inlineStr">
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E75" s="2" t="inlineStr"/>
-      <c r="F75" s="2" t="inlineStr"/>
-      <c r="G75" s="2" t="inlineStr"/>
-      <c r="H75" s="2" t="inlineStr"/>
-      <c r="I75" s="2" t="inlineStr"/>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K75" s="2" t="inlineStr"/>
-      <c r="L75" s="2" t="inlineStr"/>
-      <c r="M75" s="2" t="inlineStr"/>
-      <c r="N75" s="2" t="inlineStr"/>
-      <c r="O75" s="2" t="inlineStr"/>
-      <c r="P75" s="2" t="inlineStr">
+      <c r="E75" s="4" t="inlineStr"/>
+      <c r="F75" s="4" t="inlineStr"/>
+      <c r="G75" s="4" t="inlineStr"/>
+      <c r="H75" s="4" t="inlineStr"/>
+      <c r="I75" s="4" t="inlineStr"/>
+      <c r="J75" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K75" s="4" t="inlineStr"/>
+      <c r="L75" s="4" t="inlineStr"/>
+      <c r="M75" s="4" t="inlineStr"/>
+      <c r="N75" s="4" t="inlineStr"/>
+      <c r="O75" s="4" t="inlineStr"/>
+      <c r="P75" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="2" t="inlineStr"/>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="inlineStr"/>
-      <c r="U75" s="2" t="inlineStr"/>
-      <c r="V75" s="2" t="inlineStr">
+      <c r="Q75" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="4" t="inlineStr"/>
+      <c r="S75" s="4" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="T75" s="4" t="inlineStr"/>
+      <c r="U75" s="4" t="inlineStr"/>
+      <c r="V75" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -5279,64 +5279,64 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000087</t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
-      <c r="D83" s="4" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr"/>
-      <c r="F83" s="4" t="inlineStr"/>
-      <c r="G83" s="4" t="inlineStr"/>
-      <c r="H83" s="4" t="inlineStr"/>
-      <c r="I83" s="4" t="inlineStr"/>
-      <c r="J83" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K83" s="4" t="inlineStr"/>
-      <c r="L83" s="4" t="inlineStr"/>
-      <c r="M83" s="4" t="inlineStr"/>
-      <c r="N83" s="4" t="inlineStr"/>
-      <c r="O83" s="4" t="inlineStr"/>
-      <c r="P83" s="4" t="inlineStr">
+      <c r="E83" s="3" t="inlineStr"/>
+      <c r="F83" s="3" t="inlineStr"/>
+      <c r="G83" s="3" t="inlineStr"/>
+      <c r="H83" s="3" t="inlineStr"/>
+      <c r="I83" s="3" t="inlineStr"/>
+      <c r="J83" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K83" s="3" t="inlineStr"/>
+      <c r="L83" s="3" t="inlineStr"/>
+      <c r="M83" s="3" t="inlineStr"/>
+      <c r="N83" s="3" t="inlineStr"/>
+      <c r="O83" s="3" t="inlineStr"/>
+      <c r="P83" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q83" s="4" t="inlineStr">
+      <c r="Q83" s="3" t="inlineStr">
         <is>
           <t>Intervention population; Intervention outcome</t>
         </is>
       </c>
-      <c r="R83" s="4" t="inlineStr"/>
-      <c r="S83" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T83" s="4" t="inlineStr"/>
-      <c r="U83" s="4" t="inlineStr">
+      <c r="R83" s="3" t="inlineStr"/>
+      <c r="S83" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T83" s="3" t="inlineStr"/>
+      <c r="U83" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V83" s="4" t="inlineStr">
+      <c r="V83" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -45,11 +45,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
     <fill>
@@ -70,13 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3729,60 +3723,60 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000078</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>positive psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
+      <c r="C57" s="3" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D57" s="4" t="inlineStr">
+      <c r="D57" s="3" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="E57" s="4" t="inlineStr"/>
-      <c r="F57" s="4" t="inlineStr"/>
-      <c r="G57" s="4" t="inlineStr"/>
-      <c r="H57" s="4" t="inlineStr"/>
-      <c r="I57" s="4" t="inlineStr"/>
-      <c r="J57" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K57" s="4" t="inlineStr"/>
-      <c r="L57" s="4" t="inlineStr"/>
-      <c r="M57" s="4" t="inlineStr"/>
-      <c r="N57" s="4" t="inlineStr"/>
-      <c r="O57" s="4" t="inlineStr"/>
-      <c r="P57" s="4" t="inlineStr">
+      <c r="E57" s="3" t="inlineStr"/>
+      <c r="F57" s="3" t="inlineStr"/>
+      <c r="G57" s="3" t="inlineStr"/>
+      <c r="H57" s="3" t="inlineStr"/>
+      <c r="I57" s="3" t="inlineStr"/>
+      <c r="J57" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K57" s="3" t="inlineStr"/>
+      <c r="L57" s="3" t="inlineStr"/>
+      <c r="M57" s="3" t="inlineStr"/>
+      <c r="N57" s="3" t="inlineStr"/>
+      <c r="O57" s="3" t="inlineStr"/>
+      <c r="P57" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q57" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R57" s="4" t="inlineStr"/>
-      <c r="S57" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T57" s="4" t="inlineStr"/>
-      <c r="U57" s="4" t="inlineStr"/>
-      <c r="V57" s="4" t="inlineStr">
+      <c r="Q57" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R57" s="3" t="inlineStr"/>
+      <c r="S57" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T57" s="3" t="inlineStr"/>
+      <c r="U57" s="3" t="inlineStr"/>
+      <c r="V57" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3969,60 +3963,60 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="inlineStr">
+      <c r="A61" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000158</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>pre-intervention anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C61" s="5" t="inlineStr">
+      <c r="C61" s="4" t="inlineStr">
         <is>
           <t>Anxiety symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D61" s="5" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="E61" s="5" t="inlineStr">
+      <c r="E61" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F61" s="5" t="inlineStr"/>
-      <c r="G61" s="5" t="inlineStr"/>
-      <c r="H61" s="5" t="inlineStr"/>
-      <c r="I61" s="5" t="inlineStr"/>
-      <c r="J61" s="5" t="inlineStr"/>
-      <c r="K61" s="5" t="inlineStr"/>
-      <c r="L61" s="5" t="inlineStr"/>
-      <c r="M61" s="5" t="inlineStr"/>
-      <c r="N61" s="5" t="inlineStr"/>
-      <c r="O61" s="5" t="inlineStr"/>
-      <c r="P61" s="5" t="inlineStr">
+      <c r="F61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr"/>
+      <c r="H61" s="4" t="inlineStr"/>
+      <c r="I61" s="4" t="inlineStr"/>
+      <c r="J61" s="4" t="inlineStr"/>
+      <c r="K61" s="4" t="inlineStr"/>
+      <c r="L61" s="4" t="inlineStr"/>
+      <c r="M61" s="4" t="inlineStr"/>
+      <c r="N61" s="4" t="inlineStr"/>
+      <c r="O61" s="4" t="inlineStr"/>
+      <c r="P61" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q61" s="5" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" s="5" t="inlineStr"/>
-      <c r="S61" s="5" t="inlineStr">
+      <c r="Q61" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="4" t="inlineStr"/>
+      <c r="S61" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="T61" s="5" t="inlineStr"/>
-      <c r="U61" s="5" t="inlineStr"/>
-      <c r="V61" s="5" t="inlineStr">
+      <c r="T61" s="4" t="inlineStr"/>
+      <c r="U61" s="4" t="inlineStr"/>
+      <c r="V61" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4823,60 +4817,60 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000079</t>
         </is>
       </c>
-      <c r="B75" s="4" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C75" s="4" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
         </is>
       </c>
-      <c r="D75" s="4" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E75" s="4" t="inlineStr"/>
-      <c r="F75" s="4" t="inlineStr"/>
-      <c r="G75" s="4" t="inlineStr"/>
-      <c r="H75" s="4" t="inlineStr"/>
-      <c r="I75" s="4" t="inlineStr"/>
-      <c r="J75" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K75" s="4" t="inlineStr"/>
-      <c r="L75" s="4" t="inlineStr"/>
-      <c r="M75" s="4" t="inlineStr"/>
-      <c r="N75" s="4" t="inlineStr"/>
-      <c r="O75" s="4" t="inlineStr"/>
-      <c r="P75" s="4" t="inlineStr">
+      <c r="E75" s="3" t="inlineStr"/>
+      <c r="F75" s="3" t="inlineStr"/>
+      <c r="G75" s="3" t="inlineStr"/>
+      <c r="H75" s="3" t="inlineStr"/>
+      <c r="I75" s="3" t="inlineStr"/>
+      <c r="J75" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K75" s="3" t="inlineStr"/>
+      <c r="L75" s="3" t="inlineStr"/>
+      <c r="M75" s="3" t="inlineStr"/>
+      <c r="N75" s="3" t="inlineStr"/>
+      <c r="O75" s="3" t="inlineStr"/>
+      <c r="P75" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="4" t="inlineStr"/>
-      <c r="S75" s="4" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="T75" s="4" t="inlineStr"/>
-      <c r="U75" s="4" t="inlineStr"/>
-      <c r="V75" s="4" t="inlineStr">
+      <c r="Q75" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="3" t="inlineStr"/>
+      <c r="S75" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T75" s="3" t="inlineStr"/>
+      <c r="U75" s="3" t="inlineStr"/>
+      <c r="V75" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3023,7 +3023,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 3</t>
+          <t xml:space="preserve">LSR 1; LSR 2; LSR 3; </t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -1665,58 +1665,58 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000146</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">depression data item </t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="4" t="inlineStr">
         <is>
           <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>measurement data item</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr"/>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
-      <c r="I21" s="2" t="inlineStr"/>
-      <c r="J21" s="2" t="inlineStr"/>
-      <c r="K21" s="2" t="inlineStr"/>
-      <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="inlineStr"/>
-      <c r="N21" s="2" t="inlineStr"/>
-      <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr">
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
+      <c r="M21" s="4" t="inlineStr"/>
+      <c r="N21" s="4" t="inlineStr"/>
+      <c r="O21" s="4" t="inlineStr"/>
+      <c r="P21" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R21" s="2" t="inlineStr"/>
-      <c r="S21" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T21" s="2" t="inlineStr"/>
-      <c r="U21" s="2" t="inlineStr"/>
-      <c r="V21" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="Q21" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T21" s="4" t="inlineStr"/>
+      <c r="U21" s="4" t="inlineStr"/>
+      <c r="V21" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3903,62 +3903,62 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000157</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" s="4" t="inlineStr">
         <is>
           <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>measurement data item</t>
         </is>
       </c>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr"/>
+      <c r="G60" s="4" t="inlineStr">
         <is>
           <t>PTSD measurement item</t>
         </is>
       </c>
-      <c r="H60" s="2" t="inlineStr"/>
-      <c r="I60" s="2" t="inlineStr"/>
-      <c r="J60" s="2" t="inlineStr"/>
-      <c r="K60" s="2" t="inlineStr"/>
-      <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="inlineStr"/>
-      <c r="N60" s="2" t="inlineStr"/>
-      <c r="O60" s="2" t="inlineStr"/>
-      <c r="P60" s="2" t="inlineStr">
+      <c r="H60" s="4" t="inlineStr"/>
+      <c r="I60" s="4" t="inlineStr"/>
+      <c r="J60" s="4" t="inlineStr"/>
+      <c r="K60" s="4" t="inlineStr"/>
+      <c r="L60" s="4" t="inlineStr"/>
+      <c r="M60" s="4" t="inlineStr"/>
+      <c r="N60" s="4" t="inlineStr"/>
+      <c r="O60" s="4" t="inlineStr"/>
+      <c r="P60" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="inlineStr"/>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="inlineStr"/>
-      <c r="U60" s="2" t="inlineStr"/>
-      <c r="V60" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
+      <c r="Q60" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="4" t="inlineStr"/>
+      <c r="S60" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="4" t="inlineStr"/>
+      <c r="U60" s="4" t="inlineStr"/>
+      <c r="V60" s="4" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3860,7 +3860,7 @@
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>anxiety diagnosis severity</t>
+          <t>diagnosis severity</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
@@ -3898,7 +3898,7 @@
       <c r="U59" s="2" t="inlineStr"/>
       <c r="V59" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2643,22 +2643,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OBI:0500027</t>
+          <t>BCIO:041000</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>inclusion criterion</t>
+          <t>human population</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
+          <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>object aggregate</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2666,22 +2666,18 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
@@ -2692,29 +2688,29 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>MS</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OBI:0500027</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>inclusion criterion</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>A generically dependent continuant that is about some thing.</t>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2722,11 +2718,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -2734,7 +2726,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -2757,229 +2749,233 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IAO:0000030</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>A generically dependent continuant that is about some thing.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000150</t>
         </is>
       </c>
-      <c r="B40" s="2" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="C40" s="2" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
-      <c r="D40" s="2" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E40" s="2" t="inlineStr"/>
-      <c r="F40" s="2" t="inlineStr"/>
-      <c r="G40" s="2" t="inlineStr"/>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
-      <c r="J40" s="2" t="inlineStr"/>
-      <c r="K40" s="2" t="inlineStr"/>
-      <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="inlineStr"/>
-      <c r="N40" s="2" t="inlineStr"/>
-      <c r="O40" s="2" t="inlineStr"/>
-      <c r="P40" s="2" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr"/>
+      <c r="F41" s="2" t="inlineStr"/>
+      <c r="G41" s="2" t="inlineStr"/>
+      <c r="H41" s="2" t="inlineStr"/>
+      <c r="I41" s="2" t="inlineStr"/>
+      <c r="J41" s="2" t="inlineStr"/>
+      <c r="K41" s="2" t="inlineStr"/>
+      <c r="L41" s="2" t="inlineStr"/>
+      <c r="M41" s="2" t="inlineStr"/>
+      <c r="N41" s="2" t="inlineStr"/>
+      <c r="O41" s="2" t="inlineStr"/>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="inlineStr"/>
-      <c r="S40" s="2" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr"/>
+      <c r="S41" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T40" s="2" t="inlineStr"/>
-      <c r="U40" s="2" t="inlineStr"/>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="T41" s="2" t="inlineStr"/>
+      <c r="U41" s="2" t="inlineStr"/>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr">
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D42" s="2" t="inlineStr">
+      <c r="D43" s="2" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
         </is>
       </c>
-      <c r="E42" s="2" t="inlineStr"/>
-      <c r="F42" s="2" t="inlineStr"/>
-      <c r="G42" s="2" t="inlineStr"/>
-      <c r="H42" s="2" t="inlineStr"/>
-      <c r="I42" s="2" t="inlineStr"/>
-      <c r="J42" s="2" t="inlineStr"/>
-      <c r="K42" s="2" t="inlineStr"/>
-      <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="inlineStr"/>
-      <c r="N42" s="2" t="inlineStr"/>
-      <c r="O42" s="2" t="inlineStr"/>
-      <c r="P42" s="2" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr"/>
+      <c r="F43" s="2" t="inlineStr"/>
+      <c r="G43" s="2" t="inlineStr"/>
+      <c r="H43" s="2" t="inlineStr"/>
+      <c r="I43" s="2" t="inlineStr"/>
+      <c r="J43" s="2" t="inlineStr"/>
+      <c r="K43" s="2" t="inlineStr"/>
+      <c r="L43" s="2" t="inlineStr"/>
+      <c r="M43" s="2" t="inlineStr"/>
+      <c r="N43" s="2" t="inlineStr"/>
+      <c r="O43" s="2" t="inlineStr"/>
+      <c r="P43" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr"/>
-      <c r="S42" s="2" t="inlineStr">
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr"/>
+      <c r="S43" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T42" s="2" t="inlineStr"/>
-      <c r="U42" s="2" t="inlineStr"/>
-      <c r="V42" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>biological sex</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr">
+      <c r="T43" s="2" t="inlineStr"/>
+      <c r="U43" s="2" t="inlineStr"/>
+      <c r="V43" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2988,22 +2984,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:015416</t>
+          <t>BCIO:015107</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mean human age population statistic</t>
+          <t>male biological sex</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>The mean of human age in a population.</t>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>human age population statistic</t>
+          <t>biological sex</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3011,11 +3007,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3023,7 +3015,7 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t xml:space="preserve">LSR 1; LSR 2; LSR 3; </t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -3038,36 +3030,32 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
+      <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IAO:0000109</t>
+          <t>BCIO:015416</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>measurement datum</t>
+          <t>mean human age population statistic</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+          <t>The mean of human age in a population.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>human age population statistic</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3075,7 +3063,11 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3083,7 +3075,7 @@
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t xml:space="preserve">LSR 1; LSR 2; LSR 3; </t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -3098,224 +3090,228 @@
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>IAO:0000109</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>measurement datum</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr"/>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr"/>
-      <c r="M46" s="3" t="inlineStr"/>
-      <c r="N46" s="3" t="inlineStr"/>
-      <c r="O46" s="3" t="inlineStr"/>
-      <c r="P46" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr"/>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
+      <c r="M47" s="3" t="inlineStr"/>
+      <c r="N47" s="3" t="inlineStr"/>
+      <c r="O47" s="3" t="inlineStr"/>
+      <c r="P47" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q46" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R46" s="3" t="inlineStr"/>
-      <c r="S46" s="3" t="inlineStr">
+      <c r="Q47" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R47" s="3" t="inlineStr"/>
+      <c r="S47" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T46" s="3" t="inlineStr"/>
-      <c r="U46" s="3" t="inlineStr"/>
-      <c r="V46" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="T47" s="3" t="inlineStr"/>
+      <c r="U47" s="3" t="inlineStr"/>
+      <c r="V47" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr">
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C49" s="3" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="inlineStr">
+      <c r="D49" s="3" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr"/>
-      <c r="F48" s="3" t="inlineStr"/>
-      <c r="G48" s="3" t="inlineStr"/>
-      <c r="H48" s="3" t="inlineStr"/>
-      <c r="I48" s="3" t="inlineStr"/>
-      <c r="J48" s="3" t="inlineStr"/>
-      <c r="K48" s="3" t="inlineStr"/>
-      <c r="L48" s="3" t="inlineStr"/>
-      <c r="M48" s="3" t="inlineStr"/>
-      <c r="N48" s="3" t="inlineStr"/>
-      <c r="O48" s="3" t="inlineStr"/>
-      <c r="P48" s="3" t="inlineStr">
+      <c r="E49" s="3" t="inlineStr"/>
+      <c r="F49" s="3" t="inlineStr"/>
+      <c r="G49" s="3" t="inlineStr"/>
+      <c r="H49" s="3" t="inlineStr"/>
+      <c r="I49" s="3" t="inlineStr"/>
+      <c r="J49" s="3" t="inlineStr"/>
+      <c r="K49" s="3" t="inlineStr"/>
+      <c r="L49" s="3" t="inlineStr"/>
+      <c r="M49" s="3" t="inlineStr"/>
+      <c r="N49" s="3" t="inlineStr"/>
+      <c r="O49" s="3" t="inlineStr"/>
+      <c r="P49" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="inlineStr"/>
-      <c r="S48" s="3" t="inlineStr">
+      <c r="Q49" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" s="3" t="inlineStr"/>
+      <c r="S49" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="3" t="inlineStr"/>
-      <c r="U48" s="3" t="inlineStr"/>
-      <c r="V48" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BCIO:015490</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>medication use status</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>health status attribute</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr">
+      <c r="T49" s="3" t="inlineStr"/>
+      <c r="U49" s="3" t="inlineStr"/>
+      <c r="V49" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3324,22 +3320,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>BCIO:015490</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>medication use status</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
+          <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>health status attribute</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3355,7 +3351,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 3</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -3378,60 +3374,56 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000070</t>
-        </is>
-      </c>
-      <c r="B51" s="3" t="inlineStr">
-        <is>
-          <t>negative psychotic disorder symptom severity</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>psychotic disorder symptom severity</t>
-        </is>
-      </c>
-      <c r="E51" s="3" t="inlineStr"/>
-      <c r="F51" s="3" t="inlineStr"/>
-      <c r="G51" s="3" t="inlineStr"/>
-      <c r="H51" s="3" t="inlineStr"/>
-      <c r="I51" s="3" t="inlineStr"/>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K51" s="3" t="inlineStr"/>
-      <c r="L51" s="3" t="inlineStr"/>
-      <c r="M51" s="3" t="inlineStr"/>
-      <c r="N51" s="3" t="inlineStr"/>
-      <c r="O51" s="3" t="inlineStr"/>
-      <c r="P51" s="3" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q51" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R51" s="3" t="inlineStr"/>
-      <c r="S51" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T51" s="3" t="inlineStr"/>
-      <c r="U51" s="3" t="inlineStr"/>
-      <c r="V51" s="3" t="inlineStr">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3440,22 +3432,22 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000213</t>
+          <t>GMHO:0000070</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>number of female biological sex</t>
+          <t>negative psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>The number of female biological sex in a population.</t>
+          <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>female biological sex population statistic</t>
+          <t>psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="E52" s="3" t="inlineStr"/>
@@ -3498,56 +3490,60 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000152</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr"/>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr"/>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr"/>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="inlineStr"/>
-      <c r="N53" s="2" t="inlineStr"/>
-      <c r="O53" s="2" t="inlineStr"/>
-      <c r="P53" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q53" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="2" t="inlineStr"/>
-      <c r="S53" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T53" s="2" t="inlineStr"/>
-      <c r="U53" s="2" t="inlineStr"/>
-      <c r="V53" s="2" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000213</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>number of female biological sex</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>The number of female biological sex in a population.</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>female biological sex population statistic</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+      <c r="M53" s="3" t="inlineStr"/>
+      <c r="N53" s="3" t="inlineStr"/>
+      <c r="O53" s="3" t="inlineStr"/>
+      <c r="P53" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q53" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="3" t="inlineStr"/>
+      <c r="S53" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T53" s="3" t="inlineStr"/>
+      <c r="U53" s="3" t="inlineStr"/>
+      <c r="V53" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3556,22 +3552,22 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000153</t>
+          <t>GMHO:0000152</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>number of participants in intervention arm</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Number of intervention participants who are part of an intervention arm.</t>
+          <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>number of intervention participants</t>
+          <t>data item</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr"/>
@@ -3587,7 +3583,7 @@
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q54" s="2" t="inlineStr">
@@ -3610,76 +3606,76 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000153</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>number of participants in intervention arm</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>Number of intervention participants who are part of an intervention arm.</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>number of intervention participants</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr"/>
+      <c r="F55" s="2" t="inlineStr"/>
+      <c r="G55" s="2" t="inlineStr"/>
+      <c r="H55" s="2" t="inlineStr"/>
+      <c r="I55" s="2" t="inlineStr"/>
+      <c r="J55" s="2" t="inlineStr"/>
+      <c r="K55" s="2" t="inlineStr"/>
+      <c r="L55" s="2" t="inlineStr"/>
+      <c r="M55" s="2" t="inlineStr"/>
+      <c r="N55" s="2" t="inlineStr"/>
+      <c r="O55" s="2" t="inlineStr"/>
+      <c r="P55" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q55" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="2" t="inlineStr"/>
+      <c r="S55" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T55" s="2" t="inlineStr"/>
+      <c r="U55" s="2" t="inlineStr"/>
+      <c r="V55" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C55" s="3" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>number of intervention participants</t>
-        </is>
-      </c>
-      <c r="E55" s="3" t="inlineStr"/>
-      <c r="F55" s="3" t="inlineStr"/>
-      <c r="G55" s="3" t="inlineStr"/>
-      <c r="H55" s="3" t="inlineStr"/>
-      <c r="I55" s="3" t="inlineStr"/>
-      <c r="J55" s="3" t="inlineStr"/>
-      <c r="K55" s="3" t="inlineStr"/>
-      <c r="L55" s="3" t="inlineStr"/>
-      <c r="M55" s="3" t="inlineStr"/>
-      <c r="N55" s="3" t="inlineStr"/>
-      <c r="O55" s="3" t="inlineStr"/>
-      <c r="P55" s="3" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q55" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="3" t="inlineStr"/>
-      <c r="S55" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T55" s="3" t="inlineStr"/>
-      <c r="U55" s="3" t="inlineStr"/>
-      <c r="V55" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000154</t>
-        </is>
-      </c>
-      <c r="B56" s="3" t="inlineStr">
-        <is>
-          <t>number of randomised intervention participants</t>
-        </is>
-      </c>
-      <c r="C56" s="3" t="inlineStr">
-        <is>
-          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
@@ -3700,7 +3696,7 @@
       <c r="O56" s="3" t="inlineStr"/>
       <c r="P56" s="3" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q56" s="3" t="inlineStr">
@@ -3725,22 +3721,22 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000078</t>
+          <t>GMHO:0000154</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>positive psychotic disorder symptom severity</t>
+          <t>number of randomised intervention participants</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
+          <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>psychotic disorder symptom severity</t>
+          <t>number of intervention participants</t>
         </is>
       </c>
       <c r="E57" s="3" t="inlineStr"/>
@@ -3748,11 +3744,7 @@
       <c r="G57" s="3" t="inlineStr"/>
       <c r="H57" s="3" t="inlineStr"/>
       <c r="I57" s="3" t="inlineStr"/>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="J57" s="3" t="inlineStr"/>
       <c r="K57" s="3" t="inlineStr"/>
       <c r="L57" s="3" t="inlineStr"/>
       <c r="M57" s="3" t="inlineStr"/>
@@ -3760,7 +3752,7 @@
       <c r="O57" s="3" t="inlineStr"/>
       <c r="P57" s="3" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q57" s="3" t="inlineStr">
@@ -3783,60 +3775,60 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000156</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>PTSD diagnosis status</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr"/>
-      <c r="I58" s="2" t="inlineStr"/>
-      <c r="J58" s="2" t="inlineStr"/>
-      <c r="K58" s="2" t="inlineStr"/>
-      <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="inlineStr"/>
-      <c r="N58" s="2" t="inlineStr"/>
-      <c r="O58" s="2" t="inlineStr"/>
-      <c r="P58" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q58" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="2" t="inlineStr"/>
-      <c r="S58" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T58" s="2" t="inlineStr"/>
-      <c r="U58" s="2" t="inlineStr"/>
-      <c r="V58" s="2" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000078</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>positive psychotic disorder symptom severity</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>psychotic disorder symptom severity</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr"/>
+      <c r="F58" s="3" t="inlineStr"/>
+      <c r="G58" s="3" t="inlineStr"/>
+      <c r="H58" s="3" t="inlineStr"/>
+      <c r="I58" s="3" t="inlineStr"/>
+      <c r="J58" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K58" s="3" t="inlineStr"/>
+      <c r="L58" s="3" t="inlineStr"/>
+      <c r="M58" s="3" t="inlineStr"/>
+      <c r="N58" s="3" t="inlineStr"/>
+      <c r="O58" s="3" t="inlineStr"/>
+      <c r="P58" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q58" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" s="3" t="inlineStr"/>
+      <c r="S58" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T58" s="3" t="inlineStr"/>
+      <c r="U58" s="3" t="inlineStr"/>
+      <c r="V58" s="3" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3845,29 +3837,29 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000155</t>
+          <t>GMHO:0000156</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D59" s="2" t="inlineStr">
         <is>
-          <t>diagnosis severity</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr"/>
       <c r="F59" s="2" t="inlineStr"/>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>PTSD severity</t>
+          <t>PTSD diagnosis status</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3898,65 +3890,65 @@
       <c r="U59" s="2" t="inlineStr"/>
       <c r="V59" s="2" t="inlineStr">
         <is>
-          <t>PS; MS</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000157</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
-        </is>
-      </c>
-      <c r="D60" s="4" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="4" t="inlineStr"/>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>PTSD measurement item</t>
-        </is>
-      </c>
-      <c r="H60" s="4" t="inlineStr"/>
-      <c r="I60" s="4" t="inlineStr"/>
-      <c r="J60" s="4" t="inlineStr"/>
-      <c r="K60" s="4" t="inlineStr"/>
-      <c r="L60" s="4" t="inlineStr"/>
-      <c r="M60" s="4" t="inlineStr"/>
-      <c r="N60" s="4" t="inlineStr"/>
-      <c r="O60" s="4" t="inlineStr"/>
-      <c r="P60" s="4" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000155</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>PTSD severity</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr"/>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+      <c r="M60" s="2" t="inlineStr"/>
+      <c r="N60" s="2" t="inlineStr"/>
+      <c r="O60" s="2" t="inlineStr"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="4" t="inlineStr"/>
-      <c r="S60" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T60" s="4" t="inlineStr"/>
-      <c r="U60" s="4" t="inlineStr"/>
-      <c r="V60" s="4" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="inlineStr"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="inlineStr"/>
+      <c r="U60" s="2" t="inlineStr"/>
+      <c r="V60" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3965,31 +3957,31 @@
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
         <is>
-          <t>GMHO:0000158</t>
+          <t>GMHO:0000157</t>
         </is>
       </c>
       <c r="B61" s="4" t="inlineStr">
         <is>
-          <t>pre-intervention anxiety symptom severity</t>
+          <t>post-traumatic stress disorder severity measurement item</t>
         </is>
       </c>
       <c r="C61" s="4" t="inlineStr">
         <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
         </is>
       </c>
       <c r="D61" s="4" t="inlineStr">
         <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="E61" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E61" s="4" t="inlineStr"/>
       <c r="F61" s="4" t="inlineStr"/>
-      <c r="G61" s="4" t="inlineStr"/>
+      <c r="G61" s="4" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
       <c r="H61" s="4" t="inlineStr"/>
       <c r="I61" s="4" t="inlineStr"/>
       <c r="J61" s="4" t="inlineStr"/>
@@ -4018,69 +4010,65 @@
       <c r="U61" s="4" t="inlineStr"/>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>PS; MS</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C62" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D62" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="E62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="H62" s="2" t="inlineStr"/>
-      <c r="I62" s="2" t="inlineStr"/>
-      <c r="J62" s="2" t="inlineStr"/>
-      <c r="K62" s="2" t="inlineStr"/>
-      <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="inlineStr"/>
-      <c r="N62" s="2" t="inlineStr"/>
-      <c r="O62" s="2" t="inlineStr"/>
-      <c r="P62" s="2" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr"/>
+      <c r="G62" s="4" t="inlineStr"/>
+      <c r="H62" s="4" t="inlineStr"/>
+      <c r="I62" s="4" t="inlineStr"/>
+      <c r="J62" s="4" t="inlineStr"/>
+      <c r="K62" s="4" t="inlineStr"/>
+      <c r="L62" s="4" t="inlineStr"/>
+      <c r="M62" s="4" t="inlineStr"/>
+      <c r="N62" s="4" t="inlineStr"/>
+      <c r="O62" s="4" t="inlineStr"/>
+      <c r="P62" s="4" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q62" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R62" s="2" t="inlineStr"/>
-      <c r="S62" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T62" s="2" t="inlineStr"/>
-      <c r="U62" s="2" t="inlineStr"/>
-      <c r="V62" s="2" t="inlineStr">
+      <c r="Q62" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R62" s="4" t="inlineStr"/>
+      <c r="S62" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T62" s="4" t="inlineStr"/>
+      <c r="U62" s="4" t="inlineStr"/>
+      <c r="V62" s="4" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4089,31 +4077,35 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000160</t>
+          <t>GMHO:0000159</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention depression symptom severity</t>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Depression symptom severity before an intervention starts.</t>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>depression symptom severity</t>
+          <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr"/>
-      <c r="G63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
@@ -4124,7 +4116,7 @@
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q63" s="2" t="inlineStr">
@@ -4149,27 +4141,27 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000161</t>
+          <t>GMHO:0000160</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention insomnia severity</t>
+          <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+          <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>depression symptom severity</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -4184,7 +4176,7 @@
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1; LSR 2</t>
         </is>
       </c>
       <c r="Q64" s="2" t="inlineStr">
@@ -4209,43 +4201,35 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000162</t>
+          <t>GMHO:0000161</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention personal attribute</t>
+          <t>pre-intervention insomnia severity</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>insomnia symptom severity</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
-      <c r="K65" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
+      <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
       <c r="M65" s="2" t="inlineStr"/>
       <c r="N65" s="2" t="inlineStr"/>
@@ -4277,39 +4261,43 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000163</t>
+          <t>GMHO:0000162</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+          <t>pre-intervention personal attribute</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+          <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
+          <t>personal attribute</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
       <c r="G66" s="2" t="inlineStr">
         <is>
-          <t>baseline PTSD severity</t>
+          <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
       <c r="H66" s="2" t="inlineStr"/>
       <c r="I66" s="2" t="inlineStr"/>
       <c r="J66" s="2" t="inlineStr"/>
-      <c r="K66" s="2" t="inlineStr"/>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
       <c r="L66" s="2" t="inlineStr"/>
       <c r="M66" s="2" t="inlineStr"/>
       <c r="N66" s="2" t="inlineStr"/>
@@ -4324,12 +4312,7 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R66" s="2" t="inlineStr">
-        <is>
-          <t>Logical definition was:
-"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
-        </is>
-      </c>
+      <c r="R66" s="2" t="inlineStr"/>
       <c r="S66" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4346,31 +4329,35 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000164</t>
+          <t>GMHO:0000163</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>pre-intervention substance use severity</t>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
       <c r="H67" s="2" t="inlineStr"/>
       <c r="I67" s="2" t="inlineStr"/>
       <c r="J67" s="2" t="inlineStr"/>
@@ -4389,7 +4376,12 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="R67" s="2" t="inlineStr"/>
+      <c r="R67" s="2" t="inlineStr">
+        <is>
+          <t>Logical definition was:
+"post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
+        </is>
+      </c>
       <c r="S67" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -4406,25 +4398,29 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000096</t>
+          <t>GMHO:0000164</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>predominant negative psychotic disorder symptom history</t>
+          <t>pre-intervention substance use severity</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+          <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="E68" s="2" t="inlineStr"/>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
       <c r="F68" s="2" t="inlineStr"/>
       <c r="G68" s="2" t="inlineStr"/>
       <c r="H68" s="2" t="inlineStr"/>
@@ -4437,7 +4433,7 @@
       <c r="O68" s="2" t="inlineStr"/>
       <c r="P68" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 2</t>
         </is>
       </c>
       <c r="Q68" s="2" t="inlineStr">
@@ -4462,22 +4458,22 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000165</t>
+          <t>GMHO:0000096</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
+          <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>clinical history</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr"/>
@@ -4493,7 +4489,7 @@
       <c r="O69" s="2" t="inlineStr"/>
       <c r="P69" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q69" s="2" t="inlineStr">
@@ -4518,22 +4514,22 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000166</t>
+          <t>GMHO:0000165</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
           <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
@@ -4574,31 +4570,27 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000167</t>
+          <t>GMHO:0000166</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
+          <t>prevalence of diagnosis</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>prevalence of diagnosis</t>
+          <t>prevalence</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr"/>
       <c r="F71" s="2" t="inlineStr"/>
-      <c r="G71" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
+      <c r="G71" s="2" t="inlineStr"/>
       <c r="H71" s="2" t="inlineStr"/>
       <c r="I71" s="2" t="inlineStr"/>
       <c r="J71" s="2" t="inlineStr"/>
@@ -4632,116 +4624,120 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr"/>
+      <c r="F72" s="2" t="inlineStr"/>
+      <c r="G72" s="2" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H72" s="2" t="inlineStr"/>
+      <c r="I72" s="2" t="inlineStr"/>
+      <c r="J72" s="2" t="inlineStr"/>
+      <c r="K72" s="2" t="inlineStr"/>
+      <c r="L72" s="2" t="inlineStr"/>
+      <c r="M72" s="2" t="inlineStr"/>
+      <c r="N72" s="2" t="inlineStr"/>
+      <c r="O72" s="2" t="inlineStr"/>
+      <c r="P72" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="inlineStr"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="inlineStr"/>
+      <c r="U72" s="2" t="inlineStr"/>
+      <c r="V72" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>BCIO:015329</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>proportion female sex population statistic</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr">
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000187</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>psychosis diagnosis</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
-      <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr"/>
-      <c r="I73" s="2" t="inlineStr"/>
-      <c r="J73" s="2" t="inlineStr"/>
-      <c r="K73" s="2" t="inlineStr"/>
-      <c r="L73" s="2" t="inlineStr"/>
-      <c r="M73" s="2" t="inlineStr"/>
-      <c r="N73" s="2" t="inlineStr"/>
-      <c r="O73" s="2" t="inlineStr"/>
-      <c r="P73" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q73" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" s="2" t="inlineStr"/>
-      <c r="S73" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="inlineStr"/>
-      <c r="U73" s="2" t="inlineStr"/>
-      <c r="V73" s="2" t="inlineStr">
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4750,40 +4746,31 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000098</t>
+          <t>GMHO:0000187</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>psychosis experience</t>
+          <t>psychosis diagnosis</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+          <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>symptom</t>
+          <t>diagnosis</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr"/>
       <c r="H74" s="2" t="inlineStr"/>
-      <c r="I74" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
+      <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr"/>
-      <c r="K74" s="2" t="inlineStr">
-        <is>
-          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
-DSM V</t>
-        </is>
-      </c>
+      <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr"/>
       <c r="M74" s="2" t="inlineStr"/>
       <c r="N74" s="2" t="inlineStr"/>
@@ -4805,72 +4792,77 @@
         </is>
       </c>
       <c r="T74" s="2" t="inlineStr"/>
-      <c r="U74" s="2" t="inlineStr">
+      <c r="U74" s="2" t="inlineStr"/>
+      <c r="V74" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000098</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>psychosis experience</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr"/>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
+DSM V</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr"/>
+      <c r="M75" s="2" t="inlineStr"/>
+      <c r="N75" s="2" t="inlineStr"/>
+      <c r="O75" s="2" t="inlineStr"/>
+      <c r="P75" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="inlineStr"/>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="inlineStr"/>
+      <c r="U75" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V74" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>GMHO:0000079</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>psychotic disorder symptom severity</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>symptom severity</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="3" t="inlineStr"/>
-      <c r="G75" s="3" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
-      <c r="I75" s="3" t="inlineStr"/>
-      <c r="J75" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K75" s="3" t="inlineStr"/>
-      <c r="L75" s="3" t="inlineStr"/>
-      <c r="M75" s="3" t="inlineStr"/>
-      <c r="N75" s="3" t="inlineStr"/>
-      <c r="O75" s="3" t="inlineStr"/>
-      <c r="P75" s="3" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q75" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="3" t="inlineStr"/>
-      <c r="S75" s="3" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="T75" s="3" t="inlineStr"/>
-      <c r="U75" s="3" t="inlineStr"/>
-      <c r="V75" s="3" t="inlineStr">
+      <c r="V75" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4879,22 +4871,22 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000135</t>
+          <t>GMHO:0000079</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>reward sensitivity</t>
+          <t>psychotic disorder symptom severity</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
         <is>
-          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
+          <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
         </is>
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>symptom severity</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
@@ -4902,7 +4894,11 @@
       <c r="G76" s="3" t="inlineStr"/>
       <c r="H76" s="3" t="inlineStr"/>
       <c r="I76" s="3" t="inlineStr"/>
-      <c r="J76" s="3" t="inlineStr"/>
+      <c r="J76" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K76" s="3" t="inlineStr"/>
       <c r="L76" s="3" t="inlineStr"/>
       <c r="M76" s="3" t="inlineStr"/>
@@ -4910,7 +4906,7 @@
       <c r="O76" s="3" t="inlineStr"/>
       <c r="P76" s="3" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q76" s="3" t="inlineStr">
@@ -4935,22 +4931,22 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000207</t>
+          <t>GMHO:0000135</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>reward sensitivity scale</t>
+          <t>reward sensitivity</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr">
         <is>
-          <t>A measurement scale that is used to measure reward sensitivity.</t>
+          <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
       <c r="D77" s="3" t="inlineStr">
         <is>
-          <t>measurement scale</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="E77" s="3" t="inlineStr"/>
@@ -4991,22 +4987,22 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>GMHO:0000208</t>
+          <t>GMHO:0000207</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>scale directionality</t>
+          <t>reward sensitivity scale</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+          <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
       <c r="D78" s="3" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>measurement scale</t>
         </is>
       </c>
       <c r="E78" s="3" t="inlineStr"/>
@@ -5045,196 +5041,192 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000208</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>scale directionality</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>information content entity</t>
+        </is>
+      </c>
+      <c r="E79" s="3" t="inlineStr"/>
+      <c r="F79" s="3" t="inlineStr"/>
+      <c r="G79" s="3" t="inlineStr"/>
+      <c r="H79" s="3" t="inlineStr"/>
+      <c r="I79" s="3" t="inlineStr"/>
+      <c r="J79" s="3" t="inlineStr"/>
+      <c r="K79" s="3" t="inlineStr"/>
+      <c r="L79" s="3" t="inlineStr"/>
+      <c r="M79" s="3" t="inlineStr"/>
+      <c r="N79" s="3" t="inlineStr"/>
+      <c r="O79" s="3" t="inlineStr"/>
+      <c r="P79" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q79" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R79" s="3" t="inlineStr"/>
+      <c r="S79" s="3" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="T79" s="3" t="inlineStr"/>
+      <c r="U79" s="3" t="inlineStr"/>
+      <c r="V79" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
+      <c r="D80" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
-      <c r="J79" s="2" t="inlineStr"/>
-      <c r="K79" s="2" t="inlineStr"/>
-      <c r="L79" s="2" t="inlineStr"/>
-      <c r="M79" s="2" t="inlineStr"/>
-      <c r="N79" s="2" t="inlineStr"/>
-      <c r="O79" s="2" t="inlineStr"/>
-      <c r="P79" s="2" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr"/>
+      <c r="I80" s="2" t="inlineStr"/>
+      <c r="J80" s="2" t="inlineStr"/>
+      <c r="K80" s="2" t="inlineStr"/>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
+      <c r="O80" s="2" t="inlineStr"/>
+      <c r="P80" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q79" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R79" s="2" t="inlineStr"/>
-      <c r="S79" s="2" t="inlineStr">
+      <c r="Q80" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R80" s="2" t="inlineStr"/>
+      <c r="S80" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T79" s="2" t="inlineStr"/>
-      <c r="U79" s="2" t="inlineStr">
+      <c r="T80" s="2" t="inlineStr"/>
+      <c r="U80" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V79" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="V80" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>OBCS:0000077</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr">
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr"/>
-      <c r="V80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000100</t>
-        </is>
-      </c>
-      <c r="B81" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation human age</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>Standard deviation of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>standard deviation</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr"/>
-      <c r="F81" s="2" t="inlineStr"/>
-      <c r="G81" s="2" t="inlineStr"/>
-      <c r="H81" s="2" t="inlineStr"/>
-      <c r="I81" s="2" t="inlineStr"/>
-      <c r="J81" s="2" t="inlineStr"/>
-      <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr"/>
-      <c r="M81" s="2" t="inlineStr"/>
-      <c r="N81" s="2" t="inlineStr"/>
-      <c r="O81" s="2" t="inlineStr"/>
-      <c r="P81" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q81" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R81" s="2" t="inlineStr"/>
-      <c r="S81" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T81" s="2" t="inlineStr"/>
-      <c r="U81" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V81" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000168</t>
+          <t>GMHO:0000100</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>substance use severity</t>
+          <t>standard deviation human age</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+          <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>data item</t>
+          <t>standard deviation</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr"/>
@@ -5250,7 +5242,7 @@
       <c r="O82" s="2" t="inlineStr"/>
       <c r="P82" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q82" s="2" t="inlineStr">
@@ -5265,7 +5257,11 @@
         </is>
       </c>
       <c r="T82" s="2" t="inlineStr"/>
-      <c r="U82" s="2" t="inlineStr"/>
+      <c r="U82" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V82" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -5273,240 +5269,296 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000168</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="inlineStr"/>
+      <c r="F83" s="2" t="inlineStr"/>
+      <c r="G83" s="2" t="inlineStr"/>
+      <c r="H83" s="2" t="inlineStr"/>
+      <c r="I83" s="2" t="inlineStr"/>
+      <c r="J83" s="2" t="inlineStr"/>
+      <c r="K83" s="2" t="inlineStr"/>
+      <c r="L83" s="2" t="inlineStr"/>
+      <c r="M83" s="2" t="inlineStr"/>
+      <c r="N83" s="2" t="inlineStr"/>
+      <c r="O83" s="2" t="inlineStr"/>
+      <c r="P83" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="inlineStr"/>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="inlineStr"/>
+      <c r="U83" s="2" t="inlineStr"/>
+      <c r="V83" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000087</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr"/>
-      <c r="F83" s="3" t="inlineStr"/>
-      <c r="G83" s="3" t="inlineStr"/>
-      <c r="H83" s="3" t="inlineStr"/>
-      <c r="I83" s="3" t="inlineStr"/>
-      <c r="J83" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K83" s="3" t="inlineStr"/>
-      <c r="L83" s="3" t="inlineStr"/>
-      <c r="M83" s="3" t="inlineStr"/>
-      <c r="N83" s="3" t="inlineStr"/>
-      <c r="O83" s="3" t="inlineStr"/>
-      <c r="P83" s="3" t="inlineStr">
+      <c r="E84" s="3" t="inlineStr"/>
+      <c r="F84" s="3" t="inlineStr"/>
+      <c r="G84" s="3" t="inlineStr"/>
+      <c r="H84" s="3" t="inlineStr"/>
+      <c r="I84" s="3" t="inlineStr"/>
+      <c r="J84" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="inlineStr"/>
+      <c r="L84" s="3" t="inlineStr"/>
+      <c r="M84" s="3" t="inlineStr"/>
+      <c r="N84" s="3" t="inlineStr"/>
+      <c r="O84" s="3" t="inlineStr"/>
+      <c r="P84" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q83" s="3" t="inlineStr">
+      <c r="Q84" s="3" t="inlineStr">
         <is>
           <t>Intervention population; Intervention outcome</t>
         </is>
       </c>
-      <c r="R83" s="3" t="inlineStr"/>
-      <c r="S83" s="3" t="inlineStr">
+      <c r="R84" s="3" t="inlineStr"/>
+      <c r="S84" s="3" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T83" s="3" t="inlineStr"/>
-      <c r="U83" s="3" t="inlineStr">
+      <c r="T84" s="3" t="inlineStr"/>
+      <c r="U84" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V83" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="V84" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr">
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr">
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="inlineStr">
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B85" s="2" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D85" s="2" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E85" s="2" t="inlineStr"/>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
-      <c r="H85" s="2" t="inlineStr"/>
-      <c r="I85" s="2" t="inlineStr"/>
-      <c r="J85" s="2" t="inlineStr"/>
-      <c r="K85" s="2" t="inlineStr"/>
-      <c r="L85" s="2" t="inlineStr"/>
-      <c r="M85" s="2" t="inlineStr"/>
-      <c r="N85" s="2" t="inlineStr"/>
-      <c r="O85" s="2" t="inlineStr"/>
-      <c r="P85" s="2" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr"/>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
+      <c r="H86" s="2" t="inlineStr"/>
+      <c r="I86" s="2" t="inlineStr"/>
+      <c r="J86" s="2" t="inlineStr"/>
+      <c r="K86" s="2" t="inlineStr"/>
+      <c r="L86" s="2" t="inlineStr"/>
+      <c r="M86" s="2" t="inlineStr"/>
+      <c r="N86" s="2" t="inlineStr"/>
+      <c r="O86" s="2" t="inlineStr"/>
+      <c r="P86" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q85" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R85" s="2" t="inlineStr"/>
-      <c r="S85" s="2" t="inlineStr">
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="inlineStr"/>
+      <c r="S86" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="T85" s="2" t="inlineStr"/>
-      <c r="U85" s="2" t="inlineStr"/>
-      <c r="V85" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="T86" s="2" t="inlineStr"/>
+      <c r="U86" s="2" t="inlineStr"/>
+      <c r="V86" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
         <is>
           <t>PATO:0000128</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>A physical quality inhering in a bearer that has mass near a gravitational body.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>force</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr">
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr">
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr">
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -39,17 +39,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="007fffd4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,144 +462,157 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Parent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Logical Definition</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Informal Definition</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Examples</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>Definition source</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Logical Definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Informal Definition</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Parent</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'part of'</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'has part'</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>REL 'is about'</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>LSR no.</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Ontology section</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Curator note</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'part of'</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'has part'</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>REL 'is about'</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>LSR no.</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Ontology section</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Examples</t>
-        </is>
-      </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>Curation status</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>To be reviewed by</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Reviewer query</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>Curator</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Curation status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>To be reviewed by</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Reviewer query</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0000352</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
         <is>
           <t>adult</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>A person who has reached maturity.</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="D2" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" s="2" t="n"/>
+      <c r="H2" s="2" t="n"/>
+      <c r="I2" s="2" t="n"/>
+      <c r="J2" s="2" t="n"/>
+      <c r="K2" s="2" t="n"/>
+      <c r="L2" s="2" t="n"/>
+      <c r="M2" s="2" t="n"/>
+      <c r="N2" s="2" t="n"/>
+      <c r="O2" s="2" t="n"/>
+      <c r="P2" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
+      <c r="Q2" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R2" s="2" t="n"/>
+      <c r="S2" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T2" s="2" t="n"/>
+      <c r="U2" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V2" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -619,14 +632,14 @@
           <t>A person who is in the latter end of their lifespan.</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n"/>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
@@ -648,188 +661,188 @@
       <c r="R3" s="2" t="n"/>
       <c r="S3" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T3" s="2" t="inlineStr">
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V3" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000255</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>aggregate symptom severity</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of aggregate symptom severity.</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="3" t="n"/>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="n"/>
+      <c r="L4" s="3" t="n"/>
+      <c r="M4" s="3" t="n"/>
+      <c r="N4" s="3" t="n"/>
+      <c r="O4" s="3" t="n"/>
+      <c r="P4" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q4" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R4" s="3" t="n"/>
+      <c r="S4" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U3" s="2" t="n"/>
-      <c r="V3" s="2" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000255</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>aggregate symptom severity</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>A data item that is about a collection of aggregate symptom severity.</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr"/>
-      <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr"/>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="inlineStr"/>
-      <c r="N4" s="2" t="inlineStr"/>
-      <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U4" s="2" t="inlineStr"/>
-      <c r="V4" s="2" t="inlineStr"/>
+      <c r="T4" s="3" t="n"/>
+      <c r="U4" s="3" t="n"/>
+      <c r="V4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000201</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>anhedonia scale</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="4" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure anhedonia symptom severity.</t>
         </is>
       </c>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="3" t="n"/>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="H5" s="3" t="n"/>
-      <c r="I5" s="3" t="n"/>
-      <c r="J5" s="3" t="n"/>
-      <c r="K5" s="3" t="n"/>
-      <c r="L5" s="3" t="n"/>
-      <c r="M5" s="3" t="n"/>
-      <c r="N5" s="3" t="n"/>
-      <c r="O5" s="3" t="n"/>
-      <c r="P5" s="3" t="inlineStr">
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="4" t="n"/>
+      <c r="G5" s="4" t="n"/>
+      <c r="H5" s="4" t="n"/>
+      <c r="I5" s="4" t="n"/>
+      <c r="J5" s="4" t="n"/>
+      <c r="K5" s="4" t="n"/>
+      <c r="L5" s="4" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="4" t="n"/>
+      <c r="O5" s="4" t="n"/>
+      <c r="P5" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q5" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R5" s="3" t="n"/>
-      <c r="S5" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T5" s="3" t="inlineStr">
+      <c r="Q5" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R5" s="4" t="n"/>
+      <c r="S5" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
+      <c r="T5" s="4" t="n"/>
+      <c r="U5" s="4" t="n"/>
+      <c r="V5" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000131</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>anhedonia symptom severity</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="4" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with anhedonia.</t>
         </is>
       </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="3" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="H6" s="3" t="n"/>
-      <c r="I6" s="3" t="n"/>
-      <c r="J6" s="3" t="n"/>
-      <c r="K6" s="3" t="n"/>
-      <c r="L6" s="3" t="n"/>
-      <c r="M6" s="3" t="n"/>
-      <c r="N6" s="3" t="n"/>
-      <c r="O6" s="3" t="n"/>
-      <c r="P6" s="3" t="inlineStr">
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="4" t="n"/>
+      <c r="G6" s="4" t="n"/>
+      <c r="H6" s="4" t="n"/>
+      <c r="I6" s="4" t="n"/>
+      <c r="J6" s="4" t="n"/>
+      <c r="K6" s="4" t="n"/>
+      <c r="L6" s="4" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="4" t="n"/>
+      <c r="O6" s="4" t="n"/>
+      <c r="P6" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q6" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R6" s="3" t="n"/>
-      <c r="S6" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T6" s="3" t="inlineStr">
+      <c r="Q6" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R6" s="4" t="n"/>
+      <c r="S6" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
+      <c r="T6" s="4" t="n"/>
+      <c r="U6" s="4" t="n"/>
+      <c r="V6" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
@@ -847,14 +860,14 @@
           <t>Diagnosis severity relating to an anxiety diagnosis.</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n"/>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis severity</t>
+        </is>
+      </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis severity</t>
-        </is>
-      </c>
+      <c r="G7" s="2" t="n"/>
       <c r="H7" s="2" t="n"/>
       <c r="I7" s="2" t="n"/>
       <c r="J7" s="2" t="n"/>
@@ -876,72 +889,72 @@
       <c r="R7" s="2" t="n"/>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T7" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="n"/>
       <c r="U7" s="2" t="n"/>
-      <c r="V7" s="2" t="n"/>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000202</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>anxiety scale</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure anxiety symptom severity.</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="3" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n"/>
-      <c r="I8" s="3" t="n"/>
-      <c r="J8" s="3" t="n"/>
-      <c r="K8" s="3" t="n"/>
-      <c r="L8" s="3" t="n"/>
-      <c r="M8" s="3" t="n"/>
-      <c r="N8" s="3" t="n"/>
-      <c r="O8" s="3" t="n"/>
-      <c r="P8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="n"/>
+      <c r="F8" s="4" t="n"/>
+      <c r="G8" s="4" t="n"/>
+      <c r="H8" s="4" t="n"/>
+      <c r="I8" s="4" t="n"/>
+      <c r="J8" s="4" t="n"/>
+      <c r="K8" s="4" t="n"/>
+      <c r="L8" s="4" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="4" t="n"/>
+      <c r="O8" s="4" t="n"/>
+      <c r="P8" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q8" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R8" s="3" t="n"/>
-      <c r="S8" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T8" s="3" t="inlineStr">
+      <c r="Q8" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R8" s="4" t="n"/>
+      <c r="S8" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
+      <c r="T8" s="4" t="n"/>
+      <c r="U8" s="4" t="n"/>
+      <c r="V8" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
@@ -959,14 +972,14 @@
           <t>A symptom that related to an anxiety diagnosis.</t>
         </is>
       </c>
-      <c r="D9" s="2" t="n"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
+      <c r="G9" s="2" t="n"/>
       <c r="H9" s="2" t="n"/>
       <c r="I9" s="2" t="n"/>
       <c r="J9" s="2" t="n"/>
@@ -988,72 +1001,72 @@
       <c r="R9" s="2" t="n"/>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="n"/>
       <c r="U9" s="2" t="n"/>
-      <c r="V9" s="2" t="n"/>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="inlineStr">
+      <c r="A10" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000143</t>
         </is>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>anxiety symptom severity</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="4" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with an anxiety symptom.</t>
         </is>
       </c>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="H10" s="3" t="n"/>
-      <c r="I10" s="3" t="n"/>
-      <c r="J10" s="3" t="n"/>
-      <c r="K10" s="3" t="n"/>
-      <c r="L10" s="3" t="n"/>
-      <c r="M10" s="3" t="n"/>
-      <c r="N10" s="3" t="n"/>
-      <c r="O10" s="3" t="n"/>
-      <c r="P10" s="3" t="inlineStr">
+      <c r="E10" s="4" t="n"/>
+      <c r="F10" s="4" t="n"/>
+      <c r="G10" s="4" t="n"/>
+      <c r="H10" s="4" t="n"/>
+      <c r="I10" s="4" t="n"/>
+      <c r="J10" s="4" t="n"/>
+      <c r="K10" s="4" t="n"/>
+      <c r="L10" s="4" t="n"/>
+      <c r="M10" s="4" t="n"/>
+      <c r="N10" s="4" t="n"/>
+      <c r="O10" s="4" t="n"/>
+      <c r="P10" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q10" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R10" s="3" t="n"/>
-      <c r="S10" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T10" s="3" t="inlineStr">
+      <c r="Q10" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R10" s="4" t="n"/>
+      <c r="S10" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U10" s="3" t="n"/>
-      <c r="V10" s="3" t="n"/>
+      <c r="T10" s="4" t="n"/>
+      <c r="U10" s="4" t="n"/>
+      <c r="V10" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
@@ -1071,21 +1084,21 @@
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for autism spectrum disorder as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D11" s="2" t="n"/>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>diagnosis</t>
+          <t>ASD diagnosis status</t>
         </is>
       </c>
       <c r="H11" s="2" t="n"/>
       <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>ASD diagnosis status</t>
-        </is>
-      </c>
+      <c r="J11" s="2" t="n"/>
       <c r="K11" s="2" t="n"/>
       <c r="L11" s="2" t="n"/>
       <c r="M11" s="2" t="n"/>
@@ -1104,16 +1117,16 @@
       <c r="R11" s="2" t="n"/>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T11" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="n"/>
       <c r="U11" s="2" t="n"/>
-      <c r="V11" s="2" t="n"/>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
@@ -1131,21 +1144,21 @@
           <t>Diagnosis severity relating to an autism spectrum disorder diagnosis.</t>
         </is>
       </c>
-      <c r="D12" s="2" t="n"/>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis severity</t>
+        </is>
+      </c>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>diagnosis severity</t>
+          <t>ASD severity</t>
         </is>
       </c>
       <c r="H12" s="2" t="n"/>
       <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>ASD severity</t>
-        </is>
-      </c>
+      <c r="J12" s="2" t="n"/>
       <c r="K12" s="2" t="n"/>
       <c r="L12" s="2" t="n"/>
       <c r="M12" s="2" t="n"/>
@@ -1164,16 +1177,16 @@
       <c r="R12" s="2" t="n"/>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T12" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="n"/>
       <c r="U12" s="2" t="n"/>
-      <c r="V12" s="2" t="n"/>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1191,12 +1204,12 @@
           <t>A data item that is produced as the output of an averaging data transformation and represents the average value of the input data.</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -1213,12 +1226,12 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1251,7 @@
           <t>A mental disposition to represent a proposition to be true.</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
@@ -1255,59 +1268,72 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>BCIO:015105</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="2" t="inlineStr">
         <is>
           <t>biological sex</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>A bodily quality based on reproductive function or organs.</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="D15" s="2" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="E15" s="2" t="n"/>
+      <c r="F15" s="2" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
+      <c r="I15" s="2" t="n"/>
+      <c r="J15" s="2" t="n"/>
+      <c r="K15" s="2" t="n"/>
+      <c r="L15" s="2" t="n"/>
+      <c r="M15" s="2" t="n"/>
+      <c r="N15" s="2" t="n"/>
+      <c r="O15" s="2" t="n"/>
+      <c r="P15" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="n"/>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="n"/>
+      <c r="U15" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1327,12 +1353,12 @@
           <t>A bodily disposition is a disposition that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -1349,12 +1375,12 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T16" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1400,14 @@
           <t xml:space="preserve">A person who has not yet reached maturity. </t>
         </is>
       </c>
-      <c r="D17" s="2" t="n"/>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
+      <c r="G17" s="2" t="n"/>
       <c r="H17" s="2" t="n"/>
       <c r="I17" s="2" t="n"/>
       <c r="J17" s="2" t="n"/>
@@ -1403,60 +1429,74 @@
       <c r="R17" s="2" t="n"/>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="n"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="n"/>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>Reused - but no ID yet</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>OGMS:0000123</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
         <is>
           <t>A data item that is about a patient and is the specified output of a health care process assay or diagnostic process.</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="D18" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
+      <c r="I18" s="2" t="n"/>
+      <c r="J18" s="2" t="n"/>
+      <c r="K18" s="2" t="n"/>
+      <c r="L18" s="2" t="n"/>
+      <c r="M18" s="2" t="n"/>
+      <c r="N18" s="2" t="n"/>
+      <c r="O18" s="2" t="n"/>
+      <c r="P18" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>External</t>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="n"/>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="n"/>
+      <c r="U18" s="2" t="n"/>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1476,14 +1516,14 @@
           <t>A clinical history in which there is a history of psychosis experience.</t>
         </is>
       </c>
-      <c r="D19" s="2" t="n"/>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>clinical history</t>
-        </is>
-      </c>
+      <c r="G19" s="2" t="n"/>
       <c r="H19" s="2" t="n"/>
       <c r="I19" s="2" t="n"/>
       <c r="J19" s="2" t="n"/>
@@ -1505,70 +1545,82 @@
       <c r="R19" s="2" t="n"/>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T19" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U19" s="2" t="n"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="n"/>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>OMIABIS:0001008</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>comorbidity</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
         <is>
           <t>A diagnosis that is the outcome of a diagnostic process targeting a second or additional health problem.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>OMIABIS:0001008</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="F20" s="2" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
+      <c r="I20" s="2" t="inlineStr">
         <is>
           <t>Relation between person and diagnosis needs to be specified</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="J20" s="2" t="n"/>
+      <c r="K20" s="2" t="n"/>
+      <c r="L20" s="2" t="n"/>
+      <c r="M20" s="2" t="n"/>
+      <c r="N20" s="2" t="n"/>
+      <c r="O20" s="2" t="n"/>
+      <c r="P20" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>External</t>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="n"/>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="n"/>
+      <c r="U20" s="2" t="n"/>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1588,7 +1640,7 @@
           <t>An information content entity that is intended to be a truthful statement about something (modulo, e.g., measurement precision or other systematic errors) and is constructed/acquired by a method which reliably tends to produce (approximately) truthful statements.</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
@@ -1605,70 +1657,70 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000146</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">depression data item </t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
+      <c r="C22" s="2" t="inlineStr">
         <is>
           <t>A measurement data item that is the recording of depression symptom severity.</t>
         </is>
       </c>
-      <c r="D22" s="4" t="n"/>
-      <c r="E22" s="4" t="n"/>
-      <c r="F22" s="4" t="n"/>
-      <c r="G22" s="4" t="inlineStr">
+      <c r="D22" s="2" t="inlineStr">
         <is>
           <t>measurement data item</t>
         </is>
       </c>
-      <c r="H22" s="4" t="n"/>
-      <c r="I22" s="4" t="n"/>
-      <c r="J22" s="4" t="n"/>
-      <c r="K22" s="4" t="n"/>
-      <c r="L22" s="4" t="n"/>
-      <c r="M22" s="4" t="n"/>
-      <c r="N22" s="4" t="n"/>
-      <c r="O22" s="4" t="n"/>
-      <c r="P22" s="4" t="inlineStr">
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
+      <c r="I22" s="2" t="n"/>
+      <c r="J22" s="2" t="n"/>
+      <c r="K22" s="2" t="n"/>
+      <c r="L22" s="2" t="n"/>
+      <c r="M22" s="2" t="n"/>
+      <c r="N22" s="2" t="n"/>
+      <c r="O22" s="2" t="n"/>
+      <c r="P22" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q22" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R22" s="4" t="n"/>
-      <c r="S22" s="4" t="inlineStr">
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="n"/>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="n"/>
+      <c r="U22" s="2" t="n"/>
+      <c r="V22" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
-      <c r="T22" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U22" s="4" t="n"/>
-      <c r="V22" s="4" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
@@ -1686,14 +1738,14 @@
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for depression as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D23" s="2" t="n"/>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>diagnosis</t>
+        </is>
+      </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>diagnosis</t>
-        </is>
-      </c>
+      <c r="G23" s="2" t="n"/>
       <c r="H23" s="2" t="n"/>
       <c r="I23" s="2" t="n"/>
       <c r="J23" s="2" t="n"/>
@@ -1711,16 +1763,16 @@
       <c r="R23" s="2" t="n"/>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T23" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="n"/>
       <c r="U23" s="2" t="n"/>
-      <c r="V23" s="2" t="n"/>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
@@ -1738,14 +1790,14 @@
           <t>A symptom that is related to a depression diagnosis.</t>
         </is>
       </c>
-      <c r="D24" s="2" t="n"/>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
+      <c r="G24" s="2" t="n"/>
       <c r="H24" s="2" t="n"/>
       <c r="I24" s="2" t="n"/>
       <c r="J24" s="2" t="n"/>
@@ -1759,121 +1811,134 @@
       <c r="R24" s="2" t="n"/>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T24" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="n"/>
       <c r="U24" s="2" t="n"/>
-      <c r="V24" s="2" t="n"/>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000062</t>
         </is>
       </c>
-      <c r="B25" s="3" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>depression symptom severity</t>
         </is>
       </c>
-      <c r="C25" s="3" t="inlineStr">
+      <c r="C25" s="4" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with a depression symptom.</t>
         </is>
       </c>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I25" s="3" t="n"/>
-      <c r="J25" s="3" t="n"/>
-      <c r="K25" s="3" t="n"/>
-      <c r="L25" s="3" t="n"/>
-      <c r="M25" s="3" t="n"/>
-      <c r="N25" s="3" t="n"/>
-      <c r="O25" s="3" t="n"/>
-      <c r="P25" s="3" t="inlineStr">
+      <c r="E25" s="4" t="n"/>
+      <c r="F25" s="4" t="n"/>
+      <c r="G25" s="4" t="n"/>
+      <c r="H25" s="4" t="n"/>
+      <c r="I25" s="4" t="n"/>
+      <c r="J25" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K25" s="4" t="n"/>
+      <c r="L25" s="4" t="n"/>
+      <c r="M25" s="4" t="n"/>
+      <c r="N25" s="4" t="n"/>
+      <c r="O25" s="4" t="n"/>
+      <c r="P25" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q25" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R25" s="3" t="n"/>
-      <c r="S25" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T25" s="3" t="inlineStr">
+      <c r="Q25" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R25" s="4" t="n"/>
+      <c r="S25" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U25" s="3" t="n"/>
-      <c r="V25" s="3" t="n"/>
+      <c r="T25" s="4" t="n"/>
+      <c r="U25" s="4" t="n"/>
+      <c r="V25" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>OGMS:0000073</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr">
         <is>
           <t>The representation of a conclusion of a diagnostic process.</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>clinical data item</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="E26" s="2" t="n"/>
+      <c r="F26" s="2" t="n"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
+      <c r="I26" s="2" t="n"/>
+      <c r="J26" s="2" t="n"/>
+      <c r="K26" s="2" t="n"/>
+      <c r="L26" s="2" t="n"/>
+      <c r="M26" s="2" t="n"/>
+      <c r="N26" s="2" t="n"/>
+      <c r="O26" s="2" t="n"/>
+      <c r="P26" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="n"/>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="n"/>
+      <c r="U26" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -1893,23 +1958,23 @@
           <t>A data item that is about the severity dimension associated with a diagnosis.</t>
         </is>
       </c>
-      <c r="D27" s="2" t="n"/>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
       <c r="E27" s="2" t="n"/>
       <c r="F27" s="2" t="n"/>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>data item</t>
-        </is>
-      </c>
+      <c r="G27" s="2" t="n"/>
       <c r="H27" s="2" t="n"/>
-      <c r="I27" s="2" t="n"/>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
+        </is>
+      </c>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="2" t="n"/>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>There are different scales for rating severity, which can be indicate differences in severity.</t>
-        </is>
-      </c>
+      <c r="L27" s="2" t="n"/>
       <c r="M27" s="2" t="n"/>
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
@@ -1926,16 +1991,16 @@
       <c r="R27" s="2" t="n"/>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T27" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="n"/>
       <c r="U27" s="2" t="n"/>
-      <c r="V27" s="2" t="n"/>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
@@ -1953,21 +2018,21 @@
           <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n"/>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>depression diagnosis</t>
+        </is>
+      </c>
       <c r="E28" s="2" t="n"/>
       <c r="F28" s="2" t="n"/>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>depression diagnosis</t>
+          <t>persistent depressive disorder diagnosis status</t>
         </is>
       </c>
       <c r="H28" s="2" t="n"/>
       <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
+      <c r="J28" s="2" t="n"/>
       <c r="K28" s="2" t="n"/>
       <c r="L28" s="2" t="n"/>
       <c r="M28" s="2" t="n"/>
@@ -1986,16 +2051,16 @@
       <c r="R28" s="2" t="n"/>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="n"/>
       <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="n"/>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
@@ -2013,14 +2078,14 @@
           <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n"/>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
+      <c r="G29" s="2" t="n"/>
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
@@ -2042,102 +2107,130 @@
       <c r="R29" s="2" t="n"/>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T29" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U29" s="2" t="n"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="n"/>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>Reused - but no ID yet</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>OBI:0500028</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>exclusion criterion</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="D30" s="2" t="inlineStr">
         <is>
           <t>eligibility criterion</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="E30" s="2" t="n"/>
+      <c r="F30" s="2" t="n"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
+      <c r="I30" s="2" t="n"/>
+      <c r="J30" s="2" t="n"/>
+      <c r="K30" s="2" t="n"/>
+      <c r="L30" s="2" t="n"/>
+      <c r="M30" s="2" t="n"/>
+      <c r="N30" s="2" t="n"/>
+      <c r="O30" s="2" t="n"/>
+      <c r="P30" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>External</t>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="n"/>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="n"/>
+      <c r="U30" s="2" t="n"/>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>BCIO:015106</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>female biological sex</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>A biological sex associated with the ability to produce female gametes.</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="D31" s="2" t="inlineStr">
         <is>
           <t>biological sex</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="E31" s="2" t="n"/>
+      <c r="F31" s="2" t="n"/>
+      <c r="G31" s="2" t="n"/>
+      <c r="H31" s="2" t="n"/>
+      <c r="I31" s="2" t="n"/>
+      <c r="J31" s="2" t="n"/>
+      <c r="K31" s="2" t="n"/>
+      <c r="L31" s="2" t="n"/>
+      <c r="M31" s="2" t="n"/>
+      <c r="N31" s="2" t="n"/>
+      <c r="O31" s="2" t="n"/>
+      <c r="P31" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>External</t>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="n"/>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="n"/>
+      <c r="U31" s="2" t="n"/>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2250,7 @@
           <t>The aggregate of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
@@ -2174,12 +2267,12 @@
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T32" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2199,14 +2292,14 @@
           <t>A gender identity as being female.</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n"/>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>gender identity</t>
+        </is>
+      </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
+      <c r="G33" s="2" t="n"/>
       <c r="H33" s="2" t="n"/>
       <c r="I33" s="2" t="n"/>
       <c r="J33" s="2" t="n"/>
@@ -2228,18 +2321,18 @@
       <c r="R33" s="2" t="n"/>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U33" s="2" t="n"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="n"/>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>Reused - but no ID yet</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2259,14 +2352,14 @@
           <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n"/>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>clinical history of psychosis experience</t>
+        </is>
+      </c>
       <c r="E34" s="2" t="n"/>
       <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>clinical history of psychosis experience</t>
-        </is>
-      </c>
+      <c r="G34" s="2" t="n"/>
       <c r="H34" s="2" t="n"/>
       <c r="I34" s="2" t="n"/>
       <c r="J34" s="2" t="n"/>
@@ -2288,16 +2381,16 @@
       <c r="R34" s="2" t="n"/>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T34" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="n"/>
       <c r="U34" s="2" t="n"/>
-      <c r="V34" s="2" t="n"/>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -2315,14 +2408,14 @@
           <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
-      <c r="D35" s="2" t="n"/>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
       <c r="E35" s="2" t="n"/>
       <c r="F35" s="2" t="n"/>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
+      <c r="G35" s="2" t="n"/>
       <c r="H35" s="2" t="n"/>
       <c r="I35" s="2" t="n"/>
       <c r="J35" s="2" t="n"/>
@@ -2344,65 +2437,78 @@
       <c r="R35" s="2" t="n"/>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T35" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U35" s="2" t="n"/>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="n"/>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>Reused - but no ID yet</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>BCIO:015015</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="2" t="inlineStr">
         <is>
           <t>human age</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="2" t="inlineStr">
         <is>
           <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="D36" s="2" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="E36" s="2" t="n"/>
+      <c r="F36" s="2" t="n"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
+      <c r="I36" s="2" t="n"/>
+      <c r="J36" s="2" t="n"/>
+      <c r="K36" s="2" t="n"/>
+      <c r="L36" s="2" t="n"/>
+      <c r="M36" s="2" t="n"/>
+      <c r="N36" s="2" t="n"/>
+      <c r="O36" s="2" t="n"/>
+      <c r="P36" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V36" t="inlineStr">
+      <c r="Q36" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="n"/>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="n"/>
+      <c r="U36" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2422,7 +2528,7 @@
           <t>The aggregate of human age in a population.</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
@@ -2439,74 +2545,74 @@
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="inlineStr">
+      <c r="A38" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000067</t>
         </is>
       </c>
-      <c r="B38" s="3" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>human functioning</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="4" t="inlineStr">
         <is>
           <t>A bodily disposition to realise processes that influence a person's life quality.</t>
         </is>
       </c>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
-      <c r="F38" s="3" t="n"/>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I38" s="3" t="n"/>
-      <c r="J38" s="3" t="n"/>
-      <c r="K38" s="3" t="n"/>
-      <c r="L38" s="3" t="n"/>
-      <c r="M38" s="3" t="n"/>
-      <c r="N38" s="3" t="n"/>
-      <c r="O38" s="3" t="n"/>
-      <c r="P38" s="3" t="inlineStr">
+      <c r="E38" s="4" t="n"/>
+      <c r="F38" s="4" t="n"/>
+      <c r="G38" s="4" t="n"/>
+      <c r="H38" s="4" t="n"/>
+      <c r="I38" s="4" t="n"/>
+      <c r="J38" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K38" s="4" t="n"/>
+      <c r="L38" s="4" t="n"/>
+      <c r="M38" s="4" t="n"/>
+      <c r="N38" s="4" t="n"/>
+      <c r="O38" s="4" t="n"/>
+      <c r="P38" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" s="3" t="n"/>
-      <c r="S38" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T38" s="3" t="inlineStr">
+      <c r="Q38" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R38" s="4" t="n"/>
+      <c r="S38" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U38" s="3" t="n"/>
-      <c r="V38" s="3" t="n"/>
+      <c r="T38" s="4" t="n"/>
+      <c r="U38" s="4" t="n"/>
+      <c r="V38" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2524,24 +2630,24 @@
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
           <t>MS</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>External</t>
         </is>
       </c>
     </row>
@@ -2561,7 +2667,7 @@
           <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>eligibility criterion</t>
         </is>
@@ -2578,12 +2684,12 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2603,12 +2709,12 @@
           <t>A generically dependent continuant that is about some thing.</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -2625,70 +2731,70 @@
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000150</t>
         </is>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="C42" s="2" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
-      <c r="D42" s="2" t="n"/>
-      <c r="E42" s="2" t="n"/>
-      <c r="F42" s="2" t="n"/>
-      <c r="G42" s="2" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="H42" s="2" t="n"/>
-      <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
-      <c r="K42" s="2" t="n"/>
-      <c r="L42" s="2" t="n"/>
-      <c r="M42" s="2" t="n"/>
-      <c r="N42" s="2" t="n"/>
-      <c r="O42" s="2" t="n"/>
-      <c r="P42" s="2" t="inlineStr">
+      <c r="E42" s="3" t="n"/>
+      <c r="F42" s="3" t="n"/>
+      <c r="G42" s="3" t="n"/>
+      <c r="H42" s="3" t="n"/>
+      <c r="I42" s="3" t="n"/>
+      <c r="J42" s="3" t="n"/>
+      <c r="K42" s="3" t="n"/>
+      <c r="L42" s="3" t="n"/>
+      <c r="M42" s="3" t="n"/>
+      <c r="N42" s="3" t="n"/>
+      <c r="O42" s="3" t="n"/>
+      <c r="P42" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="n"/>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
+      <c r="Q42" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" s="3" t="n"/>
+      <c r="S42" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U42" s="2" t="n"/>
-      <c r="V42" s="2" t="n"/>
+      <c r="T42" s="3" t="n"/>
+      <c r="U42" s="3" t="n"/>
+      <c r="V42" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2706,12 +2812,12 @@
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -2728,71 +2834,71 @@
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D44" s="2" t="n"/>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="inlineStr">
+      <c r="D44" s="3" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
         </is>
       </c>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="inlineStr">
+      <c r="E44" s="3" t="n"/>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
+      <c r="H44" s="3" t="n"/>
+      <c r="I44" s="3" t="n"/>
+      <c r="J44" s="3" t="n"/>
+      <c r="K44" s="3" t="n"/>
+      <c r="L44" s="3" t="n"/>
+      <c r="M44" s="3" t="n"/>
+      <c r="N44" s="3" t="n"/>
+      <c r="O44" s="3" t="n"/>
+      <c r="P44" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="inlineStr">
+      <c r="Q44" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R44" s="3" t="n"/>
+      <c r="S44" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="n"/>
+      <c r="T44" s="3" t="n"/>
+      <c r="U44" s="3" t="n"/>
+      <c r="V44" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2810,7 +2916,7 @@
           <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>biological sex</t>
         </is>
@@ -2827,12 +2933,12 @@
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -2852,12 +2958,12 @@
           <t>The mean of human age in a population.</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>human age population statistic</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -2874,17 +2980,17 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
           <t>PS; MS</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
     </row>
@@ -2904,7 +3010,7 @@
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
@@ -2921,70 +3027,70 @@
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="inlineStr">
+      <c r="A48" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B48" s="3" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C48" s="3" t="inlineStr">
+      <c r="C48" s="4" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="3" t="n"/>
-      <c r="F48" s="3" t="n"/>
-      <c r="G48" s="3" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="H48" s="3" t="n"/>
-      <c r="I48" s="3" t="n"/>
-      <c r="J48" s="3" t="n"/>
-      <c r="K48" s="3" t="n"/>
-      <c r="L48" s="3" t="n"/>
-      <c r="M48" s="3" t="n"/>
-      <c r="N48" s="3" t="n"/>
-      <c r="O48" s="3" t="n"/>
-      <c r="P48" s="3" t="inlineStr">
+      <c r="E48" s="4" t="n"/>
+      <c r="F48" s="4" t="n"/>
+      <c r="G48" s="4" t="n"/>
+      <c r="H48" s="4" t="n"/>
+      <c r="I48" s="4" t="n"/>
+      <c r="J48" s="4" t="n"/>
+      <c r="K48" s="4" t="n"/>
+      <c r="L48" s="4" t="n"/>
+      <c r="M48" s="4" t="n"/>
+      <c r="N48" s="4" t="n"/>
+      <c r="O48" s="4" t="n"/>
+      <c r="P48" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="3" t="n"/>
-      <c r="S48" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T48" s="3" t="inlineStr">
+      <c r="Q48" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R48" s="4" t="n"/>
+      <c r="S48" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U48" s="3" t="n"/>
-      <c r="V48" s="3" t="n"/>
+      <c r="T48" s="4" t="n"/>
+      <c r="U48" s="4" t="n"/>
+      <c r="V48" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3002,77 +3108,77 @@
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="inlineStr">
+      <c r="A50" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B50" s="3" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="4" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="3" t="n"/>
-      <c r="F50" s="3" t="n"/>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="H50" s="3" t="n"/>
-      <c r="I50" s="3" t="n"/>
-      <c r="J50" s="3" t="n"/>
-      <c r="K50" s="3" t="n"/>
-      <c r="L50" s="3" t="n"/>
-      <c r="M50" s="3" t="n"/>
-      <c r="N50" s="3" t="n"/>
-      <c r="O50" s="3" t="n"/>
-      <c r="P50" s="3" t="inlineStr">
+      <c r="E50" s="4" t="n"/>
+      <c r="F50" s="4" t="n"/>
+      <c r="G50" s="4" t="n"/>
+      <c r="H50" s="4" t="n"/>
+      <c r="I50" s="4" t="n"/>
+      <c r="J50" s="4" t="n"/>
+      <c r="K50" s="4" t="n"/>
+      <c r="L50" s="4" t="n"/>
+      <c r="M50" s="4" t="n"/>
+      <c r="N50" s="4" t="n"/>
+      <c r="O50" s="4" t="n"/>
+      <c r="P50" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q50" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R50" s="3" t="n"/>
-      <c r="S50" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T50" s="3" t="inlineStr">
+      <c r="Q50" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R50" s="4" t="n"/>
+      <c r="S50" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U50" s="3" t="n"/>
-      <c r="V50" s="3" t="n"/>
+      <c r="T50" s="4" t="n"/>
+      <c r="U50" s="4" t="n"/>
+      <c r="V50" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3090,7 +3196,7 @@
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
@@ -3107,12 +3213,12 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -3132,7 +3238,7 @@
           <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
@@ -3149,1268 +3255,1268 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="inlineStr">
+      <c r="A53" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000070</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>negative psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C53" s="3" t="inlineStr">
+      <c r="C53" s="4" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with negative psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
-      <c r="F53" s="3" t="n"/>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="H53" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I53" s="3" t="n"/>
-      <c r="J53" s="3" t="n"/>
-      <c r="K53" s="3" t="n"/>
-      <c r="L53" s="3" t="n"/>
-      <c r="M53" s="3" t="n"/>
-      <c r="N53" s="3" t="n"/>
-      <c r="O53" s="3" t="n"/>
-      <c r="P53" s="3" t="inlineStr">
+      <c r="E53" s="4" t="n"/>
+      <c r="F53" s="4" t="n"/>
+      <c r="G53" s="4" t="n"/>
+      <c r="H53" s="4" t="n"/>
+      <c r="I53" s="4" t="n"/>
+      <c r="J53" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K53" s="4" t="n"/>
+      <c r="L53" s="4" t="n"/>
+      <c r="M53" s="4" t="n"/>
+      <c r="N53" s="4" t="n"/>
+      <c r="O53" s="4" t="n"/>
+      <c r="P53" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q53" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R53" s="3" t="n"/>
-      <c r="S53" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T53" s="3" t="inlineStr">
+      <c r="Q53" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R53" s="4" t="n"/>
+      <c r="S53" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U53" s="3" t="n"/>
-      <c r="V53" s="3" t="n"/>
+      <c r="T53" s="4" t="n"/>
+      <c r="U53" s="4" t="n"/>
+      <c r="V53" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000213</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>number of female biological sex</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>The number of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
-      <c r="F54" s="3" t="n"/>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I54" s="3" t="n"/>
-      <c r="J54" s="3" t="n"/>
-      <c r="K54" s="3" t="n"/>
-      <c r="L54" s="3" t="n"/>
-      <c r="M54" s="3" t="n"/>
-      <c r="N54" s="3" t="n"/>
-      <c r="O54" s="3" t="n"/>
-      <c r="P54" s="3" t="inlineStr">
+      <c r="E54" s="4" t="n"/>
+      <c r="F54" s="4" t="n"/>
+      <c r="G54" s="4" t="n"/>
+      <c r="H54" s="4" t="n"/>
+      <c r="I54" s="4" t="n"/>
+      <c r="J54" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K54" s="4" t="n"/>
+      <c r="L54" s="4" t="n"/>
+      <c r="M54" s="4" t="n"/>
+      <c r="N54" s="4" t="n"/>
+      <c r="O54" s="4" t="n"/>
+      <c r="P54" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q54" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R54" s="3" t="n"/>
-      <c r="S54" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T54" s="3" t="inlineStr">
+      <c r="Q54" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R54" s="4" t="n"/>
+      <c r="S54" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U54" s="3" t="n"/>
-      <c r="V54" s="3" t="n"/>
+      <c r="T54" s="4" t="n"/>
+      <c r="U54" s="4" t="n"/>
+      <c r="V54" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000152</t>
         </is>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>A data item that is about the number of participants in an intervention or part of an intervention at a timepoint.</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n"/>
-      <c r="E55" s="2" t="n"/>
-      <c r="F55" s="2" t="n"/>
-      <c r="G55" s="2" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H55" s="2" t="n"/>
-      <c r="I55" s="2" t="n"/>
-      <c r="J55" s="2" t="n"/>
-      <c r="K55" s="2" t="n"/>
-      <c r="L55" s="2" t="n"/>
-      <c r="M55" s="2" t="n"/>
-      <c r="N55" s="2" t="n"/>
-      <c r="O55" s="2" t="n"/>
-      <c r="P55" s="2" t="inlineStr">
+      <c r="E55" s="3" t="n"/>
+      <c r="F55" s="3" t="n"/>
+      <c r="G55" s="3" t="n"/>
+      <c r="H55" s="3" t="n"/>
+      <c r="I55" s="3" t="n"/>
+      <c r="J55" s="3" t="n"/>
+      <c r="K55" s="3" t="n"/>
+      <c r="L55" s="3" t="n"/>
+      <c r="M55" s="3" t="n"/>
+      <c r="N55" s="3" t="n"/>
+      <c r="O55" s="3" t="n"/>
+      <c r="P55" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q55" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R55" s="2" t="n"/>
-      <c r="S55" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T55" s="2" t="inlineStr">
+      <c r="Q55" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R55" s="3" t="n"/>
+      <c r="S55" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U55" s="2" t="n"/>
-      <c r="V55" s="2" t="n"/>
+      <c r="T55" s="3" t="n"/>
+      <c r="U55" s="3" t="n"/>
+      <c r="V55" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000153</t>
         </is>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>number of participants in intervention arm</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n"/>
-      <c r="E56" s="2" t="n"/>
-      <c r="F56" s="2" t="n"/>
-      <c r="G56" s="2" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="H56" s="2" t="n"/>
-      <c r="I56" s="2" t="n"/>
-      <c r="J56" s="2" t="n"/>
-      <c r="K56" s="2" t="n"/>
-      <c r="L56" s="2" t="n"/>
-      <c r="M56" s="2" t="n"/>
-      <c r="N56" s="2" t="n"/>
-      <c r="O56" s="2" t="n"/>
-      <c r="P56" s="2" t="inlineStr">
+      <c r="E56" s="3" t="n"/>
+      <c r="F56" s="3" t="n"/>
+      <c r="G56" s="3" t="n"/>
+      <c r="H56" s="3" t="n"/>
+      <c r="I56" s="3" t="n"/>
+      <c r="J56" s="3" t="n"/>
+      <c r="K56" s="3" t="n"/>
+      <c r="L56" s="3" t="n"/>
+      <c r="M56" s="3" t="n"/>
+      <c r="N56" s="3" t="n"/>
+      <c r="O56" s="3" t="n"/>
+      <c r="P56" s="3" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q56" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R56" s="2" t="n"/>
-      <c r="S56" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T56" s="2" t="inlineStr">
+      <c r="Q56" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R56" s="3" t="n"/>
+      <c r="S56" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U56" s="2" t="n"/>
-      <c r="V56" s="2" t="n"/>
+      <c r="T56" s="3" t="n"/>
+      <c r="U56" s="3" t="n"/>
+      <c r="V56" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="inlineStr">
+      <c r="A57" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">GMHO:0000206
 </t>
         </is>
       </c>
-      <c r="B57" s="3" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>number of participants with measurement</t>
         </is>
       </c>
-      <c r="C57" s="3" t="inlineStr">
+      <c r="C57" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants for whom a measurement was made.</t>
         </is>
       </c>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="3" t="n"/>
-      <c r="F57" s="3" t="n"/>
-      <c r="G57" s="3" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="H57" s="3" t="n"/>
-      <c r="I57" s="3" t="n"/>
-      <c r="J57" s="3" t="n"/>
-      <c r="K57" s="3" t="n"/>
-      <c r="L57" s="3" t="n"/>
-      <c r="M57" s="3" t="n"/>
-      <c r="N57" s="3" t="n"/>
-      <c r="O57" s="3" t="n"/>
-      <c r="P57" s="3" t="inlineStr">
+      <c r="E57" s="4" t="n"/>
+      <c r="F57" s="4" t="n"/>
+      <c r="G57" s="4" t="n"/>
+      <c r="H57" s="4" t="n"/>
+      <c r="I57" s="4" t="n"/>
+      <c r="J57" s="4" t="n"/>
+      <c r="K57" s="4" t="n"/>
+      <c r="L57" s="4" t="n"/>
+      <c r="M57" s="4" t="n"/>
+      <c r="N57" s="4" t="n"/>
+      <c r="O57" s="4" t="n"/>
+      <c r="P57" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q57" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R57" s="3" t="n"/>
-      <c r="S57" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T57" s="3" t="inlineStr">
+      <c r="Q57" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R57" s="4" t="n"/>
+      <c r="S57" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U57" s="3" t="n"/>
-      <c r="V57" s="3" t="n"/>
+      <c r="T57" s="4" t="n"/>
+      <c r="U57" s="4" t="n"/>
+      <c r="V57" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000154</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>number of randomised intervention participants</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C58" s="4" t="inlineStr">
         <is>
           <t>Number of intervention participants who were randomly allocated to study arms within an intervention.</t>
         </is>
       </c>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
-      <c r="F58" s="3" t="n"/>
-      <c r="G58" s="3" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="H58" s="3" t="n"/>
-      <c r="I58" s="3" t="n"/>
-      <c r="J58" s="3" t="n"/>
-      <c r="K58" s="3" t="n"/>
-      <c r="L58" s="3" t="n"/>
-      <c r="M58" s="3" t="n"/>
-      <c r="N58" s="3" t="n"/>
-      <c r="O58" s="3" t="n"/>
-      <c r="P58" s="3" t="inlineStr">
+      <c r="E58" s="4" t="n"/>
+      <c r="F58" s="4" t="n"/>
+      <c r="G58" s="4" t="n"/>
+      <c r="H58" s="4" t="n"/>
+      <c r="I58" s="4" t="n"/>
+      <c r="J58" s="4" t="n"/>
+      <c r="K58" s="4" t="n"/>
+      <c r="L58" s="4" t="n"/>
+      <c r="M58" s="4" t="n"/>
+      <c r="N58" s="4" t="n"/>
+      <c r="O58" s="4" t="n"/>
+      <c r="P58" s="4" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q58" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R58" s="3" t="n"/>
-      <c r="S58" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T58" s="3" t="inlineStr">
+      <c r="Q58" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R58" s="4" t="n"/>
+      <c r="S58" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U58" s="3" t="n"/>
-      <c r="V58" s="3" t="n"/>
+      <c r="T58" s="4" t="n"/>
+      <c r="U58" s="4" t="n"/>
+      <c r="V58" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="inlineStr">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000078</t>
         </is>
       </c>
-      <c r="B59" s="3" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>positive psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C59" s="3" t="inlineStr">
+      <c r="C59" s="4" t="inlineStr">
         <is>
           <t>Psychotic disorder symptom severity that is associated with positive psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="3" t="n"/>
-      <c r="F59" s="3" t="n"/>
-      <c r="G59" s="3" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="H59" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I59" s="3" t="n"/>
-      <c r="J59" s="3" t="n"/>
-      <c r="K59" s="3" t="n"/>
-      <c r="L59" s="3" t="n"/>
-      <c r="M59" s="3" t="n"/>
-      <c r="N59" s="3" t="n"/>
-      <c r="O59" s="3" t="n"/>
-      <c r="P59" s="3" t="inlineStr">
+      <c r="E59" s="4" t="n"/>
+      <c r="F59" s="4" t="n"/>
+      <c r="G59" s="4" t="n"/>
+      <c r="H59" s="4" t="n"/>
+      <c r="I59" s="4" t="n"/>
+      <c r="J59" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K59" s="4" t="n"/>
+      <c r="L59" s="4" t="n"/>
+      <c r="M59" s="4" t="n"/>
+      <c r="N59" s="4" t="n"/>
+      <c r="O59" s="4" t="n"/>
+      <c r="P59" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q59" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R59" s="3" t="n"/>
-      <c r="S59" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T59" s="3" t="inlineStr">
+      <c r="Q59" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R59" s="4" t="n"/>
+      <c r="S59" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U59" s="3" t="n"/>
-      <c r="V59" s="3" t="n"/>
+      <c r="T59" s="4" t="n"/>
+      <c r="U59" s="4" t="n"/>
+      <c r="V59" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
+      <c r="A60" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000156</t>
         </is>
       </c>
-      <c r="B60" s="2" t="inlineStr">
+      <c r="B60" s="3" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
-      <c r="C60" s="2" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D60" s="2" t="n"/>
-      <c r="E60" s="2" t="n"/>
-      <c r="F60" s="2" t="n"/>
-      <c r="G60" s="2" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="H60" s="2" t="n"/>
-      <c r="I60" s="2" t="n"/>
-      <c r="J60" s="2" t="inlineStr">
+      <c r="E60" s="3" t="n"/>
+      <c r="F60" s="3" t="n"/>
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>PTSD diagnosis status</t>
         </is>
       </c>
-      <c r="K60" s="2" t="n"/>
-      <c r="L60" s="2" t="n"/>
-      <c r="M60" s="2" t="n"/>
-      <c r="N60" s="2" t="n"/>
-      <c r="O60" s="2" t="n"/>
-      <c r="P60" s="2" t="inlineStr">
+      <c r="H60" s="3" t="n"/>
+      <c r="I60" s="3" t="n"/>
+      <c r="J60" s="3" t="n"/>
+      <c r="K60" s="3" t="n"/>
+      <c r="L60" s="3" t="n"/>
+      <c r="M60" s="3" t="n"/>
+      <c r="N60" s="3" t="n"/>
+      <c r="O60" s="3" t="n"/>
+      <c r="P60" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="2" t="n"/>
-      <c r="S60" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T60" s="2" t="inlineStr">
+      <c r="Q60" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="3" t="n"/>
+      <c r="S60" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U60" s="2" t="n"/>
-      <c r="V60" s="2" t="n"/>
+      <c r="T60" s="3" t="n"/>
+      <c r="U60" s="3" t="n"/>
+      <c r="V60" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000155</t>
         </is>
       </c>
-      <c r="B61" s="2" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="C61" s="2" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
-      <c r="D61" s="2" t="n"/>
-      <c r="E61" s="2" t="n"/>
-      <c r="F61" s="2" t="n"/>
-      <c r="G61" s="2" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>diagnosis severity</t>
         </is>
       </c>
-      <c r="H61" s="2" t="n"/>
-      <c r="I61" s="2" t="n"/>
-      <c r="J61" s="2" t="inlineStr">
+      <c r="E61" s="3" t="n"/>
+      <c r="F61" s="3" t="n"/>
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>PTSD severity</t>
         </is>
       </c>
-      <c r="K61" s="2" t="n"/>
-      <c r="L61" s="2" t="n"/>
-      <c r="M61" s="2" t="n"/>
-      <c r="N61" s="2" t="n"/>
-      <c r="O61" s="2" t="n"/>
-      <c r="P61" s="2" t="inlineStr">
+      <c r="H61" s="3" t="n"/>
+      <c r="I61" s="3" t="n"/>
+      <c r="J61" s="3" t="n"/>
+      <c r="K61" s="3" t="n"/>
+      <c r="L61" s="3" t="n"/>
+      <c r="M61" s="3" t="n"/>
+      <c r="N61" s="3" t="n"/>
+      <c r="O61" s="3" t="n"/>
+      <c r="P61" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q61" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" s="2" t="n"/>
-      <c r="S61" s="2" t="inlineStr">
+      <c r="Q61" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="3" t="n"/>
+      <c r="S61" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T61" s="3" t="n"/>
+      <c r="U61" s="3" t="n"/>
+      <c r="V61" s="3" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
       </c>
-      <c r="T61" s="2" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000157</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder severity measurement item</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>measurement data item</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n"/>
+      <c r="F62" s="2" t="n"/>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>PTSD measurement item</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="n"/>
+      <c r="I62" s="2" t="n"/>
+      <c r="J62" s="2" t="n"/>
+      <c r="K62" s="2" t="n"/>
+      <c r="L62" s="2" t="n"/>
+      <c r="M62" s="2" t="n"/>
+      <c r="N62" s="2" t="n"/>
+      <c r="O62" s="2" t="n"/>
+      <c r="P62" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q62" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R62" s="2" t="n"/>
+      <c r="S62" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T62" s="2" t="n"/>
+      <c r="U62" s="2" t="n"/>
+      <c r="V62" s="2" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000158</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>pre-intervention anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>Anxiety symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>anxiety symptom severity</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
+      <c r="I63" s="2" t="n"/>
+      <c r="J63" s="2" t="n"/>
+      <c r="K63" s="2" t="n"/>
+      <c r="L63" s="2" t="n"/>
+      <c r="M63" s="2" t="n"/>
+      <c r="N63" s="2" t="n"/>
+      <c r="O63" s="2" t="n"/>
+      <c r="P63" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q63" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R63" s="2" t="n"/>
+      <c r="S63" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T63" s="2" t="n"/>
+      <c r="U63" s="2" t="n"/>
+      <c r="V63" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000159</t>
+        </is>
+      </c>
+      <c r="B64" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>autism spectrum disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n"/>
+      <c r="G64" s="3" t="inlineStr">
+        <is>
+          <t>baseline ASD severity</t>
+        </is>
+      </c>
+      <c r="H64" s="3" t="n"/>
+      <c r="I64" s="3" t="n"/>
+      <c r="J64" s="3" t="n"/>
+      <c r="K64" s="3" t="n"/>
+      <c r="L64" s="3" t="n"/>
+      <c r="M64" s="3" t="n"/>
+      <c r="N64" s="3" t="n"/>
+      <c r="O64" s="3" t="n"/>
+      <c r="P64" s="3" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q64" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="3" t="n"/>
+      <c r="S64" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U61" s="2" t="n"/>
-      <c r="V61" s="2" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000157</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder severity measurement item</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>A measurement data item that is the recording of post-traumatic stress disorder severity level.</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="n"/>
-      <c r="E62" s="4" t="n"/>
-      <c r="F62" s="4" t="n"/>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>measurement data item</t>
-        </is>
-      </c>
-      <c r="H62" s="4" t="n"/>
-      <c r="I62" s="4" t="n"/>
-      <c r="J62" s="4" t="inlineStr">
-        <is>
-          <t>PTSD measurement item</t>
-        </is>
-      </c>
-      <c r="K62" s="4" t="n"/>
-      <c r="L62" s="4" t="n"/>
-      <c r="M62" s="4" t="n"/>
-      <c r="N62" s="4" t="n"/>
-      <c r="O62" s="4" t="n"/>
-      <c r="P62" s="4" t="inlineStr">
+      <c r="T64" s="3" t="n"/>
+      <c r="U64" s="3" t="n"/>
+      <c r="V64" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000160</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention depression symptom severity</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="inlineStr">
+        <is>
+          <t>Depression symptom severity before an intervention starts.</t>
+        </is>
+      </c>
+      <c r="D65" s="3" t="inlineStr">
+        <is>
+          <t>depression symptom severity</t>
+        </is>
+      </c>
+      <c r="E65" s="3" t="inlineStr">
+        <is>
+          <t>"depression symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n"/>
+      <c r="G65" s="3" t="n"/>
+      <c r="H65" s="3" t="n"/>
+      <c r="I65" s="3" t="n"/>
+      <c r="J65" s="3" t="n"/>
+      <c r="K65" s="3" t="n"/>
+      <c r="L65" s="3" t="n"/>
+      <c r="M65" s="3" t="n"/>
+      <c r="N65" s="3" t="n"/>
+      <c r="O65" s="3" t="n"/>
+      <c r="P65" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2</t>
+        </is>
+      </c>
+      <c r="Q65" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="3" t="n"/>
+      <c r="S65" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T65" s="3" t="n"/>
+      <c r="U65" s="3" t="n"/>
+      <c r="V65" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000161</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention insomnia severity</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="inlineStr">
+        <is>
+          <t>Insomnia symptom severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D66" s="3" t="inlineStr">
+        <is>
+          <t>insomnia symptom severity</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n"/>
+      <c r="G66" s="3" t="n"/>
+      <c r="H66" s="3" t="n"/>
+      <c r="I66" s="3" t="n"/>
+      <c r="J66" s="3" t="n"/>
+      <c r="K66" s="3" t="n"/>
+      <c r="L66" s="3" t="n"/>
+      <c r="M66" s="3" t="n"/>
+      <c r="N66" s="3" t="n"/>
+      <c r="O66" s="3" t="n"/>
+      <c r="P66" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q62" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R62" s="4" t="n"/>
-      <c r="S62" s="4" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
-        </is>
-      </c>
-      <c r="T62" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U62" s="4" t="n"/>
-      <c r="V62" s="4" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="4" t="inlineStr">
-        <is>
-          <t>GMHO:0000158</t>
-        </is>
-      </c>
-      <c r="B63" s="4" t="inlineStr">
-        <is>
-          <t>pre-intervention anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="C63" s="4" t="inlineStr">
-        <is>
-          <t>Anxiety symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D63" s="4" t="n"/>
-      <c r="E63" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "anxiety symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F63" s="4" t="n"/>
-      <c r="G63" s="4" t="inlineStr">
-        <is>
-          <t>anxiety symptom severity</t>
-        </is>
-      </c>
-      <c r="H63" s="4" t="n"/>
-      <c r="I63" s="4" t="n"/>
-      <c r="J63" s="4" t="n"/>
-      <c r="K63" s="4" t="n"/>
-      <c r="L63" s="4" t="n"/>
-      <c r="M63" s="4" t="n"/>
-      <c r="N63" s="4" t="n"/>
-      <c r="O63" s="4" t="n"/>
-      <c r="P63" s="4" t="inlineStr">
+      <c r="Q66" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="3" t="n"/>
+      <c r="S66" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T66" s="3" t="n"/>
+      <c r="U66" s="3" t="n"/>
+      <c r="V66" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000162</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention personal attribute</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="inlineStr">
+        <is>
+          <t>Personal attribute before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D67" s="3" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E67" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F67" s="3" t="n"/>
+      <c r="G67" s="3" t="inlineStr">
+        <is>
+          <t>Baseline clinical variable, baseline variable</t>
+        </is>
+      </c>
+      <c r="H67" s="3" t="n"/>
+      <c r="I67" s="3" t="n"/>
+      <c r="J67" s="3" t="n"/>
+      <c r="K67" s="3" t="inlineStr">
+        <is>
+          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
+        </is>
+      </c>
+      <c r="L67" s="3" t="n"/>
+      <c r="M67" s="3" t="n"/>
+      <c r="N67" s="3" t="n"/>
+      <c r="O67" s="3" t="n"/>
+      <c r="P67" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q63" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R63" s="4" t="n"/>
-      <c r="S63" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T63" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="U63" s="4" t="n"/>
-      <c r="V63" s="4" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000159</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr">
-        <is>
-          <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D64" s="2" t="n"/>
-      <c r="E64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="n"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>autism spectrum disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="n"/>
-      <c r="I64" s="2" t="n"/>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t>baseline ASD severity</t>
-        </is>
-      </c>
-      <c r="K64" s="2" t="n"/>
-      <c r="L64" s="2" t="n"/>
-      <c r="M64" s="2" t="n"/>
-      <c r="N64" s="2" t="n"/>
-      <c r="O64" s="2" t="n"/>
-      <c r="P64" s="2" t="inlineStr">
+      <c r="Q67" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="3" t="n"/>
+      <c r="S67" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T67" s="3" t="n"/>
+      <c r="U67" s="3" t="n"/>
+      <c r="V67" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000163</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D68" s="3" t="inlineStr">
+        <is>
+          <t>post-traumatic stress disorder diagnosis severity</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F68" s="3" t="n"/>
+      <c r="G68" s="3" t="inlineStr">
+        <is>
+          <t>baseline PTSD severity</t>
+        </is>
+      </c>
+      <c r="H68" s="3" t="n"/>
+      <c r="I68" s="3" t="n"/>
+      <c r="J68" s="3" t="n"/>
+      <c r="K68" s="3" t="n"/>
+      <c r="L68" s="3" t="n"/>
+      <c r="M68" s="3" t="n"/>
+      <c r="N68" s="3" t="n"/>
+      <c r="O68" s="3" t="n"/>
+      <c r="P68" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q64" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="2" t="n"/>
-      <c r="S64" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T64" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U64" s="2" t="n"/>
-      <c r="V64" s="2" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000160</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention depression symptom severity</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr">
-        <is>
-          <t>Depression symptom severity before an intervention starts.</t>
-        </is>
-      </c>
-      <c r="D65" s="2" t="n"/>
-      <c r="E65" s="2" t="inlineStr">
-        <is>
-          <t>"depression symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="n"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>depression symptom severity</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="n"/>
-      <c r="I65" s="2" t="n"/>
-      <c r="J65" s="2" t="n"/>
-      <c r="K65" s="2" t="n"/>
-      <c r="L65" s="2" t="n"/>
-      <c r="M65" s="2" t="n"/>
-      <c r="N65" s="2" t="n"/>
-      <c r="O65" s="2" t="n"/>
-      <c r="P65" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2</t>
-        </is>
-      </c>
-      <c r="Q65" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="2" t="n"/>
-      <c r="S65" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T65" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U65" s="2" t="n"/>
-      <c r="V65" s="2" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000161</t>
-        </is>
-      </c>
-      <c r="B66" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention insomnia severity</t>
-        </is>
-      </c>
-      <c r="C66" s="2" t="inlineStr">
-        <is>
-          <t>Insomnia symptom severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D66" s="2" t="n"/>
-      <c r="E66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F66" s="2" t="n"/>
-      <c r="G66" s="2" t="inlineStr">
-        <is>
-          <t>insomnia symptom severity</t>
-        </is>
-      </c>
-      <c r="H66" s="2" t="n"/>
-      <c r="I66" s="2" t="n"/>
-      <c r="J66" s="2" t="n"/>
-      <c r="K66" s="2" t="n"/>
-      <c r="L66" s="2" t="n"/>
-      <c r="M66" s="2" t="n"/>
-      <c r="N66" s="2" t="n"/>
-      <c r="O66" s="2" t="n"/>
-      <c r="P66" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q66" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="2" t="n"/>
-      <c r="S66" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T66" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U66" s="2" t="n"/>
-      <c r="V66" s="2" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000162</t>
-        </is>
-      </c>
-      <c r="B67" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention personal attribute</t>
-        </is>
-      </c>
-      <c r="C67" s="2" t="inlineStr">
-        <is>
-          <t>Personal attribute before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D67" s="2" t="inlineStr">
-        <is>
-          <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
-        </is>
-      </c>
-      <c r="E67" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F67" s="2" t="n"/>
-      <c r="G67" s="2" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="H67" s="2" t="n"/>
-      <c r="I67" s="2" t="n"/>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>Baseline clinical variable, baseline variable</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="n"/>
-      <c r="L67" s="2" t="n"/>
-      <c r="M67" s="2" t="n"/>
-      <c r="N67" s="2" t="n"/>
-      <c r="O67" s="2" t="n"/>
-      <c r="P67" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q67" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="2" t="n"/>
-      <c r="S67" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T67" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U67" s="2" t="n"/>
-      <c r="V67" s="2" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000163</t>
-        </is>
-      </c>
-      <c r="B68" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr">
-        <is>
-          <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n"/>
-      <c r="E68" s="2" t="inlineStr">
-        <is>
-          <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F68" s="2" t="n"/>
-      <c r="G68" s="2" t="inlineStr">
-        <is>
-          <t>post-traumatic stress disorder diagnosis severity</t>
-        </is>
-      </c>
-      <c r="H68" s="2" t="n"/>
-      <c r="I68" s="2" t="inlineStr">
+      <c r="Q68" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" s="3" t="inlineStr">
         <is>
           <t>Logical definition was:
 "post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t>baseline PTSD severity</t>
-        </is>
-      </c>
-      <c r="K68" s="2" t="n"/>
-      <c r="L68" s="2" t="n"/>
-      <c r="M68" s="2" t="n"/>
-      <c r="N68" s="2" t="n"/>
-      <c r="O68" s="2" t="n"/>
-      <c r="P68" s="2" t="inlineStr">
+      <c r="S68" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T68" s="3" t="n"/>
+      <c r="U68" s="3" t="n"/>
+      <c r="V68" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000164</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="inlineStr">
+        <is>
+          <t>pre-intervention substance use severity</t>
+        </is>
+      </c>
+      <c r="C69" s="3" t="inlineStr">
+        <is>
+          <t>Substance use severity before the intervention delivery begins.</t>
+        </is>
+      </c>
+      <c r="D69" s="3" t="inlineStr">
+        <is>
+          <t>substance use severity</t>
+        </is>
+      </c>
+      <c r="E69" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
+        </is>
+      </c>
+      <c r="F69" s="3" t="n"/>
+      <c r="G69" s="3" t="n"/>
+      <c r="H69" s="3" t="n"/>
+      <c r="I69" s="3" t="n"/>
+      <c r="J69" s="3" t="n"/>
+      <c r="K69" s="3" t="n"/>
+      <c r="L69" s="3" t="n"/>
+      <c r="M69" s="3" t="n"/>
+      <c r="N69" s="3" t="n"/>
+      <c r="O69" s="3" t="n"/>
+      <c r="P69" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q68" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" s="2" t="n"/>
-      <c r="S68" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T68" s="2" t="inlineStr">
+      <c r="Q69" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" s="3" t="n"/>
+      <c r="S69" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U68" s="2" t="n"/>
-      <c r="V68" s="2" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000164</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>pre-intervention substance use severity</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>Substance use severity before the intervention delivery begins.</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n"/>
-      <c r="E69" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
-        </is>
-      </c>
-      <c r="F69" s="2" t="n"/>
-      <c r="G69" s="2" t="inlineStr">
-        <is>
-          <t>substance use severity</t>
-        </is>
-      </c>
-      <c r="H69" s="2" t="n"/>
-      <c r="I69" s="2" t="n"/>
-      <c r="J69" s="2" t="n"/>
-      <c r="K69" s="2" t="n"/>
-      <c r="L69" s="2" t="n"/>
-      <c r="M69" s="2" t="n"/>
-      <c r="N69" s="2" t="n"/>
-      <c r="O69" s="2" t="n"/>
-      <c r="P69" s="2" t="inlineStr">
-        <is>
-          <t>LSR 2</t>
-        </is>
-      </c>
-      <c r="Q69" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" s="2" t="n"/>
-      <c r="S69" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T69" s="2" t="inlineStr">
+      <c r="T69" s="3" t="n"/>
+      <c r="U69" s="3" t="n"/>
+      <c r="V69" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000096</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="inlineStr">
+        <is>
+          <t>predominant negative psychotic disorder symptom history</t>
+        </is>
+      </c>
+      <c r="C70" s="3" t="inlineStr">
+        <is>
+          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
+        </is>
+      </c>
+      <c r="D70" s="3" t="inlineStr">
+        <is>
+          <t>clinical history</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="n"/>
+      <c r="F70" s="3" t="n"/>
+      <c r="G70" s="3" t="n"/>
+      <c r="H70" s="3" t="n"/>
+      <c r="I70" s="3" t="n"/>
+      <c r="J70" s="3" t="n"/>
+      <c r="K70" s="3" t="n"/>
+      <c r="L70" s="3" t="n"/>
+      <c r="M70" s="3" t="n"/>
+      <c r="N70" s="3" t="n"/>
+      <c r="O70" s="3" t="n"/>
+      <c r="P70" s="3" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q70" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="3" t="n"/>
+      <c r="S70" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U69" s="2" t="n"/>
-      <c r="V69" s="2" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000096</t>
-        </is>
-      </c>
-      <c r="B70" s="2" t="inlineStr">
-        <is>
-          <t>predominant negative psychotic disorder symptom history</t>
-        </is>
-      </c>
-      <c r="C70" s="2" t="inlineStr">
-        <is>
-          <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n"/>
-      <c r="E70" s="2" t="n"/>
-      <c r="F70" s="2" t="n"/>
-      <c r="G70" s="2" t="inlineStr">
-        <is>
-          <t>clinical history</t>
-        </is>
-      </c>
-      <c r="H70" s="2" t="n"/>
-      <c r="I70" s="2" t="n"/>
-      <c r="J70" s="2" t="n"/>
-      <c r="K70" s="2" t="n"/>
-      <c r="L70" s="2" t="n"/>
-      <c r="M70" s="2" t="n"/>
-      <c r="N70" s="2" t="n"/>
-      <c r="O70" s="2" t="n"/>
-      <c r="P70" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q70" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="2" t="n"/>
-      <c r="S70" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T70" s="2" t="inlineStr">
+      <c r="T70" s="3" t="n"/>
+      <c r="U70" s="3" t="n"/>
+      <c r="V70" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000165</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>prevalence of bipolar disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for bipolar disorder.</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>prevalence of diagnosis</t>
+        </is>
+      </c>
+      <c r="E71" s="3" t="n"/>
+      <c r="F71" s="3" t="n"/>
+      <c r="G71" s="3" t="n"/>
+      <c r="H71" s="3" t="n"/>
+      <c r="I71" s="3" t="n"/>
+      <c r="J71" s="3" t="n"/>
+      <c r="K71" s="3" t="n"/>
+      <c r="L71" s="3" t="n"/>
+      <c r="M71" s="3" t="n"/>
+      <c r="N71" s="3" t="n"/>
+      <c r="O71" s="3" t="n"/>
+      <c r="P71" s="3" t="inlineStr">
+        <is>
+          <t>LSR 1</t>
+        </is>
+      </c>
+      <c r="Q71" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="3" t="n"/>
+      <c r="S71" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U70" s="2" t="n"/>
-      <c r="V70" s="2" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000165</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of bipolar disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of diagnosis for bipolar disorder.</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n"/>
-      <c r="E71" s="2" t="n"/>
-      <c r="F71" s="2" t="n"/>
-      <c r="G71" s="2" t="inlineStr">
+      <c r="T71" s="3" t="n"/>
+      <c r="U71" s="3" t="n"/>
+      <c r="V71" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000166</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>prevalence of diagnosis</t>
         </is>
       </c>
-      <c r="H71" s="2" t="n"/>
-      <c r="I71" s="2" t="n"/>
-      <c r="J71" s="2" t="n"/>
-      <c r="K71" s="2" t="n"/>
-      <c r="L71" s="2" t="n"/>
-      <c r="M71" s="2" t="n"/>
-      <c r="N71" s="2" t="n"/>
-      <c r="O71" s="2" t="n"/>
-      <c r="P71" s="2" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
+        <is>
+          <t>Prevalence of people diagnosed with a specific disorder.</t>
+        </is>
+      </c>
+      <c r="D72" s="3" t="inlineStr">
+        <is>
+          <t>prevalence</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="n"/>
+      <c r="F72" s="3" t="n"/>
+      <c r="G72" s="3" t="n"/>
+      <c r="H72" s="3" t="n"/>
+      <c r="I72" s="3" t="n"/>
+      <c r="J72" s="3" t="n"/>
+      <c r="K72" s="3" t="n"/>
+      <c r="L72" s="3" t="n"/>
+      <c r="M72" s="3" t="n"/>
+      <c r="N72" s="3" t="n"/>
+      <c r="O72" s="3" t="n"/>
+      <c r="P72" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q71" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="2" t="n"/>
-      <c r="S71" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T71" s="2" t="inlineStr">
+      <c r="Q72" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="3" t="n"/>
+      <c r="S72" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U71" s="2" t="n"/>
-      <c r="V71" s="2" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000166</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
+      <c r="T72" s="3" t="n"/>
+      <c r="U72" s="3" t="n"/>
+      <c r="V72" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>GMHO:0000167</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>prevalence of major depressive disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>Prevalence of diagnosis for major depressive disorder.</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
         <is>
           <t>prevalence of diagnosis</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of people diagnosed with a specific disorder.</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n"/>
-      <c r="E72" s="2" t="n"/>
-      <c r="F72" s="2" t="n"/>
-      <c r="G72" s="2" t="inlineStr">
-        <is>
-          <t>prevalence</t>
-        </is>
-      </c>
-      <c r="H72" s="2" t="n"/>
-      <c r="I72" s="2" t="n"/>
-      <c r="J72" s="2" t="n"/>
-      <c r="K72" s="2" t="n"/>
-      <c r="L72" s="2" t="n"/>
-      <c r="M72" s="2" t="n"/>
-      <c r="N72" s="2" t="n"/>
-      <c r="O72" s="2" t="n"/>
-      <c r="P72" s="2" t="inlineStr">
+      <c r="E73" s="3" t="n"/>
+      <c r="F73" s="3" t="n"/>
+      <c r="G73" s="3" t="inlineStr">
+        <is>
+          <t>prevalence of unipolar depression disorder diagnosis</t>
+        </is>
+      </c>
+      <c r="H73" s="3" t="n"/>
+      <c r="I73" s="3" t="n"/>
+      <c r="J73" s="3" t="n"/>
+      <c r="K73" s="3" t="n"/>
+      <c r="L73" s="3" t="n"/>
+      <c r="M73" s="3" t="n"/>
+      <c r="N73" s="3" t="n"/>
+      <c r="O73" s="3" t="n"/>
+      <c r="P73" s="3" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q72" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="2" t="n"/>
-      <c r="S72" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T72" s="2" t="inlineStr">
+      <c r="Q73" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" s="3" t="n"/>
+      <c r="S73" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U72" s="2" t="n"/>
-      <c r="V72" s="2" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000167</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of major depressive disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>Prevalence of diagnosis for major depressive disorder.</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n"/>
-      <c r="E73" s="2" t="n"/>
-      <c r="F73" s="2" t="n"/>
-      <c r="G73" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of diagnosis</t>
-        </is>
-      </c>
-      <c r="H73" s="2" t="n"/>
-      <c r="I73" s="2" t="n"/>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>prevalence of unipolar depression disorder diagnosis</t>
-        </is>
-      </c>
-      <c r="K73" s="2" t="n"/>
-      <c r="L73" s="2" t="n"/>
-      <c r="M73" s="2" t="n"/>
-      <c r="N73" s="2" t="n"/>
-      <c r="O73" s="2" t="n"/>
-      <c r="P73" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q73" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" s="2" t="n"/>
-      <c r="S73" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T73" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="U73" s="2" t="n"/>
-      <c r="V73" s="2" t="n"/>
+      <c r="T73" s="3" t="n"/>
+      <c r="U73" s="3" t="n"/>
+      <c r="V73" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4428,12 +4534,12 @@
           <t>The proportion of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -4450,425 +4556,425 @@
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="inlineStr">
+      <c r="A75" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000187</t>
         </is>
       </c>
-      <c r="B75" s="2" t="inlineStr">
+      <c r="B75" s="3" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C75" s="3" t="inlineStr">
         <is>
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D75" s="2" t="n"/>
-      <c r="E75" s="2" t="n"/>
-      <c r="F75" s="2" t="n"/>
-      <c r="G75" s="2" t="inlineStr">
+      <c r="D75" s="3" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="H75" s="2" t="n"/>
-      <c r="I75" s="2" t="n"/>
-      <c r="J75" s="2" t="n"/>
-      <c r="K75" s="2" t="n"/>
-      <c r="L75" s="2" t="n"/>
-      <c r="M75" s="2" t="n"/>
-      <c r="N75" s="2" t="n"/>
-      <c r="O75" s="2" t="n"/>
-      <c r="P75" s="2" t="inlineStr">
+      <c r="E75" s="3" t="n"/>
+      <c r="F75" s="3" t="n"/>
+      <c r="G75" s="3" t="n"/>
+      <c r="H75" s="3" t="n"/>
+      <c r="I75" s="3" t="n"/>
+      <c r="J75" s="3" t="n"/>
+      <c r="K75" s="3" t="n"/>
+      <c r="L75" s="3" t="n"/>
+      <c r="M75" s="3" t="n"/>
+      <c r="N75" s="3" t="n"/>
+      <c r="O75" s="3" t="n"/>
+      <c r="P75" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="2" t="n"/>
-      <c r="S75" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T75" s="2" t="inlineStr">
+      <c r="Q75" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="3" t="n"/>
+      <c r="S75" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U75" s="2" t="n"/>
-      <c r="V75" s="2" t="n"/>
+      <c r="T75" s="3" t="n"/>
+      <c r="U75" s="3" t="n"/>
+      <c r="V75" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="inlineStr">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000098</t>
         </is>
       </c>
-      <c r="B76" s="2" t="inlineStr">
+      <c r="B76" s="3" t="inlineStr">
         <is>
           <t>psychosis experience</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C76" s="3" t="inlineStr">
         <is>
           <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
-      <c r="D76" s="2" t="inlineStr">
+      <c r="D76" s="3" t="inlineStr">
+        <is>
+          <t>symptom</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="n"/>
+      <c r="F76" s="3" t="n"/>
+      <c r="G76" s="3" t="n"/>
+      <c r="H76" s="3" t="n"/>
+      <c r="I76" s="3" t="inlineStr">
+        <is>
+          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
+        </is>
+      </c>
+      <c r="J76" s="3" t="n"/>
+      <c r="K76" s="3" t="inlineStr">
         <is>
           <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
 DSM V</t>
         </is>
       </c>
-      <c r="E76" s="2" t="n"/>
-      <c r="F76" s="2" t="n"/>
-      <c r="G76" s="2" t="inlineStr">
-        <is>
-          <t>symptom</t>
-        </is>
-      </c>
-      <c r="H76" s="2" t="n"/>
-      <c r="I76" s="2" t="n"/>
-      <c r="J76" s="2" t="n"/>
-      <c r="K76" s="2" t="n"/>
-      <c r="L76" s="2" t="inlineStr">
-        <is>
-          <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
-        </is>
-      </c>
-      <c r="M76" s="2" t="n"/>
-      <c r="N76" s="2" t="n"/>
-      <c r="O76" s="2" t="n"/>
-      <c r="P76" s="2" t="inlineStr">
+      <c r="L76" s="3" t="n"/>
+      <c r="M76" s="3" t="n"/>
+      <c r="N76" s="3" t="n"/>
+      <c r="O76" s="3" t="n"/>
+      <c r="P76" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q76" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R76" s="2" t="n"/>
-      <c r="S76" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T76" s="2" t="inlineStr">
+      <c r="Q76" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" s="3" t="n"/>
+      <c r="S76" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U76" s="2" t="n"/>
-      <c r="V76" s="2" t="inlineStr">
+      <c r="T76" s="3" t="n"/>
+      <c r="U76" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
+      <c r="V76" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="A77" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000079</t>
         </is>
       </c>
-      <c r="B77" s="3" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>psychotic disorder symptom severity</t>
         </is>
       </c>
-      <c r="C77" s="3" t="inlineStr">
+      <c r="C77" s="4" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with a psychotic disorder symptom.</t>
         </is>
       </c>
-      <c r="D77" s="3" t="n"/>
-      <c r="E77" s="3" t="n"/>
-      <c r="F77" s="3" t="n"/>
-      <c r="G77" s="3" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="H77" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I77" s="3" t="n"/>
-      <c r="J77" s="3" t="n"/>
-      <c r="K77" s="3" t="n"/>
-      <c r="L77" s="3" t="n"/>
-      <c r="M77" s="3" t="n"/>
-      <c r="N77" s="3" t="n"/>
-      <c r="O77" s="3" t="n"/>
-      <c r="P77" s="3" t="inlineStr">
+      <c r="E77" s="4" t="n"/>
+      <c r="F77" s="4" t="n"/>
+      <c r="G77" s="4" t="n"/>
+      <c r="H77" s="4" t="n"/>
+      <c r="I77" s="4" t="n"/>
+      <c r="J77" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K77" s="4" t="n"/>
+      <c r="L77" s="4" t="n"/>
+      <c r="M77" s="4" t="n"/>
+      <c r="N77" s="4" t="n"/>
+      <c r="O77" s="4" t="n"/>
+      <c r="P77" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q77" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R77" s="3" t="n"/>
-      <c r="S77" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T77" s="3" t="inlineStr">
+      <c r="Q77" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R77" s="4" t="n"/>
+      <c r="S77" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U77" s="3" t="n"/>
-      <c r="V77" s="3" t="n"/>
+      <c r="T77" s="4" t="n"/>
+      <c r="U77" s="4" t="n"/>
+      <c r="V77" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
+      <c r="A78" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000135</t>
         </is>
       </c>
-      <c r="B78" s="3" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>reward sensitivity</t>
         </is>
       </c>
-      <c r="C78" s="3" t="inlineStr">
+      <c r="C78" s="4" t="inlineStr">
         <is>
           <t>A bodily disposition to detect, pursue, learn from, and derive pleasure from stimuli perceived as positive.</t>
         </is>
       </c>
-      <c r="D78" s="3" t="n"/>
-      <c r="E78" s="3" t="n"/>
-      <c r="F78" s="3" t="n"/>
-      <c r="G78" s="3" t="inlineStr">
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="H78" s="3" t="n"/>
-      <c r="I78" s="3" t="n"/>
-      <c r="J78" s="3" t="n"/>
-      <c r="K78" s="3" t="n"/>
-      <c r="L78" s="3" t="n"/>
-      <c r="M78" s="3" t="n"/>
-      <c r="N78" s="3" t="n"/>
-      <c r="O78" s="3" t="n"/>
-      <c r="P78" s="3" t="inlineStr">
+      <c r="E78" s="4" t="n"/>
+      <c r="F78" s="4" t="n"/>
+      <c r="G78" s="4" t="n"/>
+      <c r="H78" s="4" t="n"/>
+      <c r="I78" s="4" t="n"/>
+      <c r="J78" s="4" t="n"/>
+      <c r="K78" s="4" t="n"/>
+      <c r="L78" s="4" t="n"/>
+      <c r="M78" s="4" t="n"/>
+      <c r="N78" s="4" t="n"/>
+      <c r="O78" s="4" t="n"/>
+      <c r="P78" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q78" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R78" s="3" t="n"/>
-      <c r="S78" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T78" s="3" t="inlineStr">
+      <c r="Q78" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R78" s="4" t="n"/>
+      <c r="S78" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U78" s="3" t="n"/>
-      <c r="V78" s="3" t="n"/>
+      <c r="T78" s="4" t="n"/>
+      <c r="U78" s="4" t="n"/>
+      <c r="V78" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000207</t>
         </is>
       </c>
-      <c r="B79" s="3" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>reward sensitivity scale</t>
         </is>
       </c>
-      <c r="C79" s="3" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>A measurement scale that is used to measure reward sensitivity.</t>
         </is>
       </c>
-      <c r="D79" s="3" t="n"/>
-      <c r="E79" s="3" t="n"/>
-      <c r="F79" s="3" t="n"/>
-      <c r="G79" s="3" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="H79" s="3" t="n"/>
-      <c r="I79" s="3" t="n"/>
-      <c r="J79" s="3" t="n"/>
-      <c r="K79" s="3" t="n"/>
-      <c r="L79" s="3" t="n"/>
-      <c r="M79" s="3" t="n"/>
-      <c r="N79" s="3" t="n"/>
-      <c r="O79" s="3" t="n"/>
-      <c r="P79" s="3" t="inlineStr">
+      <c r="E79" s="4" t="n"/>
+      <c r="F79" s="4" t="n"/>
+      <c r="G79" s="4" t="n"/>
+      <c r="H79" s="4" t="n"/>
+      <c r="I79" s="4" t="n"/>
+      <c r="J79" s="4" t="n"/>
+      <c r="K79" s="4" t="n"/>
+      <c r="L79" s="4" t="n"/>
+      <c r="M79" s="4" t="n"/>
+      <c r="N79" s="4" t="n"/>
+      <c r="O79" s="4" t="n"/>
+      <c r="P79" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q79" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R79" s="3" t="n"/>
-      <c r="S79" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T79" s="3" t="inlineStr">
+      <c r="Q79" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R79" s="4" t="n"/>
+      <c r="S79" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U79" s="3" t="n"/>
-      <c r="V79" s="3" t="n"/>
+      <c r="T79" s="4" t="n"/>
+      <c r="U79" s="4" t="n"/>
+      <c r="V79" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
+      <c r="A80" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000208</t>
         </is>
       </c>
-      <c r="B80" s="3" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>scale directionality</t>
         </is>
       </c>
-      <c r="C80" s="3" t="inlineStr">
+      <c r="C80" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">An information content entity about the orientation of a measurement's scoring system in which higher numerical levels can indicate higher or lower levels of a construct. </t>
         </is>
       </c>
-      <c r="D80" s="3" t="n"/>
-      <c r="E80" s="3" t="n"/>
-      <c r="F80" s="3" t="n"/>
-      <c r="G80" s="3" t="inlineStr">
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="H80" s="3" t="n"/>
-      <c r="I80" s="3" t="n"/>
-      <c r="J80" s="3" t="n"/>
-      <c r="K80" s="3" t="n"/>
-      <c r="L80" s="3" t="n"/>
-      <c r="M80" s="3" t="n"/>
-      <c r="N80" s="3" t="n"/>
-      <c r="O80" s="3" t="n"/>
-      <c r="P80" s="3" t="inlineStr">
+      <c r="E80" s="4" t="n"/>
+      <c r="F80" s="4" t="n"/>
+      <c r="G80" s="4" t="n"/>
+      <c r="H80" s="4" t="n"/>
+      <c r="I80" s="4" t="n"/>
+      <c r="J80" s="4" t="n"/>
+      <c r="K80" s="4" t="n"/>
+      <c r="L80" s="4" t="n"/>
+      <c r="M80" s="4" t="n"/>
+      <c r="N80" s="4" t="n"/>
+      <c r="O80" s="4" t="n"/>
+      <c r="P80" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q80" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R80" s="3" t="n"/>
-      <c r="S80" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T80" s="3" t="inlineStr">
+      <c r="Q80" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R80" s="4" t="n"/>
+      <c r="S80" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U80" s="3" t="n"/>
-      <c r="V80" s="3" t="n"/>
+      <c r="T80" s="4" t="n"/>
+      <c r="U80" s="4" t="n"/>
+      <c r="V80" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B81" s="2" t="inlineStr">
+      <c r="B81" s="3" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C81" s="2" t="inlineStr">
+      <c r="C81" s="3" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D81" s="2" t="n"/>
-      <c r="E81" s="2" t="n"/>
-      <c r="F81" s="2" t="n"/>
-      <c r="G81" s="2" t="inlineStr">
+      <c r="D81" s="3" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="H81" s="2" t="n"/>
-      <c r="I81" s="2" t="n"/>
-      <c r="J81" s="2" t="n"/>
-      <c r="K81" s="2" t="n"/>
-      <c r="L81" s="2" t="n"/>
-      <c r="M81" s="2" t="n"/>
-      <c r="N81" s="2" t="n"/>
-      <c r="O81" s="2" t="n"/>
-      <c r="P81" s="2" t="inlineStr">
+      <c r="E81" s="3" t="n"/>
+      <c r="F81" s="3" t="n"/>
+      <c r="G81" s="3" t="n"/>
+      <c r="H81" s="3" t="n"/>
+      <c r="I81" s="3" t="n"/>
+      <c r="J81" s="3" t="n"/>
+      <c r="K81" s="3" t="n"/>
+      <c r="L81" s="3" t="n"/>
+      <c r="M81" s="3" t="n"/>
+      <c r="N81" s="3" t="n"/>
+      <c r="O81" s="3" t="n"/>
+      <c r="P81" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q81" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R81" s="2" t="n"/>
-      <c r="S81" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T81" s="2" t="inlineStr">
+      <c r="Q81" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R81" s="3" t="n"/>
+      <c r="S81" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U81" s="2" t="n"/>
-      <c r="V81" s="2" t="inlineStr">
+      <c r="T81" s="3" t="n"/>
+      <c r="U81" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V81" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4994,7 @@
           <t>A quantitative confidence value that measures the variability of data around the mean.</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>quantitative confidence value</t>
         </is>
@@ -4903,189 +5009,189 @@
           <t>Intervention population</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000100</t>
         </is>
       </c>
-      <c r="B83" s="2" t="inlineStr">
+      <c r="B83" s="3" t="inlineStr">
         <is>
           <t>standard deviation human age</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C83" s="3" t="inlineStr">
         <is>
           <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
-      <c r="D83" s="2" t="n"/>
-      <c r="E83" s="2" t="n"/>
-      <c r="F83" s="2" t="n"/>
-      <c r="G83" s="2" t="inlineStr">
+      <c r="D83" s="3" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="H83" s="2" t="n"/>
-      <c r="I83" s="2" t="n"/>
-      <c r="J83" s="2" t="n"/>
-      <c r="K83" s="2" t="n"/>
-      <c r="L83" s="2" t="n"/>
-      <c r="M83" s="2" t="n"/>
-      <c r="N83" s="2" t="n"/>
-      <c r="O83" s="2" t="n"/>
-      <c r="P83" s="2" t="inlineStr">
+      <c r="E83" s="3" t="n"/>
+      <c r="F83" s="3" t="n"/>
+      <c r="G83" s="3" t="n"/>
+      <c r="H83" s="3" t="n"/>
+      <c r="I83" s="3" t="n"/>
+      <c r="J83" s="3" t="n"/>
+      <c r="K83" s="3" t="n"/>
+      <c r="L83" s="3" t="n"/>
+      <c r="M83" s="3" t="n"/>
+      <c r="N83" s="3" t="n"/>
+      <c r="O83" s="3" t="n"/>
+      <c r="P83" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q83" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R83" s="2" t="n"/>
-      <c r="S83" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T83" s="2" t="inlineStr">
+      <c r="Q83" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R83" s="3" t="n"/>
+      <c r="S83" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U83" s="2" t="n"/>
-      <c r="V83" s="2" t="inlineStr">
+      <c r="T83" s="3" t="n"/>
+      <c r="U83" s="3" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
+      <c r="V83" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="inlineStr">
+      <c r="A84" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000168</t>
         </is>
       </c>
-      <c r="B84" s="2" t="inlineStr">
+      <c r="B84" s="3" t="inlineStr">
         <is>
           <t>substance use severity</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C84" s="3" t="inlineStr">
         <is>
           <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
-      <c r="D84" s="2" t="n"/>
-      <c r="E84" s="2" t="n"/>
-      <c r="F84" s="2" t="n"/>
-      <c r="G84" s="2" t="inlineStr">
+      <c r="D84" s="3" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H84" s="2" t="n"/>
-      <c r="I84" s="2" t="n"/>
-      <c r="J84" s="2" t="n"/>
-      <c r="K84" s="2" t="n"/>
-      <c r="L84" s="2" t="n"/>
-      <c r="M84" s="2" t="n"/>
-      <c r="N84" s="2" t="n"/>
-      <c r="O84" s="2" t="n"/>
-      <c r="P84" s="2" t="inlineStr">
+      <c r="E84" s="3" t="n"/>
+      <c r="F84" s="3" t="n"/>
+      <c r="G84" s="3" t="n"/>
+      <c r="H84" s="3" t="n"/>
+      <c r="I84" s="3" t="n"/>
+      <c r="J84" s="3" t="n"/>
+      <c r="K84" s="3" t="n"/>
+      <c r="L84" s="3" t="n"/>
+      <c r="M84" s="3" t="n"/>
+      <c r="N84" s="3" t="n"/>
+      <c r="O84" s="3" t="n"/>
+      <c r="P84" s="3" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q84" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R84" s="2" t="n"/>
-      <c r="S84" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T84" s="2" t="inlineStr">
+      <c r="Q84" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R84" s="3" t="n"/>
+      <c r="S84" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U84" s="2" t="n"/>
-      <c r="V84" s="2" t="n"/>
+      <c r="T84" s="3" t="n"/>
+      <c r="U84" s="3" t="n"/>
+      <c r="V84" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000087</t>
         </is>
       </c>
-      <c r="B85" s="3" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="C85" s="3" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>A data item that is about the severity dimension associated with a symptom.</t>
         </is>
       </c>
-      <c r="D85" s="3" t="n"/>
-      <c r="E85" s="3" t="n"/>
-      <c r="F85" s="3" t="n"/>
-      <c r="G85" s="3" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="H85" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="I85" s="3" t="n"/>
-      <c r="J85" s="3" t="n"/>
-      <c r="K85" s="3" t="n"/>
-      <c r="L85" s="3" t="n"/>
-      <c r="M85" s="3" t="n"/>
-      <c r="N85" s="3" t="n"/>
-      <c r="O85" s="3" t="n"/>
-      <c r="P85" s="3" t="inlineStr">
+      <c r="E85" s="4" t="n"/>
+      <c r="F85" s="4" t="n"/>
+      <c r="G85" s="4" t="n"/>
+      <c r="H85" s="4" t="n"/>
+      <c r="I85" s="4" t="n"/>
+      <c r="J85" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K85" s="4" t="n"/>
+      <c r="L85" s="4" t="n"/>
+      <c r="M85" s="4" t="n"/>
+      <c r="N85" s="4" t="n"/>
+      <c r="O85" s="4" t="n"/>
+      <c r="P85" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q85" s="3" t="inlineStr">
+      <c r="Q85" s="4" t="inlineStr">
         <is>
           <t>Intervention population; Intervention outcome</t>
         </is>
       </c>
-      <c r="R85" s="3" t="n"/>
-      <c r="S85" s="3" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T85" s="3" t="inlineStr">
+      <c r="R85" s="4" t="n"/>
+      <c r="S85" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="U85" s="3" t="n"/>
-      <c r="V85" s="3" t="inlineStr">
+      <c r="T85" s="4" t="n"/>
+      <c r="U85" s="4" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V85" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
@@ -5105,7 +5211,7 @@
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>person</t>
         </is>
@@ -5122,75 +5228,75 @@
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
           <t>External</t>
         </is>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
+      <c r="A87" s="3" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B87" s="2" t="inlineStr">
+      <c r="B87" s="3" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C87" s="3" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D87" s="2" t="n"/>
-      <c r="E87" s="2" t="n"/>
-      <c r="F87" s="2" t="n"/>
-      <c r="G87" s="2" t="inlineStr">
+      <c r="D87" s="3" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="H87" s="2" t="n"/>
-      <c r="I87" s="2" t="n"/>
-      <c r="J87" s="2" t="n"/>
-      <c r="K87" s="2" t="n"/>
-      <c r="L87" s="2" t="n"/>
-      <c r="M87" s="2" t="n"/>
-      <c r="N87" s="2" t="n"/>
-      <c r="O87" s="2" t="n"/>
-      <c r="P87" s="2" t="inlineStr">
+      <c r="E87" s="3" t="n"/>
+      <c r="F87" s="3" t="n"/>
+      <c r="G87" s="3" t="n"/>
+      <c r="H87" s="3" t="n"/>
+      <c r="I87" s="3" t="n"/>
+      <c r="J87" s="3" t="n"/>
+      <c r="K87" s="3" t="n"/>
+      <c r="L87" s="3" t="n"/>
+      <c r="M87" s="3" t="n"/>
+      <c r="N87" s="3" t="n"/>
+      <c r="O87" s="3" t="n"/>
+      <c r="P87" s="3" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q87" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R87" s="2" t="n"/>
-      <c r="S87" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T87" s="2" t="inlineStr">
+      <c r="Q87" s="3" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R87" s="3" t="n"/>
+      <c r="S87" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="U87" s="2" t="n"/>
-      <c r="V87" s="2" t="n"/>
+      <c r="T87" s="3" t="n"/>
+      <c r="U87" s="3" t="n"/>
+      <c r="V87" s="3" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5208,12 +5314,12 @@
           <t>A physical quality inhering in a bearer that has mass near a gravitational body.</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>force</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Intervention population</t>
         </is>
@@ -5230,12 +5336,12 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>PS</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
           <t>External</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -2652,145 +2652,172 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>OBI:0500027</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="2" t="inlineStr">
         <is>
           <t>inclusion criterion</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="2" t="inlineStr">
         <is>
           <t>eligibility criterion</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="E40" s="2" t="n"/>
+      <c r="F40" s="2" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
+      <c r="I40" s="2" t="n"/>
+      <c r="J40" s="2" t="n"/>
+      <c r="K40" s="2" t="n"/>
+      <c r="L40" s="2" t="n"/>
+      <c r="M40" s="2" t="n"/>
+      <c r="N40" s="2" t="n"/>
+      <c r="O40" s="2" t="n"/>
+      <c r="P40" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="n"/>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="n"/>
+      <c r="U40" s="2" t="n"/>
+      <c r="V40" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>IAO:0000030</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C41" s="2" t="inlineStr">
         <is>
           <t>A generically dependent continuant that is about some thing.</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="2" t="inlineStr">
         <is>
           <t>generically dependent continuant</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
+      <c r="E41" s="2" t="n"/>
+      <c r="F41" s="2" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
+      <c r="I41" s="2" t="n"/>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="n"/>
+      <c r="L41" s="2" t="n"/>
+      <c r="M41" s="2" t="n"/>
+      <c r="N41" s="2" t="n"/>
+      <c r="O41" s="2" t="n"/>
+      <c r="P41" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="n"/>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="n"/>
+      <c r="U41" s="2" t="n"/>
+      <c r="V41" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="inlineStr">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000150</t>
         </is>
       </c>
-      <c r="B42" s="3" t="inlineStr">
+      <c r="B42" s="2" t="inlineStr">
         <is>
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="C42" s="3" t="inlineStr">
+      <c r="C42" s="2" t="inlineStr">
         <is>
           <t>Symptom severity that is associated with insomnia.</t>
         </is>
       </c>
-      <c r="D42" s="3" t="inlineStr">
+      <c r="D42" s="2" t="inlineStr">
         <is>
           <t>symptom severity</t>
         </is>
       </c>
-      <c r="E42" s="3" t="n"/>
-      <c r="F42" s="3" t="n"/>
-      <c r="G42" s="3" t="n"/>
-      <c r="H42" s="3" t="n"/>
-      <c r="I42" s="3" t="n"/>
-      <c r="J42" s="3" t="n"/>
-      <c r="K42" s="3" t="n"/>
-      <c r="L42" s="3" t="n"/>
-      <c r="M42" s="3" t="n"/>
-      <c r="N42" s="3" t="n"/>
-      <c r="O42" s="3" t="n"/>
-      <c r="P42" s="3" t="inlineStr">
+      <c r="E42" s="2" t="n"/>
+      <c r="F42" s="2" t="n"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
+      <c r="I42" s="2" t="n"/>
+      <c r="J42" s="2" t="n"/>
+      <c r="K42" s="2" t="n"/>
+      <c r="L42" s="2" t="n"/>
+      <c r="M42" s="2" t="n"/>
+      <c r="N42" s="2" t="n"/>
+      <c r="O42" s="2" t="n"/>
+      <c r="P42" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q42" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R42" s="3" t="n"/>
-      <c r="S42" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T42" s="3" t="n"/>
-      <c r="U42" s="3" t="n"/>
-      <c r="V42" s="3" t="inlineStr">
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="n"/>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="n"/>
+      <c r="U42" s="2" t="n"/>
+      <c r="V42" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2844,99 +2871,113 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B44" s="3" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C44" s="3" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D44" s="3" t="inlineStr">
+      <c r="D44" s="2" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
         </is>
       </c>
-      <c r="E44" s="3" t="n"/>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
-      <c r="H44" s="3" t="n"/>
-      <c r="I44" s="3" t="n"/>
-      <c r="J44" s="3" t="n"/>
-      <c r="K44" s="3" t="n"/>
-      <c r="L44" s="3" t="n"/>
-      <c r="M44" s="3" t="n"/>
-      <c r="N44" s="3" t="n"/>
-      <c r="O44" s="3" t="n"/>
-      <c r="P44" s="3" t="inlineStr">
+      <c r="E44" s="2" t="n"/>
+      <c r="F44" s="2" t="n"/>
+      <c r="G44" s="2" t="n"/>
+      <c r="H44" s="2" t="n"/>
+      <c r="I44" s="2" t="n"/>
+      <c r="J44" s="2" t="n"/>
+      <c r="K44" s="2" t="n"/>
+      <c r="L44" s="2" t="n"/>
+      <c r="M44" s="2" t="n"/>
+      <c r="N44" s="2" t="n"/>
+      <c r="O44" s="2" t="n"/>
+      <c r="P44" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q44" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" s="3" t="n"/>
-      <c r="S44" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T44" s="3" t="n"/>
-      <c r="U44" s="3" t="n"/>
-      <c r="V44" s="3" t="inlineStr">
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="n"/>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="n"/>
+      <c r="U44" s="2" t="n"/>
+      <c r="V44" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>BCIO:015107</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>male biological sex</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>A biological sex associated with the ability to produce male gametes.</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>biological sex</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="E45" s="2" t="n"/>
+      <c r="F45" s="2" t="n"/>
+      <c r="G45" s="2" t="n"/>
+      <c r="H45" s="2" t="n"/>
+      <c r="I45" s="2" t="n"/>
+      <c r="J45" s="2" t="n"/>
+      <c r="K45" s="2" t="n"/>
+      <c r="L45" s="2" t="n"/>
+      <c r="M45" s="2" t="n"/>
+      <c r="N45" s="2" t="n"/>
+      <c r="O45" s="2" t="n"/>
+      <c r="P45" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="n"/>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="n"/>
+      <c r="U45" s="2" t="n"/>
+      <c r="V45" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3181,84 +3222,112 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
         <is>
           <t>BCIO:015490</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>medication use status</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>A health status attribute that is having been prescribed the use of one or more drugs to improve, maintain or protect one's health.</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="2" t="inlineStr">
         <is>
           <t>health status attribute</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="E51" s="2" t="n"/>
+      <c r="F51" s="2" t="n"/>
+      <c r="G51" s="2" t="n"/>
+      <c r="H51" s="2" t="n"/>
+      <c r="I51" s="2" t="n"/>
+      <c r="J51" s="2" t="n"/>
+      <c r="K51" s="2" t="n"/>
+      <c r="L51" s="2" t="n"/>
+      <c r="M51" s="2" t="n"/>
+      <c r="N51" s="2" t="n"/>
+      <c r="O51" s="2" t="n"/>
+      <c r="P51" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 3</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
+      <c r="Q51" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R51" s="2" t="n"/>
+      <c r="S51" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T51" s="2" t="n"/>
+      <c r="U51" s="2" t="n"/>
+      <c r="V51" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="2" t="inlineStr">
         <is>
           <t>MF:0000033</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>A mental disposition is a bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="2" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="E52" s="2" t="n"/>
+      <c r="F52" s="2" t="n"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
+      <c r="I52" s="2" t="n"/>
+      <c r="J52" s="2" t="n"/>
+      <c r="K52" s="2" t="n"/>
+      <c r="L52" s="2" t="n"/>
+      <c r="M52" s="2" t="n"/>
+      <c r="N52" s="2" t="n"/>
+      <c r="O52" s="2" t="n"/>
+      <c r="P52" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
+      <c r="Q52" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R52" s="2" t="n"/>
+      <c r="S52" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T52" s="2" t="n"/>
+      <c r="U52" s="2" t="n"/>
+      <c r="V52" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -3510,56 +3510,56 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000153</t>
         </is>
       </c>
-      <c r="B56" s="3" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>number of participants in intervention arm</t>
         </is>
       </c>
-      <c r="C56" s="3" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>Number of intervention participants who are part of an intervention arm.</t>
         </is>
       </c>
-      <c r="D56" s="3" t="inlineStr">
+      <c r="D56" s="2" t="inlineStr">
         <is>
           <t>number of intervention participants</t>
         </is>
       </c>
-      <c r="E56" s="3" t="n"/>
-      <c r="F56" s="3" t="n"/>
-      <c r="G56" s="3" t="n"/>
-      <c r="H56" s="3" t="n"/>
-      <c r="I56" s="3" t="n"/>
-      <c r="J56" s="3" t="n"/>
-      <c r="K56" s="3" t="n"/>
-      <c r="L56" s="3" t="n"/>
-      <c r="M56" s="3" t="n"/>
-      <c r="N56" s="3" t="n"/>
-      <c r="O56" s="3" t="n"/>
-      <c r="P56" s="3" t="inlineStr">
+      <c r="E56" s="2" t="n"/>
+      <c r="F56" s="2" t="n"/>
+      <c r="G56" s="2" t="n"/>
+      <c r="H56" s="2" t="n"/>
+      <c r="I56" s="2" t="n"/>
+      <c r="J56" s="2" t="n"/>
+      <c r="K56" s="2" t="n"/>
+      <c r="L56" s="2" t="n"/>
+      <c r="M56" s="2" t="n"/>
+      <c r="N56" s="2" t="n"/>
+      <c r="O56" s="2" t="n"/>
+      <c r="P56" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q56" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R56" s="3" t="n"/>
-      <c r="S56" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T56" s="3" t="n"/>
-      <c r="U56" s="3" t="n"/>
-      <c r="V56" s="3" t="inlineStr">
+      <c r="Q56" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R56" s="2" t="n"/>
+      <c r="S56" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T56" s="2" t="n"/>
+      <c r="U56" s="2" t="n"/>
+      <c r="V56" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -3739,120 +3739,120 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000156</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder diagnosis</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for post-traumatic stress disorder as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="E60" s="3" t="n"/>
-      <c r="F60" s="3" t="n"/>
-      <c r="G60" s="3" t="inlineStr">
+      <c r="E60" s="2" t="n"/>
+      <c r="F60" s="2" t="n"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>PTSD diagnosis status</t>
         </is>
       </c>
-      <c r="H60" s="3" t="n"/>
-      <c r="I60" s="3" t="n"/>
-      <c r="J60" s="3" t="n"/>
-      <c r="K60" s="3" t="n"/>
-      <c r="L60" s="3" t="n"/>
-      <c r="M60" s="3" t="n"/>
-      <c r="N60" s="3" t="n"/>
-      <c r="O60" s="3" t="n"/>
-      <c r="P60" s="3" t="inlineStr">
+      <c r="H60" s="2" t="n"/>
+      <c r="I60" s="2" t="n"/>
+      <c r="J60" s="2" t="n"/>
+      <c r="K60" s="2" t="n"/>
+      <c r="L60" s="2" t="n"/>
+      <c r="M60" s="2" t="n"/>
+      <c r="N60" s="2" t="n"/>
+      <c r="O60" s="2" t="n"/>
+      <c r="P60" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q60" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R60" s="3" t="n"/>
-      <c r="S60" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T60" s="3" t="n"/>
-      <c r="U60" s="3" t="n"/>
-      <c r="V60" s="3" t="inlineStr">
+      <c r="Q60" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R60" s="2" t="n"/>
+      <c r="S60" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T60" s="2" t="n"/>
+      <c r="U60" s="2" t="n"/>
+      <c r="V60" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="inlineStr">
+      <c r="A61" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000155</t>
         </is>
       </c>
-      <c r="B61" s="3" t="inlineStr">
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="C61" s="3" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Diagnosis severity relating to a post-traumatic stress disorder diagnosis.</t>
         </is>
       </c>
-      <c r="D61" s="3" t="inlineStr">
+      <c r="D61" s="2" t="inlineStr">
         <is>
           <t>diagnosis severity</t>
         </is>
       </c>
-      <c r="E61" s="3" t="n"/>
-      <c r="F61" s="3" t="n"/>
-      <c r="G61" s="3" t="inlineStr">
+      <c r="E61" s="2" t="n"/>
+      <c r="F61" s="2" t="n"/>
+      <c r="G61" s="2" t="inlineStr">
         <is>
           <t>PTSD severity</t>
         </is>
       </c>
-      <c r="H61" s="3" t="n"/>
-      <c r="I61" s="3" t="n"/>
-      <c r="J61" s="3" t="n"/>
-      <c r="K61" s="3" t="n"/>
-      <c r="L61" s="3" t="n"/>
-      <c r="M61" s="3" t="n"/>
-      <c r="N61" s="3" t="n"/>
-      <c r="O61" s="3" t="n"/>
-      <c r="P61" s="3" t="inlineStr">
+      <c r="H61" s="2" t="n"/>
+      <c r="I61" s="2" t="n"/>
+      <c r="J61" s="2" t="n"/>
+      <c r="K61" s="2" t="n"/>
+      <c r="L61" s="2" t="n"/>
+      <c r="M61" s="2" t="n"/>
+      <c r="N61" s="2" t="n"/>
+      <c r="O61" s="2" t="n"/>
+      <c r="P61" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q61" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R61" s="3" t="n"/>
-      <c r="S61" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T61" s="3" t="n"/>
-      <c r="U61" s="3" t="n"/>
-      <c r="V61" s="3" t="inlineStr">
+      <c r="Q61" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R61" s="2" t="n"/>
+      <c r="S61" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T61" s="2" t="n"/>
+      <c r="U61" s="2" t="n"/>
+      <c r="V61" s="2" t="inlineStr">
         <is>
           <t>PS; MS</t>
         </is>
@@ -3979,609 +3979,609 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000159</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="2" t="inlineStr">
         <is>
           <t>pre-intervention autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="2" t="inlineStr">
         <is>
           <t>Autism spectrum diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D64" s="2" t="inlineStr">
         <is>
           <t>autism spectrum disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> "autism spectrum disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F64" s="3" t="n"/>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="F64" s="2" t="n"/>
+      <c r="G64" s="2" t="inlineStr">
         <is>
           <t>baseline ASD severity</t>
         </is>
       </c>
-      <c r="H64" s="3" t="n"/>
-      <c r="I64" s="3" t="n"/>
-      <c r="J64" s="3" t="n"/>
-      <c r="K64" s="3" t="n"/>
-      <c r="L64" s="3" t="n"/>
-      <c r="M64" s="3" t="n"/>
-      <c r="N64" s="3" t="n"/>
-      <c r="O64" s="3" t="n"/>
-      <c r="P64" s="3" t="inlineStr">
+      <c r="H64" s="2" t="n"/>
+      <c r="I64" s="2" t="n"/>
+      <c r="J64" s="2" t="n"/>
+      <c r="K64" s="2" t="n"/>
+      <c r="L64" s="2" t="n"/>
+      <c r="M64" s="2" t="n"/>
+      <c r="N64" s="2" t="n"/>
+      <c r="O64" s="2" t="n"/>
+      <c r="P64" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q64" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R64" s="3" t="n"/>
-      <c r="S64" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T64" s="3" t="n"/>
-      <c r="U64" s="3" t="n"/>
-      <c r="V64" s="3" t="inlineStr">
+      <c r="Q64" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R64" s="2" t="n"/>
+      <c r="S64" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T64" s="2" t="n"/>
+      <c r="U64" s="2" t="n"/>
+      <c r="V64" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000160</t>
         </is>
       </c>
-      <c r="B65" s="3" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>pre-intervention depression symptom severity</t>
         </is>
       </c>
-      <c r="C65" s="3" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr">
         <is>
           <t>Depression symptom severity before an intervention starts.</t>
         </is>
       </c>
-      <c r="D65" s="3" t="inlineStr">
+      <c r="D65" s="2" t="inlineStr">
         <is>
           <t>depression symptom severity</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>"depression symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F65" s="3" t="n"/>
-      <c r="G65" s="3" t="n"/>
-      <c r="H65" s="3" t="n"/>
-      <c r="I65" s="3" t="n"/>
-      <c r="J65" s="3" t="n"/>
-      <c r="K65" s="3" t="n"/>
-      <c r="L65" s="3" t="n"/>
-      <c r="M65" s="3" t="n"/>
-      <c r="N65" s="3" t="n"/>
-      <c r="O65" s="3" t="n"/>
-      <c r="P65" s="3" t="inlineStr">
+      <c r="F65" s="2" t="n"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
+      <c r="I65" s="2" t="n"/>
+      <c r="J65" s="2" t="n"/>
+      <c r="K65" s="2" t="n"/>
+      <c r="L65" s="2" t="n"/>
+      <c r="M65" s="2" t="n"/>
+      <c r="N65" s="2" t="n"/>
+      <c r="O65" s="2" t="n"/>
+      <c r="P65" s="2" t="inlineStr">
         <is>
           <t>LSR 1; LSR 2</t>
         </is>
       </c>
-      <c r="Q65" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R65" s="3" t="n"/>
-      <c r="S65" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T65" s="3" t="n"/>
-      <c r="U65" s="3" t="n"/>
-      <c r="V65" s="3" t="inlineStr">
+      <c r="Q65" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R65" s="2" t="n"/>
+      <c r="S65" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T65" s="2" t="n"/>
+      <c r="U65" s="2" t="n"/>
+      <c r="V65" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000161</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B66" s="2" t="inlineStr">
         <is>
           <t>pre-intervention insomnia severity</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C66" s="2" t="inlineStr">
         <is>
           <t>Insomnia symptom severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D66" s="2" t="inlineStr">
         <is>
           <t>insomnia symptom severity</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> "insomnia symptom severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F66" s="3" t="n"/>
-      <c r="G66" s="3" t="n"/>
-      <c r="H66" s="3" t="n"/>
-      <c r="I66" s="3" t="n"/>
-      <c r="J66" s="3" t="n"/>
-      <c r="K66" s="3" t="n"/>
-      <c r="L66" s="3" t="n"/>
-      <c r="M66" s="3" t="n"/>
-      <c r="N66" s="3" t="n"/>
-      <c r="O66" s="3" t="n"/>
-      <c r="P66" s="3" t="inlineStr">
+      <c r="F66" s="2" t="n"/>
+      <c r="G66" s="2" t="n"/>
+      <c r="H66" s="2" t="n"/>
+      <c r="I66" s="2" t="n"/>
+      <c r="J66" s="2" t="n"/>
+      <c r="K66" s="2" t="n"/>
+      <c r="L66" s="2" t="n"/>
+      <c r="M66" s="2" t="n"/>
+      <c r="N66" s="2" t="n"/>
+      <c r="O66" s="2" t="n"/>
+      <c r="P66" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q66" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R66" s="3" t="n"/>
-      <c r="S66" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T66" s="3" t="n"/>
-      <c r="U66" s="3" t="n"/>
-      <c r="V66" s="3" t="inlineStr">
+      <c r="Q66" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R66" s="2" t="n"/>
+      <c r="S66" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T66" s="2" t="n"/>
+      <c r="U66" s="2" t="n"/>
+      <c r="V66" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="inlineStr">
+      <c r="A67" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000162</t>
         </is>
       </c>
-      <c r="B67" s="3" t="inlineStr">
+      <c r="B67" s="2" t="inlineStr">
         <is>
           <t>pre-intervention personal attribute</t>
         </is>
       </c>
-      <c r="C67" s="3" t="inlineStr">
+      <c r="C67" s="2" t="inlineStr">
         <is>
           <t>Personal attribute before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D67" s="3" t="inlineStr">
+      <c r="D67" s="2" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> "personal attribute" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F67" s="3" t="n"/>
-      <c r="G67" s="3" t="inlineStr">
+      <c r="F67" s="2" t="n"/>
+      <c r="G67" s="2" t="inlineStr">
         <is>
           <t>Baseline clinical variable, baseline variable</t>
         </is>
       </c>
-      <c r="H67" s="3" t="n"/>
-      <c r="I67" s="3" t="n"/>
-      <c r="J67" s="3" t="n"/>
-      <c r="K67" s="3" t="inlineStr">
+      <c r="H67" s="2" t="n"/>
+      <c r="I67" s="2" t="n"/>
+      <c r="J67" s="2" t="n"/>
+      <c r="K67" s="2" t="inlineStr">
         <is>
           <t>Based on https://dictionary.apa.org/baseline-characteristic</t>
         </is>
       </c>
-      <c r="L67" s="3" t="n"/>
-      <c r="M67" s="3" t="n"/>
-      <c r="N67" s="3" t="n"/>
-      <c r="O67" s="3" t="n"/>
-      <c r="P67" s="3" t="inlineStr">
+      <c r="L67" s="2" t="n"/>
+      <c r="M67" s="2" t="n"/>
+      <c r="N67" s="2" t="n"/>
+      <c r="O67" s="2" t="n"/>
+      <c r="P67" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q67" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R67" s="3" t="n"/>
-      <c r="S67" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T67" s="3" t="n"/>
-      <c r="U67" s="3" t="n"/>
-      <c r="V67" s="3" t="inlineStr">
+      <c r="Q67" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R67" s="2" t="n"/>
+      <c r="S67" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T67" s="2" t="n"/>
+      <c r="U67" s="2" t="n"/>
+      <c r="V67" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000163</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>pre-intervention post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>Post-traumatic stress disorder diagnosis severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>post-traumatic stress disorder diagnosis severity</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>"post-traumatic stress disorder diagnosis severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F68" s="3" t="n"/>
-      <c r="G68" s="3" t="inlineStr">
+      <c r="F68" s="2" t="n"/>
+      <c r="G68" s="2" t="inlineStr">
         <is>
           <t>baseline PTSD severity</t>
         </is>
       </c>
-      <c r="H68" s="3" t="n"/>
-      <c r="I68" s="3" t="n"/>
-      <c r="J68" s="3" t="n"/>
-      <c r="K68" s="3" t="n"/>
-      <c r="L68" s="3" t="n"/>
-      <c r="M68" s="3" t="n"/>
-      <c r="N68" s="3" t="n"/>
-      <c r="O68" s="3" t="n"/>
-      <c r="P68" s="3" t="inlineStr">
+      <c r="H68" s="2" t="n"/>
+      <c r="I68" s="2" t="n"/>
+      <c r="J68" s="2" t="n"/>
+      <c r="K68" s="2" t="n"/>
+      <c r="L68" s="2" t="n"/>
+      <c r="M68" s="2" t="n"/>
+      <c r="N68" s="2" t="n"/>
+      <c r="O68" s="2" t="n"/>
+      <c r="P68" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q68" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R68" s="3" t="inlineStr">
+      <c r="Q68" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R68" s="2" t="inlineStr">
         <is>
           <t>Logical definition was:
 "post-traumatic stress disorder diagnosis severity" precedes "intervention"</t>
         </is>
       </c>
-      <c r="S68" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T68" s="3" t="n"/>
-      <c r="U68" s="3" t="n"/>
-      <c r="V68" s="3" t="inlineStr">
+      <c r="S68" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T68" s="2" t="n"/>
+      <c r="U68" s="2" t="n"/>
+      <c r="V68" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="inlineStr">
+      <c r="A69" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000164</t>
         </is>
       </c>
-      <c r="B69" s="3" t="inlineStr">
+      <c r="B69" s="2" t="inlineStr">
         <is>
           <t>pre-intervention substance use severity</t>
         </is>
       </c>
-      <c r="C69" s="3" t="inlineStr">
+      <c r="C69" s="2" t="inlineStr">
         <is>
           <t>Substance use severity before the intervention delivery begins.</t>
         </is>
       </c>
-      <c r="D69" s="3" t="inlineStr">
+      <c r="D69" s="2" t="inlineStr">
         <is>
           <t>substance use severity</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> "substance use severity" that precedes some "intervention"</t>
         </is>
       </c>
-      <c r="F69" s="3" t="n"/>
-      <c r="G69" s="3" t="n"/>
-      <c r="H69" s="3" t="n"/>
-      <c r="I69" s="3" t="n"/>
-      <c r="J69" s="3" t="n"/>
-      <c r="K69" s="3" t="n"/>
-      <c r="L69" s="3" t="n"/>
-      <c r="M69" s="3" t="n"/>
-      <c r="N69" s="3" t="n"/>
-      <c r="O69" s="3" t="n"/>
-      <c r="P69" s="3" t="inlineStr">
+      <c r="F69" s="2" t="n"/>
+      <c r="G69" s="2" t="n"/>
+      <c r="H69" s="2" t="n"/>
+      <c r="I69" s="2" t="n"/>
+      <c r="J69" s="2" t="n"/>
+      <c r="K69" s="2" t="n"/>
+      <c r="L69" s="2" t="n"/>
+      <c r="M69" s="2" t="n"/>
+      <c r="N69" s="2" t="n"/>
+      <c r="O69" s="2" t="n"/>
+      <c r="P69" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q69" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R69" s="3" t="n"/>
-      <c r="S69" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T69" s="3" t="n"/>
-      <c r="U69" s="3" t="n"/>
-      <c r="V69" s="3" t="inlineStr">
+      <c r="Q69" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R69" s="2" t="n"/>
+      <c r="S69" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T69" s="2" t="n"/>
+      <c r="U69" s="2" t="n"/>
+      <c r="V69" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
+      <c r="A70" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000096</t>
         </is>
       </c>
-      <c r="B70" s="3" t="inlineStr">
+      <c r="B70" s="2" t="inlineStr">
         <is>
           <t>predominant negative psychotic disorder symptom history</t>
         </is>
       </c>
-      <c r="C70" s="3" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has more negative than psychotic disorder symptoms.</t>
         </is>
       </c>
-      <c r="D70" s="3" t="inlineStr">
+      <c r="D70" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E70" s="3" t="n"/>
-      <c r="F70" s="3" t="n"/>
-      <c r="G70" s="3" t="n"/>
-      <c r="H70" s="3" t="n"/>
-      <c r="I70" s="3" t="n"/>
-      <c r="J70" s="3" t="n"/>
-      <c r="K70" s="3" t="n"/>
-      <c r="L70" s="3" t="n"/>
-      <c r="M70" s="3" t="n"/>
-      <c r="N70" s="3" t="n"/>
-      <c r="O70" s="3" t="n"/>
-      <c r="P70" s="3" t="inlineStr">
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
+      <c r="I70" s="2" t="n"/>
+      <c r="J70" s="2" t="n"/>
+      <c r="K70" s="2" t="n"/>
+      <c r="L70" s="2" t="n"/>
+      <c r="M70" s="2" t="n"/>
+      <c r="N70" s="2" t="n"/>
+      <c r="O70" s="2" t="n"/>
+      <c r="P70" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q70" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R70" s="3" t="n"/>
-      <c r="S70" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T70" s="3" t="n"/>
-      <c r="U70" s="3" t="n"/>
-      <c r="V70" s="3" t="inlineStr">
+      <c r="Q70" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R70" s="2" t="n"/>
+      <c r="S70" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T70" s="2" t="n"/>
+      <c r="U70" s="2" t="n"/>
+      <c r="V70" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000165</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B71" s="2" t="inlineStr">
         <is>
           <t>prevalence of bipolar disorder diagnosis</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Prevalence of diagnosis for bipolar disorder.</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D71" s="2" t="inlineStr">
         <is>
           <t>prevalence of diagnosis</t>
         </is>
       </c>
-      <c r="E71" s="3" t="n"/>
-      <c r="F71" s="3" t="n"/>
-      <c r="G71" s="3" t="n"/>
-      <c r="H71" s="3" t="n"/>
-      <c r="I71" s="3" t="n"/>
-      <c r="J71" s="3" t="n"/>
-      <c r="K71" s="3" t="n"/>
-      <c r="L71" s="3" t="n"/>
-      <c r="M71" s="3" t="n"/>
-      <c r="N71" s="3" t="n"/>
-      <c r="O71" s="3" t="n"/>
-      <c r="P71" s="3" t="inlineStr">
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="2" t="n"/>
+      <c r="H71" s="2" t="n"/>
+      <c r="I71" s="2" t="n"/>
+      <c r="J71" s="2" t="n"/>
+      <c r="K71" s="2" t="n"/>
+      <c r="L71" s="2" t="n"/>
+      <c r="M71" s="2" t="n"/>
+      <c r="N71" s="2" t="n"/>
+      <c r="O71" s="2" t="n"/>
+      <c r="P71" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q71" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R71" s="3" t="n"/>
-      <c r="S71" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T71" s="3" t="n"/>
-      <c r="U71" s="3" t="n"/>
-      <c r="V71" s="3" t="inlineStr">
+      <c r="Q71" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R71" s="2" t="n"/>
+      <c r="S71" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T71" s="2" t="n"/>
+      <c r="U71" s="2" t="n"/>
+      <c r="V71" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
+      <c r="A72" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000166</t>
         </is>
       </c>
-      <c r="B72" s="3" t="inlineStr">
+      <c r="B72" s="2" t="inlineStr">
         <is>
           <t>prevalence of diagnosis</t>
         </is>
       </c>
-      <c r="C72" s="3" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Prevalence of people diagnosed with a specific disorder.</t>
         </is>
       </c>
-      <c r="D72" s="3" t="inlineStr">
+      <c r="D72" s="2" t="inlineStr">
         <is>
           <t>prevalence</t>
         </is>
       </c>
-      <c r="E72" s="3" t="n"/>
-      <c r="F72" s="3" t="n"/>
-      <c r="G72" s="3" t="n"/>
-      <c r="H72" s="3" t="n"/>
-      <c r="I72" s="3" t="n"/>
-      <c r="J72" s="3" t="n"/>
-      <c r="K72" s="3" t="n"/>
-      <c r="L72" s="3" t="n"/>
-      <c r="M72" s="3" t="n"/>
-      <c r="N72" s="3" t="n"/>
-      <c r="O72" s="3" t="n"/>
-      <c r="P72" s="3" t="inlineStr">
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="2" t="n"/>
+      <c r="H72" s="2" t="n"/>
+      <c r="I72" s="2" t="n"/>
+      <c r="J72" s="2" t="n"/>
+      <c r="K72" s="2" t="n"/>
+      <c r="L72" s="2" t="n"/>
+      <c r="M72" s="2" t="n"/>
+      <c r="N72" s="2" t="n"/>
+      <c r="O72" s="2" t="n"/>
+      <c r="P72" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q72" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R72" s="3" t="n"/>
-      <c r="S72" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T72" s="3" t="n"/>
-      <c r="U72" s="3" t="n"/>
-      <c r="V72" s="3" t="inlineStr">
+      <c r="Q72" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R72" s="2" t="n"/>
+      <c r="S72" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T72" s="2" t="n"/>
+      <c r="U72" s="2" t="n"/>
+      <c r="V72" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
+      <c r="A73" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000167</t>
         </is>
       </c>
-      <c r="B73" s="3" t="inlineStr">
+      <c r="B73" s="2" t="inlineStr">
         <is>
           <t>prevalence of major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C73" s="3" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Prevalence of diagnosis for major depressive disorder.</t>
         </is>
       </c>
-      <c r="D73" s="3" t="inlineStr">
+      <c r="D73" s="2" t="inlineStr">
         <is>
           <t>prevalence of diagnosis</t>
         </is>
       </c>
-      <c r="E73" s="3" t="n"/>
-      <c r="F73" s="3" t="n"/>
-      <c r="G73" s="3" t="inlineStr">
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+      <c r="G73" s="2" t="inlineStr">
         <is>
           <t>prevalence of unipolar depression disorder diagnosis</t>
         </is>
       </c>
-      <c r="H73" s="3" t="n"/>
-      <c r="I73" s="3" t="n"/>
-      <c r="J73" s="3" t="n"/>
-      <c r="K73" s="3" t="n"/>
-      <c r="L73" s="3" t="n"/>
-      <c r="M73" s="3" t="n"/>
-      <c r="N73" s="3" t="n"/>
-      <c r="O73" s="3" t="n"/>
-      <c r="P73" s="3" t="inlineStr">
+      <c r="H73" s="2" t="n"/>
+      <c r="I73" s="2" t="n"/>
+      <c r="J73" s="2" t="n"/>
+      <c r="K73" s="2" t="n"/>
+      <c r="L73" s="2" t="n"/>
+      <c r="M73" s="2" t="n"/>
+      <c r="N73" s="2" t="n"/>
+      <c r="O73" s="2" t="n"/>
+      <c r="P73" s="2" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q73" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R73" s="3" t="n"/>
-      <c r="S73" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T73" s="3" t="n"/>
-      <c r="U73" s="3" t="n"/>
-      <c r="V73" s="3" t="inlineStr">
+      <c r="Q73" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R73" s="2" t="n"/>
+      <c r="S73" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T73" s="2" t="n"/>
+      <c r="U73" s="2" t="n"/>
+      <c r="V73" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4635,125 +4635,125 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="A75" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000187</t>
         </is>
       </c>
-      <c r="B75" s="3" t="inlineStr">
+      <c r="B75" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="C75" s="3" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>A diagnosis that involves the conclusion that a person meets pre-set criteria for psychosis as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D75" s="3" t="inlineStr">
+      <c r="D75" s="2" t="inlineStr">
         <is>
           <t>diagnosis</t>
         </is>
       </c>
-      <c r="E75" s="3" t="n"/>
-      <c r="F75" s="3" t="n"/>
-      <c r="G75" s="3" t="n"/>
-      <c r="H75" s="3" t="n"/>
-      <c r="I75" s="3" t="n"/>
-      <c r="J75" s="3" t="n"/>
-      <c r="K75" s="3" t="n"/>
-      <c r="L75" s="3" t="n"/>
-      <c r="M75" s="3" t="n"/>
-      <c r="N75" s="3" t="n"/>
-      <c r="O75" s="3" t="n"/>
-      <c r="P75" s="3" t="inlineStr">
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
+      <c r="G75" s="2" t="n"/>
+      <c r="H75" s="2" t="n"/>
+      <c r="I75" s="2" t="n"/>
+      <c r="J75" s="2" t="n"/>
+      <c r="K75" s="2" t="n"/>
+      <c r="L75" s="2" t="n"/>
+      <c r="M75" s="2" t="n"/>
+      <c r="N75" s="2" t="n"/>
+      <c r="O75" s="2" t="n"/>
+      <c r="P75" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q75" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R75" s="3" t="n"/>
-      <c r="S75" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T75" s="3" t="n"/>
-      <c r="U75" s="3" t="n"/>
-      <c r="V75" s="3" t="inlineStr">
+      <c r="Q75" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R75" s="2" t="n"/>
+      <c r="S75" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T75" s="2" t="n"/>
+      <c r="U75" s="2" t="n"/>
+      <c r="V75" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
+      <c r="A76" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000098</t>
         </is>
       </c>
-      <c r="B76" s="3" t="inlineStr">
+      <c r="B76" s="2" t="inlineStr">
         <is>
           <t>psychosis experience</t>
         </is>
       </c>
-      <c r="C76" s="3" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>A symptom that involves a person experiencing delusions, hallucinations, conceptual disorganisation or disorganised speech or behaviour</t>
         </is>
       </c>
-      <c r="D76" s="3" t="inlineStr">
+      <c r="D76" s="2" t="inlineStr">
         <is>
           <t>symptom</t>
         </is>
       </c>
-      <c r="E76" s="3" t="n"/>
-      <c r="F76" s="3" t="n"/>
-      <c r="G76" s="3" t="n"/>
-      <c r="H76" s="3" t="n"/>
-      <c r="I76" s="3" t="inlineStr">
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
+      <c r="I76" s="2" t="inlineStr">
         <is>
           <t>Hallucinatory behaviour is an example of disorganised behaviour</t>
         </is>
       </c>
-      <c r="J76" s="3" t="n"/>
-      <c r="K76" s="3" t="inlineStr">
+      <c r="J76" s="2" t="n"/>
+      <c r="K76" s="2" t="inlineStr">
         <is>
           <t>https://www.mind.org.uk/information-support/types-of-mental-health-problems/psychosis/about-psychosis/
 DSM V</t>
         </is>
       </c>
-      <c r="L76" s="3" t="n"/>
-      <c r="M76" s="3" t="n"/>
-      <c r="N76" s="3" t="n"/>
-      <c r="O76" s="3" t="n"/>
-      <c r="P76" s="3" t="inlineStr">
+      <c r="L76" s="2" t="n"/>
+      <c r="M76" s="2" t="n"/>
+      <c r="N76" s="2" t="n"/>
+      <c r="O76" s="2" t="n"/>
+      <c r="P76" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q76" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R76" s="3" t="n"/>
-      <c r="S76" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T76" s="3" t="n"/>
-      <c r="U76" s="3" t="inlineStr">
+      <c r="Q76" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R76" s="2" t="n"/>
+      <c r="S76" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T76" s="2" t="n"/>
+      <c r="U76" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V76" s="3" t="inlineStr">
+      <c r="V76" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -4988,60 +4988,60 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000099</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B81" s="2" t="inlineStr">
         <is>
           <t>schizophrenia diagnosis</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>A psychosis diagnosis that involves the conclusion that a person meets pre-set criteria for schizophrenia as a result of a diagnostic process.</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D81" s="2" t="inlineStr">
         <is>
           <t>psychosis diagnosis</t>
         </is>
       </c>
-      <c r="E81" s="3" t="n"/>
-      <c r="F81" s="3" t="n"/>
-      <c r="G81" s="3" t="n"/>
-      <c r="H81" s="3" t="n"/>
-      <c r="I81" s="3" t="n"/>
-      <c r="J81" s="3" t="n"/>
-      <c r="K81" s="3" t="n"/>
-      <c r="L81" s="3" t="n"/>
-      <c r="M81" s="3" t="n"/>
-      <c r="N81" s="3" t="n"/>
-      <c r="O81" s="3" t="n"/>
-      <c r="P81" s="3" t="inlineStr">
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
+      <c r="I81" s="2" t="n"/>
+      <c r="J81" s="2" t="n"/>
+      <c r="K81" s="2" t="n"/>
+      <c r="L81" s="2" t="n"/>
+      <c r="M81" s="2" t="n"/>
+      <c r="N81" s="2" t="n"/>
+      <c r="O81" s="2" t="n"/>
+      <c r="P81" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q81" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R81" s="3" t="n"/>
-      <c r="S81" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T81" s="3" t="n"/>
-      <c r="U81" s="3" t="inlineStr">
+      <c r="Q81" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R81" s="2" t="n"/>
+      <c r="S81" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T81" s="2" t="n"/>
+      <c r="U81" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V81" s="3" t="inlineStr">
+      <c r="V81" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -5085,116 +5085,116 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
+      <c r="A83" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000100</t>
         </is>
       </c>
-      <c r="B83" s="3" t="inlineStr">
+      <c r="B83" s="2" t="inlineStr">
         <is>
           <t>standard deviation human age</t>
         </is>
       </c>
-      <c r="C83" s="3" t="inlineStr">
+      <c r="C83" s="2" t="inlineStr">
         <is>
           <t>Standard deviation of human age in a population.</t>
         </is>
       </c>
-      <c r="D83" s="3" t="inlineStr">
+      <c r="D83" s="2" t="inlineStr">
         <is>
           <t>standard deviation</t>
         </is>
       </c>
-      <c r="E83" s="3" t="n"/>
-      <c r="F83" s="3" t="n"/>
-      <c r="G83" s="3" t="n"/>
-      <c r="H83" s="3" t="n"/>
-      <c r="I83" s="3" t="n"/>
-      <c r="J83" s="3" t="n"/>
-      <c r="K83" s="3" t="n"/>
-      <c r="L83" s="3" t="n"/>
-      <c r="M83" s="3" t="n"/>
-      <c r="N83" s="3" t="n"/>
-      <c r="O83" s="3" t="n"/>
-      <c r="P83" s="3" t="inlineStr">
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="2" t="n"/>
+      <c r="H83" s="2" t="n"/>
+      <c r="I83" s="2" t="n"/>
+      <c r="J83" s="2" t="n"/>
+      <c r="K83" s="2" t="n"/>
+      <c r="L83" s="2" t="n"/>
+      <c r="M83" s="2" t="n"/>
+      <c r="N83" s="2" t="n"/>
+      <c r="O83" s="2" t="n"/>
+      <c r="P83" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q83" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R83" s="3" t="n"/>
-      <c r="S83" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T83" s="3" t="n"/>
-      <c r="U83" s="3" t="inlineStr">
+      <c r="Q83" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R83" s="2" t="n"/>
+      <c r="S83" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T83" s="2" t="n"/>
+      <c r="U83" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V83" s="3" t="inlineStr">
+      <c r="V83" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
+      <c r="A84" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000168</t>
         </is>
       </c>
-      <c r="B84" s="3" t="inlineStr">
+      <c r="B84" s="2" t="inlineStr">
         <is>
           <t>substance use severity</t>
         </is>
       </c>
-      <c r="C84" s="3" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>A data item about the frequency of a substance use behaviour or the amount of psychoactive substance ingested into the body.</t>
         </is>
       </c>
-      <c r="D84" s="3" t="inlineStr">
+      <c r="D84" s="2" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="E84" s="3" t="n"/>
-      <c r="F84" s="3" t="n"/>
-      <c r="G84" s="3" t="n"/>
-      <c r="H84" s="3" t="n"/>
-      <c r="I84" s="3" t="n"/>
-      <c r="J84" s="3" t="n"/>
-      <c r="K84" s="3" t="n"/>
-      <c r="L84" s="3" t="n"/>
-      <c r="M84" s="3" t="n"/>
-      <c r="N84" s="3" t="n"/>
-      <c r="O84" s="3" t="n"/>
-      <c r="P84" s="3" t="inlineStr">
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="2" t="n"/>
+      <c r="H84" s="2" t="n"/>
+      <c r="I84" s="2" t="n"/>
+      <c r="J84" s="2" t="n"/>
+      <c r="K84" s="2" t="n"/>
+      <c r="L84" s="2" t="n"/>
+      <c r="M84" s="2" t="n"/>
+      <c r="N84" s="2" t="n"/>
+      <c r="O84" s="2" t="n"/>
+      <c r="P84" s="2" t="inlineStr">
         <is>
           <t>LSR 2</t>
         </is>
       </c>
-      <c r="Q84" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R84" s="3" t="n"/>
-      <c r="S84" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T84" s="3" t="n"/>
-      <c r="U84" s="3" t="n"/>
-      <c r="V84" s="3" t="inlineStr">
+      <c r="Q84" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R84" s="2" t="n"/>
+      <c r="S84" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T84" s="2" t="n"/>
+      <c r="U84" s="2" t="n"/>
+      <c r="V84" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -5265,103 +5265,116 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="2" t="inlineStr">
         <is>
           <t>ADDICTO:0001050</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="2" t="inlineStr">
         <is>
           <t>teenager</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>A person between 13 and 19 years of age.</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="2" t="inlineStr">
         <is>
           <t>person</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="2" t="n"/>
+      <c r="H86" s="2" t="n"/>
+      <c r="I86" s="2" t="n"/>
+      <c r="J86" s="2" t="n"/>
+      <c r="K86" s="2" t="n"/>
+      <c r="L86" s="2" t="n"/>
+      <c r="M86" s="2" t="n"/>
+      <c r="N86" s="2" t="n"/>
+      <c r="O86" s="2" t="n"/>
+      <c r="P86" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U86" t="inlineStr">
+      <c r="Q86" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R86" s="2" t="n"/>
+      <c r="S86" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T86" s="2" t="n"/>
+      <c r="U86" s="2" t="inlineStr">
         <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V86" t="inlineStr">
+      <c r="V86" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
+      <c r="A87" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000102</t>
         </is>
       </c>
-      <c r="B87" s="3" t="inlineStr">
+      <c r="B87" s="2" t="inlineStr">
         <is>
           <t>treatment-resistant clinical history</t>
         </is>
       </c>
-      <c r="C87" s="3" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>A clinical history in which a person has an inadequate response to at least two adequate trials of antipsychotic drugs.</t>
         </is>
       </c>
-      <c r="D87" s="3" t="inlineStr">
+      <c r="D87" s="2" t="inlineStr">
         <is>
           <t>clinical history</t>
         </is>
       </c>
-      <c r="E87" s="3" t="n"/>
-      <c r="F87" s="3" t="n"/>
-      <c r="G87" s="3" t="n"/>
-      <c r="H87" s="3" t="n"/>
-      <c r="I87" s="3" t="n"/>
-      <c r="J87" s="3" t="n"/>
-      <c r="K87" s="3" t="n"/>
-      <c r="L87" s="3" t="n"/>
-      <c r="M87" s="3" t="n"/>
-      <c r="N87" s="3" t="n"/>
-      <c r="O87" s="3" t="n"/>
-      <c r="P87" s="3" t="inlineStr">
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="2" t="n"/>
+      <c r="H87" s="2" t="n"/>
+      <c r="I87" s="2" t="n"/>
+      <c r="J87" s="2" t="n"/>
+      <c r="K87" s="2" t="n"/>
+      <c r="L87" s="2" t="n"/>
+      <c r="M87" s="2" t="n"/>
+      <c r="N87" s="2" t="n"/>
+      <c r="O87" s="2" t="n"/>
+      <c r="P87" s="2" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q87" s="3" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R87" s="3" t="n"/>
-      <c r="S87" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T87" s="3" t="n"/>
-      <c r="U87" s="3" t="n"/>
-      <c r="V87" s="3" t="inlineStr">
+      <c r="Q87" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R87" s="2" t="n"/>
+      <c r="S87" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T87" s="2" t="n"/>
+      <c r="U87" s="2" t="n"/>
+      <c r="V87" s="2" t="inlineStr">
         <is>
           <t>PS</t>
         </is>

--- a/Intervention population/Intervention population.xlsx
+++ b/Intervention population/Intervention population.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2003,89 +2003,81 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000149</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>dysthymia diagnosis</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>depression diagnosis</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="n"/>
-      <c r="F28" s="2" t="n"/>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>persistent depressive disorder diagnosis status</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n"/>
-      <c r="I28" s="2" t="n"/>
-      <c r="J28" s="2" t="n"/>
-      <c r="K28" s="2" t="n"/>
-      <c r="L28" s="2" t="n"/>
-      <c r="M28" s="2" t="n"/>
-      <c r="N28" s="2" t="n"/>
-      <c r="O28" s="2" t="n"/>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="n"/>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="n"/>
-      <c r="U28" s="2" t="n"/>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>BFO:0000016</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up. (axiom label in BFO2 Reference: [062-002])</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>realizable entity</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000092</t>
+          <t>GMHO:0000149</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>ethnic group membership</t>
+          <t>dysthymia diagnosis</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
+          <t>A depression diagnosis that involves the conclusion that a person meets pre-set criteria for dysthymic disorder as a result of a diagnostic process.</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>depression diagnosis</t>
         </is>
       </c>
       <c r="E29" s="2" t="n"/>
       <c r="F29" s="2" t="n"/>
-      <c r="G29" s="2" t="n"/>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>persistent depressive disorder diagnosis status</t>
+        </is>
+      </c>
       <c r="H29" s="2" t="n"/>
       <c r="I29" s="2" t="n"/>
       <c r="J29" s="2" t="n"/>
@@ -2096,7 +2088,7 @@
       <c r="O29" s="2" t="n"/>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -2111,11 +2103,7 @@
         </is>
       </c>
       <c r="T29" s="2" t="n"/>
-      <c r="U29" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
+      <c r="U29" s="2" t="n"/>
       <c r="V29" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2125,22 +2113,22 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>OBI:0500028</t>
+          <t>GMHO:0000092</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>exclusion criterion</t>
+          <t>ethnic group membership</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
+          <t>A self-identity as belonging to a group or groups whose members have a common heritage that is real or presumed such as common culture, language, religion, behaviour or biological trait.</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>eligibility criterion</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E30" s="2" t="n"/>
@@ -2156,7 +2144,7 @@
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -2171,7 +2159,11 @@
         </is>
       </c>
       <c r="T30" s="2" t="n"/>
-      <c r="U30" s="2" t="n"/>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2181,22 +2173,22 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015106</t>
+          <t>OBI:0500028</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>female biological sex</t>
+          <t>exclusion criterion</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>A biological sex associated with the ability to produce female gametes.</t>
+          <t>An eligibility criterion which defines and states a condition which, if met, makes an entity unsuitable for a given task or participation in a given process.</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>biological sex</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E31" s="2" t="n"/>
@@ -2212,7 +2204,7 @@
       <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -2235,102 +2227,98 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015106</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>female biological sex</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>A biological sex associated with the ability to produce female gametes.</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="n"/>
+      <c r="F32" s="2" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
+      <c r="I32" s="2" t="n"/>
+      <c r="J32" s="2" t="n"/>
+      <c r="K32" s="2" t="n"/>
+      <c r="L32" s="2" t="n"/>
+      <c r="M32" s="2" t="n"/>
+      <c r="N32" s="2" t="n"/>
+      <c r="O32" s="2" t="n"/>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="n"/>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="n"/>
+      <c r="U32" s="2" t="n"/>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>BCIO:015327</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>female biological sex population statistic</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>The aggregate of female biological sex in a population.</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>GMHO:0000093</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
-        <is>
-          <t>female gender</t>
-        </is>
-      </c>
-      <c r="C33" s="2" t="inlineStr">
-        <is>
-          <t>A gender identity as being female.</t>
-        </is>
-      </c>
-      <c r="D33" s="2" t="inlineStr">
-        <is>
-          <t>gender identity</t>
-        </is>
-      </c>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="inlineStr">
-        <is>
-          <t>LSR 3</t>
-        </is>
-      </c>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R33" s="2" t="n"/>
-      <c r="S33" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T33" s="2" t="n"/>
-      <c r="U33" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
-      <c r="V33" s="2" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
@@ -2339,22 +2327,22 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000094</t>
+          <t>GMHO:0000093</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>first psychosis experience history</t>
+          <t>female gender</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
+          <t>A gender identity as being female.</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>clinical history of psychosis experience</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="E34" s="2" t="n"/>
@@ -2385,7 +2373,11 @@
         </is>
       </c>
       <c r="T34" s="2" t="n"/>
-      <c r="U34" s="2" t="n"/>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2395,22 +2387,22 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000095</t>
+          <t>GMHO:0000094</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>gender identity</t>
+          <t>first psychosis experience history</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
+          <t>A clinical history in which there is a history of only one period of psychosis experience.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>clinical history of psychosis experience</t>
         </is>
       </c>
       <c r="E35" s="2" t="n"/>
@@ -2426,7 +2418,7 @@
       <c r="O35" s="2" t="n"/>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>LSR 2; LSR 3</t>
+          <t>LSR 3</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -2441,11 +2433,7 @@
         </is>
       </c>
       <c r="T35" s="2" t="n"/>
-      <c r="U35" s="2" t="inlineStr">
-        <is>
-          <t>Reused - but no ID yet</t>
-        </is>
-      </c>
+      <c r="U35" s="2" t="n"/>
       <c r="V35" s="2" t="inlineStr">
         <is>
           <t>PS</t>
@@ -2455,22 +2443,22 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015015</t>
+          <t>GMHO:0000095</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>human age</t>
+          <t>gender identity</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
+          <t>A self-identity as having a particular gender, which may or may not correspond with sex assigned at birth.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>personal attribute</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="E36" s="2" t="n"/>
@@ -2486,7 +2474,7 @@
       <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
+          <t>LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -2503,229 +2491,233 @@
       <c r="T36" s="2" t="n"/>
       <c r="U36" s="2" t="inlineStr">
         <is>
+          <t>Reused - but no ID yet</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015015</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>human age</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>A personal attribute that is a time quality inhering in a person by virtue of how long the person has existed.</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n"/>
+      <c r="F37" s="2" t="n"/>
+      <c r="G37" s="2" t="n"/>
+      <c r="H37" s="2" t="n"/>
+      <c r="I37" s="2" t="n"/>
+      <c r="J37" s="2" t="n"/>
+      <c r="K37" s="2" t="n"/>
+      <c r="L37" s="2" t="n"/>
+      <c r="M37" s="2" t="n"/>
+      <c r="N37" s="2" t="n"/>
+      <c r="O37" s="2" t="n"/>
+      <c r="P37" s="2" t="inlineStr">
+        <is>
+          <t>LSR 1; LSR 2; LSR 3</t>
+        </is>
+      </c>
+      <c r="Q37" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="n"/>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="n"/>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
           <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
         </is>
       </c>
-      <c r="V36" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>BCIO:015415</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>human age population statistic</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>The aggregate of human age in a population.</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000067</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>human functioning</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
+      <c r="C39" s="4" t="inlineStr">
         <is>
           <t>A bodily disposition to realise processes that influence a person's life quality.</t>
         </is>
       </c>
-      <c r="D38" s="4" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="E38" s="4" t="n"/>
-      <c r="F38" s="4" t="n"/>
-      <c r="G38" s="4" t="n"/>
-      <c r="H38" s="4" t="n"/>
-      <c r="I38" s="4" t="n"/>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="K38" s="4" t="n"/>
-      <c r="L38" s="4" t="n"/>
-      <c r="M38" s="4" t="n"/>
-      <c r="N38" s="4" t="n"/>
-      <c r="O38" s="4" t="n"/>
-      <c r="P38" s="4" t="inlineStr">
+      <c r="E39" s="4" t="n"/>
+      <c r="F39" s="4" t="n"/>
+      <c r="G39" s="4" t="n"/>
+      <c r="H39" s="4" t="n"/>
+      <c r="I39" s="4" t="n"/>
+      <c r="J39" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="K39" s="4" t="n"/>
+      <c r="L39" s="4" t="n"/>
+      <c r="M39" s="4" t="n"/>
+      <c r="N39" s="4" t="n"/>
+      <c r="O39" s="4" t="n"/>
+      <c r="P39" s="4" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q38" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R38" s="4" t="n"/>
-      <c r="S38" s="4" t="inlineStr">
+      <c r="Q39" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R39" s="4" t="n"/>
+      <c r="S39" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T38" s="4" t="n"/>
-      <c r="U38" s="4" t="n"/>
-      <c r="V38" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="T39" s="4" t="n"/>
+      <c r="U39" s="4" t="n"/>
+      <c r="V39" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>BCIO:041000</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>An object aggregate that consists of two or more people.</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>object aggregate</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V39" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>MS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>OBI:0500027</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>inclusion criterion</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>eligibility criterion</t>
-        </is>
-      </c>
-      <c r="E40" s="2" t="n"/>
-      <c r="F40" s="2" t="n"/>
-      <c r="G40" s="2" t="n"/>
-      <c r="H40" s="2" t="n"/>
-      <c r="I40" s="2" t="n"/>
-      <c r="J40" s="2" t="n"/>
-      <c r="K40" s="2" t="n"/>
-      <c r="L40" s="2" t="n"/>
-      <c r="M40" s="2" t="n"/>
-      <c r="N40" s="2" t="n"/>
-      <c r="O40" s="2" t="n"/>
-      <c r="P40" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1; LSR 2; LSR 3</t>
-        </is>
-      </c>
-      <c r="Q40" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R40" s="2" t="n"/>
-      <c r="S40" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T40" s="2" t="n"/>
-      <c r="U40" s="2" t="n"/>
-      <c r="V40" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>IAO:0000030</t>
+          <t>OBI:0500027</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>information content entity</t>
+          <t>inclusion criterion</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>A generically dependent continuant that is about some thing.</t>
+          <t xml:space="preserve">An eligibility criterion which defines and states a condition which, if met, makes an entity suitable for a given task or participation in a given process. </t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>generically dependent continuant</t>
+          <t>eligibility criterion</t>
         </is>
       </c>
       <c r="E41" s="2" t="n"/>
@@ -2733,11 +2725,7 @@
       <c r="G41" s="2" t="n"/>
       <c r="H41" s="2" t="n"/>
       <c r="I41" s="2" t="n"/>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
+      <c r="J41" s="2" t="n"/>
       <c r="K41" s="2" t="n"/>
       <c r="L41" s="2" t="n"/>
       <c r="M41" s="2" t="n"/>
@@ -2745,7 +2733,7 @@
       <c r="O41" s="2" t="n"/>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>LSR 1</t>
+          <t>LSR 1; LSR 2; LSR 3</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -2770,22 +2758,22 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>GMHO:0000150</t>
+          <t>IAO:0000030</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>insomnia symptom severity</t>
+          <t>information content entity</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>Symptom severity that is associated with insomnia.</t>
+          <t>A generically dependent continuant that is about some thing.</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>symptom severity</t>
+          <t>generically dependent continuant</t>
         </is>
       </c>
       <c r="E42" s="2" t="n"/>
@@ -2793,7 +2781,11 @@
       <c r="G42" s="2" t="n"/>
       <c r="H42" s="2" t="n"/>
       <c r="I42" s="2" t="n"/>
-      <c r="J42" s="2" t="n"/>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
       <c r="K42" s="2" t="n"/>
       <c r="L42" s="2" t="n"/>
       <c r="M42" s="2" t="n"/>
@@ -2801,7 +2793,7 @@
       <c r="O42" s="2" t="n"/>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>LSR 2</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -2824,128 +2816,128 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>GMHO:0000150</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>insomnia symptom severity</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>Symptom severity that is associated with insomnia.</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>symptom severity</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n"/>
+      <c r="F43" s="2" t="n"/>
+      <c r="G43" s="2" t="n"/>
+      <c r="H43" s="2" t="n"/>
+      <c r="I43" s="2" t="n"/>
+      <c r="J43" s="2" t="n"/>
+      <c r="K43" s="2" t="n"/>
+      <c r="L43" s="2" t="n"/>
+      <c r="M43" s="2" t="n"/>
+      <c r="N43" s="2" t="n"/>
+      <c r="O43" s="2" t="n"/>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>LSR 2</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="n"/>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="n"/>
+      <c r="U43" s="2" t="n"/>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>BCIO:015095</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>intervention population</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>A human population who are exposed to an intervention.</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>human population</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>LSR 3</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
         <is>
           <t>GMHO:0000151</t>
         </is>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>major depressive disorder diagnosis</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A depression diagnosis that involves the conclusion that a person meets pre-set criteria for major depressive disorder  as a result of a diagnostic process.
 </t>
         </is>
       </c>
-      <c r="D44" s="2" t="inlineStr">
+      <c r="D45" s="2" t="inlineStr">
         <is>
           <t>depression diagnosis</t>
-        </is>
-      </c>
-      <c r="E44" s="2" t="n"/>
-      <c r="F44" s="2" t="n"/>
-      <c r="G44" s="2" t="n"/>
-      <c r="H44" s="2" t="n"/>
-      <c r="I44" s="2" t="n"/>
-      <c r="J44" s="2" t="n"/>
-      <c r="K44" s="2" t="n"/>
-      <c r="L44" s="2" t="n"/>
-      <c r="M44" s="2" t="n"/>
-      <c r="N44" s="2" t="n"/>
-      <c r="O44" s="2" t="n"/>
-      <c r="P44" s="2" t="inlineStr">
-        <is>
-          <t>LSR 1</t>
-        </is>
-      </c>
-      <c r="Q44" s="2" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R44" s="2" t="n"/>
-      <c r="S44" s="2" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="T44" s="2" t="n"/>
-      <c r="U44" s="2" t="n"/>
-      <c r="V44" s="2" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:015107</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>male biological sex</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>A biological sex associated with the ability to produce male gametes.</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="inlineStr">
-        <is>
-          <t>biological sex</t>
         </is>
       </c>
       <c r="E45" s="2" t="n"/>
@@ -2961,7 +2953,7 @@
       <c r="O45" s="2" t="n"/>
       <c r="P45" s="2" t="inlineStr">
         <is>
-          <t>LSR 3</t>
+          <t>LSR 1</t>
         </is>
       </c>
       <c r="Q45" s="2" t="inlineStr">
@@ -2984,294 +2976,294 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>BCIO:015416</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>mean human age population statistic</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>The mean of human age in a population.</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>human age population statistic</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LSR 1; LSR 2; LSR 3; </t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>PS; MS</t>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015107</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>male biological sex</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>A biological sex associated with the ability to produce male gametes.</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>biological sex</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n"/>
+      <c r="F46" s="2" t="n"/>
+      <c r="G46" s="2" t="n"/>
+      <c r="H46" s="2" t="n"/>
+      <c r="I46" s="2" t="n"/>
+      <c r="J46" s="2" t="n"/>
+      <c r="K46" s="2" t="n"/>
+      <c r="L46" s="2" t="n"/>
+      <c r="M46" s="2" t="n"/>
+      <c r="N46" s="2" t="n"/>
+      <c r="O46" s="2" t="n"/>
+      <c r="P46" s="2" t="inlineStr">
+        <is>
+          <t>LSR 3</t>
+        </is>
+      </c>
+      <c r="Q46" s="2" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R46" s="2" t="n"/>
+      <c r="S46" s="2" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="T46" s="2" t="n"/>
+      <c r="U46" s="2" t="n"/>
+      <c r="V46" s="2" t="inlineStr">
+        <is>
+          <t>PS</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>BCIO:015416</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mean human age population statistic</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>The mean of human age in a population.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>human age population statistic</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LSR 1; LSR 2; LSR 3; </t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>external parent class needs to be represented on Github spreadsheet for external entities</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>PS; MS</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>IAO:0000109</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>A measurement datum is an information content entity that is a recording of the output of a measurement such as produced by a device.</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>data item</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000209</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>measurement datum at baseline</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
+      <c r="C49" s="4" t="inlineStr">
         <is>
           <t>Measurement datum that was recorded as baseline data in a study.</t>
         </is>
       </c>
-      <c r="D48" s="4" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>measurement datum</t>
         </is>
       </c>
-      <c r="E48" s="4" t="n"/>
-      <c r="F48" s="4" t="n"/>
-      <c r="G48" s="4" t="n"/>
-      <c r="H48" s="4" t="n"/>
-      <c r="I48" s="4" t="n"/>
-      <c r="J48" s="4" t="n"/>
-      <c r="K48" s="4" t="n"/>
-      <c r="L48" s="4" t="n"/>
-      <c r="M48" s="4" t="n"/>
-      <c r="N48" s="4" t="n"/>
-      <c r="O48" s="4" t="n"/>
-      <c r="P48" s="4" t="inlineStr">
+      <c r="E49" s="4" t="n"/>
+      <c r="F49" s="4" t="n"/>
+      <c r="G49" s="4" t="n"/>
+      <c r="H49" s="4" t="n"/>
+      <c r="I49" s="4" t="n"/>
+      <c r="J49" s="4" t="n"/>
+      <c r="K49" s="4" t="n"/>
+      <c r="L49" s="4" t="n"/>
+      <c r="M49" s="4" t="n"/>
+      <c r="N49" s="4" t="n"/>
+      <c r="O49" s="4" t="n"/>
+      <c r="P49" s="4" t="inlineStr">
         <is>
           <t>LSR 1</t>
         </is>
       </c>
-      <c r="Q48" s="4" t="inlineStr">
-        <is>
-          <t>Intervention population</t>
-        </is>
-      </c>
-      <c r="R48" s="4" t="n"/>
-      <c r="S48" s="4" t="inlineStr">
+      <c r="Q49" s="4" t="inlineStr">
+        <is>
+          <t>Intervention population</t>
+        </is>
+      </c>
+      <c r="R49" s="4" t="n"/>
+      <c r="S49" s="4" t="inlineStr">
         <is>
           <t>Published</t>
         </is>
       </c>
-      <c r="T48" s="4" t="n"/>
-      <c r="U48" s="4" t="n"/>
-      <c r="V48" s="4" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="T49" s="4" t="n"/>
+      <c r="U49" s="4" t="n"/>
+      <c r="V49" s="4" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>OBCS:0000011</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B50" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>An information content entity that represents a type of scale on which a variable is measured, including nominal, ordinal, interval, ratio.</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>information content entity</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>PS</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>PS</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="inlineStr">
         <is>
           <t>GMHO:0000212</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>measurement scale at baseline</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
+      <c r="C51" s="4" t="inlineStr">
         <is>
           <t>A measurement scale used to measure baseline data in a study.</t>
         </is>
       </c>
-      <c r="D50" s="4" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>measurement scale</t>
         </is>
       </c>
-      <c r="E50" s="4" t="n"/>
-      <c r="F50" s="4" t="n"/>
-      <c r="G50" s="4" t="n"/>
-      <c r="H50" s="4" t="n"/>
-      <c r="I50" s="4" t="n"/>
-      <c r="J50" s="4" t="n"/>
-      <c r="K50" s="4" t="n"/>
-      <c r="L50" s="4" t="n"/>
-      <c r="M50" s="4" t="n"/>
-      <c r="N50" s="4" t="n"/>
-      <c r="O50" s="4" t="n"/>
-      <c r="P50" s="4" t="inlineStr">
+      <c r="E51" s="4" t="n"/>
+      <c r="F51" s="4" t="n"/>
+      <c r="G51" s="4" t="n"/>
+      <c r="H51" s=